--- a/static/data/source/current_employment.xlsx
+++ b/static/data/source/current_employment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="21075" windowHeight="10245" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="21075" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Employment_Table" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="124">
   <si>
     <t>Alabama</t>
   </si>
@@ -395,40 +395,7 @@
     <t>US gov</t>
   </si>
   <si>
-    <t>Employment March 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90920000        State Government        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90921611        State Government Educational Services   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90922000        State Government Excluding Educational Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90922622        State Government Hospitals      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90922991        State Government excluding Educational Services and Hospitals   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90930000        Local Government        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS38000009092000001 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS38000009093000001 </t>
-  </si>
-  <si>
-    <t>SMS38000009092161101</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>local</t>
+    <t>Employment April 2016</t>
   </si>
 </sst>
 </file>
@@ -2912,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2974,15 +2941,15 @@
       </c>
       <c r="D3" s="1">
         <f>+Unemployment!F2</f>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="E3" s="1">
         <f>+Total_Employment!F2</f>
-        <v>1.9876287489714262</v>
+        <v>1.9062050799090846</v>
       </c>
       <c r="F3" s="1">
         <f>+Government_Employment!F2</f>
-        <v>0.55097673147852522</v>
+        <v>0.48245414409904264</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2994,19 +2961,19 @@
       </c>
       <c r="C4" s="1">
         <f>+Unemployment!E3</f>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D4" s="1">
         <f>+Unemployment!F3</f>
-        <v>0.10000000000000053</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f>+Total_Employment!F3</f>
-        <v>1.2189453024120667</v>
+        <v>1.345707656612527</v>
       </c>
       <c r="F4" s="1">
         <f>+Government_Employment!F3</f>
-        <v>-0.31889449906988832</v>
+        <v>-0.37105751391466324</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3026,11 +2993,11 @@
       </c>
       <c r="E5" s="1">
         <f>+Total_Employment!F4</f>
-        <v>-0.52941176470588935</v>
+        <v>-1.0288065843621408</v>
       </c>
       <c r="F5" s="1">
         <f>+Government_Employment!F4</f>
-        <v>-0.36585365853658569</v>
+        <v>-0.60975609756097615</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -3042,19 +3009,19 @@
       </c>
       <c r="C6" s="1">
         <f>+Unemployment!E5</f>
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D6" s="1">
         <f>+Unemployment!F5</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E6" s="1">
         <f>+Total_Employment!F5</f>
-        <v>3.1235645383555388</v>
+        <v>3.111858704793935</v>
       </c>
       <c r="F6" s="1">
         <f>+Government_Employment!F5</f>
-        <v>-0.41453304072178732</v>
+        <v>-0.24431956999755311</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3066,19 +3033,19 @@
       </c>
       <c r="C7" s="1">
         <f>+Unemployment!E6</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D7" s="1">
         <f>+Unemployment!F6</f>
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="E7" s="1">
         <f>+Total_Employment!F6</f>
-        <v>2.1704649803823362</v>
+        <v>2.1001750145845266</v>
       </c>
       <c r="F7" s="1">
         <f>+Government_Employment!F6</f>
-        <v>0.14117647058824456</v>
+        <v>0.23540489642184248</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3090,19 +3057,19 @@
       </c>
       <c r="C8" s="1">
         <f>+Unemployment!E7</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="D8" s="1">
         <f>+Unemployment!F7</f>
-        <v>-1.1999999999999993</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="E8" s="1">
         <f>+Total_Employment!F7</f>
-        <v>2.6465242356966234</v>
+        <v>2.825883637870108</v>
       </c>
       <c r="F8" s="1">
         <f>+Government_Employment!F7</f>
-        <v>1.9145802650957222</v>
+        <v>1.9905988146331488</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3114,19 +3081,19 @@
       </c>
       <c r="C9" s="1">
         <f>+Unemployment!E8</f>
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D9" s="1">
         <f>+Unemployment!F8</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="E9" s="1">
         <f>+Total_Employment!F8</f>
-        <v>2.8137756113026491</v>
+        <v>2.680020585091647</v>
       </c>
       <c r="F9" s="1">
         <f>+Government_Employment!F8</f>
-        <v>2.2254475084663827</v>
+        <v>2.3631540872920187</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3142,15 +3109,15 @@
       </c>
       <c r="D10" s="1">
         <f>+Unemployment!F9</f>
-        <v>-0.20000000000000018</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="E10" s="1">
         <f>+Total_Employment!F9</f>
-        <v>0.89788100083803002</v>
+        <v>1.2038090674971524</v>
       </c>
       <c r="F10" s="1">
         <f>+Government_Employment!F9</f>
-        <v>-0.58528428093644891</v>
+        <v>-0.29337803855825628</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3162,19 +3129,19 @@
       </c>
       <c r="C11" s="1">
         <f>+Unemployment!E10</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D11" s="1">
         <f>+Unemployment!F10</f>
-        <v>-0.5</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="E11" s="1">
         <f>+Total_Employment!F10</f>
-        <v>2.622142536978922</v>
+        <v>3.7437979251240483</v>
       </c>
       <c r="F11" s="1">
         <f>+Government_Employment!F10</f>
-        <v>-1.6591251885369473</v>
+        <v>1.8779342723004522</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3186,19 +3153,19 @@
       </c>
       <c r="C12" s="1">
         <f>+Unemployment!E11</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D12" s="1">
         <f>+Unemployment!F11</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="E12" s="1">
         <f>+Total_Employment!F11</f>
-        <v>1.2947946638765417</v>
+        <v>1.541274817136884</v>
       </c>
       <c r="F12" s="1">
         <f>+Government_Employment!F11</f>
-        <v>0.8413967185527893</v>
+        <v>0.9671993271656687</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3210,19 +3177,19 @@
       </c>
       <c r="C13" s="1">
         <f>+Unemployment!E12</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D13" s="1">
         <f>+Unemployment!F12</f>
-        <v>-0.69999999999999929</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="E13" s="1">
         <f>+Total_Employment!F12</f>
-        <v>2.9234512446191241</v>
+        <v>3.1696017137021526</v>
       </c>
       <c r="F13" s="1">
         <f>+Government_Employment!F12</f>
-        <v>0.83472454090149917</v>
+        <v>0.94531974050047207</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3238,15 +3205,15 @@
       </c>
       <c r="D14" s="1">
         <f>+Unemployment!F13</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E14" s="1">
         <f>+Total_Employment!F13</f>
-        <v>3.0739400818140972</v>
+        <v>3.3282117952960766</v>
       </c>
       <c r="F14" s="1">
         <f>+Government_Employment!F13</f>
-        <v>1.090319728893463</v>
+        <v>1.0754272245138585</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3258,19 +3225,19 @@
       </c>
       <c r="C15" s="1">
         <f>+Unemployment!E14</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D15" s="1">
         <f>+Unemployment!F14</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E15" s="1">
         <f>+Total_Employment!F14</f>
-        <v>2.9319041614123575</v>
+        <v>1.9876952200662545</v>
       </c>
       <c r="F15" s="1">
         <f>+Government_Employment!F14</f>
-        <v>0.39682539682539542</v>
+        <v>-1.6653449643140306</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3282,19 +3249,19 @@
       </c>
       <c r="C16" s="1">
         <f>+Unemployment!E15</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D16" s="1">
         <f>+Unemployment!F15</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.5</v>
       </c>
       <c r="E16" s="1">
         <f>+Total_Employment!F15</f>
-        <v>3.5938903863432126</v>
+        <v>3.8415545590433586</v>
       </c>
       <c r="F16" s="1">
         <f>+Government_Employment!F15</f>
-        <v>2.5316455696202445</v>
+        <v>2.1061499578769904</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3306,19 +3273,19 @@
       </c>
       <c r="C17" s="1">
         <f>+Unemployment!E16</f>
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D17" s="1">
         <f>+Unemployment!F16</f>
-        <v>0.59999999999999964</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="E17" s="1">
         <f>+Total_Employment!F16</f>
-        <v>1.3475906967330475</v>
+        <v>1.1354843050836116</v>
       </c>
       <c r="F17" s="1">
         <f>+Government_Employment!F16</f>
-        <v>0.57950018109380608</v>
+        <v>0.68782430312537279</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3330,19 +3297,19 @@
       </c>
       <c r="C18" s="1">
         <f>+Unemployment!E17</f>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D18" s="1">
         <f>+Unemployment!F17</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="E18" s="1">
         <f>+Total_Employment!F17</f>
-        <v>1.2882500993509183</v>
+        <v>1.6303988359018362</v>
       </c>
       <c r="F18" s="1">
         <f>+Government_Employment!F17</f>
-        <v>1.0595714622086083</v>
+        <v>0.63469675599436837</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3354,19 +3321,19 @@
       </c>
       <c r="C19" s="1">
         <f>+Unemployment!E18</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D19" s="1">
         <f>+Unemployment!F18</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="E19" s="1">
         <f>+Total_Employment!F18</f>
-        <v>0.98070636497662456</v>
+        <v>1.2813941568426523</v>
       </c>
       <c r="F19" s="1">
         <f>+Government_Employment!F18</f>
-        <v>-3.9154267815189048E-2</v>
+        <v>0.78369905956112706</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3378,19 +3345,19 @@
       </c>
       <c r="C20" s="1">
         <f>+Unemployment!E19</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D20" s="1">
         <f>+Unemployment!F19</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="E20" s="1">
         <f>+Total_Employment!F19</f>
-        <v>0</v>
+        <v>-4.2976864121480052E-2</v>
       </c>
       <c r="F20" s="1">
         <f>+Government_Employment!F19</f>
-        <v>-0.3111629716063824</v>
+        <v>-0.5445352003111803</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3402,19 +3369,19 @@
       </c>
       <c r="C21" s="1">
         <f>+Unemployment!E20</f>
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="D21" s="1">
         <f>+Unemployment!F20</f>
-        <v>0.29999999999999982</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <f>+Total_Employment!F20</f>
-        <v>1.9717858287912726</v>
+        <v>1.8663101604278198</v>
       </c>
       <c r="F21" s="1">
         <f>+Government_Employment!F20</f>
-        <v>-1.7862738953306367</v>
+        <v>-1.1908492635537504</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3426,19 +3393,19 @@
       </c>
       <c r="C22" s="1">
         <f>+Unemployment!E21</f>
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D22" s="1">
         <f>+Unemployment!F21</f>
-        <v>-0.5</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E22" s="1">
         <f>+Total_Employment!F21</f>
-        <v>-0.66288354341385025</v>
+        <v>-0.61784207353827725</v>
       </c>
       <c r="F22" s="1">
         <f>+Government_Employment!F21</f>
-        <v>-0.73372057474779817</v>
+        <v>-0.88495575221237965</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3454,15 +3421,15 @@
       </c>
       <c r="D23" s="1">
         <f>+Unemployment!F22</f>
-        <v>-1.1999999999999997</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E23" s="1">
         <f>+Total_Employment!F22</f>
-        <v>0.98586920801839728</v>
+        <v>0.47556575926535061</v>
       </c>
       <c r="F23" s="1">
         <f>+Government_Employment!F22</f>
-        <v>-0.60301507537687815</v>
+        <v>-1.1055276381909507</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3474,19 +3441,19 @@
       </c>
       <c r="C24" s="1">
         <f>+Unemployment!E23</f>
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D24" s="1">
         <f>+Unemployment!F23</f>
-        <v>-0.59999999999999964</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="E24" s="1">
         <f>+Total_Employment!F23</f>
-        <v>2.362562471603824</v>
+        <v>2.1103099399750969</v>
       </c>
       <c r="F24" s="1">
         <f>+Government_Employment!F23</f>
-        <v>1.9884668920266968E-2</v>
+        <v>-0.13910969793322625</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3498,19 +3465,19 @@
       </c>
       <c r="C25" s="1">
         <f>+Unemployment!E24</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D25" s="1">
         <f>+Unemployment!F24</f>
-        <v>-0.69999999999999929</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="E25" s="1">
         <f>+Total_Employment!F24</f>
-        <v>1.7663981588032174</v>
+        <v>2.1135873472322153</v>
       </c>
       <c r="F25" s="1">
         <f>+Government_Employment!F24</f>
-        <v>0.59668508287291644</v>
+        <v>0.88672134781644374</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3526,15 +3493,15 @@
       </c>
       <c r="D26" s="1">
         <f>+Unemployment!F25</f>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="E26" s="1">
         <f>+Total_Employment!F25</f>
-        <v>2.3037764886942202</v>
+        <v>2.472670484122852</v>
       </c>
       <c r="F26" s="1">
         <f>+Government_Employment!F25</f>
-        <v>1.0768971899714153</v>
+        <v>0.90893788924422125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3546,19 +3513,19 @@
       </c>
       <c r="C27" s="1">
         <f>+Unemployment!E26</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D27" s="1">
         <f>+Unemployment!F26</f>
-        <v>0.10000000000000009</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="E27" s="1">
         <f>+Total_Employment!F26</f>
-        <v>1.0894394658232276</v>
+        <v>1.4097348856782155</v>
       </c>
       <c r="F27" s="1">
         <f>+Government_Employment!F26</f>
-        <v>0</v>
+        <v>-0.30915576694411362</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3570,19 +3537,19 @@
       </c>
       <c r="C28" s="1">
         <f>+Unemployment!E27</f>
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
         <f>+Unemployment!F27</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.5</v>
       </c>
       <c r="E28" s="1">
         <f>+Total_Employment!F27</f>
-        <v>1.8385291766586542</v>
+        <v>1.3639181649101051</v>
       </c>
       <c r="F28" s="1">
         <f>+Government_Employment!F27</f>
-        <v>0.98522167487684609</v>
+        <v>0.78028747433265266</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3594,19 +3561,19 @@
       </c>
       <c r="C29" s="1">
         <f>+Unemployment!E28</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D29" s="1">
         <f>+Unemployment!F28</f>
-        <v>-1.0999999999999996</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="E29" s="1">
         <f>+Total_Employment!F28</f>
-        <v>0.85417717869242793</v>
+        <v>1.3349645568709212</v>
       </c>
       <c r="F29" s="1">
         <f>+Government_Employment!F28</f>
-        <v>-1.6069788797061557</v>
+        <v>-1.1059907834101379</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3618,7 +3585,7 @@
       </c>
       <c r="C30" s="1">
         <f>+Unemployment!E29</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D30" s="1">
         <f>+Unemployment!F29</f>
@@ -3626,11 +3593,11 @@
       </c>
       <c r="E30" s="1">
         <f>+Total_Employment!F29</f>
-        <v>0.73704747452849606</v>
+        <v>1.2806598654221846</v>
       </c>
       <c r="F30" s="1">
         <f>+Government_Employment!F29</f>
-        <v>0.77519379844961378</v>
+        <v>0.44198895027625085</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3646,15 +3613,15 @@
       </c>
       <c r="D31" s="1">
         <f>+Unemployment!F30</f>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E31" s="1">
         <f>+Total_Employment!F30</f>
-        <v>1.6365632172437916</v>
+        <v>1.5267937331603587</v>
       </c>
       <c r="F31" s="1">
         <f>+Government_Employment!F30</f>
-        <v>1.0569583088666956</v>
+        <v>0.11695906432747094</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3674,11 +3641,11 @@
       </c>
       <c r="E32" s="1">
         <f>+Total_Employment!F31</f>
-        <v>2.8452352328284025</v>
+        <v>2.631578947368407</v>
       </c>
       <c r="F32" s="1">
         <f>+Government_Employment!F31</f>
-        <v>1.8193632228719947</v>
+        <v>1.1665586519766569</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3694,15 +3661,15 @@
       </c>
       <c r="D33" s="1">
         <f>+Unemployment!F32</f>
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="1">
         <f>+Total_Employment!F32</f>
-        <v>1.6059957173447437</v>
+        <v>1.3286499694563192</v>
       </c>
       <c r="F33" s="1">
         <f>+Government_Employment!F32</f>
-        <v>-1.8701870187018743</v>
+        <v>-2.3076923076922995</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3714,19 +3681,19 @@
       </c>
       <c r="C34" s="1">
         <f>+Unemployment!E33</f>
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="D34" s="1">
         <f>+Unemployment!F33</f>
-        <v>-1.7999999999999998</v>
+        <v>-1.2999999999999998</v>
       </c>
       <c r="E34" s="1">
         <f>+Total_Employment!F33</f>
-        <v>1.9517450454739071</v>
+        <v>1.5965021861336748</v>
       </c>
       <c r="F34" s="1">
         <f>+Government_Employment!F33</f>
-        <v>-0.14662756598240456</v>
+        <v>0.57077625570776114</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3742,15 +3709,15 @@
       </c>
       <c r="D35" s="1">
         <f>+Unemployment!F34</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="E35" s="1">
         <f>+Total_Employment!F34</f>
-        <v>0.27845036319611438</v>
+        <v>0.20583605763411228</v>
       </c>
       <c r="F35" s="1">
         <f>+Government_Employment!F34</f>
-        <v>0.57986294148657525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3762,19 +3729,19 @@
       </c>
       <c r="C36" s="1">
         <f>+Unemployment!E35</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D36" s="1">
         <f>+Unemployment!F35</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E36" s="1">
         <f>+Total_Employment!F35</f>
-        <v>1.4377153041153612</v>
+        <v>1.4495428782383968</v>
       </c>
       <c r="F36" s="1">
         <f>+Government_Employment!F35</f>
-        <v>0.43220634367375776</v>
+        <v>0.23004531195538469</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3786,19 +3753,19 @@
       </c>
       <c r="C37" s="1">
         <f>+Unemployment!E36</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D37" s="1">
         <f>+Unemployment!F36</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="E37" s="1">
         <f>+Total_Employment!F36</f>
-        <v>2.4807344686518906</v>
+        <v>2.2676059678834903</v>
       </c>
       <c r="F37" s="1">
         <f>+Government_Employment!F36</f>
-        <v>0.51467519821950525</v>
+        <v>9.724923589886636E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,19 +3777,19 @@
       </c>
       <c r="C38" s="1">
         <f>+Unemployment!E37</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D38" s="1">
         <f>+Unemployment!F37</f>
-        <v>0.39999999999999991</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="1">
         <f>+Total_Employment!F37</f>
-        <v>-4.490238611713659</v>
+        <v>-3.8469945355191326</v>
       </c>
       <c r="F38" s="1">
         <f>+Government_Employment!F37</f>
-        <v>3.3498759305210957</v>
+        <v>2.8500619578686548</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3834,19 +3801,19 @@
       </c>
       <c r="C39" s="1">
         <f>+Unemployment!E38</f>
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D39" s="1">
         <f>+Unemployment!F38</f>
-        <v>0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E39" s="1">
         <f>+Total_Employment!F38</f>
-        <v>1.7539960363764262</v>
+        <v>1.3300283024103354</v>
       </c>
       <c r="F39" s="1">
         <f>+Government_Employment!F38</f>
-        <v>1.132075471698113</v>
+        <v>0.19523623584536409</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3858,7 +3825,7 @@
       </c>
       <c r="C40" s="1">
         <f>+Unemployment!E39</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D40" s="1">
         <f>+Unemployment!F39</f>
@@ -3866,11 +3833,11 @@
       </c>
       <c r="E40" s="1">
         <f>+Total_Employment!F39</f>
-        <v>-0.36524758996466788</v>
+        <v>-0.12607312241100788</v>
       </c>
       <c r="F40" s="1">
         <f>+Government_Employment!F39</f>
-        <v>0.65733066590454303</v>
+        <v>0.45623039635016571</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3890,11 +3857,11 @@
       </c>
       <c r="E41" s="1">
         <f>+Total_Employment!F40</f>
-        <v>3.3206777355924366</v>
+        <v>3.526548171629118</v>
       </c>
       <c r="F41" s="1">
         <f>+Government_Employment!F40</f>
-        <v>2.3076923076922995</v>
+        <v>2.9087261785355922</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3906,19 +3873,19 @@
       </c>
       <c r="C42" s="1">
         <f>+Unemployment!E41</f>
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="D42" s="1">
         <f>+Unemployment!F41</f>
-        <v>-0.39999999999999947</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="E42" s="1">
         <f>+Total_Employment!F41</f>
-        <v>1.3939800712478689</v>
+        <v>0.94457897538942071</v>
       </c>
       <c r="F42" s="1">
         <f>+Government_Employment!F41</f>
-        <v>0.14196479273140827</v>
+        <v>-0.38319613965370758</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3930,19 +3897,19 @@
       </c>
       <c r="C43" s="1">
         <f>+Unemployment!E42</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="D43" s="1">
         <f>+Unemployment!F42</f>
-        <v>-0.89999999999999947</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="1">
         <f>+Total_Employment!F42</f>
-        <v>1.8253474382907919</v>
+        <v>1.0537190082644754</v>
       </c>
       <c r="F43" s="1">
         <f>+Government_Employment!F42</f>
-        <v>-0.66225165562913135</v>
+        <v>-0.49586776859503745</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3954,19 +3921,19 @@
       </c>
       <c r="C44" s="1">
         <f>+Unemployment!E43</f>
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D44" s="1">
         <f>+Unemployment!F43</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.5</v>
       </c>
       <c r="E44" s="1">
         <f>+Total_Employment!F43</f>
-        <v>2.657004830917864</v>
+        <v>2.6769989432898988</v>
       </c>
       <c r="F44" s="1">
         <f>+Government_Employment!F43</f>
-        <v>1.0030649205907016</v>
+        <v>0.89062065126634948</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3986,7 +3953,7 @@
       </c>
       <c r="E45" s="1">
         <f>+Total_Employment!F44</f>
-        <v>1.0282776349614497</v>
+        <v>0.95794392523365079</v>
       </c>
       <c r="F45" s="1">
         <f>+Government_Employment!F44</f>
@@ -4002,19 +3969,19 @@
       </c>
       <c r="C46" s="1">
         <f>+Unemployment!E45</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D46" s="1">
         <f>+Unemployment!F45</f>
-        <v>-1.5</v>
+        <v>-1.6000000000000005</v>
       </c>
       <c r="E46" s="1">
         <f>+Total_Employment!F45</f>
-        <v>3.2109129066107078</v>
+        <v>2.9206747525442722</v>
       </c>
       <c r="F46" s="1">
         <f>+Government_Employment!F45</f>
-        <v>-4.7214353163371747E-2</v>
+        <v>0.1180916391119613</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4026,19 +3993,19 @@
       </c>
       <c r="C47" s="1">
         <f>+Unemployment!E46</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D47" s="1">
         <f>+Unemployment!F46</f>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <f>+Total_Employment!F46</f>
-        <v>1.571258705622558</v>
+        <v>1.6094666519528289</v>
       </c>
       <c r="F47" s="1">
         <f>+Government_Employment!F46</f>
-        <v>1.7737998372660657</v>
+        <v>1.919843809317201</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4050,19 +4017,19 @@
       </c>
       <c r="C48" s="1">
         <f>+Unemployment!E47</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D48" s="1">
         <f>+Unemployment!F47</f>
-        <v>0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E48" s="1">
         <f>+Total_Employment!F47</f>
-        <v>3.2942898975109713</v>
+        <v>3.4379343135103602</v>
       </c>
       <c r="F48" s="1">
         <f>+Government_Employment!F47</f>
-        <v>1.8454935622317592</v>
+        <v>2.0600858369098862</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4074,19 +4041,19 @@
       </c>
       <c r="C49" s="1">
         <f>+Unemployment!E48</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D49" s="1">
         <f>+Unemployment!F48</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
       <c r="E49" s="1">
         <f>+Total_Employment!F48</f>
-        <v>1.4116137311517507</v>
+        <v>1.9280205655527016</v>
       </c>
       <c r="F49" s="1">
         <f>+Government_Employment!F48</f>
-        <v>1.0733452593917781</v>
+        <v>0.8960573476702427</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4098,19 +4065,19 @@
       </c>
       <c r="C50" s="1">
         <f>+Unemployment!E49</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D50" s="1">
         <f>+Unemployment!F49</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.69999999999999973</v>
       </c>
       <c r="E50" s="1">
         <f>+Total_Employment!F49</f>
-        <v>2.8322668624777059</v>
+        <v>2.1811334571226748</v>
       </c>
       <c r="F50" s="1">
         <f>+Government_Employment!F49</f>
-        <v>0.47914317925592531</v>
+        <v>-5.62350625615049E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4130,11 +4097,11 @@
       </c>
       <c r="E51" s="1">
         <f>+Total_Employment!F50</f>
-        <v>3.1832694763729297</v>
+        <v>3.3441724049987132</v>
       </c>
       <c r="F51" s="1">
         <f>+Government_Employment!F50</f>
-        <v>1.7719706461428286</v>
+        <v>2.1268990169794444</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4146,19 +4113,19 @@
       </c>
       <c r="C52" s="1">
         <f>+Unemployment!E51</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D52" s="1">
         <f>+Unemployment!F51</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="E52" s="1">
         <f>+Total_Employment!F51</f>
-        <v>-0.67867397546332864</v>
+        <v>-0.63960318496280033</v>
       </c>
       <c r="F52" s="1">
         <f>+Government_Employment!F51</f>
-        <v>0.39630118890356947</v>
+        <v>0.59055118110236116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4170,19 +4137,19 @@
       </c>
       <c r="C53" s="1">
         <f>+Unemployment!E52</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D53" s="1">
         <f>+Unemployment!F52</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="E53" s="1">
         <f>+Total_Employment!F52</f>
-        <v>1.7758046614872569</v>
+        <v>1.4575235980011092</v>
       </c>
       <c r="F53" s="1">
         <f>+Government_Employment!F52</f>
-        <v>0.90221897098268222</v>
+        <v>0.58465286236295544</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4194,15 +4161,15 @@
       </c>
       <c r="C54" s="1">
         <f>+Unemployment!E53</f>
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D54" s="1">
         <f>+Unemployment!F53</f>
-        <v>1.3000000000000003</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="E54" s="1">
         <f>+Total_Employment!F53</f>
-        <v>-3.1675749318801127</v>
+        <v>-3.6923076923076947</v>
       </c>
       <c r="F54" s="1">
         <f>+Government_Employment!F53</f>
@@ -4222,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4246,15 +4213,15 @@
       </c>
       <c r="C1" s="19">
         <f>Employment_Table!D3</f>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="D1" s="19">
         <f>Employment_Table!E3</f>
-        <v>1.9876287489714262</v>
+        <v>1.9062050799090846</v>
       </c>
       <c r="E1" s="19">
         <f>Employment_Table!F3</f>
-        <v>0.55097673147852522</v>
+        <v>0.48245414409904264</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -4284,19 +4251,19 @@
       </c>
       <c r="B3" s="21">
         <f>Employment_Table!C38</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C3" s="23">
         <f>Employment_Table!D38</f>
-        <v>0.39999999999999991</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="23">
         <f>Employment_Table!E38</f>
-        <v>-4.490238611713659</v>
+        <v>-3.8469945355191326</v>
       </c>
       <c r="E3" s="23">
         <f>Employment_Table!F38</f>
-        <v>3.3498759305210957</v>
+        <v>2.8500619578686548</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4305,19 +4272,19 @@
       </c>
       <c r="B4" s="21">
         <f>Employment_Table!C16</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C4" s="23">
         <f>Employment_Table!D16</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.5</v>
       </c>
       <c r="D4" s="23">
         <f>Employment_Table!E16</f>
-        <v>3.5938903863432126</v>
+        <v>3.8415545590433586</v>
       </c>
       <c r="E4" s="23">
         <f>Employment_Table!F16</f>
-        <v>2.5316455696202445</v>
+        <v>2.1061499578769904</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4334,11 +4301,11 @@
       </c>
       <c r="D5" s="27">
         <f>Employment_Table!E41</f>
-        <v>3.3206777355924366</v>
+        <v>3.526548171629118</v>
       </c>
       <c r="E5" s="23">
         <f>Employment_Table!F41</f>
-        <v>2.3076923076922995</v>
+        <v>2.9087261785355922</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4347,19 +4314,19 @@
       </c>
       <c r="B6" s="21">
         <f>Employment_Table!C9</f>
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C6" s="23">
         <f>Employment_Table!D9</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="D6" s="23">
         <f>Employment_Table!E9</f>
-        <v>2.8137756113026491</v>
+        <v>2.680020585091647</v>
       </c>
       <c r="E6" s="23">
         <f>Employment_Table!F9</f>
-        <v>2.2254475084663827</v>
+        <v>2.3631540872920187</v>
       </c>
       <c r="K6" s="20"/>
     </row>
@@ -4369,19 +4336,19 @@
       </c>
       <c r="B7" s="26">
         <f>Employment_Table!C8</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C7" s="27">
         <f>Employment_Table!D8</f>
-        <v>-1.1999999999999993</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="D7" s="27">
         <f>Employment_Table!E8</f>
-        <v>2.6465242356966234</v>
+        <v>2.825883637870108</v>
       </c>
       <c r="E7" s="23">
         <f>Employment_Table!F8</f>
-        <v>1.9145802650957222</v>
+        <v>1.9905988146331488</v>
       </c>
       <c r="K7" s="20"/>
     </row>
@@ -4391,19 +4358,19 @@
       </c>
       <c r="B8" s="26">
         <f>Employment_Table!C48</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C8" s="27">
         <f>Employment_Table!D48</f>
-        <v>0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D8" s="27">
         <f>Employment_Table!E48</f>
-        <v>3.2942898975109713</v>
+        <v>3.4379343135103602</v>
       </c>
       <c r="E8" s="23">
         <f>Employment_Table!F48</f>
-        <v>1.8454935622317592</v>
+        <v>2.0600858369098862</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -4420,11 +4387,11 @@
       </c>
       <c r="D9" s="27">
         <f>Employment_Table!E32</f>
-        <v>2.8452352328284025</v>
+        <v>2.631578947368407</v>
       </c>
       <c r="E9" s="1">
         <f>Employment_Table!F32</f>
-        <v>1.8193632228719947</v>
+        <v>1.1665586519766569</v>
       </c>
       <c r="H9" s="8"/>
       <c r="L9" s="20"/>
@@ -4435,19 +4402,19 @@
       </c>
       <c r="B10" s="7">
         <f>Employment_Table!C47</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C10" s="1">
         <f>Employment_Table!D47</f>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
       <c r="D10" s="23">
         <f>Employment_Table!E47</f>
-        <v>1.571258705622558</v>
+        <v>1.6094666519528289</v>
       </c>
       <c r="E10" s="23">
         <f>Employment_Table!F47</f>
-        <v>1.7737998372660657</v>
+        <v>1.919843809317201</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -4468,11 +4435,11 @@
       </c>
       <c r="D11" s="27">
         <f>Employment_Table!E51</f>
-        <v>3.1832694763729297</v>
+        <v>3.3441724049987132</v>
       </c>
       <c r="E11" s="23">
         <f>Employment_Table!F51</f>
-        <v>1.7719706461428286</v>
+        <v>2.1268990169794444</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="20"/>
@@ -4485,15 +4452,15 @@
       </c>
       <c r="B12" s="21">
         <f>Employment_Table!C54</f>
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="C12" s="23">
         <f>Employment_Table!D54</f>
-        <v>1.3000000000000003</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="D12" s="1">
         <f>Employment_Table!E54</f>
-        <v>-3.1675749318801127</v>
+        <v>-3.6923076923076947</v>
       </c>
       <c r="E12" s="1">
         <f>Employment_Table!F54</f>
@@ -4510,19 +4477,19 @@
       </c>
       <c r="B13" s="7">
         <f>Employment_Table!C39</f>
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="C13" s="1">
         <f>Employment_Table!D39</f>
-        <v>0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D13" s="1">
         <f>Employment_Table!E39</f>
-        <v>1.7539960363764262</v>
+        <v>1.3300283024103354</v>
       </c>
       <c r="E13" s="1">
         <f>Employment_Table!F39</f>
-        <v>1.132075471698113</v>
+        <v>0.19523623584536409</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="8"/>
@@ -4539,15 +4506,15 @@
       </c>
       <c r="C14" s="1">
         <f>Employment_Table!D14</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D14" s="1">
         <f>Employment_Table!E14</f>
-        <v>3.0739400818140972</v>
+        <v>3.3282117952960766</v>
       </c>
       <c r="E14" s="1">
         <f>Employment_Table!F14</f>
-        <v>1.090319728893463</v>
+        <v>1.0754272245138585</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="8"/>
@@ -4564,15 +4531,15 @@
       </c>
       <c r="C15" s="23">
         <f>Employment_Table!D26</f>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D15" s="1">
         <f>Employment_Table!E26</f>
-        <v>2.3037764886942202</v>
+        <v>2.472670484122852</v>
       </c>
       <c r="E15" s="1">
         <f>Employment_Table!F26</f>
-        <v>1.0768971899714153</v>
+        <v>0.90893788924422125</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="20"/>
@@ -4584,19 +4551,19 @@
       </c>
       <c r="B16" s="7">
         <f>Employment_Table!C49</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C16" s="1">
         <f>Employment_Table!D49</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
       <c r="D16" s="1">
         <f>Employment_Table!E49</f>
-        <v>1.4116137311517507</v>
+        <v>1.9280205655527016</v>
       </c>
       <c r="E16" s="1">
         <f>Employment_Table!F49</f>
-        <v>1.0733452593917781</v>
+        <v>0.8960573476702427</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="8"/>
@@ -4609,19 +4576,19 @@
       </c>
       <c r="B17" s="21">
         <f>Employment_Table!C18</f>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="C17" s="1">
         <f>Employment_Table!D18</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="D17" s="1">
         <f>Employment_Table!E18</f>
-        <v>1.2882500993509183</v>
+        <v>1.6303988359018362</v>
       </c>
       <c r="E17" s="1">
         <f>Employment_Table!F18</f>
-        <v>1.0595714622086083</v>
+        <v>0.63469675599436837</v>
       </c>
       <c r="I17" s="25"/>
       <c r="K17" s="25"/>
@@ -4636,15 +4603,15 @@
       </c>
       <c r="C18" s="1">
         <f>Employment_Table!D31</f>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="D18" s="23">
         <f>Employment_Table!E31</f>
-        <v>1.6365632172437916</v>
+        <v>1.5267937331603587</v>
       </c>
       <c r="E18" s="23">
         <f>Employment_Table!F31</f>
-        <v>1.0569583088666956</v>
+        <v>0.11695906432747094</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -4654,19 +4621,19 @@
       </c>
       <c r="B19" s="26">
         <f>Employment_Table!C44</f>
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C19" s="27">
         <f>Employment_Table!D44</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.5</v>
       </c>
       <c r="D19" s="27">
         <f>Employment_Table!E44</f>
-        <v>2.657004830917864</v>
+        <v>2.6769989432898988</v>
       </c>
       <c r="E19" s="23">
         <f>Employment_Table!F44</f>
-        <v>1.0030649205907016</v>
+        <v>0.89062065126634948</v>
       </c>
       <c r="K19" s="25"/>
     </row>
@@ -4676,19 +4643,19 @@
       </c>
       <c r="B20" s="21">
         <f>Employment_Table!C28</f>
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C20" s="23">
         <f>Employment_Table!D28</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.5</v>
       </c>
       <c r="D20" s="23">
         <f>Employment_Table!E28</f>
-        <v>1.8385291766586542</v>
+        <v>1.3639181649101051</v>
       </c>
       <c r="E20" s="23">
         <f>Employment_Table!F28</f>
-        <v>0.98522167487684609</v>
+        <v>0.78028747433265266</v>
       </c>
       <c r="K20" s="8"/>
     </row>
@@ -4698,19 +4665,19 @@
       </c>
       <c r="B21" s="21">
         <f>Employment_Table!C53</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C21" s="23">
         <f>Employment_Table!D53</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="D21" s="1">
         <f>Employment_Table!E53</f>
-        <v>1.7758046614872569</v>
+        <v>1.4575235980011092</v>
       </c>
       <c r="E21" s="1">
         <f>Employment_Table!F53</f>
-        <v>0.90221897098268222</v>
+        <v>0.58465286236295544</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4719,19 +4686,19 @@
       </c>
       <c r="B22" s="7">
         <f>Employment_Table!C12</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C22" s="1">
         <f>Employment_Table!D12</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="D22" s="1">
         <f>Employment_Table!E12</f>
-        <v>1.2947946638765417</v>
+        <v>1.541274817136884</v>
       </c>
       <c r="E22" s="1">
         <f>Employment_Table!F12</f>
-        <v>0.8413967185527893</v>
+        <v>0.9671993271656687</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4740,19 +4707,19 @@
       </c>
       <c r="B23" s="7">
         <f>Employment_Table!C13</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C23" s="1">
         <f>Employment_Table!D13</f>
-        <v>-0.69999999999999929</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D23" s="1">
         <f>Employment_Table!E13</f>
-        <v>2.9234512446191241</v>
+        <v>3.1696017137021526</v>
       </c>
       <c r="E23" s="1">
         <f>Employment_Table!F13</f>
-        <v>0.83472454090149917</v>
+        <v>0.94531974050047207</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4761,7 +4728,7 @@
       </c>
       <c r="B24" s="7">
         <f>Employment_Table!C30</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C24" s="1">
         <f>Employment_Table!D30</f>
@@ -4769,11 +4736,11 @@
       </c>
       <c r="D24" s="1">
         <f>Employment_Table!E30</f>
-        <v>0.73704747452849606</v>
+        <v>1.2806598654221846</v>
       </c>
       <c r="E24" s="1">
         <f>Employment_Table!F30</f>
-        <v>0.77519379844961378</v>
+        <v>0.44198895027625085</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -4782,7 +4749,7 @@
       </c>
       <c r="B25" s="7">
         <f>Employment_Table!C40</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C25" s="1">
         <f>Employment_Table!D40</f>
@@ -4790,11 +4757,11 @@
       </c>
       <c r="D25" s="1">
         <f>Employment_Table!E40</f>
-        <v>-0.36524758996466788</v>
+        <v>-0.12607312241100788</v>
       </c>
       <c r="E25" s="1">
         <f>Employment_Table!F40</f>
-        <v>0.65733066590454303</v>
+        <v>0.45623039635016571</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -4803,19 +4770,19 @@
       </c>
       <c r="B26" s="21">
         <f>Employment_Table!C25</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C26" s="23">
         <f>Employment_Table!D25</f>
-        <v>-0.69999999999999929</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D26" s="23">
         <f>Employment_Table!E25</f>
-        <v>1.7663981588032174</v>
+        <v>2.1135873472322153</v>
       </c>
       <c r="E26" s="23">
         <f>Employment_Table!F25</f>
-        <v>0.59668508287291644</v>
+        <v>0.88672134781644374</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4828,15 +4795,15 @@
       </c>
       <c r="C27" s="1">
         <f>Employment_Table!D35</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D27" s="1">
         <f>Employment_Table!E35</f>
-        <v>0.27845036319611438</v>
+        <v>0.20583605763411228</v>
       </c>
       <c r="E27" s="1">
         <f>Employment_Table!F35</f>
-        <v>0.57986294148657525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4845,19 +4812,19 @@
       </c>
       <c r="B28" s="21">
         <f>Employment_Table!C17</f>
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C28" s="23">
         <f>Employment_Table!D17</f>
-        <v>0.59999999999999964</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="D28" s="1">
         <f>Employment_Table!E17</f>
-        <v>1.3475906967330475</v>
+        <v>1.1354843050836116</v>
       </c>
       <c r="E28" s="1">
         <f>Employment_Table!F17</f>
-        <v>0.57950018109380608</v>
+        <v>0.68782430312537279</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4866,19 +4833,19 @@
       </c>
       <c r="B29" s="7">
         <f>Employment_Table!C37</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C29" s="1">
         <f>Employment_Table!D37</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D29" s="1">
         <f>Employment_Table!E37</f>
-        <v>2.4807344686518906</v>
+        <v>2.2676059678834903</v>
       </c>
       <c r="E29" s="1">
         <f>Employment_Table!F37</f>
-        <v>0.51467519821950525</v>
+        <v>9.724923589886636E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4887,19 +4854,19 @@
       </c>
       <c r="B30" s="7">
         <f>Employment_Table!C50</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C30" s="1">
         <f>Employment_Table!D50</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.69999999999999973</v>
       </c>
       <c r="D30" s="1">
         <f>Employment_Table!E50</f>
-        <v>2.8322668624777059</v>
+        <v>2.1811334571226748</v>
       </c>
       <c r="E30" s="1">
         <f>Employment_Table!F50</f>
-        <v>0.47914317925592531</v>
+        <v>-5.62350625615049E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4908,19 +4875,19 @@
       </c>
       <c r="B31" s="21">
         <f>Employment_Table!C36</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C31" s="1">
         <f>Employment_Table!D36</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D31" s="1">
         <f>Employment_Table!E36</f>
-        <v>1.4377153041153612</v>
+        <v>1.4495428782383968</v>
       </c>
       <c r="E31" s="1">
         <f>Employment_Table!F36</f>
-        <v>0.43220634367375776</v>
+        <v>0.23004531195538469</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4929,19 +4896,19 @@
       </c>
       <c r="B32" s="7">
         <f>Employment_Table!C15</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C32" s="1">
         <f>Employment_Table!D15</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D32" s="1">
         <f>Employment_Table!E15</f>
-        <v>2.9319041614123575</v>
+        <v>1.9876952200662545</v>
       </c>
       <c r="E32" s="1">
         <f>Employment_Table!F15</f>
-        <v>0.39682539682539542</v>
+        <v>-1.6653449643140306</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4950,19 +4917,19 @@
       </c>
       <c r="B33" s="21">
         <f>Employment_Table!C52</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C33" s="23">
         <f>Employment_Table!D52</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="D33" s="23">
         <f>Employment_Table!E52</f>
-        <v>-0.67867397546332864</v>
+        <v>-0.63960318496280033</v>
       </c>
       <c r="E33" s="1">
         <f>Employment_Table!F52</f>
-        <v>0.39630118890356947</v>
+        <v>0.59055118110236116</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4971,19 +4938,19 @@
       </c>
       <c r="B34" s="7">
         <f>Employment_Table!C42</f>
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="C34" s="1">
         <f>Employment_Table!D42</f>
-        <v>-0.39999999999999947</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="D34" s="1">
         <f>Employment_Table!E42</f>
-        <v>1.3939800712478689</v>
+        <v>0.94457897538942071</v>
       </c>
       <c r="E34" s="1">
         <f>Employment_Table!F42</f>
-        <v>0.14196479273140827</v>
+        <v>-0.38319613965370758</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4992,19 +4959,19 @@
       </c>
       <c r="B35" s="7">
         <f>Employment_Table!C7</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C35" s="1">
         <f>Employment_Table!D7</f>
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="D35" s="1">
         <f>Employment_Table!E7</f>
-        <v>2.1704649803823362</v>
+        <v>2.1001750145845266</v>
       </c>
       <c r="E35" s="1">
         <f>Employment_Table!F7</f>
-        <v>0.14117647058824456</v>
+        <v>0.23540489642184248</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5013,19 +4980,19 @@
       </c>
       <c r="B36" s="7">
         <f>Employment_Table!C24</f>
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C36" s="1">
         <f>Employment_Table!D24</f>
-        <v>-0.59999999999999964</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D36" s="23">
         <f>Employment_Table!E24</f>
-        <v>2.362562471603824</v>
+        <v>2.1103099399750969</v>
       </c>
       <c r="E36" s="23">
         <f>Employment_Table!F24</f>
-        <v>1.9884668920266968E-2</v>
+        <v>-0.13910969793322625</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -5034,19 +5001,19 @@
       </c>
       <c r="B37" s="7">
         <f>Employment_Table!C27</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C37" s="1">
         <f>Employment_Table!D27</f>
-        <v>0.10000000000000009</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="D37" s="1">
         <f>Employment_Table!E27</f>
-        <v>1.0894394658232276</v>
+        <v>1.4097348856782155</v>
       </c>
       <c r="E37" s="1">
         <f>Employment_Table!F27</f>
-        <v>0</v>
+        <v>-0.30915576694411362</v>
       </c>
       <c r="L37" s="8"/>
     </row>
@@ -5064,7 +5031,7 @@
       </c>
       <c r="D38" s="1">
         <f>Employment_Table!E45</f>
-        <v>1.0282776349614497</v>
+        <v>0.95794392523365079</v>
       </c>
       <c r="E38" s="1">
         <f>Employment_Table!F45</f>
@@ -5078,19 +5045,19 @@
       </c>
       <c r="B39" s="7">
         <f>Employment_Table!C19</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C39" s="1">
         <f>Employment_Table!D19</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="D39" s="23">
         <f>Employment_Table!E19</f>
-        <v>0.98070636497662456</v>
+        <v>1.2813941568426523</v>
       </c>
       <c r="E39" s="23">
         <f>Employment_Table!F19</f>
-        <v>-3.9154267815189048E-2</v>
+        <v>0.78369905956112706</v>
       </c>
       <c r="L39" s="8"/>
     </row>
@@ -5100,19 +5067,19 @@
       </c>
       <c r="B40" s="7">
         <f>Employment_Table!C46</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C40" s="1">
         <f>Employment_Table!D46</f>
-        <v>-1.5</v>
+        <v>-1.6000000000000005</v>
       </c>
       <c r="D40" s="1">
         <f>Employment_Table!E46</f>
-        <v>3.2109129066107078</v>
+        <v>2.9206747525442722</v>
       </c>
       <c r="E40" s="1">
         <f>Employment_Table!F46</f>
-        <v>-4.7214353163371747E-2</v>
+        <v>0.1180916391119613</v>
       </c>
       <c r="L40" s="20"/>
     </row>
@@ -5122,19 +5089,19 @@
       </c>
       <c r="B41" s="21">
         <f>Employment_Table!C34</f>
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C41" s="23">
         <f>Employment_Table!D34</f>
-        <v>-1.7999999999999998</v>
+        <v>-1.2999999999999998</v>
       </c>
       <c r="D41" s="23">
         <f>Employment_Table!E34</f>
-        <v>1.9517450454739071</v>
+        <v>1.5965021861336748</v>
       </c>
       <c r="E41" s="1">
         <f>Employment_Table!F34</f>
-        <v>-0.14662756598240456</v>
+        <v>0.57077625570776114</v>
       </c>
       <c r="L41" s="8"/>
     </row>
@@ -5144,19 +5111,19 @@
       </c>
       <c r="B42" s="21">
         <f>Employment_Table!C20</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C42" s="23">
         <f>Employment_Table!D20</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="D42" s="23">
         <f>Employment_Table!E20</f>
-        <v>0</v>
+        <v>-4.2976864121480052E-2</v>
       </c>
       <c r="E42" s="1">
         <f>Employment_Table!F20</f>
-        <v>-0.3111629716063824</v>
+        <v>-0.5445352003111803</v>
       </c>
       <c r="H42" s="8"/>
       <c r="L42" s="25"/>
@@ -5167,19 +5134,19 @@
       </c>
       <c r="B43" s="21">
         <f>Employment_Table!C4</f>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C43" s="23">
         <f>Employment_Table!D4</f>
-        <v>0.10000000000000053</v>
+        <v>0</v>
       </c>
       <c r="D43" s="23">
         <f>Employment_Table!E4</f>
-        <v>1.2189453024120667</v>
+        <v>1.345707656612527</v>
       </c>
       <c r="E43" s="1">
         <f>Employment_Table!F4</f>
-        <v>-0.31889449906988832</v>
+        <v>-0.37105751391466324</v>
       </c>
       <c r="H43" s="20"/>
       <c r="L43" s="8"/>
@@ -5198,11 +5165,11 @@
       </c>
       <c r="D44" s="23">
         <f>Employment_Table!E5</f>
-        <v>-0.52941176470588935</v>
+        <v>-1.0288065843621408</v>
       </c>
       <c r="E44" s="23">
         <f>Employment_Table!F5</f>
-        <v>-0.36585365853658569</v>
+        <v>-0.60975609756097615</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -5212,19 +5179,19 @@
       </c>
       <c r="B45" s="7">
         <f>Employment_Table!C6</f>
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C45" s="1">
         <f>Employment_Table!D6</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D45" s="23">
         <f>Employment_Table!E6</f>
-        <v>3.1235645383555388</v>
+        <v>3.111858704793935</v>
       </c>
       <c r="E45" s="23">
         <f>Employment_Table!F6</f>
-        <v>-0.41453304072178732</v>
+        <v>-0.24431956999755311</v>
       </c>
       <c r="H45" s="20"/>
     </row>
@@ -5238,15 +5205,15 @@
       </c>
       <c r="C46" s="1">
         <f>Employment_Table!D10</f>
-        <v>-0.20000000000000018</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="D46" s="23">
         <f>Employment_Table!E10</f>
-        <v>0.89788100083803002</v>
+        <v>1.2038090674971524</v>
       </c>
       <c r="E46" s="1">
         <f>Employment_Table!F10</f>
-        <v>-0.58528428093644891</v>
+        <v>-0.29337803855825628</v>
       </c>
       <c r="H46" s="20"/>
     </row>
@@ -5260,15 +5227,15 @@
       </c>
       <c r="C47" s="32">
         <f>Employment_Table!D23</f>
-        <v>-1.1999999999999997</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D47" s="23">
         <f>Employment_Table!E23</f>
-        <v>0.98586920801839728</v>
+        <v>0.47556575926535061</v>
       </c>
       <c r="E47" s="1">
         <f>Employment_Table!F23</f>
-        <v>-0.60301507537687815</v>
+        <v>-1.1055276381909507</v>
       </c>
       <c r="H47" s="8"/>
     </row>
@@ -5278,19 +5245,19 @@
       </c>
       <c r="B48" s="21">
         <f>Employment_Table!C43</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C48" s="23">
         <f>Employment_Table!D43</f>
-        <v>-0.89999999999999947</v>
+        <v>-1</v>
       </c>
       <c r="D48" s="23">
         <f>Employment_Table!E43</f>
-        <v>1.8253474382907919</v>
+        <v>1.0537190082644754</v>
       </c>
       <c r="E48" s="1">
         <f>Employment_Table!F43</f>
-        <v>-0.66225165562913135</v>
+        <v>-0.49586776859503745</v>
       </c>
       <c r="H48" s="8"/>
     </row>
@@ -5300,19 +5267,19 @@
       </c>
       <c r="B49" s="21">
         <f>Employment_Table!C22</f>
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C49" s="23">
         <f>Employment_Table!D22</f>
-        <v>-0.5</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D49" s="23">
         <f>Employment_Table!E22</f>
-        <v>-0.66288354341385025</v>
+        <v>-0.61784207353827725</v>
       </c>
       <c r="E49" s="23">
         <f>Employment_Table!F22</f>
-        <v>-0.73372057474779817</v>
+        <v>-0.88495575221237965</v>
       </c>
       <c r="H49" s="20"/>
     </row>
@@ -5322,19 +5289,19 @@
       </c>
       <c r="B50" s="21">
         <f>Employment_Table!C29</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C50" s="1">
         <f>Employment_Table!D29</f>
-        <v>-1.0999999999999996</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="D50" s="23">
         <f>Employment_Table!E29</f>
-        <v>0.85417717869242793</v>
+        <v>1.3349645568709212</v>
       </c>
       <c r="E50" s="1">
         <f>Employment_Table!F29</f>
-        <v>-1.6069788797061557</v>
+        <v>-1.1059907834101379</v>
       </c>
       <c r="H50" s="25"/>
     </row>
@@ -5344,19 +5311,19 @@
       </c>
       <c r="B51" s="21">
         <f>Employment_Table!C11</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C51" s="23">
         <f>Employment_Table!D11</f>
-        <v>-0.5</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D51" s="1">
         <f>Employment_Table!E11</f>
-        <v>2.622142536978922</v>
+        <v>3.7437979251240483</v>
       </c>
       <c r="E51" s="1">
         <f>Employment_Table!F11</f>
-        <v>-1.6591251885369473</v>
+        <v>1.8779342723004522</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -5366,19 +5333,19 @@
       </c>
       <c r="B52" s="21">
         <f>Employment_Table!C21</f>
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C52" s="23">
         <f>Employment_Table!D21</f>
-        <v>0.29999999999999982</v>
+        <v>0</v>
       </c>
       <c r="D52" s="23">
         <f>Employment_Table!E21</f>
-        <v>1.9717858287912726</v>
+        <v>1.8663101604278198</v>
       </c>
       <c r="E52" s="1">
         <f>Employment_Table!F21</f>
-        <v>-1.7862738953306367</v>
+        <v>-1.1908492635537504</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -5391,15 +5358,15 @@
       </c>
       <c r="C53" s="1">
         <f>Employment_Table!D33</f>
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="D53" s="23">
         <f>Employment_Table!E33</f>
-        <v>1.6059957173447437</v>
+        <v>1.3286499694563192</v>
       </c>
       <c r="E53" s="1">
         <f>Employment_Table!F33</f>
-        <v>-1.8701870187018743</v>
+        <v>-2.3076923076922995</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -5408,11 +5375,11 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
         <f>COUNTIF(C3:C53, "&lt;-0.49")</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" s="2">
         <f>COUNTIF(E3:E53, "&lt;0")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5434,7 +5401,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5449,16 +5416,16 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="C1" s="4">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="D1" s="4">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="E1" s="6">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -5469,20 +5436,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="18">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C2" s="18">
         <v>4.9000000000000004</v>
       </c>
       <c r="D2" s="18">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="E2" s="18">
         <v>5</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F53" si="0">E2-B2</f>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,11 +5470,11 @@
       </c>
       <c r="E3" s="1">
         <f>BLS_Table_3!E2</f>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0.10000000000000053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5541,23 +5508,23 @@
       </c>
       <c r="B5" s="1">
         <f>BLS_Table_3!B4</f>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C5" s="1">
         <f>BLS_Table_3!C4</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D5" s="1">
         <f>BLS_Table_3!D4</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E5" s="1">
         <f>BLS_Table_3!E4</f>
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5570,19 +5537,19 @@
       </c>
       <c r="C6" s="1">
         <f>BLS_Table_3!C5</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D6" s="1">
         <f>BLS_Table_3!D5</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E6" s="1">
         <f>BLS_Table_3!E5</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5591,23 +5558,23 @@
       </c>
       <c r="B7" s="1">
         <f>BLS_Table_3!B6</f>
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C7" s="1">
         <f>BLS_Table_3!C6</f>
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="D7" s="1">
         <f>BLS_Table_3!D6</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E7" s="1">
         <f>BLS_Table_3!E6</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1999999999999993</v>
+        <v>-1.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5620,19 +5587,19 @@
       </c>
       <c r="C8" s="1">
         <f>BLS_Table_3!C7</f>
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <f>BLS_Table_3!D7</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E8" s="1">
         <f>BLS_Table_3!E7</f>
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5641,7 +5608,7 @@
       </c>
       <c r="B9" s="1">
         <f>BLS_Table_3!B8</f>
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C9" s="1">
         <f>BLS_Table_3!C8</f>
@@ -5649,7 +5616,7 @@
       </c>
       <c r="D9" s="1">
         <f>BLS_Table_3!D8</f>
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="E9" s="1">
         <f>BLS_Table_3!E8</f>
@@ -5657,7 +5624,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20000000000000018</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5670,19 +5637,19 @@
       </c>
       <c r="C10" s="1">
         <f>BLS_Table_3!C9</f>
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D10" s="1">
         <f>BLS_Table_3!D9</f>
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="1">
         <f>BLS_Table_3!E9</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.70000000000000018</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5691,7 +5658,7 @@
       </c>
       <c r="B11" s="1">
         <f>BLS_Table_3!B10</f>
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C11" s="1">
         <f>BLS_Table_3!C10</f>
@@ -5703,11 +5670,11 @@
       </c>
       <c r="E11" s="1">
         <f>BLS_Table_3!E10</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.69999999999999929</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5716,23 +5683,23 @@
       </c>
       <c r="B12" s="1">
         <f>BLS_Table_3!B11</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C12" s="1">
         <f>BLS_Table_3!C11</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <f>BLS_Table_3!D11</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E12" s="1">
         <f>BLS_Table_3!E11</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69999999999999929</v>
+        <v>-0.70000000000000018</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5741,7 +5708,7 @@
       </c>
       <c r="B13" s="1">
         <f>BLS_Table_3!B12</f>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C13" s="1">
         <f>BLS_Table_3!C12</f>
@@ -5749,7 +5716,7 @@
       </c>
       <c r="D13" s="1">
         <f>BLS_Table_3!D12</f>
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E13" s="1">
         <f>BLS_Table_3!E12</f>
@@ -5757,7 +5724,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5766,11 +5733,11 @@
       </c>
       <c r="B14" s="1">
         <f>BLS_Table_3!B13</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C14" s="1">
         <f>BLS_Table_3!C13</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D14" s="1">
         <f>BLS_Table_3!D13</f>
@@ -5778,11 +5745,11 @@
       </c>
       <c r="E14" s="1">
         <f>BLS_Table_3!E13</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5791,7 +5758,7 @@
       </c>
       <c r="B15" s="1">
         <f>BLS_Table_3!B14</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C15" s="1">
         <f>BLS_Table_3!C14</f>
@@ -5799,15 +5766,15 @@
       </c>
       <c r="D15" s="1">
         <f>BLS_Table_3!D14</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E15" s="1">
         <f>BLS_Table_3!E14</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5820,19 +5787,19 @@
       </c>
       <c r="C16" s="1">
         <f>BLS_Table_3!C15</f>
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D16" s="1">
         <f>BLS_Table_3!D15</f>
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E16" s="1">
         <f>BLS_Table_3!E15</f>
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.59999999999999964</v>
+        <v>0.69999999999999929</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5841,23 +5808,23 @@
       </c>
       <c r="B17" s="1">
         <f>BLS_Table_3!B16</f>
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C17" s="1">
         <f>BLS_Table_3!C16</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D17" s="1">
         <f>BLS_Table_3!D16</f>
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <f>BLS_Table_3!E16</f>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>-9.9999999999999645E-2</v>
+        <v>0.29999999999999982</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5870,19 +5837,19 @@
       </c>
       <c r="C18" s="1">
         <f>BLS_Table_3!C17</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D18" s="1">
         <f>BLS_Table_3!D17</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E18" s="1">
         <f>BLS_Table_3!E17</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>9.9999999999999645E-2</v>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5891,7 +5858,7 @@
       </c>
       <c r="B19" s="1">
         <f>BLS_Table_3!B18</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C19" s="1">
         <f>BLS_Table_3!C18</f>
@@ -5899,15 +5866,15 @@
       </c>
       <c r="D19" s="1">
         <f>BLS_Table_3!D18</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E19" s="1">
         <f>BLS_Table_3!E18</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5924,15 +5891,15 @@
       </c>
       <c r="D20" s="1">
         <f>BLS_Table_3!D19</f>
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="E20" s="1">
         <f>BLS_Table_3!E19</f>
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5941,7 +5908,7 @@
       </c>
       <c r="B21" s="1">
         <f>BLS_Table_3!B20</f>
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C21" s="1">
         <f>BLS_Table_3!C20</f>
@@ -5949,15 +5916,15 @@
       </c>
       <c r="D21" s="1">
         <f>BLS_Table_3!D20</f>
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="E21" s="1">
         <f>BLS_Table_3!E20</f>
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5966,15 +5933,15 @@
       </c>
       <c r="B22" s="1">
         <f>BLS_Table_3!B21</f>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C22" s="1">
         <f>BLS_Table_3!C21</f>
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D22" s="1">
         <f>BLS_Table_3!D21</f>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="E22" s="1">
         <f>BLS_Table_3!E21</f>
@@ -5982,7 +5949,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1999999999999997</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5995,7 +5962,7 @@
       </c>
       <c r="C23" s="1">
         <f>BLS_Table_3!C22</f>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D23" s="1">
         <f>BLS_Table_3!D22</f>
@@ -6003,11 +5970,11 @@
       </c>
       <c r="E23" s="1">
         <f>BLS_Table_3!E22</f>
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.59999999999999964</v>
+        <v>-0.70000000000000018</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6016,23 +5983,23 @@
       </c>
       <c r="B24" s="1">
         <f>BLS_Table_3!B23</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <f>BLS_Table_3!C23</f>
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D24" s="1">
         <f>BLS_Table_3!D23</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="1">
         <f>BLS_Table_3!E23</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69999999999999929</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6041,11 +6008,11 @@
       </c>
       <c r="B25" s="1">
         <f>BLS_Table_3!B24</f>
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C25" s="1">
         <f>BLS_Table_3!C24</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D25" s="1">
         <f>BLS_Table_3!D24</f>
@@ -6057,7 +6024,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6074,15 +6041,15 @@
       </c>
       <c r="D26" s="1">
         <f>BLS_Table_3!D25</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E26" s="1">
         <f>BLS_Table_3!E25</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.10000000000000009</v>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -6095,19 +6062,19 @@
       </c>
       <c r="C27" s="1">
         <f>BLS_Table_3!C26</f>
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D27" s="1">
         <f>BLS_Table_3!D26</f>
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E27" s="1">
         <f>BLS_Table_3!E26</f>
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20000000000000018</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6116,7 +6083,7 @@
       </c>
       <c r="B28" s="1">
         <f>BLS_Table_3!B27</f>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C28" s="1">
         <f>BLS_Table_3!C27</f>
@@ -6128,11 +6095,11 @@
       </c>
       <c r="E28" s="1">
         <f>BLS_Table_3!E27</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0999999999999996</v>
+        <v>-0.90000000000000036</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6141,19 +6108,19 @@
       </c>
       <c r="B29" s="1">
         <f>BLS_Table_3!B28</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <f>BLS_Table_3!C28</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D29" s="1">
         <f>BLS_Table_3!D28</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E29" s="1">
         <f>BLS_Table_3!E28</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
@@ -6166,7 +6133,7 @@
       </c>
       <c r="B30" s="1">
         <f>BLS_Table_3!B29</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C30" s="1">
         <f>BLS_Table_3!C29</f>
@@ -6182,7 +6149,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -6195,11 +6162,11 @@
       </c>
       <c r="C31" s="1">
         <f>BLS_Table_3!C30</f>
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="D31" s="1">
         <f>BLS_Table_3!D30</f>
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="E31" s="1">
         <f>BLS_Table_3!E30</f>
@@ -6216,15 +6183,15 @@
       </c>
       <c r="B32" s="1">
         <f>BLS_Table_3!B31</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C32" s="1">
         <f>BLS_Table_3!C31</f>
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D32" s="1">
         <f>BLS_Table_3!D31</f>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E32" s="1">
         <f>BLS_Table_3!E31</f>
@@ -6232,7 +6199,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6241,23 +6208,23 @@
       </c>
       <c r="B33" s="1">
         <f>BLS_Table_3!B32</f>
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
         <f>BLS_Table_3!C32</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D33" s="1">
         <f>BLS_Table_3!D32</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="1">
         <f>BLS_Table_3!E32</f>
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7999999999999998</v>
+        <v>-1.2999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6266,15 +6233,15 @@
       </c>
       <c r="B34" s="1">
         <f>BLS_Table_3!B33</f>
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C34" s="1">
         <f>BLS_Table_3!C33</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D34" s="1">
         <f>BLS_Table_3!D33</f>
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="E34" s="1">
         <f>BLS_Table_3!E33</f>
@@ -6282,7 +6249,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6291,11 +6258,11 @@
       </c>
       <c r="B35" s="1">
         <f>BLS_Table_3!B34</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C35" s="1">
         <f>BLS_Table_3!C34</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D35" s="1">
         <f>BLS_Table_3!D34</f>
@@ -6303,11 +6270,11 @@
       </c>
       <c r="E35" s="1">
         <f>BLS_Table_3!E34</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6320,7 +6287,7 @@
       </c>
       <c r="C36" s="1">
         <f>BLS_Table_3!C35</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D36" s="1">
         <f>BLS_Table_3!D35</f>
@@ -6328,11 +6295,11 @@
       </c>
       <c r="E36" s="1">
         <f>BLS_Table_3!E35</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6345,19 +6312,19 @@
       </c>
       <c r="C37" s="1">
         <f>BLS_Table_3!C36</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D37" s="1">
         <f>BLS_Table_3!D36</f>
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="E37" s="1">
         <f>BLS_Table_3!E36</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6366,23 +6333,23 @@
       </c>
       <c r="B38" s="1">
         <f>BLS_Table_3!B37</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <f>BLS_Table_3!C37</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <f>BLS_Table_3!D37</f>
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E38" s="1">
         <f>BLS_Table_3!E37</f>
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6391,19 +6358,19 @@
       </c>
       <c r="B39" s="1">
         <f>BLS_Table_3!B38</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C39" s="1">
         <f>BLS_Table_3!C38</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D39" s="1">
         <f>BLS_Table_3!D38</f>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E39" s="1">
         <f>BLS_Table_3!E38</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
@@ -6420,11 +6387,11 @@
       </c>
       <c r="C40" s="1">
         <f>BLS_Table_3!C39</f>
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="D40" s="1">
         <f>BLS_Table_3!D39</f>
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="E40" s="1">
         <f>BLS_Table_3!E39</f>
@@ -6441,7 +6408,7 @@
       </c>
       <c r="B41" s="1">
         <f>BLS_Table_3!B40</f>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C41" s="1">
         <f>BLS_Table_3!C40</f>
@@ -6449,15 +6416,15 @@
       </c>
       <c r="D41" s="1">
         <f>BLS_Table_3!D40</f>
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E41" s="1">
         <f>BLS_Table_3!E40</f>
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>-0.39999999999999947</v>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6478,11 +6445,11 @@
       </c>
       <c r="E42" s="1">
         <f>BLS_Table_3!E41</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>-0.89999999999999947</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6491,7 +6458,7 @@
       </c>
       <c r="B43" s="1">
         <f>BLS_Table_3!B42</f>
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C43" s="1">
         <f>BLS_Table_3!C42</f>
@@ -6499,15 +6466,15 @@
       </c>
       <c r="D43" s="1">
         <f>BLS_Table_3!D42</f>
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="E43" s="1">
         <f>BLS_Table_3!E42</f>
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6520,11 +6487,11 @@
       </c>
       <c r="C44" s="1">
         <f>BLS_Table_3!C43</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D44" s="1">
         <f>BLS_Table_3!D43</f>
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="E44" s="1">
         <f>BLS_Table_3!E43</f>
@@ -6541,23 +6508,23 @@
       </c>
       <c r="B45" s="1">
         <f>BLS_Table_3!B44</f>
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C45" s="1">
         <f>BLS_Table_3!C44</f>
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D45" s="1">
         <f>BLS_Table_3!D44</f>
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E45" s="1">
         <f>BLS_Table_3!E44</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-1.6000000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6570,7 +6537,7 @@
       </c>
       <c r="C46" s="1">
         <f>BLS_Table_3!C45</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D46" s="1">
         <f>BLS_Table_3!D45</f>
@@ -6578,11 +6545,11 @@
       </c>
       <c r="E46" s="1">
         <f>BLS_Table_3!E45</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6599,15 +6566,15 @@
       </c>
       <c r="D47" s="1">
         <f>BLS_Table_3!D46</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E47" s="1">
         <f>BLS_Table_3!E46</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6624,15 +6591,15 @@
       </c>
       <c r="D48" s="1">
         <f>BLS_Table_3!D47</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E48" s="1">
         <f>BLS_Table_3!E47</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6641,7 +6608,7 @@
       </c>
       <c r="B49" s="1">
         <f>BLS_Table_3!B48</f>
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C49" s="1">
         <f>BLS_Table_3!C48</f>
@@ -6649,15 +6616,15 @@
       </c>
       <c r="D49" s="1">
         <f>BLS_Table_3!D48</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
         <f>BLS_Table_3!E48</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.69999999999999973</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6691,11 +6658,11 @@
       </c>
       <c r="B51" s="1">
         <f>BLS_Table_3!B50</f>
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C51" s="1">
         <f>BLS_Table_3!C50</f>
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D51" s="1">
         <f>BLS_Table_3!D50</f>
@@ -6703,11 +6670,11 @@
       </c>
       <c r="E51" s="1">
         <f>BLS_Table_3!E50</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>-0.40000000000000036</v>
+        <v>-0.69999999999999929</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6724,15 +6691,15 @@
       </c>
       <c r="D52" s="1">
         <f>BLS_Table_3!D51</f>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E52" s="1">
         <f>BLS_Table_3!E51</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.19999999999999929</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6741,23 +6708,23 @@
       </c>
       <c r="B53" s="1">
         <f>BLS_Table_3!B52</f>
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C53" s="1">
         <f>BLS_Table_3!C52</f>
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1">
         <f>BLS_Table_3!D52</f>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E53" s="1">
         <f>BLS_Table_3!E52</f>
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>1.3000000000000003</v>
+        <v>1.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -6769,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6786,16 +6753,16 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="C1" s="4">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="D1" s="4">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="E1" s="6">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -6806,20 +6773,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="29">
-        <v>140972</v>
+        <v>141223</v>
       </c>
       <c r="C2" s="29">
-        <v>143314</v>
+        <v>143547</v>
       </c>
       <c r="D2" s="29">
-        <v>143559</v>
+        <v>143755</v>
       </c>
       <c r="E2" s="29">
-        <v>143774</v>
+        <v>143915</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>1.9876287489714262</v>
+        <v>1.9062050799090846</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -6828,23 +6795,23 @@
       </c>
       <c r="B3" s="1">
         <f>BLS_T5_Total!B2</f>
-        <v>1936.1</v>
+        <v>1939.5</v>
       </c>
       <c r="C3" s="1">
         <f>BLS_T5_Total!C2</f>
-        <v>1955.1</v>
+        <v>1958.8</v>
       </c>
       <c r="D3" s="1">
         <f>BLS_T5_Total!D2</f>
-        <v>1958.8</v>
+        <v>1959</v>
       </c>
       <c r="E3" s="1">
         <f>BLS_T5_Total!E2</f>
-        <v>1959.7</v>
+        <v>1965.6</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">((E3/B3)-1)*100</f>
-        <v>1.2189453024120667</v>
+        <v>1.345707656612527</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6853,23 +6820,23 @@
       </c>
       <c r="B4" s="1">
         <f>BLS_T5_Total!B3</f>
-        <v>340</v>
+        <v>340.2</v>
       </c>
       <c r="C4" s="1">
         <f>BLS_T5_Total!C3</f>
-        <v>339.2</v>
+        <v>339.6</v>
       </c>
       <c r="D4" s="1">
         <f>BLS_T5_Total!D3</f>
-        <v>339.6</v>
+        <v>338.4</v>
       </c>
       <c r="E4" s="1">
         <f>BLS_T5_Total!E3</f>
-        <v>338.2</v>
+        <v>336.7</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.52941176470588935</v>
+        <v>-1.0288065843621408</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -6878,23 +6845,23 @@
       </c>
       <c r="B5" s="1">
         <f>BLS_T5_Total!B4</f>
-        <v>2612.4</v>
+        <v>2615.8000000000002</v>
       </c>
       <c r="C5" s="1">
         <f>BLS_T5_Total!C4</f>
-        <v>2683.1</v>
+        <v>2688.9</v>
       </c>
       <c r="D5" s="1">
         <f>BLS_T5_Total!D4</f>
-        <v>2688.9</v>
+        <v>2691.9</v>
       </c>
       <c r="E5" s="1">
         <f>BLS_T5_Total!E4</f>
-        <v>2694</v>
+        <v>2697.2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>3.1235645383555388</v>
+        <v>3.111858704793935</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -6903,23 +6870,23 @@
       </c>
       <c r="B6" s="1">
         <f>BLS_T5_Total!B5</f>
-        <v>1197.9000000000001</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="C6" s="1">
         <f>BLS_T5_Total!C5</f>
-        <v>1222.9000000000001</v>
+        <v>1227.8</v>
       </c>
       <c r="D6" s="1">
         <f>BLS_T5_Total!D5</f>
-        <v>1227.8</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="E6" s="1">
         <f>BLS_T5_Total!E5</f>
-        <v>1223.9000000000001</v>
+        <v>1225.0999999999999</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>2.1704649803823362</v>
+        <v>2.1001750145845266</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6928,23 +6895,23 @@
       </c>
       <c r="B7" s="1">
         <f>BLS_T5_Total!B6</f>
-        <v>15900.1</v>
+        <v>15931.3</v>
       </c>
       <c r="C7" s="1">
         <f>BLS_T5_Total!C6</f>
-        <v>16270.1</v>
+        <v>16316.8</v>
       </c>
       <c r="D7" s="1">
         <f>BLS_T5_Total!D6</f>
-        <v>16316.8</v>
+        <v>16321.9</v>
       </c>
       <c r="E7" s="1">
         <f>BLS_T5_Total!E6</f>
-        <v>16320.9</v>
+        <v>16381.5</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>2.6465242356966234</v>
+        <v>2.825883637870108</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -6953,23 +6920,23 @@
       </c>
       <c r="B8" s="1">
         <f>BLS_T5_Total!B7</f>
-        <v>2523.3000000000002</v>
+        <v>2526.1</v>
       </c>
       <c r="C8" s="1">
         <f>BLS_T5_Total!C7</f>
-        <v>2582.3000000000002</v>
+        <v>2588.8000000000002</v>
       </c>
       <c r="D8" s="1">
         <f>BLS_T5_Total!D7</f>
-        <v>2588.8000000000002</v>
+        <v>2595.8000000000002</v>
       </c>
       <c r="E8" s="1">
         <f>BLS_T5_Total!E7</f>
-        <v>2594.3000000000002</v>
+        <v>2593.8000000000002</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>2.8137756113026491</v>
+        <v>2.680020585091647</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -6978,23 +6945,23 @@
       </c>
       <c r="B9" s="1">
         <f>BLS_T5_Total!B8</f>
-        <v>1670.6</v>
+        <v>1669.7</v>
       </c>
       <c r="C9" s="1">
         <f>BLS_T5_Total!C8</f>
-        <v>1681.2</v>
+        <v>1685.3</v>
       </c>
       <c r="D9" s="1">
         <f>BLS_T5_Total!D8</f>
-        <v>1685.3</v>
+        <v>1686.3</v>
       </c>
       <c r="E9" s="1">
         <f>BLS_T5_Total!E8</f>
-        <v>1685.6</v>
+        <v>1689.8</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.89788100083803002</v>
+        <v>1.2038090674971524</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -7003,23 +6970,23 @@
       </c>
       <c r="B10" s="1">
         <f>BLS_T5_Total!B9</f>
-        <v>446.2</v>
+        <v>443.4</v>
       </c>
       <c r="C10" s="1">
         <f>BLS_T5_Total!C9</f>
-        <v>457.5</v>
+        <v>456.6</v>
       </c>
       <c r="D10" s="1">
         <f>BLS_T5_Total!D9</f>
-        <v>456.6</v>
+        <v>458.6</v>
       </c>
       <c r="E10" s="1">
         <f>BLS_T5_Total!E9</f>
-        <v>457.9</v>
+        <v>460</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>2.622142536978922</v>
+        <v>3.7437979251240483</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>121</v>
@@ -7034,23 +7001,23 @@
       </c>
       <c r="B11" s="1">
         <f>BLS_T5_Total!B10</f>
-        <v>764.6</v>
+        <v>765.6</v>
       </c>
       <c r="C11" s="1">
         <f>BLS_T5_Total!C10</f>
-        <v>775.2</v>
+        <v>775</v>
       </c>
       <c r="D11" s="1">
         <f>BLS_T5_Total!D10</f>
-        <v>775</v>
+        <v>773.8</v>
       </c>
       <c r="E11" s="1">
         <f>BLS_T5_Total!E10</f>
-        <v>774.5</v>
+        <v>777.4</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.2947946638765417</v>
+        <v>1.541274817136884</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>122</v>
@@ -7065,23 +7032,23 @@
       </c>
       <c r="B12" s="1">
         <f>BLS_T5_Total!B11</f>
-        <v>8014.5</v>
+        <v>8029.4</v>
       </c>
       <c r="C12" s="1">
         <f>BLS_T5_Total!C11</f>
-        <v>8235.7999999999993</v>
+        <v>8245.7999999999993</v>
       </c>
       <c r="D12" s="1">
         <f>BLS_T5_Total!D11</f>
-        <v>8245.7999999999993</v>
+        <v>8252.7999999999993</v>
       </c>
       <c r="E12" s="1">
         <f>BLS_T5_Total!E11</f>
-        <v>8248.7999999999993</v>
+        <v>8283.9</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>2.9234512446191241</v>
+        <v>3.1696017137021526</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -7090,23 +7057,23 @@
       </c>
       <c r="B13" s="1">
         <f>BLS_T5_Total!B12</f>
-        <v>4229.1000000000004</v>
+        <v>4230.5</v>
       </c>
       <c r="C13" s="1">
         <f>BLS_T5_Total!C12</f>
-        <v>4330.2</v>
+        <v>4346.5</v>
       </c>
       <c r="D13" s="1">
         <f>BLS_T5_Total!D12</f>
-        <v>4346.5</v>
+        <v>4360.7</v>
       </c>
       <c r="E13" s="1">
         <f>BLS_T5_Total!E12</f>
-        <v>4359.1000000000004</v>
+        <v>4371.3</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>3.0739400818140972</v>
+        <v>3.3282117952960766</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -7115,23 +7082,23 @@
       </c>
       <c r="B14" s="1">
         <f>BLS_T5_Total!B13</f>
-        <v>634.4</v>
+        <v>633.9</v>
       </c>
       <c r="C14" s="1">
         <f>BLS_T5_Total!C13</f>
-        <v>644.29999999999995</v>
+        <v>648.6</v>
       </c>
       <c r="D14" s="1">
         <f>BLS_T5_Total!D13</f>
-        <v>648.6</v>
+        <v>651.4</v>
       </c>
       <c r="E14" s="1">
         <f>BLS_T5_Total!E13</f>
-        <v>653</v>
+        <v>646.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>2.9319041614123575</v>
+        <v>1.9876952200662545</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -7140,23 +7107,23 @@
       </c>
       <c r="B15" s="1">
         <f>BLS_T5_Total!B14</f>
-        <v>667.8</v>
+        <v>669</v>
       </c>
       <c r="C15" s="1">
         <f>BLS_T5_Total!C14</f>
-        <v>689.2</v>
+        <v>691</v>
       </c>
       <c r="D15" s="1">
         <f>BLS_T5_Total!D14</f>
-        <v>691</v>
+        <v>691.7</v>
       </c>
       <c r="E15" s="1">
         <f>BLS_T5_Total!E14</f>
-        <v>691.8</v>
+        <v>694.7</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>3.5938903863432126</v>
+        <v>3.8415545590433586</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -7165,23 +7132,23 @@
       </c>
       <c r="B16" s="1">
         <f>BLS_T5_Total!B15</f>
-        <v>5929.1</v>
+        <v>5944.6</v>
       </c>
       <c r="C16" s="1">
         <f>BLS_T5_Total!C15</f>
-        <v>5975.7</v>
+        <v>5994.3</v>
       </c>
       <c r="D16" s="1">
         <f>BLS_T5_Total!D15</f>
-        <v>5994.3</v>
+        <v>6006.7</v>
       </c>
       <c r="E16" s="1">
         <f>BLS_T5_Total!E15</f>
-        <v>6009</v>
+        <v>6012.1</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1.3475906967330475</v>
+        <v>1.1354843050836116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -7190,23 +7157,23 @@
       </c>
       <c r="B17" s="1">
         <f>BLS_T5_Total!B16</f>
-        <v>3019.6</v>
+        <v>3023.8</v>
       </c>
       <c r="C17" s="1">
         <f>BLS_T5_Total!C16</f>
-        <v>3065.4</v>
+        <v>3067.5</v>
       </c>
       <c r="D17" s="1">
         <f>BLS_T5_Total!D16</f>
-        <v>3067.5</v>
+        <v>3062.1</v>
       </c>
       <c r="E17" s="1">
         <f>BLS_T5_Total!E16</f>
-        <v>3058.5</v>
+        <v>3073.1</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.2882500993509183</v>
+        <v>1.6303988359018362</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7215,23 +7182,23 @@
       </c>
       <c r="B18" s="1">
         <f>BLS_T5_Total!B17</f>
-        <v>1560.1</v>
+        <v>1560.8</v>
       </c>
       <c r="C18" s="1">
         <f>BLS_T5_Total!C17</f>
-        <v>1580.6</v>
+        <v>1573.8</v>
       </c>
       <c r="D18" s="1">
         <f>BLS_T5_Total!D17</f>
-        <v>1573.8</v>
+        <v>1576.5</v>
       </c>
       <c r="E18" s="1">
         <f>BLS_T5_Total!E17</f>
-        <v>1575.4</v>
+        <v>1580.8</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.98070636497662456</v>
+        <v>1.2813941568426523</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7240,23 +7207,23 @@
       </c>
       <c r="B19" s="1">
         <f>BLS_T5_Total!B18</f>
-        <v>1398.8</v>
+        <v>1396.1</v>
       </c>
       <c r="C19" s="1">
         <f>BLS_T5_Total!C18</f>
-        <v>1397.8</v>
+        <v>1396.3</v>
       </c>
       <c r="D19" s="1">
         <f>BLS_T5_Total!D18</f>
-        <v>1396.3</v>
+        <v>1399.2</v>
       </c>
       <c r="E19" s="1">
         <f>BLS_T5_Total!E18</f>
-        <v>1398.8</v>
+        <v>1395.5</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.2976864121480052E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7265,23 +7232,23 @@
       </c>
       <c r="B20" s="1">
         <f>BLS_T5_Total!B19</f>
-        <v>1871.4</v>
+        <v>1870</v>
       </c>
       <c r="C20" s="1">
         <f>BLS_T5_Total!C19</f>
-        <v>1904.9</v>
+        <v>1904.6</v>
       </c>
       <c r="D20" s="1">
         <f>BLS_T5_Total!D19</f>
-        <v>1904.6</v>
+        <v>1908.9</v>
       </c>
       <c r="E20" s="1">
         <f>BLS_T5_Total!E19</f>
-        <v>1908.3</v>
+        <v>1904.9</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.9717858287912726</v>
+        <v>1.8663101604278198</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -7290,23 +7257,23 @@
       </c>
       <c r="B21" s="1">
         <f>BLS_T5_Total!B20</f>
-        <v>1991.3</v>
+        <v>1990.8</v>
       </c>
       <c r="C21" s="1">
         <f>BLS_T5_Total!C20</f>
-        <v>1983.2</v>
+        <v>1978.2</v>
       </c>
       <c r="D21" s="1">
         <f>BLS_T5_Total!D20</f>
-        <v>1978.2</v>
+        <v>1977.1</v>
       </c>
       <c r="E21" s="1">
         <f>BLS_T5_Total!E20</f>
-        <v>1978.1</v>
+        <v>1978.5</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.66288354341385025</v>
+        <v>-0.61784207353827725</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -7315,23 +7282,23 @@
       </c>
       <c r="B22" s="1">
         <f>BLS_T5_Total!B21</f>
-        <v>608.6</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="C22" s="1">
         <f>BLS_T5_Total!C21</f>
-        <v>614.6</v>
+        <v>613</v>
       </c>
       <c r="D22" s="1">
         <f>BLS_T5_Total!D21</f>
-        <v>613</v>
+        <v>614.6</v>
       </c>
       <c r="E22" s="1">
         <f>BLS_T5_Total!E21</f>
-        <v>614.6</v>
+        <v>612.70000000000005</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.98586920801839728</v>
+        <v>0.47556575926535061</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -7340,23 +7307,23 @@
       </c>
       <c r="B23" s="1">
         <f>BLS_T5_Total!B22</f>
-        <v>2641.2</v>
+        <v>2648.9</v>
       </c>
       <c r="C23" s="1">
         <f>BLS_T5_Total!C22</f>
-        <v>2684.1</v>
+        <v>2684.3</v>
       </c>
       <c r="D23" s="1">
         <f>BLS_T5_Total!D22</f>
-        <v>2684.3</v>
+        <v>2704.6</v>
       </c>
       <c r="E23" s="1">
         <f>BLS_T5_Total!E22</f>
-        <v>2703.6</v>
+        <v>2704.8</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>2.362562471603824</v>
+        <v>2.1103099399750969</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7365,23 +7332,23 @@
       </c>
       <c r="B24" s="1">
         <f>BLS_T5_Total!B23</f>
-        <v>3476</v>
+        <v>3477.5</v>
       </c>
       <c r="C24" s="1">
         <f>BLS_T5_Total!C23</f>
-        <v>3516.6</v>
+        <v>3530.5</v>
       </c>
       <c r="D24" s="1">
         <f>BLS_T5_Total!D23</f>
-        <v>3530.5</v>
+        <v>3537.1</v>
       </c>
       <c r="E24" s="1">
         <f>BLS_T5_Total!E23</f>
-        <v>3537.4</v>
+        <v>3551</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>1.7663981588032174</v>
+        <v>2.1135873472322153</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -7390,23 +7357,23 @@
       </c>
       <c r="B25" s="1">
         <f>BLS_T5_Total!B24</f>
-        <v>4223.5</v>
+        <v>4226.2</v>
       </c>
       <c r="C25" s="1">
         <f>BLS_T5_Total!C24</f>
-        <v>4307.3999999999996</v>
+        <v>4315.3</v>
       </c>
       <c r="D25" s="1">
         <f>BLS_T5_Total!D24</f>
-        <v>4315.3</v>
+        <v>4324.8999999999996</v>
       </c>
       <c r="E25" s="1">
         <f>BLS_T5_Total!E24</f>
-        <v>4320.8</v>
+        <v>4330.7</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>2.3037764886942202</v>
+        <v>2.472670484122852</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -7415,23 +7382,23 @@
       </c>
       <c r="B26" s="1">
         <f>BLS_T5_Total!B25</f>
-        <v>2845.5</v>
+        <v>2851.6</v>
       </c>
       <c r="C26" s="1">
         <f>BLS_T5_Total!C25</f>
-        <v>2870.7</v>
+        <v>2879.4</v>
       </c>
       <c r="D26" s="1">
         <f>BLS_T5_Total!D25</f>
-        <v>2879.4</v>
+        <v>2876.2</v>
       </c>
       <c r="E26" s="1">
         <f>BLS_T5_Total!E25</f>
-        <v>2876.5</v>
+        <v>2891.8</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1.0894394658232276</v>
+        <v>1.4097348856782155</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -7440,23 +7407,23 @@
       </c>
       <c r="B27" s="1">
         <f>BLS_T5_Total!B26</f>
-        <v>1125.9000000000001</v>
+        <v>1129.0999999999999</v>
       </c>
       <c r="C27" s="1">
         <f>BLS_T5_Total!C26</f>
-        <v>1140.0999999999999</v>
+        <v>1144.5</v>
       </c>
       <c r="D27" s="1">
         <f>BLS_T5_Total!D26</f>
-        <v>1144.5</v>
+        <v>1147.0999999999999</v>
       </c>
       <c r="E27" s="1">
         <f>BLS_T5_Total!E26</f>
-        <v>1146.5999999999999</v>
+        <v>1144.5</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>1.8385291766586542</v>
+        <v>1.3639181649101051</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7465,23 +7432,23 @@
       </c>
       <c r="B28" s="1">
         <f>BLS_T5_Total!B27</f>
-        <v>2774.6</v>
+        <v>2779.1</v>
       </c>
       <c r="C28" s="1">
         <f>BLS_T5_Total!C27</f>
-        <v>2789.1</v>
+        <v>2799.8</v>
       </c>
       <c r="D28" s="1">
         <f>BLS_T5_Total!D27</f>
-        <v>2799.8</v>
+        <v>2801.2</v>
       </c>
       <c r="E28" s="1">
         <f>BLS_T5_Total!E27</f>
-        <v>2798.3</v>
+        <v>2816.2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.85417717869242793</v>
+        <v>1.3349645568709212</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -7490,23 +7457,23 @@
       </c>
       <c r="B29" s="1">
         <f>BLS_T5_Total!B28</f>
-        <v>461.3</v>
+        <v>460.7</v>
       </c>
       <c r="C29" s="1">
         <f>BLS_T5_Total!C28</f>
-        <v>462.4</v>
+        <v>464.3</v>
       </c>
       <c r="D29" s="1">
         <f>BLS_T5_Total!D28</f>
-        <v>464.3</v>
+        <v>464.6</v>
       </c>
       <c r="E29" s="1">
         <f>BLS_T5_Total!E28</f>
-        <v>464.7</v>
+        <v>466.6</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.73704747452849606</v>
+        <v>1.2806598654221846</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -7519,19 +7486,19 @@
       </c>
       <c r="C30" s="1">
         <f>BLS_T5_Total!C29</f>
-        <v>1016.3</v>
+        <v>1013.9</v>
       </c>
       <c r="D30" s="1">
         <f>BLS_T5_Total!D29</f>
-        <v>1013.9</v>
+        <v>1017.3</v>
       </c>
       <c r="E30" s="1">
         <f>BLS_T5_Total!E29</f>
-        <v>1018.5</v>
+        <v>1017.4</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>1.6365632172437916</v>
+        <v>1.5267937331603587</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -7540,23 +7507,23 @@
       </c>
       <c r="B31" s="1">
         <f>BLS_T5_Total!B30</f>
-        <v>1247.7</v>
+        <v>1250.2</v>
       </c>
       <c r="C31" s="1">
         <f>BLS_T5_Total!C30</f>
-        <v>1273.5</v>
+        <v>1276.7</v>
       </c>
       <c r="D31" s="1">
         <f>BLS_T5_Total!D30</f>
-        <v>1276.7</v>
+        <v>1282.7</v>
       </c>
       <c r="E31" s="1">
         <f>BLS_T5_Total!E30</f>
-        <v>1283.2</v>
+        <v>1283.0999999999999</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>2.8452352328284025</v>
+        <v>2.631578947368407</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -7565,23 +7532,23 @@
       </c>
       <c r="B32" s="1">
         <f>BLS_T5_Total!B31</f>
-        <v>653.79999999999995</v>
+        <v>654.79999999999995</v>
       </c>
       <c r="C32" s="1">
         <f>BLS_T5_Total!C31</f>
-        <v>660.9</v>
+        <v>665.1</v>
       </c>
       <c r="D32" s="1">
         <f>BLS_T5_Total!D31</f>
-        <v>665.1</v>
+        <v>664.9</v>
       </c>
       <c r="E32" s="1">
         <f>BLS_T5_Total!E31</f>
-        <v>664.3</v>
+        <v>663.5</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>1.6059957173447437</v>
+        <v>1.3286499694563192</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -7590,23 +7557,23 @@
       </c>
       <c r="B33" s="1">
         <f>BLS_T5_Total!B32</f>
-        <v>3991.3</v>
+        <v>4002.5</v>
       </c>
       <c r="C33" s="1">
         <f>BLS_T5_Total!C32</f>
-        <v>4057.1</v>
+        <v>4051.9</v>
       </c>
       <c r="D33" s="1">
         <f>BLS_T5_Total!D32</f>
-        <v>4051.9</v>
+        <v>4073.9</v>
       </c>
       <c r="E33" s="1">
         <f>BLS_T5_Total!E32</f>
-        <v>4069.2</v>
+        <v>4066.4</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>1.9517450454739071</v>
+        <v>1.5965021861336748</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -7615,7 +7582,7 @@
       </c>
       <c r="B34" s="1">
         <f>BLS_T5_Total!B33</f>
-        <v>826</v>
+        <v>825.9</v>
       </c>
       <c r="C34" s="1">
         <f>BLS_T5_Total!C33</f>
@@ -7623,15 +7590,15 @@
       </c>
       <c r="D34" s="1">
         <f>BLS_T5_Total!D33</f>
-        <v>826.5</v>
+        <v>827.6</v>
       </c>
       <c r="E34" s="1">
         <f>BLS_T5_Total!E33</f>
-        <v>828.3</v>
+        <v>827.6</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.27845036319611438</v>
+        <v>0.20583605763411228</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -7640,23 +7607,23 @@
       </c>
       <c r="B35" s="1">
         <f>BLS_T5_Total!B34</f>
-        <v>9202.1</v>
+        <v>9209.7999999999993</v>
       </c>
       <c r="C35" s="1">
         <f>BLS_T5_Total!C34</f>
-        <v>9298.5</v>
+        <v>9320.2999999999993</v>
       </c>
       <c r="D35" s="1">
         <f>BLS_T5_Total!D34</f>
-        <v>9320.2999999999993</v>
+        <v>9332.9</v>
       </c>
       <c r="E35" s="1">
         <f>BLS_T5_Total!E34</f>
-        <v>9334.4</v>
+        <v>9343.2999999999993</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>1.4377153041153612</v>
+        <v>1.4495428782383968</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -7665,23 +7632,23 @@
       </c>
       <c r="B36" s="1">
         <f>BLS_T5_Total!B35</f>
-        <v>4204.3999999999996</v>
+        <v>4215.8999999999996</v>
       </c>
       <c r="C36" s="1">
         <f>BLS_T5_Total!C35</f>
-        <v>4296.1000000000004</v>
+        <v>4296.2</v>
       </c>
       <c r="D36" s="1">
         <f>BLS_T5_Total!D35</f>
-        <v>4296.2</v>
+        <v>4310.5</v>
       </c>
       <c r="E36" s="1">
         <f>BLS_T5_Total!E35</f>
-        <v>4308.7</v>
+        <v>4311.5</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>2.4807344686518906</v>
+        <v>2.2676059678834903</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -7690,23 +7657,23 @@
       </c>
       <c r="B37" s="1">
         <f>BLS_T5_Total!B36</f>
-        <v>461</v>
+        <v>457.5</v>
       </c>
       <c r="C37" s="1">
         <f>BLS_T5_Total!C36</f>
-        <v>445.5</v>
+        <v>441.2</v>
       </c>
       <c r="D37" s="1">
         <f>BLS_T5_Total!D36</f>
-        <v>441.2</v>
+        <v>440</v>
       </c>
       <c r="E37" s="1">
         <f>BLS_T5_Total!E36</f>
-        <v>440.3</v>
+        <v>439.9</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>-4.490238611713659</v>
+        <v>-3.8469945355191326</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -7715,23 +7682,23 @@
       </c>
       <c r="B38" s="1">
         <f>BLS_T5_Total!B37</f>
-        <v>5399.1</v>
+        <v>5405.9</v>
       </c>
       <c r="C38" s="1">
         <f>BLS_T5_Total!C37</f>
-        <v>5465.3</v>
+        <v>5475.5</v>
       </c>
       <c r="D38" s="1">
         <f>BLS_T5_Total!D37</f>
-        <v>5475.5</v>
+        <v>5491.4</v>
       </c>
       <c r="E38" s="1">
         <f>BLS_T5_Total!E37</f>
-        <v>5493.8</v>
+        <v>5477.8</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>1.7539960363764262</v>
+        <v>1.3300283024103354</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -7740,23 +7707,23 @@
       </c>
       <c r="B39" s="1">
         <f>BLS_T5_Total!B38</f>
-        <v>1670.1</v>
+        <v>1665.7</v>
       </c>
       <c r="C39" s="1">
         <f>BLS_T5_Total!C38</f>
-        <v>1667.6</v>
+        <v>1669.8</v>
       </c>
       <c r="D39" s="1">
         <f>BLS_T5_Total!D38</f>
-        <v>1669.8</v>
+        <v>1666</v>
       </c>
       <c r="E39" s="1">
         <f>BLS_T5_Total!E38</f>
-        <v>1664</v>
+        <v>1663.6</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>-0.36524758996466788</v>
+        <v>-0.12607312241100788</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -7765,23 +7732,23 @@
       </c>
       <c r="B40" s="1">
         <f>BLS_T5_Total!B39</f>
-        <v>1764.7</v>
+        <v>1766.6</v>
       </c>
       <c r="C40" s="1">
         <f>BLS_T5_Total!C39</f>
-        <v>1812</v>
+        <v>1819.4</v>
       </c>
       <c r="D40" s="1">
         <f>BLS_T5_Total!D39</f>
-        <v>1819.4</v>
+        <v>1823.2</v>
       </c>
       <c r="E40" s="1">
         <f>BLS_T5_Total!E39</f>
-        <v>1823.3</v>
+        <v>1828.9</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>3.3206777355924366</v>
+        <v>3.526548171629118</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -7790,23 +7757,23 @@
       </c>
       <c r="B41" s="1">
         <f>BLS_T5_Total!B40</f>
-        <v>5810.7</v>
+        <v>5822.7</v>
       </c>
       <c r="C41" s="1">
         <f>BLS_T5_Total!C40</f>
-        <v>5855.1</v>
+        <v>5876.4</v>
       </c>
       <c r="D41" s="1">
         <f>BLS_T5_Total!D40</f>
-        <v>5876.4</v>
+        <v>5894.6</v>
       </c>
       <c r="E41" s="1">
         <f>BLS_T5_Total!E40</f>
-        <v>5891.7</v>
+        <v>5877.7</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>1.3939800712478689</v>
+        <v>0.94457897538942071</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -7815,23 +7782,23 @@
       </c>
       <c r="B42" s="1">
         <f>BLS_T5_Total!B41</f>
-        <v>482.1</v>
+        <v>484</v>
       </c>
       <c r="C42" s="1">
         <f>BLS_T5_Total!C41</f>
-        <v>487.9</v>
+        <v>488.2</v>
       </c>
       <c r="D42" s="1">
         <f>BLS_T5_Total!D41</f>
-        <v>488.2</v>
+        <v>490.6</v>
       </c>
       <c r="E42" s="1">
         <f>BLS_T5_Total!E41</f>
-        <v>490.9</v>
+        <v>489.1</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.8253474382907919</v>
+        <v>1.0537190082644754</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -7840,23 +7807,23 @@
       </c>
       <c r="B43" s="1">
         <f>BLS_T5_Total!B42</f>
-        <v>1987.2</v>
+        <v>1987.3</v>
       </c>
       <c r="C43" s="1">
         <f>BLS_T5_Total!C42</f>
-        <v>2028.7</v>
+        <v>2028.6</v>
       </c>
       <c r="D43" s="1">
         <f>BLS_T5_Total!D42</f>
-        <v>2028.6</v>
+        <v>2039.6</v>
       </c>
       <c r="E43" s="1">
         <f>BLS_T5_Total!E42</f>
-        <v>2040</v>
+        <v>2040.5</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>2.657004830917864</v>
+        <v>2.6769989432898988</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -7865,11 +7832,11 @@
       </c>
       <c r="B44" s="1">
         <f>BLS_T5_Total!B43</f>
-        <v>427.9</v>
+        <v>428</v>
       </c>
       <c r="C44" s="1">
         <f>BLS_T5_Total!C43</f>
-        <v>431.5</v>
+        <v>432.3</v>
       </c>
       <c r="D44" s="1">
         <f>BLS_T5_Total!D43</f>
@@ -7877,11 +7844,11 @@
       </c>
       <c r="E44" s="1">
         <f>BLS_T5_Total!E43</f>
-        <v>432.3</v>
+        <v>432.1</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>1.0282776349614497</v>
+        <v>0.95794392523365079</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -7890,23 +7857,23 @@
       </c>
       <c r="B45" s="1">
         <f>BLS_T5_Total!B44</f>
-        <v>2859</v>
+        <v>2869.2</v>
       </c>
       <c r="C45" s="1">
         <f>BLS_T5_Total!C44</f>
-        <v>2952.4</v>
+        <v>2951.5</v>
       </c>
       <c r="D45" s="1">
         <f>BLS_T5_Total!D44</f>
-        <v>2951.5</v>
+        <v>2951.7</v>
       </c>
       <c r="E45" s="1">
         <f>BLS_T5_Total!E44</f>
-        <v>2950.8</v>
+        <v>2953</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>3.2109129066107078</v>
+        <v>2.9206747525442722</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -7915,23 +7882,23 @@
       </c>
       <c r="B46" s="1">
         <f>BLS_T5_Total!B45</f>
-        <v>11774</v>
+        <v>11780.3</v>
       </c>
       <c r="C46" s="1">
         <f>BLS_T5_Total!C45</f>
-        <v>11962.3</v>
+        <v>11971</v>
       </c>
       <c r="D46" s="1">
         <f>BLS_T5_Total!D45</f>
-        <v>11971</v>
+        <v>11961.6</v>
       </c>
       <c r="E46" s="1">
         <f>BLS_T5_Total!E45</f>
-        <v>11959</v>
+        <v>11969.9</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>1.571258705622558</v>
+        <v>1.6094666519528289</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -7940,23 +7907,23 @@
       </c>
       <c r="B47" s="1">
         <f>BLS_T5_Total!B46</f>
-        <v>1366</v>
+        <v>1367.1</v>
       </c>
       <c r="C47" s="1">
         <f>BLS_T5_Total!C46</f>
-        <v>1399.3</v>
+        <v>1407.3</v>
       </c>
       <c r="D47" s="1">
         <f>BLS_T5_Total!D46</f>
-        <v>1407.3</v>
+        <v>1411.7</v>
       </c>
       <c r="E47" s="1">
         <f>BLS_T5_Total!E46</f>
-        <v>1411</v>
+        <v>1414.1</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>3.2942898975109713</v>
+        <v>3.4379343135103602</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -7965,23 +7932,23 @@
       </c>
       <c r="B48" s="1">
         <f>BLS_T5_Total!B47</f>
-        <v>311.7</v>
+        <v>311.2</v>
       </c>
       <c r="C48" s="1">
         <f>BLS_T5_Total!C47</f>
-        <v>316.3</v>
+        <v>315.89999999999998</v>
       </c>
       <c r="D48" s="1">
         <f>BLS_T5_Total!D47</f>
-        <v>315.89999999999998</v>
+        <v>316.5</v>
       </c>
       <c r="E48" s="1">
         <f>BLS_T5_Total!E47</f>
-        <v>316.10000000000002</v>
+        <v>317.2</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>1.4116137311517507</v>
+        <v>1.9280205655527016</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -7990,23 +7957,23 @@
       </c>
       <c r="B49" s="1">
         <f>BLS_T5_Total!B48</f>
-        <v>3813.2</v>
+        <v>3823.7</v>
       </c>
       <c r="C49" s="1">
         <f>BLS_T5_Total!C48</f>
-        <v>3901.5</v>
+        <v>3916.3</v>
       </c>
       <c r="D49" s="1">
         <f>BLS_T5_Total!D48</f>
-        <v>3916.3</v>
+        <v>3919.1</v>
       </c>
       <c r="E49" s="1">
         <f>BLS_T5_Total!E48</f>
-        <v>3921.2</v>
+        <v>3907.1</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>2.8322668624777059</v>
+        <v>2.1811334571226748</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -8015,23 +7982,23 @@
       </c>
       <c r="B50" s="1">
         <f>BLS_T5_Total!B49</f>
-        <v>3132</v>
+        <v>3136.8</v>
       </c>
       <c r="C50" s="1">
         <f>BLS_T5_Total!C49</f>
-        <v>3209.3</v>
+        <v>3222.7</v>
       </c>
       <c r="D50" s="1">
         <f>BLS_T5_Total!D49</f>
-        <v>3222.7</v>
+        <v>3230.5</v>
       </c>
       <c r="E50" s="1">
         <f>BLS_T5_Total!E49</f>
-        <v>3231.7</v>
+        <v>3241.7</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>3.1832694763729297</v>
+        <v>3.3441724049987132</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -8040,23 +8007,23 @@
       </c>
       <c r="B51" s="1">
         <f>BLS_T5_Total!B50</f>
-        <v>766.2</v>
+        <v>766.1</v>
       </c>
       <c r="C51" s="1">
         <f>BLS_T5_Total!C50</f>
-        <v>759.3</v>
+        <v>758.6</v>
       </c>
       <c r="D51" s="1">
         <f>BLS_T5_Total!D50</f>
-        <v>758.6</v>
+        <v>761.8</v>
       </c>
       <c r="E51" s="1">
         <f>BLS_T5_Total!E50</f>
-        <v>761</v>
+        <v>761.2</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>-0.67867397546332864</v>
+        <v>-0.63960318496280033</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -8065,23 +8032,23 @@
       </c>
       <c r="B52" s="1">
         <f>BLS_T5_Total!B51</f>
-        <v>2883.2</v>
+        <v>2881.6</v>
       </c>
       <c r="C52" s="1">
         <f>BLS_T5_Total!C51</f>
-        <v>2911.3</v>
+        <v>2922.9</v>
       </c>
       <c r="D52" s="1">
         <f>BLS_T5_Total!D51</f>
-        <v>2922.9</v>
+        <v>2936.2</v>
       </c>
       <c r="E52" s="1">
         <f>BLS_T5_Total!E51</f>
-        <v>2934.4</v>
+        <v>2923.6</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>1.7758046614872569</v>
+        <v>1.4575235980011092</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -8090,23 +8057,23 @@
       </c>
       <c r="B53" s="1">
         <f>BLS_T5_Total!B52</f>
-        <v>293.60000000000002</v>
+        <v>292.5</v>
       </c>
       <c r="C53" s="1">
         <f>BLS_T5_Total!C52</f>
-        <v>285.89999999999998</v>
+        <v>285.3</v>
       </c>
       <c r="D53" s="1">
         <f>BLS_T5_Total!D52</f>
-        <v>285.3</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="E53" s="1">
         <f>BLS_T5_Total!E52</f>
-        <v>284.3</v>
+        <v>281.7</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1675749318801127</v>
+        <v>-3.6923076923076947</v>
       </c>
     </row>
   </sheetData>
@@ -8120,7 +8087,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8134,16 +8101,16 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="C1" s="4">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="D1" s="4">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="E1" s="6">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -8154,20 +8121,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="17">
-        <v>21961</v>
+        <v>21971</v>
       </c>
       <c r="C2" s="17">
-        <v>22053</v>
+        <v>22064</v>
       </c>
       <c r="D2" s="17">
-        <v>22062</v>
+        <v>22088</v>
       </c>
       <c r="E2" s="17">
-        <v>22082</v>
+        <v>22077</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>0.55097673147852522</v>
+        <v>0.48245414409904264</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -8176,11 +8143,11 @@
       </c>
       <c r="B3" s="7">
         <f>BLS_T5_GOV!B2</f>
-        <v>376.3</v>
+        <v>377.3</v>
       </c>
       <c r="C3" s="7">
         <f>BLS_T5_GOV!C2</f>
-        <v>375.4</v>
+        <v>374.9</v>
       </c>
       <c r="D3" s="7">
         <f>BLS_T5_GOV!D2</f>
@@ -8188,11 +8155,11 @@
       </c>
       <c r="E3" s="7">
         <f>BLS_T5_GOV!E2</f>
-        <v>375.1</v>
+        <v>375.9</v>
       </c>
       <c r="F3" s="1">
         <f>((E3/B3)-1)*100</f>
-        <v>-0.31889449906988832</v>
+        <v>-0.37105751391466324</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -8205,7 +8172,7 @@
       </c>
       <c r="C4" s="7">
         <f>BLS_T5_GOV!C3</f>
-        <v>81.900000000000006</v>
+        <v>81.7</v>
       </c>
       <c r="D4" s="7">
         <f>BLS_T5_GOV!D3</f>
@@ -8213,11 +8180,11 @@
       </c>
       <c r="E4" s="7">
         <f>BLS_T5_GOV!E3</f>
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F53" si="0">((E4/B4)-1)*100</f>
-        <v>-0.36585365853658569</v>
+        <v>-0.60975609756097615</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -8226,23 +8193,23 @@
       </c>
       <c r="B5" s="7">
         <f>BLS_T5_GOV!B4</f>
-        <v>410.1</v>
+        <v>409.3</v>
       </c>
       <c r="C5" s="7">
         <f>BLS_T5_GOV!C4</f>
-        <v>403.2</v>
+        <v>407.5</v>
       </c>
       <c r="D5" s="7">
         <f>BLS_T5_GOV!D4</f>
-        <v>407.5</v>
+        <v>408.4</v>
       </c>
       <c r="E5" s="7">
         <f>BLS_T5_GOV!E4</f>
-        <v>408.4</v>
+        <v>408.3</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.41453304072178732</v>
+        <v>-0.24431956999755311</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -8251,23 +8218,23 @@
       </c>
       <c r="B6" s="7">
         <f>BLS_T5_GOV!B5</f>
-        <v>212.5</v>
+        <v>212.4</v>
       </c>
       <c r="C6" s="7">
         <f>BLS_T5_GOV!C5</f>
-        <v>213.3</v>
+        <v>213.1</v>
       </c>
       <c r="D6" s="7">
         <f>BLS_T5_GOV!D5</f>
-        <v>213.1</v>
+        <v>212.8</v>
       </c>
       <c r="E6" s="7">
         <f>BLS_T5_GOV!E5</f>
-        <v>212.8</v>
+        <v>212.9</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14117647058824456</v>
+        <v>0.23540489642184248</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -8276,23 +8243,23 @@
       </c>
       <c r="B7" s="7">
         <f>BLS_T5_GOV!B6</f>
-        <v>2444.4</v>
+        <v>2446.5</v>
       </c>
       <c r="C7" s="7">
         <f>BLS_T5_GOV!C6</f>
-        <v>2481.9</v>
+        <v>2488.6</v>
       </c>
       <c r="D7" s="7">
         <f>BLS_T5_GOV!D6</f>
-        <v>2488.6</v>
+        <v>2493.4</v>
       </c>
       <c r="E7" s="7">
         <f>BLS_T5_GOV!E6</f>
-        <v>2491.1999999999998</v>
+        <v>2495.1999999999998</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.9145802650957222</v>
+        <v>1.9905988146331488</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -8301,23 +8268,23 @@
       </c>
       <c r="B8" s="7">
         <f>BLS_T5_GOV!B7</f>
-        <v>413.4</v>
+        <v>414.7</v>
       </c>
       <c r="C8" s="7">
         <f>BLS_T5_GOV!C7</f>
-        <v>420.6</v>
+        <v>422.4</v>
       </c>
       <c r="D8" s="7">
         <f>BLS_T5_GOV!D7</f>
-        <v>422.4</v>
+        <v>423.7</v>
       </c>
       <c r="E8" s="7">
         <f>BLS_T5_GOV!E7</f>
-        <v>422.6</v>
+        <v>424.5</v>
       </c>
       <c r="F8" s="1">
         <f>((E8/B8)-1)*100</f>
-        <v>2.2254475084663827</v>
+        <v>2.3631540872920187</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8326,23 +8293,23 @@
       </c>
       <c r="B9" s="7">
         <f>BLS_T5_GOV!B8</f>
-        <v>239.2</v>
+        <v>238.6</v>
       </c>
       <c r="C9" s="7">
         <f>BLS_T5_GOV!C8</f>
-        <v>238.3</v>
+        <v>237.5</v>
       </c>
       <c r="D9" s="7">
         <f>BLS_T5_GOV!D8</f>
-        <v>237.5</v>
+        <v>237.8</v>
       </c>
       <c r="E9" s="7">
         <f>BLS_T5_GOV!E8</f>
-        <v>237.8</v>
+        <v>237.9</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.58528428093644891</v>
+        <v>-0.29337803855825628</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -8351,23 +8318,23 @@
       </c>
       <c r="B10" s="7">
         <f>BLS_T5_GOV!B9</f>
-        <v>66.3</v>
+        <v>63.9</v>
       </c>
       <c r="C10" s="7">
         <f>BLS_T5_GOV!C9</f>
-        <v>65.7</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D10" s="7">
         <f>BLS_T5_GOV!D9</f>
-        <v>64.900000000000006</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="E10" s="7">
         <f>BLS_T5_GOV!E9</f>
-        <v>65.2</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6591251885369473</v>
+        <v>1.8779342723004522</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -8376,23 +8343,23 @@
       </c>
       <c r="B11" s="7">
         <f>BLS_T5_GOV!B10</f>
-        <v>237.7</v>
+        <v>237.8</v>
       </c>
       <c r="C11" s="7">
         <f>BLS_T5_GOV!C10</f>
-        <v>239.9</v>
+        <v>240.7</v>
       </c>
       <c r="D11" s="7">
         <f>BLS_T5_GOV!D10</f>
-        <v>240.7</v>
+        <v>239.7</v>
       </c>
       <c r="E11" s="7">
         <f>BLS_T5_GOV!E10</f>
-        <v>239.7</v>
+        <v>240.1</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.8413967185527893</v>
+        <v>0.9671993271656687</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>121</v>
@@ -8407,23 +8374,23 @@
       </c>
       <c r="B12" s="7">
         <f>BLS_T5_GOV!B11</f>
-        <v>1078.2</v>
+        <v>1079</v>
       </c>
       <c r="C12" s="7">
         <f>BLS_T5_GOV!C11</f>
-        <v>1082.7</v>
+        <v>1088.3</v>
       </c>
       <c r="D12" s="7">
         <f>BLS_T5_GOV!D11</f>
-        <v>1088.3</v>
+        <v>1087</v>
       </c>
       <c r="E12" s="7">
         <f>BLS_T5_GOV!E11</f>
-        <v>1087.2</v>
+        <v>1089.2</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.83472454090149917</v>
+        <v>0.94531974050047207</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>122</v>
@@ -8438,15 +8405,15 @@
       </c>
       <c r="B13" s="7">
         <f>BLS_T5_GOV!B12</f>
-        <v>678.7</v>
+        <v>678.8</v>
       </c>
       <c r="C13" s="7">
         <f>BLS_T5_GOV!C12</f>
-        <v>682.4</v>
+        <v>684.2</v>
       </c>
       <c r="D13" s="7">
         <f>BLS_T5_GOV!D12</f>
-        <v>684.2</v>
+        <v>687.7</v>
       </c>
       <c r="E13" s="7">
         <f>BLS_T5_GOV!E12</f>
@@ -8454,7 +8421,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>1.090319728893463</v>
+        <v>1.0754272245138585</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -8463,23 +8430,23 @@
       </c>
       <c r="B14" s="7">
         <f>BLS_T5_GOV!B13</f>
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="C14" s="7">
         <f>BLS_T5_GOV!C13</f>
-        <v>124.1</v>
+        <v>126.2</v>
       </c>
       <c r="D14" s="7">
         <f>BLS_T5_GOV!D13</f>
-        <v>126.2</v>
+        <v>126.5</v>
       </c>
       <c r="E14" s="7">
         <f>BLS_T5_GOV!E13</f>
-        <v>126.5</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.39682539682539542</v>
+        <v>-1.6653449643140306</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -8488,23 +8455,23 @@
       </c>
       <c r="B15" s="7">
         <f>BLS_T5_GOV!B14</f>
-        <v>118.5</v>
+        <v>118.7</v>
       </c>
       <c r="C15" s="7">
         <f>BLS_T5_GOV!C14</f>
-        <v>121.8</v>
+        <v>121.3</v>
       </c>
       <c r="D15" s="7">
         <f>BLS_T5_GOV!D14</f>
-        <v>121.3</v>
+        <v>121.8</v>
       </c>
       <c r="E15" s="7">
         <f>BLS_T5_GOV!E14</f>
-        <v>121.5</v>
+        <v>121.2</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>2.5316455696202445</v>
+        <v>2.1061499578769904</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -8513,23 +8480,23 @@
       </c>
       <c r="B16" s="7">
         <f>BLS_T5_GOV!B15</f>
-        <v>828.3</v>
+        <v>828.7</v>
       </c>
       <c r="C16" s="7">
         <f>BLS_T5_GOV!C15</f>
-        <v>830</v>
+        <v>831.3</v>
       </c>
       <c r="D16" s="7">
         <f>BLS_T5_GOV!D15</f>
-        <v>831.3</v>
+        <v>833</v>
       </c>
       <c r="E16" s="7">
         <f>BLS_T5_GOV!E15</f>
-        <v>833.1</v>
+        <v>834.4</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.57950018109380608</v>
+        <v>0.68782430312537279</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8538,23 +8505,23 @@
       </c>
       <c r="B17" s="7">
         <f>BLS_T5_GOV!B16</f>
-        <v>424.7</v>
+        <v>425.4</v>
       </c>
       <c r="C17" s="7">
         <f>BLS_T5_GOV!C16</f>
-        <v>429.1</v>
+        <v>427.7</v>
       </c>
       <c r="D17" s="7">
         <f>BLS_T5_GOV!D16</f>
-        <v>427.7</v>
+        <v>429.1</v>
       </c>
       <c r="E17" s="7">
         <f>BLS_T5_GOV!E16</f>
-        <v>429.2</v>
+        <v>428.1</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.0595714622086083</v>
+        <v>0.63469675599436837</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8563,23 +8530,23 @@
       </c>
       <c r="B18" s="7">
         <f>BLS_T5_GOV!B17</f>
-        <v>255.4</v>
+        <v>255.2</v>
       </c>
       <c r="C18" s="7">
         <f>BLS_T5_GOV!C17</f>
-        <v>256.7</v>
+        <v>255.2</v>
       </c>
       <c r="D18" s="7">
         <f>BLS_T5_GOV!D17</f>
-        <v>255.2</v>
+        <v>255.3</v>
       </c>
       <c r="E18" s="7">
         <f>BLS_T5_GOV!E17</f>
-        <v>255.3</v>
+        <v>257.2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9154267815189048E-2</v>
+        <v>0.78369905956112706</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8592,19 +8559,19 @@
       </c>
       <c r="C19" s="7">
         <f>BLS_T5_GOV!C18</f>
-        <v>255.8</v>
+        <v>255.7</v>
       </c>
       <c r="D19" s="7">
         <f>BLS_T5_GOV!D18</f>
-        <v>255.7</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="E19" s="7">
         <f>BLS_T5_GOV!E18</f>
-        <v>256.3</v>
+        <v>255.7</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.3111629716063824</v>
+        <v>-0.5445352003111803</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8617,19 +8584,19 @@
       </c>
       <c r="C20" s="7">
         <f>BLS_T5_GOV!C19</f>
-        <v>316.3</v>
+        <v>315</v>
       </c>
       <c r="D20" s="7">
         <f>BLS_T5_GOV!D19</f>
-        <v>315</v>
+        <v>313.39999999999998</v>
       </c>
       <c r="E20" s="7">
         <f>BLS_T5_GOV!E19</f>
-        <v>313.39999999999998</v>
+        <v>315.3</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7862738953306367</v>
+        <v>-1.1908492635537504</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8638,23 +8605,23 @@
       </c>
       <c r="B21" s="7">
         <f>BLS_T5_GOV!B20</f>
-        <v>327.10000000000002</v>
+        <v>327.7</v>
       </c>
       <c r="C21" s="7">
         <f>BLS_T5_GOV!C20</f>
-        <v>326.10000000000002</v>
+        <v>325.8</v>
       </c>
       <c r="D21" s="7">
         <f>BLS_T5_GOV!D20</f>
-        <v>325.8</v>
+        <v>324.8</v>
       </c>
       <c r="E21" s="7">
         <f>BLS_T5_GOV!E20</f>
-        <v>324.7</v>
+        <v>324.8</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.73372057474779817</v>
+        <v>-0.88495575221237965</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8667,19 +8634,19 @@
       </c>
       <c r="C22" s="7">
         <f>BLS_T5_GOV!C21</f>
-        <v>99</v>
+        <v>98.6</v>
       </c>
       <c r="D22" s="7">
         <f>BLS_T5_GOV!D21</f>
-        <v>98.6</v>
+        <v>98.9</v>
       </c>
       <c r="E22" s="7">
         <f>BLS_T5_GOV!E21</f>
-        <v>98.9</v>
+        <v>98.4</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.60301507537687815</v>
+        <v>-1.1055276381909507</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8688,23 +8655,23 @@
       </c>
       <c r="B23" s="7">
         <f>BLS_T5_GOV!B22</f>
-        <v>502.9</v>
+        <v>503.2</v>
       </c>
       <c r="C23" s="7">
         <f>BLS_T5_GOV!C22</f>
-        <v>503.4</v>
+        <v>500.5</v>
       </c>
       <c r="D23" s="7">
         <f>BLS_T5_GOV!D22</f>
-        <v>500.5</v>
+        <v>503.1</v>
       </c>
       <c r="E23" s="7">
         <f>BLS_T5_GOV!E22</f>
-        <v>503</v>
+        <v>502.5</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>1.9884668920266968E-2</v>
+        <v>-0.13910969793322625</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -8713,23 +8680,23 @@
       </c>
       <c r="B24" s="7">
         <f>BLS_T5_GOV!B23</f>
-        <v>452.5</v>
+        <v>451.1</v>
       </c>
       <c r="C24" s="7">
         <f>BLS_T5_GOV!C23</f>
-        <v>452.3</v>
+        <v>453.1</v>
       </c>
       <c r="D24" s="7">
         <f>BLS_T5_GOV!D23</f>
-        <v>453.1</v>
+        <v>455.2</v>
       </c>
       <c r="E24" s="7">
         <f>BLS_T5_GOV!E23</f>
-        <v>455.2</v>
+        <v>455.1</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.59668508287291644</v>
+        <v>0.88672134781644374</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -8738,23 +8705,23 @@
       </c>
       <c r="B25" s="7">
         <f>BLS_T5_GOV!B24</f>
-        <v>594.29999999999995</v>
+        <v>594.1</v>
       </c>
       <c r="C25" s="7">
         <f>BLS_T5_GOV!C24</f>
-        <v>597.6</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="D25" s="7">
         <f>BLS_T5_GOV!D24</f>
-        <v>599.79999999999995</v>
+        <v>602.5</v>
       </c>
       <c r="E25" s="7">
         <f>BLS_T5_GOV!E24</f>
-        <v>600.70000000000005</v>
+        <v>599.5</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>1.0768971899714153</v>
+        <v>0.90893788924422125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8763,23 +8730,23 @@
       </c>
       <c r="B26" s="7">
         <f>BLS_T5_GOV!B25</f>
-        <v>419.4</v>
+        <v>420.5</v>
       </c>
       <c r="C26" s="7">
         <f>BLS_T5_GOV!C25</f>
-        <v>421</v>
+        <v>420.2</v>
       </c>
       <c r="D26" s="7">
         <f>BLS_T5_GOV!D25</f>
-        <v>420.2</v>
+        <v>419.5</v>
       </c>
       <c r="E26" s="7">
         <f>BLS_T5_GOV!E25</f>
-        <v>419.4</v>
+        <v>419.2</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.30915576694411362</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -8788,11 +8755,11 @@
       </c>
       <c r="B27" s="7">
         <f>BLS_T5_GOV!B26</f>
-        <v>243.6</v>
+        <v>243.5</v>
       </c>
       <c r="C27" s="7">
         <f>BLS_T5_GOV!C26</f>
-        <v>245.2</v>
+        <v>245.9</v>
       </c>
       <c r="D27" s="7">
         <f>BLS_T5_GOV!D26</f>
@@ -8800,11 +8767,11 @@
       </c>
       <c r="E27" s="7">
         <f>BLS_T5_GOV!E26</f>
-        <v>246</v>
+        <v>245.4</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.98522167487684609</v>
+        <v>0.78028747433265266</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8813,23 +8780,23 @@
       </c>
       <c r="B28" s="7">
         <f>BLS_T5_GOV!B27</f>
-        <v>435.6</v>
+        <v>434</v>
       </c>
       <c r="C28" s="7">
         <f>BLS_T5_GOV!C27</f>
-        <v>431.3</v>
+        <v>429.9</v>
       </c>
       <c r="D28" s="7">
         <f>BLS_T5_GOV!D27</f>
-        <v>429.9</v>
+        <v>429.2</v>
       </c>
       <c r="E28" s="7">
         <f>BLS_T5_GOV!E27</f>
-        <v>428.6</v>
+        <v>429.2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6069788797061557</v>
+        <v>-1.1059907834101379</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -8838,11 +8805,11 @@
       </c>
       <c r="B29" s="7">
         <f>BLS_T5_GOV!B28</f>
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="C29" s="7">
         <f>BLS_T5_GOV!C28</f>
-        <v>90.1</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7">
         <f>BLS_T5_GOV!D28</f>
@@ -8850,11 +8817,11 @@
       </c>
       <c r="E29" s="7">
         <f>BLS_T5_GOV!E28</f>
-        <v>91</v>
+        <v>90.9</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.77519379844961378</v>
+        <v>0.44198895027625085</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -8863,23 +8830,23 @@
       </c>
       <c r="B30" s="7">
         <f>BLS_T5_GOV!B29</f>
-        <v>170.3</v>
+        <v>171</v>
       </c>
       <c r="C30" s="7">
         <f>BLS_T5_GOV!C29</f>
-        <v>171.5</v>
+        <v>171.4</v>
       </c>
       <c r="D30" s="7">
         <f>BLS_T5_GOV!D29</f>
-        <v>171.4</v>
+        <v>172.1</v>
       </c>
       <c r="E30" s="7">
         <f>BLS_T5_GOV!E29</f>
-        <v>172.1</v>
+        <v>171.2</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>1.0569583088666956</v>
+        <v>0.11695906432747094</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8888,23 +8855,23 @@
       </c>
       <c r="B31" s="7">
         <f>BLS_T5_GOV!B30</f>
-        <v>153.9</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="C31" s="7">
         <f>BLS_T5_GOV!C30</f>
-        <v>158.19999999999999</v>
+        <v>156</v>
       </c>
       <c r="D31" s="7">
         <f>BLS_T5_GOV!D30</f>
-        <v>156</v>
+        <v>156.6</v>
       </c>
       <c r="E31" s="7">
         <f>BLS_T5_GOV!E30</f>
-        <v>156.69999999999999</v>
+        <v>156.1</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>1.8193632228719947</v>
+        <v>1.1665586519766569</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8913,23 +8880,23 @@
       </c>
       <c r="B32" s="7">
         <f>BLS_T5_GOV!B31</f>
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="C32" s="7">
         <f>BLS_T5_GOV!C31</f>
-        <v>90.4</v>
+        <v>89.9</v>
       </c>
       <c r="D32" s="7">
         <f>BLS_T5_GOV!D31</f>
-        <v>89.9</v>
+        <v>89.5</v>
       </c>
       <c r="E32" s="7">
         <f>BLS_T5_GOV!E31</f>
-        <v>89.2</v>
+        <v>88.9</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8701870187018743</v>
+        <v>-2.3076923076922995</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -8938,23 +8905,23 @@
       </c>
       <c r="B33" s="7">
         <f>BLS_T5_GOV!B32</f>
-        <v>613.79999999999995</v>
+        <v>613.20000000000005</v>
       </c>
       <c r="C33" s="7">
         <f>BLS_T5_GOV!C32</f>
-        <v>611.1</v>
+        <v>612.6</v>
       </c>
       <c r="D33" s="7">
         <f>BLS_T5_GOV!D32</f>
-        <v>612.6</v>
+        <v>613.4</v>
       </c>
       <c r="E33" s="7">
         <f>BLS_T5_GOV!E32</f>
-        <v>612.9</v>
+        <v>616.70000000000005</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.14662756598240456</v>
+        <v>0.57077625570776114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -8963,23 +8930,23 @@
       </c>
       <c r="B34" s="7">
         <f>BLS_T5_GOV!B33</f>
-        <v>189.7</v>
+        <v>190.1</v>
       </c>
       <c r="C34" s="7">
         <f>BLS_T5_GOV!C33</f>
-        <v>189.9</v>
+        <v>190.4</v>
       </c>
       <c r="D34" s="7">
         <f>BLS_T5_GOV!D33</f>
-        <v>190.4</v>
+        <v>190.9</v>
       </c>
       <c r="E34" s="7">
         <f>BLS_T5_GOV!E33</f>
-        <v>190.8</v>
+        <v>190.1</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.57986294148657525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -8992,19 +8959,19 @@
       </c>
       <c r="C35" s="7">
         <f>BLS_T5_GOV!C34</f>
-        <v>1433.2</v>
+        <v>1439.4</v>
       </c>
       <c r="D35" s="7">
         <f>BLS_T5_GOV!D34</f>
-        <v>1439.4</v>
+        <v>1440.7</v>
       </c>
       <c r="E35" s="7">
         <f>BLS_T5_GOV!E34</f>
-        <v>1440.7</v>
+        <v>1437.8</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.43220634367375776</v>
+        <v>0.23004531195538469</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -9013,23 +8980,23 @@
       </c>
       <c r="B36" s="7">
         <f>BLS_T5_GOV!B35</f>
-        <v>718.9</v>
+        <v>719.8</v>
       </c>
       <c r="C36" s="7">
         <f>BLS_T5_GOV!C35</f>
-        <v>723.6</v>
+        <v>724.1</v>
       </c>
       <c r="D36" s="7">
         <f>BLS_T5_GOV!D35</f>
-        <v>724.1</v>
+        <v>722.6</v>
       </c>
       <c r="E36" s="7">
         <f>BLS_T5_GOV!E35</f>
-        <v>722.6</v>
+        <v>720.5</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.51467519821950525</v>
+        <v>9.724923589886636E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -9038,23 +9005,23 @@
       </c>
       <c r="B37" s="7">
         <f>BLS_T5_GOV!B36</f>
-        <v>80.599999999999994</v>
+        <v>80.7</v>
       </c>
       <c r="C37" s="7">
         <f>BLS_T5_GOV!C36</f>
-        <v>82.2</v>
+        <v>82.8</v>
       </c>
       <c r="D37" s="7">
         <f>BLS_T5_GOV!D36</f>
-        <v>82.8</v>
+        <v>83.3</v>
       </c>
       <c r="E37" s="7">
         <f>BLS_T5_GOV!E36</f>
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>3.3498759305210957</v>
+        <v>2.8500619578686548</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -9063,23 +9030,23 @@
       </c>
       <c r="B38" s="7">
         <f>BLS_T5_GOV!B37</f>
-        <v>768.5</v>
+        <v>768.3</v>
       </c>
       <c r="C38" s="7">
         <f>BLS_T5_GOV!C37</f>
-        <v>766.9</v>
+        <v>770.3</v>
       </c>
       <c r="D38" s="7">
         <f>BLS_T5_GOV!D37</f>
-        <v>770.3</v>
+        <v>776.8</v>
       </c>
       <c r="E38" s="7">
         <f>BLS_T5_GOV!E37</f>
-        <v>777.2</v>
+        <v>769.8</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>1.132075471698113</v>
+        <v>0.19523623584536409</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -9088,23 +9055,23 @@
       </c>
       <c r="B39" s="7">
         <f>BLS_T5_GOV!B38</f>
-        <v>349.9</v>
+        <v>350.7</v>
       </c>
       <c r="C39" s="7">
         <f>BLS_T5_GOV!C38</f>
-        <v>352.5</v>
+        <v>352.6</v>
       </c>
       <c r="D39" s="7">
         <f>BLS_T5_GOV!D38</f>
-        <v>352.6</v>
+        <v>352.2</v>
       </c>
       <c r="E39" s="7">
         <f>BLS_T5_GOV!E38</f>
-        <v>352.2</v>
+        <v>352.3</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.65733066590454303</v>
+        <v>0.45623039635016571</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -9113,23 +9080,23 @@
       </c>
       <c r="B40" s="7">
         <f>BLS_T5_GOV!B39</f>
-        <v>299</v>
+        <v>299.10000000000002</v>
       </c>
       <c r="C40" s="7">
         <f>BLS_T5_GOV!C39</f>
-        <v>304.5</v>
+        <v>305</v>
       </c>
       <c r="D40" s="7">
         <f>BLS_T5_GOV!D39</f>
-        <v>305</v>
+        <v>306.3</v>
       </c>
       <c r="E40" s="7">
         <f>BLS_T5_GOV!E39</f>
-        <v>305.89999999999998</v>
+        <v>307.8</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>2.3076923076922995</v>
+        <v>2.9087261785355922</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -9138,23 +9105,23 @@
       </c>
       <c r="B41" s="7">
         <f>BLS_T5_GOV!B40</f>
-        <v>704.4</v>
+        <v>704.6</v>
       </c>
       <c r="C41" s="7">
         <f>BLS_T5_GOV!C40</f>
-        <v>706.2</v>
+        <v>705</v>
       </c>
       <c r="D41" s="7">
         <f>BLS_T5_GOV!D40</f>
-        <v>705</v>
+        <v>705.6</v>
       </c>
       <c r="E41" s="7">
         <f>BLS_T5_GOV!E40</f>
-        <v>705.4</v>
+        <v>701.9</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.14196479273140827</v>
+        <v>-0.38319613965370758</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -9163,23 +9130,23 @@
       </c>
       <c r="B42" s="7">
         <f>BLS_T5_GOV!B41</f>
-        <v>60.4</v>
+        <v>60.5</v>
       </c>
       <c r="C42" s="7">
         <f>BLS_T5_GOV!C41</f>
-        <v>60.3</v>
+        <v>60.1</v>
       </c>
       <c r="D42" s="7">
         <f>BLS_T5_GOV!D41</f>
-        <v>60.1</v>
+        <v>59.9</v>
       </c>
       <c r="E42" s="7">
         <f>BLS_T5_GOV!E41</f>
-        <v>60</v>
+        <v>60.2</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>-0.66225165562913135</v>
+        <v>-0.49586776859503745</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -9188,15 +9155,15 @@
       </c>
       <c r="B43" s="7">
         <f>BLS_T5_GOV!B42</f>
-        <v>358.9</v>
+        <v>359.3</v>
       </c>
       <c r="C43" s="7">
         <f>BLS_T5_GOV!C42</f>
-        <v>363.7</v>
+        <v>362.4</v>
       </c>
       <c r="D43" s="7">
         <f>BLS_T5_GOV!D42</f>
-        <v>362.4</v>
+        <v>362.3</v>
       </c>
       <c r="E43" s="7">
         <f>BLS_T5_GOV!E42</f>
@@ -9204,7 +9171,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>1.0030649205907016</v>
+        <v>0.89062065126634948</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -9213,11 +9180,11 @@
       </c>
       <c r="B44" s="7">
         <f>BLS_T5_GOV!B43</f>
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C44" s="7">
         <f>BLS_T5_GOV!C43</f>
-        <v>77.400000000000006</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D44" s="7">
         <f>BLS_T5_GOV!D43</f>
@@ -9225,7 +9192,7 @@
       </c>
       <c r="E44" s="7">
         <f>BLS_T5_GOV!E43</f>
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
@@ -9238,23 +9205,23 @@
       </c>
       <c r="B45" s="7">
         <f>BLS_T5_GOV!B44</f>
-        <v>423.6</v>
+        <v>423.4</v>
       </c>
       <c r="C45" s="7">
         <f>BLS_T5_GOV!C44</f>
-        <v>425.6</v>
+        <v>425.8</v>
       </c>
       <c r="D45" s="7">
         <f>BLS_T5_GOV!D44</f>
-        <v>425.8</v>
+        <v>423.4</v>
       </c>
       <c r="E45" s="7">
         <f>BLS_T5_GOV!E44</f>
-        <v>423.4</v>
+        <v>423.9</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>-4.7214353163371747E-2</v>
+        <v>0.1180916391119613</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -9263,23 +9230,23 @@
       </c>
       <c r="B46" s="7">
         <f>BLS_T5_GOV!B45</f>
-        <v>1843.5</v>
+        <v>1843.9</v>
       </c>
       <c r="C46" s="7">
         <f>BLS_T5_GOV!C45</f>
-        <v>1870.1</v>
+        <v>1873.1</v>
       </c>
       <c r="D46" s="7">
         <f>BLS_T5_GOV!D45</f>
-        <v>1873.1</v>
+        <v>1879</v>
       </c>
       <c r="E46" s="7">
         <f>BLS_T5_GOV!E45</f>
-        <v>1876.2</v>
+        <v>1879.3</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>1.7737998372660657</v>
+        <v>1.919843809317201</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -9292,19 +9259,19 @@
       </c>
       <c r="C47" s="7">
         <f>BLS_T5_GOV!C46</f>
-        <v>235.5</v>
+        <v>236.7</v>
       </c>
       <c r="D47" s="7">
         <f>BLS_T5_GOV!D46</f>
-        <v>236.7</v>
+        <v>237.3</v>
       </c>
       <c r="E47" s="7">
         <f>BLS_T5_GOV!E46</f>
-        <v>237.3</v>
+        <v>237.8</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>1.8454935622317592</v>
+        <v>2.0600858369098862</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -9313,23 +9280,23 @@
       </c>
       <c r="B48" s="7">
         <f>BLS_T5_GOV!B47</f>
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C48" s="7">
         <f>BLS_T5_GOV!C47</f>
-        <v>56.7</v>
+        <v>56.2</v>
       </c>
       <c r="D48" s="7">
         <f>BLS_T5_GOV!D47</f>
-        <v>56.2</v>
+        <v>56.5</v>
       </c>
       <c r="E48" s="7">
         <f>BLS_T5_GOV!E47</f>
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>1.0733452593917781</v>
+        <v>0.8960573476702427</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -9338,23 +9305,23 @@
       </c>
       <c r="B49" s="7">
         <f>BLS_T5_GOV!B48</f>
-        <v>709.6</v>
+        <v>711.3</v>
       </c>
       <c r="C49" s="7">
         <f>BLS_T5_GOV!C48</f>
-        <v>711</v>
+        <v>711.5</v>
       </c>
       <c r="D49" s="7">
         <f>BLS_T5_GOV!D48</f>
-        <v>711.5</v>
+        <v>712.9</v>
       </c>
       <c r="E49" s="7">
         <f>BLS_T5_GOV!E48</f>
-        <v>713</v>
+        <v>710.9</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.47914317925592531</v>
+        <v>-5.62350625615049E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -9363,23 +9330,23 @@
       </c>
       <c r="B50" s="7">
         <f>BLS_T5_GOV!B49</f>
-        <v>558.70000000000005</v>
+        <v>559.5</v>
       </c>
       <c r="C50" s="7">
         <f>BLS_T5_GOV!C49</f>
-        <v>567.1</v>
+        <v>568</v>
       </c>
       <c r="D50" s="7">
         <f>BLS_T5_GOV!D49</f>
-        <v>568</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="E50" s="7">
         <f>BLS_T5_GOV!E49</f>
-        <v>568.6</v>
+        <v>571.4</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>1.7719706461428286</v>
+        <v>2.1268990169794444</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -9388,23 +9355,23 @@
       </c>
       <c r="B51" s="7">
         <f>BLS_T5_GOV!B50</f>
-        <v>151.4</v>
+        <v>152.4</v>
       </c>
       <c r="C51" s="7">
         <f>BLS_T5_GOV!C50</f>
-        <v>151.69999999999999</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="D51" s="7">
         <f>BLS_T5_GOV!D50</f>
-        <v>151.80000000000001</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="E51" s="7">
         <f>BLS_T5_GOV!E50</f>
-        <v>152</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.39630118890356947</v>
+        <v>0.59055118110236116</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -9413,23 +9380,23 @@
       </c>
       <c r="B52" s="7">
         <f>BLS_T5_GOV!B51</f>
-        <v>410.1</v>
+        <v>410.5</v>
       </c>
       <c r="C52" s="7">
         <f>BLS_T5_GOV!C51</f>
-        <v>414.3</v>
+        <v>415.4</v>
       </c>
       <c r="D52" s="7">
         <f>BLS_T5_GOV!D51</f>
-        <v>415.4</v>
+        <v>414</v>
       </c>
       <c r="E52" s="7">
         <f>BLS_T5_GOV!E51</f>
-        <v>413.8</v>
+        <v>412.9</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.90221897098268222</v>
+        <v>0.58465286236295544</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -9442,11 +9409,11 @@
       </c>
       <c r="C53" s="7">
         <f>BLS_T5_GOV!C52</f>
-        <v>71.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="D53" s="7">
         <f>BLS_T5_GOV!D52</f>
-        <v>72</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E53" s="7">
         <f>BLS_T5_GOV!E52</f>
@@ -9467,7 +9434,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9479,16 +9446,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="C1" s="4">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="D1" s="4">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="E1" s="6">
-        <v>42430</v>
+        <v>42461</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9505,7 +9472,7 @@
         <v>6.2</v>
       </c>
       <c r="E2" s="7">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9530,16 +9497,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C4" s="7">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D4" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="E4" s="7">
         <v>5.5</v>
-      </c>
-      <c r="E4" s="7">
-        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9550,13 +9517,13 @@
         <v>5.5</v>
       </c>
       <c r="C5" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D5" s="7">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E5" s="7">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -9564,16 +9531,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C6" s="7">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="D6" s="7">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E6" s="7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9584,13 +9551,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="7">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E7" s="7">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9598,13 +9565,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C8" s="7">
         <v>5.5</v>
       </c>
       <c r="D8" s="7">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="E8" s="7">
         <v>5.7</v>
@@ -9618,13 +9585,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C9" s="7">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D9" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9632,7 +9599,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C10" s="7">
         <v>6.5</v>
@@ -9641,7 +9608,7 @@
         <v>6.5</v>
       </c>
       <c r="E10" s="7">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9649,16 +9616,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C11" s="7">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E11" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9666,13 +9633,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C12" s="7">
         <v>5.4</v>
       </c>
       <c r="D12" s="7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E12" s="7">
         <v>5.5</v>
@@ -9683,16 +9650,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C13" s="7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D13" s="7">
         <v>3.1</v>
       </c>
       <c r="E13" s="7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9700,16 +9667,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C14" s="7">
         <v>3.9</v>
       </c>
       <c r="D14" s="7">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E14" s="7">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9720,13 +9687,13 @@
         <v>5.9</v>
       </c>
       <c r="C15" s="7">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D15" s="7">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E15" s="7">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9734,16 +9701,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="7">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C16" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D16" s="7">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="7">
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9754,13 +9721,13 @@
         <v>3.7</v>
       </c>
       <c r="C17" s="7">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D17" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E17" s="7">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9768,16 +9735,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C18" s="7">
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E18" s="7">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -9791,10 +9758,10 @@
         <v>5.8</v>
       </c>
       <c r="D19" s="7">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="E19" s="7">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -9802,16 +9769,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C20" s="7">
         <v>5.9</v>
       </c>
       <c r="D20" s="7">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="E20" s="7">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -9819,13 +9786,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C21" s="7">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D21" s="7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="E21" s="7">
         <v>3.4</v>
@@ -9839,13 +9806,13 @@
         <v>5.3</v>
       </c>
       <c r="C22" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D22" s="7">
         <v>4.7</v>
       </c>
       <c r="E22" s="7">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -9853,16 +9820,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C23" s="7">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D23" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -9870,10 +9837,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="7">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C24" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D24" s="7">
         <v>4.8</v>
@@ -9893,10 +9860,10 @@
         <v>3.7</v>
       </c>
       <c r="D25" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E25" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -9907,13 +9874,13 @@
         <v>6.5</v>
       </c>
       <c r="C26" s="7">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D26" s="7">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E26" s="7">
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -9921,7 +9888,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C27" s="7">
         <v>4.2</v>
@@ -9930,7 +9897,7 @@
         <v>4.2</v>
       </c>
       <c r="E27" s="7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -9938,16 +9905,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="7">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C28" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D28" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="E28" s="7">
         <v>4.2</v>
-      </c>
-      <c r="E28" s="7">
-        <v>4.3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -9955,7 +9922,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
@@ -9975,10 +9942,10 @@
         <v>6.9</v>
       </c>
       <c r="C30" s="7">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="D30" s="7">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="E30" s="7">
         <v>5.8</v>
@@ -9989,13 +9956,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C31" s="7">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D31" s="7">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E31" s="7">
         <v>2.6</v>
@@ -10006,16 +9973,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="7">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D32" s="7">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10023,13 +9990,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C33" s="7">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D33" s="7">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="E33" s="7">
         <v>6.2</v>
@@ -10040,16 +10007,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="7">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C34" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D34" s="7">
         <v>4.8</v>
       </c>
       <c r="E34" s="7">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10060,13 +10027,13 @@
         <v>5.8</v>
       </c>
       <c r="C35" s="7">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D35" s="7">
         <v>5.5</v>
       </c>
       <c r="E35" s="7">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -10077,13 +10044,13 @@
         <v>2.7</v>
       </c>
       <c r="C36" s="7">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D36" s="7">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="E36" s="7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -10091,16 +10058,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C37" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D37" s="7">
-        <v>5</v>
-      </c>
       <c r="E37" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -10108,16 +10075,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="C38" s="7">
         <v>4.2</v>
       </c>
-      <c r="C38" s="7">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="D38" s="7">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E38" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -10128,10 +10095,10 @@
         <v>5.7</v>
       </c>
       <c r="C39" s="7">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="D39" s="7">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="E39" s="7">
         <v>4.5</v>
@@ -10142,16 +10109,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C40" s="7">
         <v>4.5999999999999996</v>
       </c>
       <c r="D40" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E40" s="7">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -10168,7 +10135,7 @@
         <v>5.4</v>
       </c>
       <c r="E41" s="7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -10176,16 +10143,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="7">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C42" s="7">
         <v>5.5</v>
       </c>
       <c r="D42" s="7">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="E42" s="7">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -10196,10 +10163,10 @@
         <v>3.2</v>
       </c>
       <c r="C43" s="7">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D43" s="7">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="E43" s="7">
         <v>2.5</v>
@@ -10210,16 +10177,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="7">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C44" s="7">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D44" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E44" s="7">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -10230,13 +10197,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C45" s="7">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D45" s="7">
         <v>4.3</v>
       </c>
       <c r="E45" s="7">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -10250,10 +10217,10 @@
         <v>3.4</v>
       </c>
       <c r="D46" s="7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E46" s="7">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -10267,10 +10234,10 @@
         <v>3.4</v>
       </c>
       <c r="D47" s="7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E47" s="7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -10278,16 +10245,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="7">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C48" s="7">
         <v>4.0999999999999996</v>
       </c>
       <c r="D48" s="7">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E48" s="7">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -10312,16 +10279,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="7">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C50" s="7">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D50" s="7">
         <v>6.5</v>
       </c>
       <c r="E50" s="7">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -10335,10 +10302,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D51" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E51" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -10346,16 +10313,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="7">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C52" s="7">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D52" s="7">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E52" s="7">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -10369,7 +10336,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10382,16 +10349,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="C1" s="4">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="D1" s="4">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="E1" s="6">
-        <v>42430</v>
+        <v>42461</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10399,16 +10366,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="28">
-        <v>1936.1</v>
+        <v>1939.5</v>
       </c>
       <c r="C2" s="28">
-        <v>1955.1</v>
+        <v>1958.8</v>
       </c>
       <c r="D2" s="28">
-        <v>1958.8</v>
+        <v>1959</v>
       </c>
       <c r="E2" s="28">
-        <v>1959.7</v>
+        <v>1965.6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -10416,16 +10383,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="28">
-        <v>340</v>
+        <v>340.2</v>
       </c>
       <c r="C3" s="28">
-        <v>339.2</v>
+        <v>339.6</v>
       </c>
       <c r="D3" s="28">
-        <v>339.6</v>
+        <v>338.4</v>
       </c>
       <c r="E3" s="28">
-        <v>338.2</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -10433,16 +10400,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="28">
-        <v>2612.4</v>
+        <v>2615.8000000000002</v>
       </c>
       <c r="C4" s="28">
-        <v>2683.1</v>
+        <v>2688.9</v>
       </c>
       <c r="D4" s="28">
-        <v>2688.9</v>
+        <v>2691.9</v>
       </c>
       <c r="E4" s="28">
-        <v>2694</v>
+        <v>2697.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10450,16 +10417,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="28">
-        <v>1197.9000000000001</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="C5" s="28">
-        <v>1222.9000000000001</v>
+        <v>1227.8</v>
       </c>
       <c r="D5" s="28">
-        <v>1227.8</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="E5" s="28">
-        <v>1223.9000000000001</v>
+        <v>1225.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10467,16 +10434,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="28">
-        <v>15900.1</v>
+        <v>15931.3</v>
       </c>
       <c r="C6" s="28">
-        <v>16270.1</v>
+        <v>16316.8</v>
       </c>
       <c r="D6" s="28">
-        <v>16316.8</v>
+        <v>16321.9</v>
       </c>
       <c r="E6" s="28">
-        <v>16320.9</v>
+        <v>16381.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10484,16 +10451,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="28">
-        <v>2523.3000000000002</v>
+        <v>2526.1</v>
       </c>
       <c r="C7" s="28">
-        <v>2582.3000000000002</v>
+        <v>2588.8000000000002</v>
       </c>
       <c r="D7" s="28">
-        <v>2588.8000000000002</v>
+        <v>2595.8000000000002</v>
       </c>
       <c r="E7" s="28">
-        <v>2594.3000000000002</v>
+        <v>2593.8000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -10501,16 +10468,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="28">
-        <v>1670.6</v>
+        <v>1669.7</v>
       </c>
       <c r="C8" s="28">
-        <v>1681.2</v>
+        <v>1685.3</v>
       </c>
       <c r="D8" s="28">
-        <v>1685.3</v>
+        <v>1686.3</v>
       </c>
       <c r="E8" s="28">
-        <v>1685.6</v>
+        <v>1689.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10518,16 +10485,16 @@
         <v>117</v>
       </c>
       <c r="B9" s="28">
-        <v>446.2</v>
+        <v>443.4</v>
       </c>
       <c r="C9" s="28">
-        <v>457.5</v>
+        <v>456.6</v>
       </c>
       <c r="D9" s="28">
-        <v>456.6</v>
+        <v>458.6</v>
       </c>
       <c r="E9" s="28">
-        <v>457.9</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10535,16 +10502,16 @@
         <v>118</v>
       </c>
       <c r="B10" s="28">
-        <v>764.6</v>
+        <v>765.6</v>
       </c>
       <c r="C10" s="28">
-        <v>775.2</v>
+        <v>775</v>
       </c>
       <c r="D10" s="28">
-        <v>775</v>
+        <v>773.8</v>
       </c>
       <c r="E10" s="28">
-        <v>774.5</v>
+        <v>777.4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10552,16 +10519,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="28">
-        <v>8014.5</v>
+        <v>8029.4</v>
       </c>
       <c r="C11" s="28">
-        <v>8235.7999999999993</v>
+        <v>8245.7999999999993</v>
       </c>
       <c r="D11" s="28">
-        <v>8245.7999999999993</v>
+        <v>8252.7999999999993</v>
       </c>
       <c r="E11" s="28">
-        <v>8248.7999999999993</v>
+        <v>8283.9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -10569,16 +10536,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="28">
-        <v>4229.1000000000004</v>
+        <v>4230.5</v>
       </c>
       <c r="C12" s="28">
-        <v>4330.2</v>
+        <v>4346.5</v>
       </c>
       <c r="D12" s="28">
-        <v>4346.5</v>
+        <v>4360.7</v>
       </c>
       <c r="E12" s="28">
-        <v>4359.1000000000004</v>
+        <v>4371.3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -10586,16 +10553,16 @@
         <v>111</v>
       </c>
       <c r="B13" s="28">
-        <v>634.4</v>
+        <v>633.9</v>
       </c>
       <c r="C13" s="28">
-        <v>644.29999999999995</v>
+        <v>648.6</v>
       </c>
       <c r="D13" s="28">
-        <v>648.6</v>
+        <v>651.4</v>
       </c>
       <c r="E13" s="28">
-        <v>653</v>
+        <v>646.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -10603,16 +10570,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="28">
-        <v>667.8</v>
+        <v>669</v>
       </c>
       <c r="C14" s="28">
-        <v>689.2</v>
+        <v>691</v>
       </c>
       <c r="D14" s="28">
-        <v>691</v>
+        <v>691.7</v>
       </c>
       <c r="E14" s="28">
-        <v>691.8</v>
+        <v>694.7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -10620,16 +10587,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="28">
-        <v>5929.1</v>
+        <v>5944.6</v>
       </c>
       <c r="C15" s="28">
-        <v>5975.7</v>
+        <v>5994.3</v>
       </c>
       <c r="D15" s="28">
-        <v>5994.3</v>
+        <v>6006.7</v>
       </c>
       <c r="E15" s="28">
-        <v>6009</v>
+        <v>6012.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -10637,16 +10604,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="28">
-        <v>3019.6</v>
+        <v>3023.8</v>
       </c>
       <c r="C16" s="28">
-        <v>3065.4</v>
+        <v>3067.5</v>
       </c>
       <c r="D16" s="28">
-        <v>3067.5</v>
+        <v>3062.1</v>
       </c>
       <c r="E16" s="28">
-        <v>3058.5</v>
+        <v>3073.1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -10654,16 +10621,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="28">
-        <v>1560.1</v>
+        <v>1560.8</v>
       </c>
       <c r="C17" s="28">
-        <v>1580.6</v>
+        <v>1573.8</v>
       </c>
       <c r="D17" s="28">
-        <v>1573.8</v>
+        <v>1576.5</v>
       </c>
       <c r="E17" s="28">
-        <v>1575.4</v>
+        <v>1580.8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -10671,16 +10638,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="28">
-        <v>1398.8</v>
+        <v>1396.1</v>
       </c>
       <c r="C18" s="28">
-        <v>1397.8</v>
+        <v>1396.3</v>
       </c>
       <c r="D18" s="28">
-        <v>1396.3</v>
+        <v>1399.2</v>
       </c>
       <c r="E18" s="28">
-        <v>1398.8</v>
+        <v>1395.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -10688,16 +10655,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="28">
-        <v>1871.4</v>
+        <v>1870</v>
       </c>
       <c r="C19" s="28">
+        <v>1904.6</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1908.9</v>
+      </c>
+      <c r="E19" s="28">
         <v>1904.9</v>
-      </c>
-      <c r="D19" s="28">
-        <v>1904.6</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1908.3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -10705,16 +10672,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="28">
-        <v>1991.3</v>
+        <v>1990.8</v>
       </c>
       <c r="C20" s="28">
-        <v>1983.2</v>
+        <v>1978.2</v>
       </c>
       <c r="D20" s="28">
-        <v>1978.2</v>
+        <v>1977.1</v>
       </c>
       <c r="E20" s="28">
-        <v>1978.1</v>
+        <v>1978.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -10722,16 +10689,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="28">
-        <v>608.6</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="C21" s="28">
+        <v>613</v>
+      </c>
+      <c r="D21" s="28">
         <v>614.6</v>
       </c>
-      <c r="D21" s="28">
-        <v>613</v>
-      </c>
       <c r="E21" s="28">
-        <v>614.6</v>
+        <v>612.70000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -10739,16 +10706,16 @@
         <v>112</v>
       </c>
       <c r="B22" s="28">
-        <v>2641.2</v>
+        <v>2648.9</v>
       </c>
       <c r="C22" s="28">
-        <v>2684.1</v>
+        <v>2684.3</v>
       </c>
       <c r="D22" s="28">
-        <v>2684.3</v>
+        <v>2704.6</v>
       </c>
       <c r="E22" s="28">
-        <v>2703.6</v>
+        <v>2704.8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -10756,16 +10723,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="28">
-        <v>3476</v>
+        <v>3477.5</v>
       </c>
       <c r="C23" s="28">
-        <v>3516.6</v>
+        <v>3530.5</v>
       </c>
       <c r="D23" s="28">
-        <v>3530.5</v>
+        <v>3537.1</v>
       </c>
       <c r="E23" s="28">
-        <v>3537.4</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10773,16 +10740,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="28">
-        <v>4223.5</v>
+        <v>4226.2</v>
       </c>
       <c r="C24" s="28">
-        <v>4307.3999999999996</v>
+        <v>4315.3</v>
       </c>
       <c r="D24" s="28">
-        <v>4315.3</v>
+        <v>4324.8999999999996</v>
       </c>
       <c r="E24" s="28">
-        <v>4320.8</v>
+        <v>4330.7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10790,16 +10757,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="28">
-        <v>2845.5</v>
+        <v>2851.6</v>
       </c>
       <c r="C25" s="28">
-        <v>2870.7</v>
+        <v>2879.4</v>
       </c>
       <c r="D25" s="28">
-        <v>2879.4</v>
+        <v>2876.2</v>
       </c>
       <c r="E25" s="28">
-        <v>2876.5</v>
+        <v>2891.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10807,16 +10774,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="28">
-        <v>1125.9000000000001</v>
+        <v>1129.0999999999999</v>
       </c>
       <c r="C26" s="28">
-        <v>1140.0999999999999</v>
+        <v>1144.5</v>
       </c>
       <c r="D26" s="28">
+        <v>1147.0999999999999</v>
+      </c>
+      <c r="E26" s="28">
         <v>1144.5</v>
-      </c>
-      <c r="E26" s="28">
-        <v>1146.5999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10824,16 +10791,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="24">
-        <v>2774.6</v>
+        <v>2779.1</v>
       </c>
       <c r="C27" s="24">
-        <v>2789.1</v>
+        <v>2799.8</v>
       </c>
       <c r="D27" s="24">
-        <v>2799.8</v>
+        <v>2801.2</v>
       </c>
       <c r="E27" s="24">
-        <v>2798.3</v>
+        <v>2816.2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10841,16 +10808,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="24">
-        <v>461.3</v>
+        <v>460.7</v>
       </c>
       <c r="C28" s="24">
-        <v>462.4</v>
+        <v>464.3</v>
       </c>
       <c r="D28" s="24">
-        <v>464.3</v>
+        <v>464.6</v>
       </c>
       <c r="E28" s="24">
-        <v>464.7</v>
+        <v>466.6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -10861,13 +10828,13 @@
         <v>1002.1</v>
       </c>
       <c r="C29" s="24">
-        <v>1016.3</v>
+        <v>1013.9</v>
       </c>
       <c r="D29" s="24">
-        <v>1013.9</v>
+        <v>1017.3</v>
       </c>
       <c r="E29" s="24">
-        <v>1018.5</v>
+        <v>1017.4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -10875,16 +10842,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="24">
-        <v>1247.7</v>
+        <v>1250.2</v>
       </c>
       <c r="C30" s="24">
-        <v>1273.5</v>
+        <v>1276.7</v>
       </c>
       <c r="D30" s="24">
-        <v>1276.7</v>
+        <v>1282.7</v>
       </c>
       <c r="E30" s="24">
-        <v>1283.2</v>
+        <v>1283.0999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -10892,16 +10859,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="24">
-        <v>653.79999999999995</v>
+        <v>654.79999999999995</v>
       </c>
       <c r="C31" s="24">
-        <v>660.9</v>
+        <v>665.1</v>
       </c>
       <c r="D31" s="24">
-        <v>665.1</v>
+        <v>664.9</v>
       </c>
       <c r="E31" s="24">
-        <v>664.3</v>
+        <v>663.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -10909,16 +10876,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="24">
-        <v>3991.3</v>
+        <v>4002.5</v>
       </c>
       <c r="C32" s="24">
-        <v>4057.1</v>
+        <v>4051.9</v>
       </c>
       <c r="D32" s="24">
-        <v>4051.9</v>
+        <v>4073.9</v>
       </c>
       <c r="E32" s="24">
-        <v>4069.2</v>
+        <v>4066.4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10926,16 +10893,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="24">
-        <v>826</v>
+        <v>825.9</v>
       </c>
       <c r="C33" s="24">
         <v>826.5</v>
       </c>
       <c r="D33" s="24">
-        <v>826.5</v>
+        <v>827.6</v>
       </c>
       <c r="E33" s="24">
-        <v>828.3</v>
+        <v>827.6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10943,16 +10910,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="24">
-        <v>9202.1</v>
+        <v>9209.7999999999993</v>
       </c>
       <c r="C34" s="24">
-        <v>9298.5</v>
+        <v>9320.2999999999993</v>
       </c>
       <c r="D34" s="24">
-        <v>9320.2999999999993</v>
+        <v>9332.9</v>
       </c>
       <c r="E34" s="24">
-        <v>9334.4</v>
+        <v>9343.2999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10960,16 +10927,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="24">
-        <v>4204.3999999999996</v>
+        <v>4215.8999999999996</v>
       </c>
       <c r="C35" s="24">
-        <v>4296.1000000000004</v>
+        <v>4296.2</v>
       </c>
       <c r="D35" s="24">
-        <v>4296.2</v>
+        <v>4310.5</v>
       </c>
       <c r="E35" s="24">
-        <v>4308.7</v>
+        <v>4311.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -10977,16 +10944,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="24">
-        <v>461</v>
+        <v>457.5</v>
       </c>
       <c r="C36" s="24">
-        <v>445.5</v>
+        <v>441.2</v>
       </c>
       <c r="D36" s="24">
-        <v>441.2</v>
+        <v>440</v>
       </c>
       <c r="E36" s="24">
-        <v>440.3</v>
+        <v>439.9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -10994,16 +10961,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="24">
-        <v>5399.1</v>
+        <v>5405.9</v>
       </c>
       <c r="C37" s="24">
-        <v>5465.3</v>
+        <v>5475.5</v>
       </c>
       <c r="D37" s="24">
-        <v>5475.5</v>
+        <v>5491.4</v>
       </c>
       <c r="E37" s="24">
-        <v>5493.8</v>
+        <v>5477.8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -11011,16 +10978,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="24">
-        <v>1670.1</v>
+        <v>1665.7</v>
       </c>
       <c r="C38" s="24">
-        <v>1667.6</v>
+        <v>1669.8</v>
       </c>
       <c r="D38" s="24">
-        <v>1669.8</v>
+        <v>1666</v>
       </c>
       <c r="E38" s="24">
-        <v>1664</v>
+        <v>1663.6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -11028,16 +10995,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="24">
-        <v>1764.7</v>
+        <v>1766.6</v>
       </c>
       <c r="C39" s="24">
-        <v>1812</v>
+        <v>1819.4</v>
       </c>
       <c r="D39" s="24">
-        <v>1819.4</v>
+        <v>1823.2</v>
       </c>
       <c r="E39" s="24">
-        <v>1823.3</v>
+        <v>1828.9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -11045,16 +11012,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="24">
-        <v>5810.7</v>
+        <v>5822.7</v>
       </c>
       <c r="C40" s="24">
-        <v>5855.1</v>
+        <v>5876.4</v>
       </c>
       <c r="D40" s="24">
-        <v>5876.4</v>
+        <v>5894.6</v>
       </c>
       <c r="E40" s="24">
-        <v>5891.7</v>
+        <v>5877.7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -11062,16 +11029,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="24">
-        <v>482.1</v>
+        <v>484</v>
       </c>
       <c r="C41" s="24">
-        <v>487.9</v>
+        <v>488.2</v>
       </c>
       <c r="D41" s="24">
-        <v>488.2</v>
+        <v>490.6</v>
       </c>
       <c r="E41" s="24">
-        <v>490.9</v>
+        <v>489.1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -11079,16 +11046,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="24">
-        <v>1987.2</v>
+        <v>1987.3</v>
       </c>
       <c r="C42" s="24">
-        <v>2028.7</v>
+        <v>2028.6</v>
       </c>
       <c r="D42" s="24">
-        <v>2028.6</v>
+        <v>2039.6</v>
       </c>
       <c r="E42" s="24">
-        <v>2040</v>
+        <v>2040.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -11096,16 +11063,16 @@
         <v>114</v>
       </c>
       <c r="B43" s="24">
-        <v>427.9</v>
+        <v>428</v>
       </c>
       <c r="C43" s="24">
-        <v>431.5</v>
+        <v>432.3</v>
       </c>
       <c r="D43" s="24">
         <v>432.3</v>
       </c>
       <c r="E43" s="24">
-        <v>432.3</v>
+        <v>432.1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -11113,16 +11080,16 @@
         <v>115</v>
       </c>
       <c r="B44" s="24">
-        <v>2859</v>
+        <v>2869.2</v>
       </c>
       <c r="C44" s="24">
-        <v>2952.4</v>
+        <v>2951.5</v>
       </c>
       <c r="D44" s="24">
-        <v>2951.5</v>
+        <v>2951.7</v>
       </c>
       <c r="E44" s="24">
-        <v>2950.8</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -11130,16 +11097,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="24">
-        <v>11774</v>
+        <v>11780.3</v>
       </c>
       <c r="C45" s="24">
-        <v>11962.3</v>
+        <v>11971</v>
       </c>
       <c r="D45" s="24">
-        <v>11971</v>
+        <v>11961.6</v>
       </c>
       <c r="E45" s="24">
-        <v>11959</v>
+        <v>11969.9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -11147,16 +11114,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="24">
-        <v>1366</v>
+        <v>1367.1</v>
       </c>
       <c r="C46" s="24">
-        <v>1399.3</v>
+        <v>1407.3</v>
       </c>
       <c r="D46" s="24">
-        <v>1407.3</v>
+        <v>1411.7</v>
       </c>
       <c r="E46" s="24">
-        <v>1411</v>
+        <v>1414.1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -11164,16 +11131,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>311.7</v>
+        <v>311.2</v>
       </c>
       <c r="C47" s="7">
-        <v>316.3</v>
+        <v>315.89999999999998</v>
       </c>
       <c r="D47" s="7">
-        <v>315.89999999999998</v>
+        <v>316.5</v>
       </c>
       <c r="E47" s="7">
-        <v>316.10000000000002</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -11181,16 +11148,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="24">
-        <v>3813.2</v>
+        <v>3823.7</v>
       </c>
       <c r="C48" s="24">
-        <v>3901.5</v>
+        <v>3916.3</v>
       </c>
       <c r="D48" s="24">
-        <v>3916.3</v>
+        <v>3919.1</v>
       </c>
       <c r="E48" s="24">
-        <v>3921.2</v>
+        <v>3907.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -11198,16 +11165,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="24">
-        <v>3132</v>
+        <v>3136.8</v>
       </c>
       <c r="C49" s="24">
-        <v>3209.3</v>
+        <v>3222.7</v>
       </c>
       <c r="D49" s="24">
-        <v>3222.7</v>
+        <v>3230.5</v>
       </c>
       <c r="E49" s="24">
-        <v>3231.7</v>
+        <v>3241.7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -11215,16 +11182,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="7">
-        <v>766.2</v>
+        <v>766.1</v>
       </c>
       <c r="C50" s="7">
-        <v>759.3</v>
+        <v>758.6</v>
       </c>
       <c r="D50" s="7">
-        <v>758.6</v>
+        <v>761.8</v>
       </c>
       <c r="E50" s="7">
-        <v>761</v>
+        <v>761.2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -11232,16 +11199,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="24">
-        <v>2883.2</v>
+        <v>2881.6</v>
       </c>
       <c r="C51" s="24">
-        <v>2911.3</v>
+        <v>2922.9</v>
       </c>
       <c r="D51" s="24">
-        <v>2922.9</v>
+        <v>2936.2</v>
       </c>
       <c r="E51" s="24">
-        <v>2934.4</v>
+        <v>2923.6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -11249,16 +11216,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="7">
-        <v>293.60000000000002</v>
+        <v>292.5</v>
       </c>
       <c r="C52" s="7">
-        <v>285.89999999999998</v>
+        <v>285.3</v>
       </c>
       <c r="D52" s="7">
-        <v>285.3</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="E52" s="7">
-        <v>284.3</v>
+        <v>281.7</v>
       </c>
     </row>
   </sheetData>
@@ -11268,33 +11235,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B2" sqref="B2:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="7" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="23.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="C1" s="4">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="D1" s="4">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="E1" s="6">
-        <v>42430</v>
+        <v>42461</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11302,16 +11267,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>376.3</v>
+        <v>377.3</v>
       </c>
       <c r="C2" s="7">
-        <v>375.4</v>
+        <v>374.9</v>
       </c>
       <c r="D2" s="7">
         <v>374.9</v>
       </c>
       <c r="E2" s="7">
-        <v>375.1</v>
+        <v>375.9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11322,13 +11287,13 @@
         <v>82</v>
       </c>
       <c r="C3" s="7">
-        <v>81.900000000000006</v>
+        <v>81.7</v>
       </c>
       <c r="D3" s="7">
         <v>81.7</v>
       </c>
       <c r="E3" s="7">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11336,16 +11301,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>410.1</v>
+        <v>409.3</v>
       </c>
       <c r="C4" s="7">
-        <v>403.2</v>
+        <v>407.5</v>
       </c>
       <c r="D4" s="7">
-        <v>407.5</v>
+        <v>408.4</v>
       </c>
       <c r="E4" s="7">
-        <v>408.4</v>
+        <v>408.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11353,16 +11318,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>212.5</v>
+        <v>212.4</v>
       </c>
       <c r="C5" s="7">
-        <v>213.3</v>
+        <v>213.1</v>
       </c>
       <c r="D5" s="7">
-        <v>213.1</v>
+        <v>212.8</v>
       </c>
       <c r="E5" s="7">
-        <v>212.8</v>
+        <v>212.9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -11370,16 +11335,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="24">
-        <v>2444.4</v>
+        <v>2446.5</v>
       </c>
       <c r="C6" s="24">
-        <v>2481.9</v>
+        <v>2488.6</v>
       </c>
       <c r="D6" s="24">
-        <v>2488.6</v>
+        <v>2493.4</v>
       </c>
       <c r="E6" s="24">
-        <v>2491.1999999999998</v>
+        <v>2495.1999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11387,16 +11352,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>413.4</v>
+        <v>414.7</v>
       </c>
       <c r="C7" s="7">
-        <v>420.6</v>
+        <v>422.4</v>
       </c>
       <c r="D7" s="7">
-        <v>422.4</v>
+        <v>423.7</v>
       </c>
       <c r="E7" s="7">
-        <v>422.6</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11404,16 +11369,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>239.2</v>
+        <v>238.6</v>
       </c>
       <c r="C8" s="7">
-        <v>238.3</v>
+        <v>237.5</v>
       </c>
       <c r="D8" s="7">
-        <v>237.5</v>
+        <v>237.8</v>
       </c>
       <c r="E8" s="7">
-        <v>237.8</v>
+        <v>237.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11421,16 +11386,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>66.3</v>
+        <v>63.9</v>
       </c>
       <c r="C9" s="7">
-        <v>65.7</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D9" s="7">
-        <v>64.900000000000006</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="E9" s="7">
-        <v>65.2</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11438,16 +11403,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>237.7</v>
+        <v>237.8</v>
       </c>
       <c r="C10" s="7">
-        <v>239.9</v>
+        <v>240.7</v>
       </c>
       <c r="D10" s="7">
-        <v>240.7</v>
+        <v>239.7</v>
       </c>
       <c r="E10" s="7">
-        <v>239.7</v>
+        <v>240.1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11455,16 +11420,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="24">
-        <v>1078.2</v>
+        <v>1079</v>
       </c>
       <c r="C11" s="24">
-        <v>1082.7</v>
+        <v>1088.3</v>
       </c>
       <c r="D11" s="24">
-        <v>1088.3</v>
+        <v>1087</v>
       </c>
       <c r="E11" s="24">
-        <v>1087.2</v>
+        <v>1089.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11472,13 +11437,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>678.7</v>
+        <v>678.8</v>
       </c>
       <c r="C12" s="7">
-        <v>682.4</v>
+        <v>684.2</v>
       </c>
       <c r="D12" s="7">
-        <v>684.2</v>
+        <v>687.7</v>
       </c>
       <c r="E12" s="7">
         <v>686.1</v>
@@ -11489,16 +11454,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="C13" s="7">
-        <v>124.1</v>
+        <v>126.2</v>
       </c>
       <c r="D13" s="7">
-        <v>126.2</v>
+        <v>126.5</v>
       </c>
       <c r="E13" s="7">
-        <v>126.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11506,16 +11471,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>118.5</v>
+        <v>118.7</v>
       </c>
       <c r="C14" s="7">
+        <v>121.3</v>
+      </c>
+      <c r="D14" s="7">
         <v>121.8</v>
       </c>
-      <c r="D14" s="7">
-        <v>121.3</v>
-      </c>
       <c r="E14" s="7">
-        <v>121.5</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11523,16 +11488,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>828.3</v>
+        <v>828.7</v>
       </c>
       <c r="C15" s="7">
-        <v>830</v>
+        <v>831.3</v>
       </c>
       <c r="D15" s="7">
-        <v>831.3</v>
+        <v>833</v>
       </c>
       <c r="E15" s="7">
-        <v>833.1</v>
+        <v>834.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11540,45 +11505,36 @@
         <v>14</v>
       </c>
       <c r="B16" s="7">
-        <v>424.7</v>
+        <v>425.4</v>
       </c>
       <c r="C16" s="7">
+        <v>427.7</v>
+      </c>
+      <c r="D16" s="7">
         <v>429.1</v>
       </c>
-      <c r="D16" s="7">
-        <v>427.7</v>
-      </c>
       <c r="E16" s="7">
-        <v>429.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <v>428.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>255.4</v>
+        <v>255.2</v>
       </c>
       <c r="C17" s="7">
-        <v>256.7</v>
+        <v>255.2</v>
       </c>
       <c r="D17" s="7">
-        <v>255.2</v>
+        <v>255.3</v>
       </c>
       <c r="E17" s="7">
-        <v>255.3</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>257.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -11586,25 +11542,16 @@
         <v>257.10000000000002</v>
       </c>
       <c r="C18" s="7">
-        <v>255.8</v>
+        <v>255.7</v>
       </c>
       <c r="D18" s="7">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="E18" s="7">
         <v>255.7</v>
       </c>
-      <c r="E18" s="7">
-        <v>256.3</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -11612,42 +11559,33 @@
         <v>319.10000000000002</v>
       </c>
       <c r="C19" s="7">
-        <v>316.3</v>
+        <v>315</v>
       </c>
       <c r="D19" s="7">
-        <v>315</v>
+        <v>313.39999999999998</v>
       </c>
       <c r="E19" s="7">
-        <v>313.39999999999998</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>315.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <v>327.10000000000002</v>
+        <v>327.7</v>
       </c>
       <c r="C20" s="7">
-        <v>326.10000000000002</v>
+        <v>325.8</v>
       </c>
       <c r="D20" s="7">
-        <v>325.8</v>
+        <v>324.8</v>
       </c>
       <c r="E20" s="7">
-        <v>324.7</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>324.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -11655,206 +11593,200 @@
         <v>99.5</v>
       </c>
       <c r="C21" s="7">
-        <v>99</v>
+        <v>98.6</v>
       </c>
       <c r="D21" s="7">
-        <v>98.6</v>
+        <v>98.9</v>
       </c>
       <c r="E21" s="7">
-        <v>98.9</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="7">
-        <v>502.9</v>
+        <v>503.2</v>
       </c>
       <c r="C22" s="7">
-        <v>503.4</v>
+        <v>500.5</v>
       </c>
       <c r="D22" s="7">
-        <v>500.5</v>
+        <v>503.1</v>
       </c>
       <c r="E22" s="7">
-        <v>503</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>502.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>452.5</v>
+        <v>451.1</v>
       </c>
       <c r="C23" s="7">
-        <v>452.3</v>
+        <v>453.1</v>
       </c>
       <c r="D23" s="7">
-        <v>453.1</v>
+        <v>455.2</v>
       </c>
       <c r="E23" s="7">
-        <v>455.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>455.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="7">
-        <v>594.29999999999995</v>
+        <v>594.1</v>
       </c>
       <c r="C24" s="7">
-        <v>597.6</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="D24" s="7">
-        <v>599.79999999999995</v>
+        <v>602.5</v>
       </c>
       <c r="E24" s="7">
-        <v>600.70000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>599.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>419.4</v>
+        <v>420.5</v>
       </c>
       <c r="C25" s="7">
-        <v>421</v>
+        <v>420.2</v>
       </c>
       <c r="D25" s="7">
-        <v>420.2</v>
+        <v>419.5</v>
       </c>
       <c r="E25" s="7">
-        <v>419.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>419.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="7">
-        <v>243.6</v>
+        <v>243.5</v>
       </c>
       <c r="C26" s="7">
-        <v>245.2</v>
+        <v>245.9</v>
       </c>
       <c r="D26" s="7">
         <v>245.9</v>
       </c>
       <c r="E26" s="7">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>245.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>435.6</v>
+        <v>434</v>
       </c>
       <c r="C27" s="7">
-        <v>431.3</v>
+        <v>429.9</v>
       </c>
       <c r="D27" s="7">
-        <v>429.9</v>
+        <v>429.2</v>
       </c>
       <c r="E27" s="7">
-        <v>428.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+        <v>429.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="7">
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="C28" s="7">
-        <v>90.1</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7">
         <v>91</v>
       </c>
       <c r="E28" s="7">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>170.3</v>
+        <v>171</v>
       </c>
       <c r="C29" s="7">
-        <v>171.5</v>
+        <v>171.4</v>
       </c>
       <c r="D29" s="7">
-        <v>171.4</v>
+        <v>172.1</v>
       </c>
       <c r="E29" s="7">
-        <v>172.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="7">
-        <v>153.9</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="C30" s="7">
-        <v>158.19999999999999</v>
+        <v>156</v>
       </c>
       <c r="D30" s="7">
-        <v>156</v>
+        <v>156.6</v>
       </c>
       <c r="E30" s="7">
-        <v>156.69999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="C31" s="7">
-        <v>90.4</v>
+        <v>89.9</v>
       </c>
       <c r="D31" s="7">
-        <v>89.9</v>
+        <v>89.5</v>
       </c>
       <c r="E31" s="7">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="7">
-        <v>613.79999999999995</v>
+        <v>613.20000000000005</v>
       </c>
       <c r="C32" s="7">
-        <v>611.1</v>
+        <v>612.6</v>
       </c>
       <c r="D32" s="7">
-        <v>612.6</v>
+        <v>613.4</v>
       </c>
       <c r="E32" s="7">
-        <v>612.9</v>
+        <v>616.70000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -11862,16 +11794,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>189.7</v>
+        <v>190.1</v>
       </c>
       <c r="C33" s="7">
-        <v>189.9</v>
+        <v>190.4</v>
       </c>
       <c r="D33" s="7">
-        <v>190.4</v>
+        <v>190.9</v>
       </c>
       <c r="E33" s="7">
-        <v>190.8</v>
+        <v>190.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -11882,13 +11814,13 @@
         <v>1434.5</v>
       </c>
       <c r="C34" s="24">
-        <v>1433.2</v>
+        <v>1439.4</v>
       </c>
       <c r="D34" s="24">
-        <v>1439.4</v>
+        <v>1440.7</v>
       </c>
       <c r="E34" s="24">
-        <v>1440.7</v>
+        <v>1437.8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -11896,16 +11828,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>718.9</v>
+        <v>719.8</v>
       </c>
       <c r="C35" s="7">
-        <v>723.6</v>
+        <v>724.1</v>
       </c>
       <c r="D35" s="7">
-        <v>724.1</v>
+        <v>722.6</v>
       </c>
       <c r="E35" s="7">
-        <v>722.6</v>
+        <v>720.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -11913,16 +11845,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="7">
-        <v>80.599999999999994</v>
+        <v>80.7</v>
       </c>
       <c r="C36" s="7">
-        <v>82.2</v>
+        <v>82.8</v>
       </c>
       <c r="D36" s="7">
-        <v>82.8</v>
+        <v>83.3</v>
       </c>
       <c r="E36" s="7">
-        <v>83.3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -11930,16 +11862,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>768.5</v>
+        <v>768.3</v>
       </c>
       <c r="C37" s="7">
-        <v>766.9</v>
+        <v>770.3</v>
       </c>
       <c r="D37" s="7">
-        <v>770.3</v>
+        <v>776.8</v>
       </c>
       <c r="E37" s="7">
-        <v>777.2</v>
+        <v>769.8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -11947,16 +11879,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="7">
-        <v>349.9</v>
+        <v>350.7</v>
       </c>
       <c r="C38" s="7">
-        <v>352.5</v>
+        <v>352.6</v>
       </c>
       <c r="D38" s="7">
-        <v>352.6</v>
+        <v>352.2</v>
       </c>
       <c r="E38" s="7">
-        <v>352.2</v>
+        <v>352.3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -11964,16 +11896,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>299</v>
+        <v>299.10000000000002</v>
       </c>
       <c r="C39" s="7">
-        <v>304.5</v>
+        <v>305</v>
       </c>
       <c r="D39" s="7">
-        <v>305</v>
+        <v>306.3</v>
       </c>
       <c r="E39" s="7">
-        <v>305.89999999999998</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -11981,16 +11913,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="7">
-        <v>704.4</v>
+        <v>704.6</v>
       </c>
       <c r="C40" s="7">
-        <v>706.2</v>
+        <v>705</v>
       </c>
       <c r="D40" s="7">
-        <v>705</v>
+        <v>705.6</v>
       </c>
       <c r="E40" s="7">
-        <v>705.4</v>
+        <v>701.9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -11998,16 +11930,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>60.4</v>
+        <v>60.5</v>
       </c>
       <c r="C41" s="7">
-        <v>60.3</v>
+        <v>60.1</v>
       </c>
       <c r="D41" s="7">
-        <v>60.1</v>
+        <v>59.9</v>
       </c>
       <c r="E41" s="7">
-        <v>60</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12015,13 +11947,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="7">
-        <v>358.9</v>
+        <v>359.3</v>
       </c>
       <c r="C42" s="7">
-        <v>363.7</v>
+        <v>362.4</v>
       </c>
       <c r="D42" s="7">
-        <v>362.4</v>
+        <v>362.3</v>
       </c>
       <c r="E42" s="7">
         <v>362.5</v>
@@ -12032,16 +11964,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C43" s="7">
-        <v>77.400000000000006</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D43" s="7">
         <v>77.599999999999994</v>
       </c>
       <c r="E43" s="7">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -12049,16 +11981,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="7">
-        <v>423.6</v>
+        <v>423.4</v>
       </c>
       <c r="C44" s="7">
-        <v>425.6</v>
+        <v>425.8</v>
       </c>
       <c r="D44" s="7">
-        <v>425.8</v>
+        <v>423.4</v>
       </c>
       <c r="E44" s="7">
-        <v>423.4</v>
+        <v>423.9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12066,16 +11998,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="24">
-        <v>1843.5</v>
+        <v>1843.9</v>
       </c>
       <c r="C45" s="24">
-        <v>1870.1</v>
+        <v>1873.1</v>
       </c>
       <c r="D45" s="24">
-        <v>1873.1</v>
+        <v>1879</v>
       </c>
       <c r="E45" s="24">
-        <v>1876.2</v>
+        <v>1879.3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12086,13 +12018,13 @@
         <v>233</v>
       </c>
       <c r="C46" s="7">
-        <v>235.5</v>
+        <v>236.7</v>
       </c>
       <c r="D46" s="7">
-        <v>236.7</v>
+        <v>237.3</v>
       </c>
       <c r="E46" s="7">
-        <v>237.3</v>
+        <v>237.8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12100,16 +12032,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C47" s="7">
-        <v>56.7</v>
+        <v>56.2</v>
       </c>
       <c r="D47" s="7">
-        <v>56.2</v>
+        <v>56.5</v>
       </c>
       <c r="E47" s="7">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12117,16 +12049,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="7">
-        <v>709.6</v>
+        <v>711.3</v>
       </c>
       <c r="C48" s="7">
-        <v>711</v>
+        <v>711.5</v>
       </c>
       <c r="D48" s="7">
-        <v>711.5</v>
+        <v>712.9</v>
       </c>
       <c r="E48" s="7">
-        <v>713</v>
+        <v>710.9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12134,16 +12066,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>558.70000000000005</v>
+        <v>559.5</v>
       </c>
       <c r="C49" s="7">
-        <v>567.1</v>
+        <v>568</v>
       </c>
       <c r="D49" s="7">
-        <v>568</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="E49" s="7">
-        <v>568.6</v>
+        <v>571.4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12151,16 +12083,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="7">
-        <v>151.4</v>
+        <v>152.4</v>
       </c>
       <c r="C50" s="7">
-        <v>151.69999999999999</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="D50" s="7">
-        <v>151.80000000000001</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="E50" s="7">
-        <v>152</v>
+        <v>153.30000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12168,16 +12100,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>410.1</v>
+        <v>410.5</v>
       </c>
       <c r="C51" s="7">
-        <v>414.3</v>
+        <v>415.4</v>
       </c>
       <c r="D51" s="7">
-        <v>415.4</v>
+        <v>414</v>
       </c>
       <c r="E51" s="7">
-        <v>413.8</v>
+        <v>412.9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12188,10 +12120,10 @@
         <v>71.099999999999994</v>
       </c>
       <c r="C52" s="7">
-        <v>71.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="D52" s="7">
-        <v>72</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E52" s="7">
         <v>72</v>
@@ -12199,6 +12131,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/data/source/current_employment.xlsx
+++ b/static/data/source/current_employment.xlsx
@@ -4208,7 +4208,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D3:D11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4264,87 +4264,87 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Employment_Table!C52</f>
-        <v>6.2</v>
-      </c>
-      <c r="C3" s="23">
-        <f>Employment_Table!D52</f>
-        <v>-0.89999999999999947</v>
-      </c>
-      <c r="D3" s="23">
-        <f>Employment_Table!E52</f>
-        <v>0.18267223382044673</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Employment_Table!F52</f>
-        <v>6.9645203679369327</v>
+      <c r="A3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="26">
+        <f>Employment_Table!C41</f>
+        <v>4.5</v>
+      </c>
+      <c r="C3" s="27">
+        <f>Employment_Table!D41</f>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="D3" s="27">
+        <f>Employment_Table!E41</f>
+        <v>3.3604427877555576</v>
+      </c>
+      <c r="E3" s="23">
+        <f>Employment_Table!F41</f>
+        <v>2.8103044496487151</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B4" s="21">
-        <f>Employment_Table!C38</f>
-        <v>3.2</v>
-      </c>
-      <c r="C4" s="23">
-        <f>Employment_Table!D38</f>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="D4" s="23">
-        <f>Employment_Table!E38</f>
-        <v>-3.4293251264013946</v>
+        <f>Employment_Table!C48</f>
+        <v>3.8</v>
+      </c>
+      <c r="C4" s="27">
+        <f>Employment_Table!D48</f>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="D4" s="27">
+        <f>Employment_Table!E48</f>
+        <v>3.2810791104630033</v>
       </c>
       <c r="E4" s="23">
-        <f>Employment_Table!F38</f>
-        <v>3.5980148883374863</v>
+        <f>Employment_Table!F48</f>
+        <v>2.1422450728363351</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="26">
-        <f>Employment_Table!C41</f>
-        <v>4.5</v>
-      </c>
-      <c r="C5" s="27">
-        <f>Employment_Table!D41</f>
-        <v>-1.2999999999999998</v>
-      </c>
-      <c r="D5" s="27">
-        <f>Employment_Table!E41</f>
-        <v>3.3604427877555576</v>
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21">
+        <f>Employment_Table!C16</f>
+        <v>3.7</v>
+      </c>
+      <c r="C5" s="23">
+        <f>Employment_Table!D16</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D5" s="23">
+        <f>Employment_Table!E16</f>
+        <v>3.2060841037876431</v>
       </c>
       <c r="E5" s="23">
-        <f>Employment_Table!F41</f>
-        <v>2.8103044496487151</v>
+        <f>Employment_Table!F16</f>
+        <v>1.7587939698492372</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26">
-        <f>Employment_Table!C8</f>
-        <v>5.2</v>
+      <c r="A6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="21">
+        <f>Employment_Table!C51</f>
+        <v>5.8</v>
       </c>
       <c r="C6" s="27">
-        <f>Employment_Table!D8</f>
-        <v>-1.2000000000000002</v>
+        <f>Employment_Table!D51</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D6" s="27">
-        <f>Employment_Table!E8</f>
-        <v>2.7575970138036476</v>
+        <f>Employment_Table!E51</f>
+        <v>3.2047817378310306</v>
       </c>
       <c r="E6" s="23">
-        <f>Employment_Table!F8</f>
-        <v>2.3902099619367068</v>
+        <f>Employment_Table!F51</f>
+        <v>2.0160570918822396</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="2" t="s">
@@ -4352,24 +4352,24 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21">
-        <f>Employment_Table!C9</f>
-        <v>3.4</v>
-      </c>
-      <c r="C7" s="23">
-        <f>Employment_Table!D9</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D7" s="23">
-        <f>Employment_Table!E9</f>
-        <v>2.4493343341366103</v>
-      </c>
-      <c r="E7" s="23">
-        <f>Employment_Table!F9</f>
-        <v>2.3099133782483072</v>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <f>Employment_Table!C13</f>
+        <v>4.7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Employment_Table!D13</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Employment_Table!E13</f>
+        <v>3.150788627874368</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Employment_Table!F13</f>
+        <v>1.3806523350629929</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20" t="s">
@@ -4377,48 +4377,48 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="21">
-        <f>Employment_Table!C48</f>
-        <v>3.8</v>
-      </c>
-      <c r="C8" s="27">
-        <f>Employment_Table!D48</f>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="D8" s="27">
-        <f>Employment_Table!E48</f>
-        <v>3.2810791104630033</v>
-      </c>
-      <c r="E8" s="23">
-        <f>Employment_Table!F48</f>
-        <v>2.1422450728363351</v>
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <f>Employment_Table!C14</f>
+        <v>5.3</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Employment_Table!D14</f>
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Employment_Table!E14</f>
+        <v>2.9345957276431411</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Employment_Table!F14</f>
+        <v>1.0181496237273047</v>
       </c>
       <c r="L8" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="21">
-        <f>Employment_Table!C51</f>
-        <v>5.8</v>
-      </c>
-      <c r="C9" s="27">
-        <f>Employment_Table!D51</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D9" s="27">
-        <f>Employment_Table!E51</f>
-        <v>3.2047817378310306</v>
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <f>Employment_Table!C6</f>
+        <v>5.6</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Employment_Table!D6</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D9" s="23">
+        <f>Employment_Table!E6</f>
+        <v>2.8929567776206699</v>
       </c>
       <c r="E9" s="23">
-        <f>Employment_Table!F51</f>
-        <v>2.0160570918822396</v>
+        <f>Employment_Table!F6</f>
+        <v>9.8960910440393235E-2</v>
       </c>
       <c r="H9" s="8"/>
       <c r="L9" s="2" t="s">
@@ -4426,24 +4426,24 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <f>Employment_Table!C12</f>
-        <v>6.1</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Employment_Table!D12</f>
-        <v>-0.90000000000000036</v>
-      </c>
-      <c r="D10" s="1">
-        <f>Employment_Table!E12</f>
-        <v>2.3076923076923217</v>
-      </c>
-      <c r="E10" s="1">
-        <f>Employment_Table!F12</f>
-        <v>1.9739605207895972</v>
+      <c r="A10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="26">
+        <f>Employment_Table!C8</f>
+        <v>5.2</v>
+      </c>
+      <c r="C10" s="27">
+        <f>Employment_Table!D8</f>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D10" s="27">
+        <f>Employment_Table!E8</f>
+        <v>2.7575970138036476</v>
+      </c>
+      <c r="E10" s="23">
+        <f>Employment_Table!F8</f>
+        <v>2.3902099619367068</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -4454,23 +4454,23 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B11" s="21">
-        <f>Employment_Table!C47</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Employment_Table!D47</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <f>Employment_Table!E47</f>
-        <v>1.4556978113693608</v>
-      </c>
-      <c r="E11" s="23">
-        <f>Employment_Table!F47</f>
-        <v>1.9603607495814579</v>
+        <f>Employment_Table!C11</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C11" s="23">
+        <f>Employment_Table!D11</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Employment_Table!E11</f>
+        <v>2.4591996422982376</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Employment_Table!F11</f>
+        <v>0.30581039755350758</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="20"/>
@@ -4480,24 +4480,24 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="7">
-        <f>Employment_Table!C49</f>
-        <v>3.1</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Employment_Table!D49</f>
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="D12" s="1">
-        <f>Employment_Table!E49</f>
-        <v>1.4102564102564052</v>
-      </c>
-      <c r="E12" s="1">
-        <f>Employment_Table!F49</f>
-        <v>1.795332136445249</v>
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21">
+        <f>Employment_Table!C9</f>
+        <v>3.4</v>
+      </c>
+      <c r="C12" s="23">
+        <f>Employment_Table!D9</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D12" s="23">
+        <f>Employment_Table!E9</f>
+        <v>2.4493343341366103</v>
+      </c>
+      <c r="E12" s="23">
+        <f>Employment_Table!F9</f>
+        <v>2.3099133782483072</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -4508,24 +4508,24 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <f>Employment_Table!C16</f>
-        <v>3.7</v>
-      </c>
-      <c r="C13" s="23">
-        <f>Employment_Table!D16</f>
+      <c r="A13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="26">
+        <f>Employment_Table!C44</f>
+        <v>5.6</v>
+      </c>
+      <c r="C13" s="27">
+        <f>Employment_Table!D44</f>
         <v>-0.5</v>
       </c>
-      <c r="D13" s="23">
-        <f>Employment_Table!E16</f>
-        <v>3.2060841037876431</v>
+      <c r="D13" s="27">
+        <f>Employment_Table!E44</f>
+        <v>2.3692646764175596</v>
       </c>
       <c r="E13" s="23">
-        <f>Employment_Table!F16</f>
-        <v>1.7587939698492372</v>
+        <f>Employment_Table!F44</f>
+        <v>0.94496942745969648</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="8"/>
@@ -4537,23 +4537,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7">
-        <f>Employment_Table!C13</f>
-        <v>4.7</v>
+        <f>Employment_Table!C12</f>
+        <v>6.1</v>
       </c>
       <c r="C14" s="1">
-        <f>Employment_Table!D13</f>
-        <v>-0.70000000000000018</v>
+        <f>Employment_Table!D12</f>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="D14" s="1">
-        <f>Employment_Table!E13</f>
-        <v>3.150788627874368</v>
+        <f>Employment_Table!E12</f>
+        <v>2.3076923076923217</v>
       </c>
       <c r="E14" s="1">
-        <f>Employment_Table!F13</f>
-        <v>1.3806523350629929</v>
+        <f>Employment_Table!F12</f>
+        <v>1.9739605207895972</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="8"/>
@@ -4562,24 +4562,24 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="26">
-        <f>Employment_Table!C32</f>
-        <v>6.1</v>
-      </c>
-      <c r="C15" s="27">
-        <f>Employment_Table!D32</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D15" s="27">
-        <f>Employment_Table!E32</f>
-        <v>2.0025530556885274</v>
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <f>Employment_Table!C15</f>
+        <v>3.2</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Employment_Table!D15</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Employment_Table!E15</f>
+        <v>2.1588402143082108</v>
       </c>
       <c r="E15" s="1">
-        <f>Employment_Table!F32</f>
-        <v>1.2944983818770295</v>
+        <f>Employment_Table!F15</f>
+        <v>0.15898251192369983</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="20"/>
@@ -4588,24 +4588,24 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="21">
-        <f>Employment_Table!C28</f>
-        <v>5.8</v>
-      </c>
-      <c r="C16" s="23">
-        <f>Employment_Table!D28</f>
-        <v>-0.60000000000000053</v>
-      </c>
-      <c r="D16" s="23">
-        <f>Employment_Table!E28</f>
-        <v>0.83892617449663476</v>
-      </c>
-      <c r="E16" s="23">
-        <f>Employment_Table!F28</f>
-        <v>1.1904761904761862</v>
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7">
+        <f>Employment_Table!C46</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Employment_Table!D46</f>
+        <v>-1.7000000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Employment_Table!E46</f>
+        <v>2.116126342124458</v>
+      </c>
+      <c r="E16" s="1">
+        <f>Employment_Table!F46</f>
+        <v>-0.30842230130486703</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="8"/>
@@ -4614,24 +4614,24 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="21">
-        <f>Employment_Table!C25</f>
-        <v>4.2</v>
-      </c>
-      <c r="C17" s="23">
-        <f>Employment_Table!D25</f>
+      <c r="A17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="26">
+        <f>Employment_Table!C32</f>
+        <v>6.1</v>
+      </c>
+      <c r="C17" s="27">
+        <f>Employment_Table!D32</f>
         <v>-0.70000000000000018</v>
       </c>
-      <c r="D17" s="23">
-        <f>Employment_Table!E25</f>
-        <v>1.5289906943450227</v>
-      </c>
-      <c r="E17" s="23">
-        <f>Employment_Table!F25</f>
-        <v>1.1555555555555541</v>
+      <c r="D17" s="27">
+        <f>Employment_Table!E32</f>
+        <v>2.0025530556885274</v>
+      </c>
+      <c r="E17" s="1">
+        <f>Employment_Table!F32</f>
+        <v>1.2944983818770295</v>
       </c>
       <c r="I17" s="25"/>
       <c r="K17" s="7"/>
@@ -4640,372 +4640,372 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B18" s="21">
-        <f>Employment_Table!C54</f>
-        <v>5.6</v>
+        <f>Employment_Table!C26</f>
+        <v>4.7</v>
       </c>
       <c r="C18" s="23">
-        <f>Employment_Table!D54</f>
-        <v>1.3999999999999995</v>
+        <f>Employment_Table!D26</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D18" s="1">
-        <f>Employment_Table!E54</f>
-        <v>-3.0261348005502064</v>
+        <f>Employment_Table!E26</f>
+        <v>1.885100861153699</v>
       </c>
       <c r="E18" s="1">
-        <f>Employment_Table!F54</f>
-        <v>1.1235955056179803</v>
+        <f>Employment_Table!F26</f>
+        <v>1.0101010101010166</v>
       </c>
       <c r="K18" s="8"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B19" s="7">
-        <f>Employment_Table!C14</f>
-        <v>5.3</v>
+        <f>Employment_Table!C37</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C19" s="1">
-        <f>Employment_Table!D14</f>
-        <v>-0.60000000000000053</v>
+        <f>Employment_Table!D37</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D19" s="1">
-        <f>Employment_Table!E14</f>
-        <v>2.9345957276431411</v>
+        <f>Employment_Table!E37</f>
+        <v>1.8465103083033618</v>
       </c>
       <c r="E19" s="1">
-        <f>Employment_Table!F14</f>
-        <v>1.0181496237273047</v>
+        <f>Employment_Table!F37</f>
+        <v>0.33310201249132643</v>
       </c>
       <c r="K19" s="8"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="21">
-        <f>Employment_Table!C26</f>
-        <v>4.7</v>
-      </c>
-      <c r="C20" s="23">
-        <f>Employment_Table!D26</f>
-        <v>-0.79999999999999982</v>
+      <c r="A20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <f>Employment_Table!C7</f>
+        <v>3.8</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Employment_Table!D7</f>
+        <v>-1.6000000000000005</v>
       </c>
       <c r="D20" s="1">
-        <f>Employment_Table!E26</f>
-        <v>1.885100861153699</v>
+        <f>Employment_Table!E7</f>
+        <v>1.8353957312515767</v>
       </c>
       <c r="E20" s="1">
-        <f>Employment_Table!F26</f>
-        <v>1.0101010101010166</v>
+        <f>Employment_Table!F7</f>
+        <v>0.28261893546868144</v>
       </c>
       <c r="K20" s="7"/>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21">
-        <f>Employment_Table!C5</f>
-        <v>6.7</v>
-      </c>
-      <c r="C21" s="23">
-        <f>Employment_Table!D5</f>
-        <v>0.29999999999999982</v>
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <f>Employment_Table!C24</f>
+        <v>4.5</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Employment_Table!D24</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D21" s="23">
-        <f>Employment_Table!E5</f>
-        <v>-0.55653192735792834</v>
+        <f>Employment_Table!E24</f>
+        <v>1.8278922822325905</v>
       </c>
       <c r="E21" s="23">
-        <f>Employment_Table!F5</f>
-        <v>0.96618357487923134</v>
+        <f>Employment_Table!F24</f>
+        <v>0.13905442987685035</v>
       </c>
       <c r="K21" s="20"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="26">
-        <f>Employment_Table!C44</f>
-        <v>5.6</v>
-      </c>
-      <c r="C22" s="27">
-        <f>Employment_Table!D44</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D22" s="27">
-        <f>Employment_Table!E44</f>
-        <v>2.3692646764175596</v>
-      </c>
-      <c r="E22" s="23">
-        <f>Employment_Table!F44</f>
-        <v>0.94496942745969648</v>
+      <c r="A22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7">
+        <f>Employment_Table!C50</f>
+        <v>3.8</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Employment_Table!D50</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D22" s="1">
+        <f>Employment_Table!E50</f>
+        <v>1.7707654192202327</v>
+      </c>
+      <c r="E22" s="1">
+        <f>Employment_Table!F50</f>
+        <v>0.23862998315553607</v>
       </c>
       <c r="K22" s="25"/>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7">
-        <f>Employment_Table!C35</f>
-        <v>6.2</v>
-      </c>
-      <c r="C23" s="1">
-        <f>Employment_Table!D35</f>
+      <c r="A23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="21">
+        <f>Employment_Table!C53</f>
+        <v>4.2</v>
+      </c>
+      <c r="C23" s="23">
+        <f>Employment_Table!D53</f>
         <v>-0.39999999999999947</v>
       </c>
       <c r="D23" s="1">
-        <f>Employment_Table!E35</f>
-        <v>0.49624788186879432</v>
+        <f>Employment_Table!E53</f>
+        <v>1.6541822721598098</v>
       </c>
       <c r="E23" s="1">
-        <f>Employment_Table!F35</f>
-        <v>0.89520800421274416</v>
+        <f>Employment_Table!F53</f>
+        <v>0.43999022243947916</v>
       </c>
       <c r="K23" s="8"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="21">
+        <f>Employment_Table!C31</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Employment_Table!D31</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D24" s="23">
+        <f>Employment_Table!E31</f>
+        <v>1.6452288363745238</v>
+      </c>
+      <c r="E24" s="23">
+        <f>Employment_Table!F31</f>
+        <v>0.70381231671554634</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="21">
+        <f>Employment_Table!C25</f>
+        <v>4.2</v>
+      </c>
+      <c r="C25" s="23">
+        <f>Employment_Table!D25</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D25" s="23">
+        <f>Employment_Table!E25</f>
+        <v>1.5289906943450227</v>
+      </c>
+      <c r="E25" s="23">
+        <f>Employment_Table!F25</f>
+        <v>1.1555555555555541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="21">
+        <f>Employment_Table!C47</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C26" s="1">
+        <f>Employment_Table!D47</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="23">
+        <f>Employment_Table!E47</f>
+        <v>1.4556978113693608</v>
+      </c>
+      <c r="E26" s="23">
+        <f>Employment_Table!F47</f>
+        <v>1.9603607495814579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="7">
+        <f>Employment_Table!C49</f>
+        <v>3.1</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Employment_Table!D49</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D27" s="1">
+        <f>Employment_Table!E49</f>
+        <v>1.4102564102564052</v>
+      </c>
+      <c r="E27" s="1">
+        <f>Employment_Table!F49</f>
+        <v>1.795332136445249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="21">
+        <f>Employment_Table!C45</f>
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="23">
+        <f>Employment_Table!D45</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D28" s="1">
+        <f>Employment_Table!E45</f>
+        <v>1.3311536665109758</v>
+      </c>
+      <c r="E28" s="1">
+        <f>Employment_Table!F45</f>
+        <v>0.12820512820512775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="21">
+        <f>Employment_Table!C39</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Employment_Table!D39</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="D29" s="1">
+        <f>Employment_Table!E39</f>
+        <v>1.3091083661072034</v>
+      </c>
+      <c r="E29" s="1">
+        <f>Employment_Table!F39</f>
+        <v>0.1171722431974942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="21">
+        <f>Employment_Table!C18</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Employment_Table!D18</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D30" s="1">
+        <f>Employment_Table!E18</f>
+        <v>1.2778181337911976</v>
+      </c>
+      <c r="E30" s="1">
+        <f>Employment_Table!F18</f>
+        <v>9.3852651337411608E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="21">
+        <f>Employment_Table!C21</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C31" s="23">
+        <f>Employment_Table!D21</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D31" s="23">
+        <f>Employment_Table!E21</f>
+        <v>1.2278090783458984</v>
+      </c>
+      <c r="E31" s="1">
+        <f>Employment_Table!F21</f>
+        <v>-1.1915961116337304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21">
+        <f>Employment_Table!C34</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C32" s="23">
+        <f>Employment_Table!D34</f>
+        <v>-0.89999999999999947</v>
+      </c>
+      <c r="D32" s="23">
+        <f>Employment_Table!E34</f>
+        <v>1.194594460068199</v>
+      </c>
+      <c r="E32" s="1">
+        <f>Employment_Table!F34</f>
+        <v>0.32446463335495945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B33" s="21">
         <f>Employment_Table!C19</f>
         <v>3.9</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C33" s="1">
         <f>Employment_Table!D19</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D33" s="23">
         <f>Employment_Table!E19</f>
         <v>1.1539201230848173</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E33" s="23">
         <f>Employment_Table!F19</f>
         <v>0.82482325216024499</v>
       </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="21">
-        <f>Employment_Table!C31</f>
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <f>Employment_Table!D31</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="D25" s="23">
-        <f>Employment_Table!E31</f>
-        <v>1.6452288363745238</v>
-      </c>
-      <c r="E25" s="23">
-        <f>Employment_Table!F31</f>
-        <v>0.70381231671554634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="21">
-        <f>Employment_Table!C36</f>
-        <v>4.7</v>
-      </c>
-      <c r="C26" s="1">
-        <f>Employment_Table!D36</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D26" s="1">
-        <f>Employment_Table!E36</f>
-        <v>0.97163013135399545</v>
-      </c>
-      <c r="E26" s="1">
-        <f>Employment_Table!F36</f>
-        <v>0.45948203842940405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="21">
-        <f>Employment_Table!C53</f>
-        <v>4.2</v>
-      </c>
-      <c r="C27" s="23">
-        <f>Employment_Table!D53</f>
-        <v>-0.39999999999999947</v>
-      </c>
-      <c r="D27" s="1">
-        <f>Employment_Table!E53</f>
-        <v>1.6541822721598098</v>
-      </c>
-      <c r="E27" s="1">
-        <f>Employment_Table!F53</f>
-        <v>0.43999022243947916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="21">
-        <f>Employment_Table!C40</f>
-        <v>4.7</v>
-      </c>
-      <c r="C28" s="1">
-        <f>Employment_Table!D40</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="D28" s="1">
-        <f>Employment_Table!E40</f>
-        <v>-0.1679764832923536</v>
-      </c>
-      <c r="E28" s="1">
-        <f>Employment_Table!F40</f>
-        <v>0.39840637450199168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="7">
-        <f>Employment_Table!C37</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C29" s="1">
-        <f>Employment_Table!D37</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D29" s="1">
-        <f>Employment_Table!E37</f>
-        <v>1.8465103083033618</v>
-      </c>
-      <c r="E29" s="1">
-        <f>Employment_Table!F37</f>
-        <v>0.33310201249132643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="21">
-        <f>Employment_Table!C34</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C30" s="23">
-        <f>Employment_Table!D34</f>
-        <v>-0.89999999999999947</v>
-      </c>
-      <c r="D30" s="23">
-        <f>Employment_Table!E34</f>
-        <v>1.194594460068199</v>
-      </c>
-      <c r="E30" s="1">
-        <f>Employment_Table!F34</f>
-        <v>0.32446463335495945</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="21">
-        <f>Employment_Table!C11</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C31" s="23">
-        <f>Employment_Table!D11</f>
-        <v>-0.80000000000000071</v>
-      </c>
-      <c r="D31" s="1">
-        <f>Employment_Table!E11</f>
-        <v>2.4591996422982376</v>
-      </c>
-      <c r="E31" s="1">
-        <f>Employment_Table!F11</f>
-        <v>0.30581039755350758</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="7">
-        <f>Employment_Table!C7</f>
-        <v>3.8</v>
-      </c>
-      <c r="C32" s="1">
-        <f>Employment_Table!D7</f>
-        <v>-1.6000000000000005</v>
-      </c>
-      <c r="D32" s="1">
-        <f>Employment_Table!E7</f>
-        <v>1.8353957312515767</v>
-      </c>
-      <c r="E32" s="1">
-        <f>Employment_Table!F7</f>
-        <v>0.28261893546868144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7">
-        <f>Employment_Table!C50</f>
-        <v>3.8</v>
-      </c>
-      <c r="C33" s="1">
-        <f>Employment_Table!D50</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D33" s="1">
-        <f>Employment_Table!E50</f>
-        <v>1.7707654192202327</v>
-      </c>
-      <c r="E33" s="1">
-        <f>Employment_Table!F50</f>
-        <v>0.23862998315553607</v>
-      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B34" s="21">
-        <f>Employment_Table!C30</f>
-        <v>4.2</v>
-      </c>
-      <c r="C34" s="1">
-        <f>Employment_Table!D30</f>
-        <v>0.10000000000000053</v>
-      </c>
-      <c r="D34" s="1">
-        <f>Employment_Table!E30</f>
-        <v>0.60750705142114114</v>
+        <f>Employment_Table!C4</f>
+        <v>6.1</v>
+      </c>
+      <c r="C34" s="23">
+        <f>Employment_Table!D4</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="23">
+        <f>Employment_Table!E4</f>
+        <v>1.0843311578190074</v>
       </c>
       <c r="E34" s="1">
-        <f>Employment_Table!F30</f>
-        <v>0.22148394241416902</v>
+        <f>Employment_Table!F4</f>
+        <v>-0.34409740603493777</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5031,132 +5031,132 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="7">
-        <f>Employment_Table!C15</f>
-        <v>3.2</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="21">
+        <f>Employment_Table!C36</f>
+        <v>4.7</v>
       </c>
       <c r="C36" s="1">
-        <f>Employment_Table!D15</f>
-        <v>-0.5</v>
+        <f>Employment_Table!D36</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D36" s="1">
-        <f>Employment_Table!E15</f>
-        <v>2.1588402143082108</v>
+        <f>Employment_Table!E36</f>
+        <v>0.97163013135399545</v>
       </c>
       <c r="E36" s="1">
-        <f>Employment_Table!F15</f>
-        <v>0.15898251192369983</v>
+        <f>Employment_Table!F36</f>
+        <v>0.45948203842940405</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="7">
-        <f>Employment_Table!C24</f>
-        <v>4.5</v>
+        <v>25</v>
+      </c>
+      <c r="B37" s="21">
+        <f>Employment_Table!C29</f>
+        <v>4.3</v>
       </c>
       <c r="C37" s="1">
-        <f>Employment_Table!D24</f>
-        <v>-0.70000000000000018</v>
+        <f>Employment_Table!D29</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D37" s="23">
-        <f>Employment_Table!E24</f>
-        <v>1.8278922822325905</v>
-      </c>
-      <c r="E37" s="23">
-        <f>Employment_Table!F24</f>
-        <v>0.13905442987685035</v>
+        <f>Employment_Table!E29</f>
+        <v>0.86525688435716841</v>
+      </c>
+      <c r="E37" s="1">
+        <f>Employment_Table!F29</f>
+        <v>-1.2666973744818066</v>
       </c>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B38" s="21">
-        <f>Employment_Table!C45</f>
-        <v>2.5</v>
+        <f>Employment_Table!C28</f>
+        <v>5.8</v>
       </c>
       <c r="C38" s="23">
-        <f>Employment_Table!D45</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D38" s="1">
-        <f>Employment_Table!E45</f>
-        <v>1.3311536665109758</v>
-      </c>
-      <c r="E38" s="1">
-        <f>Employment_Table!F45</f>
-        <v>0.12820512820512775</v>
+        <f>Employment_Table!D28</f>
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="D38" s="23">
+        <f>Employment_Table!E28</f>
+        <v>0.83892617449663476</v>
+      </c>
+      <c r="E38" s="23">
+        <f>Employment_Table!F28</f>
+        <v>1.1904761904761862</v>
       </c>
       <c r="L38" s="20"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B39" s="21">
-        <f>Employment_Table!C39</f>
-        <v>5.0999999999999996</v>
+        <f>Employment_Table!C10</f>
+        <v>5.7</v>
       </c>
       <c r="C39" s="1">
-        <f>Employment_Table!D39</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="D39" s="1">
-        <f>Employment_Table!E39</f>
-        <v>1.3091083661072034</v>
+        <f>Employment_Table!D10</f>
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="D39" s="23">
+        <f>Employment_Table!E10</f>
+        <v>0.83024728228406897</v>
       </c>
       <c r="E39" s="1">
-        <f>Employment_Table!F39</f>
-        <v>0.1171722431974942</v>
+        <f>Employment_Table!F10</f>
+        <v>-0.33388981636058856</v>
       </c>
       <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="7">
-        <f>Employment_Table!C6</f>
-        <v>5.6</v>
-      </c>
-      <c r="C40" s="1">
-        <f>Employment_Table!D6</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D40" s="23">
-        <f>Employment_Table!E6</f>
-        <v>2.8929567776206699</v>
-      </c>
-      <c r="E40" s="23">
-        <f>Employment_Table!F6</f>
-        <v>9.8960910440393235E-2</v>
+      <c r="A40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="21">
+        <f>Employment_Table!C17</f>
+        <v>6.4</v>
+      </c>
+      <c r="C40" s="23">
+        <f>Employment_Table!D17</f>
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="1">
+        <f>Employment_Table!E17</f>
+        <v>0.77873254564984062</v>
+      </c>
+      <c r="E40" s="1">
+        <f>Employment_Table!F17</f>
+        <v>-9.6606690013290031E-2</v>
       </c>
       <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="21">
-        <f>Employment_Table!C18</f>
-        <v>5</v>
+      <c r="A41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="7">
+        <f>Employment_Table!C33</f>
+        <v>2.7</v>
       </c>
       <c r="C41" s="1">
-        <f>Employment_Table!D18</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D41" s="1">
-        <f>Employment_Table!E18</f>
-        <v>1.2778181337911976</v>
+        <f>Employment_Table!D33</f>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="D41" s="23">
+        <f>Employment_Table!E33</f>
+        <v>0.68534876637222908</v>
       </c>
       <c r="E41" s="1">
-        <f>Employment_Table!F18</f>
-        <v>9.3852651337411608E-2</v>
+        <f>Employment_Table!F33</f>
+        <v>-2.7563395810363822</v>
       </c>
       <c r="L41" s="8"/>
     </row>
@@ -5185,243 +5185,243 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B43" s="21">
-        <f>Employment_Table!C17</f>
-        <v>6.4</v>
-      </c>
-      <c r="C43" s="23">
-        <f>Employment_Table!D17</f>
-        <v>0.5</v>
+        <f>Employment_Table!C30</f>
+        <v>4.2</v>
+      </c>
+      <c r="C43" s="1">
+        <f>Employment_Table!D30</f>
+        <v>0.10000000000000053</v>
       </c>
       <c r="D43" s="1">
-        <f>Employment_Table!E17</f>
-        <v>0.77873254564984062</v>
+        <f>Employment_Table!E30</f>
+        <v>0.60750705142114114</v>
       </c>
       <c r="E43" s="1">
-        <f>Employment_Table!F17</f>
-        <v>-9.6606690013290031E-2</v>
+        <f>Employment_Table!F30</f>
+        <v>0.22148394241416902</v>
       </c>
       <c r="H43" s="20"/>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B44" s="7">
-        <f>Employment_Table!C46</f>
-        <v>4.0999999999999996</v>
+        <f>Employment_Table!C35</f>
+        <v>6.2</v>
       </c>
       <c r="C44" s="1">
-        <f>Employment_Table!D46</f>
-        <v>-1.7000000000000002</v>
+        <f>Employment_Table!D35</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D44" s="1">
-        <f>Employment_Table!E46</f>
-        <v>2.116126342124458</v>
+        <f>Employment_Table!E35</f>
+        <v>0.49624788186879432</v>
       </c>
       <c r="E44" s="1">
-        <f>Employment_Table!F46</f>
-        <v>-0.30842230130486703</v>
+        <f>Employment_Table!F35</f>
+        <v>0.89520800421274416</v>
       </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="21">
-        <f>Employment_Table!C10</f>
-        <v>5.7</v>
-      </c>
-      <c r="C45" s="1">
-        <f>Employment_Table!D10</f>
-        <v>0.10000000000000053</v>
+        <v>19</v>
+      </c>
+      <c r="B45" s="22">
+        <f>Employment_Table!C23</f>
+        <v>3.5</v>
+      </c>
+      <c r="C45" s="32">
+        <f>Employment_Table!D23</f>
+        <v>-1</v>
       </c>
       <c r="D45" s="23">
-        <f>Employment_Table!E10</f>
-        <v>0.83024728228406897</v>
+        <f>Employment_Table!E23</f>
+        <v>0.26220911176662032</v>
       </c>
       <c r="E45" s="1">
-        <f>Employment_Table!F10</f>
-        <v>-0.33388981636058856</v>
+        <f>Employment_Table!F23</f>
+        <v>-0.80808080808080218</v>
       </c>
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B46" s="21">
-        <f>Employment_Table!C4</f>
-        <v>6.1</v>
+        <f>Employment_Table!C43</f>
+        <v>5.4</v>
       </c>
       <c r="C46" s="23">
-        <f>Employment_Table!D4</f>
-        <v>0</v>
+        <f>Employment_Table!D43</f>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="D46" s="23">
-        <f>Employment_Table!E4</f>
-        <v>1.0843311578190074</v>
+        <f>Employment_Table!E43</f>
+        <v>0.22652388797363976</v>
       </c>
       <c r="E46" s="1">
-        <f>Employment_Table!F4</f>
-        <v>-0.34409740603493777</v>
+        <f>Employment_Table!F43</f>
+        <v>-0.82644628099173278</v>
       </c>
       <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="21">
+        <f>Employment_Table!C52</f>
+        <v>6.2</v>
+      </c>
+      <c r="C47" s="23">
+        <f>Employment_Table!D52</f>
+        <v>-0.89999999999999947</v>
+      </c>
+      <c r="D47" s="23">
+        <f>Employment_Table!E52</f>
+        <v>0.18267223382044673</v>
+      </c>
+      <c r="E47" s="1">
+        <f>Employment_Table!F52</f>
+        <v>6.9645203679369327</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B48" s="21">
         <f>Employment_Table!C20</f>
         <v>3.7</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C48" s="23">
         <f>Employment_Table!D20</f>
         <v>-0.5</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D48" s="23">
         <f>Employment_Table!E20</f>
         <v>-5.0046471723741437E-2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <f>Employment_Table!F20</f>
         <v>-0.4278490859587758</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="22">
-        <f>Employment_Table!C23</f>
-        <v>3.5</v>
-      </c>
-      <c r="C48" s="32">
-        <f>Employment_Table!D23</f>
-        <v>-1</v>
-      </c>
-      <c r="D48" s="23">
-        <f>Employment_Table!E23</f>
-        <v>0.26220911176662032</v>
-      </c>
-      <c r="E48" s="1">
-        <f>Employment_Table!F23</f>
-        <v>-0.80808080808080218</v>
-      </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B49" s="21">
-        <f>Employment_Table!C43</f>
-        <v>5.4</v>
-      </c>
-      <c r="C49" s="23">
-        <f>Employment_Table!D43</f>
-        <v>-0.69999999999999929</v>
-      </c>
-      <c r="D49" s="23">
-        <f>Employment_Table!E43</f>
-        <v>0.22652388797363976</v>
+        <f>Employment_Table!C40</f>
+        <v>4.7</v>
+      </c>
+      <c r="C49" s="1">
+        <f>Employment_Table!D40</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D49" s="1">
+        <f>Employment_Table!E40</f>
+        <v>-0.1679764832923536</v>
       </c>
       <c r="E49" s="1">
-        <f>Employment_Table!F43</f>
-        <v>-0.82644628099173278</v>
+        <f>Employment_Table!F40</f>
+        <v>0.39840637450199168</v>
       </c>
       <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="21">
+        <f>Employment_Table!C5</f>
+        <v>6.7</v>
+      </c>
+      <c r="C50" s="23">
+        <f>Employment_Table!D5</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D50" s="23">
+        <f>Employment_Table!E5</f>
+        <v>-0.55653192735792834</v>
+      </c>
+      <c r="E50" s="23">
+        <f>Employment_Table!F5</f>
+        <v>0.96618357487923134</v>
+      </c>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B51" s="21">
         <f>Employment_Table!C22</f>
         <v>6.3</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C51" s="23">
         <f>Employment_Table!D22</f>
         <v>0</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D51" s="23">
         <f>Employment_Table!E22</f>
         <v>-0.93289196509177552</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E51" s="23">
         <f>Employment_Table!F22</f>
         <v>-1.0384850335980356</v>
       </c>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="21">
-        <f>Employment_Table!C21</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C51" s="23">
-        <f>Employment_Table!D21</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="D51" s="23">
-        <f>Employment_Table!E21</f>
-        <v>1.2278090783458984</v>
-      </c>
-      <c r="E51" s="1">
-        <f>Employment_Table!F21</f>
-        <v>-1.1915961116337304</v>
-      </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>25</v>
+      <c r="A52" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="21">
-        <f>Employment_Table!C29</f>
-        <v>4.3</v>
-      </c>
-      <c r="C52" s="1">
-        <f>Employment_Table!D29</f>
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="D52" s="23">
-        <f>Employment_Table!E29</f>
-        <v>0.86525688435716841</v>
+        <f>Employment_Table!C54</f>
+        <v>5.6</v>
+      </c>
+      <c r="C52" s="23">
+        <f>Employment_Table!D54</f>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="D52" s="1">
+        <f>Employment_Table!E54</f>
+        <v>-3.0261348005502064</v>
       </c>
       <c r="E52" s="1">
-        <f>Employment_Table!F29</f>
-        <v>-1.2666973744818066</v>
+        <f>Employment_Table!F54</f>
+        <v>1.1235955056179803</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="7">
-        <f>Employment_Table!C33</f>
-        <v>2.7</v>
-      </c>
-      <c r="C53" s="1">
-        <f>Employment_Table!D33</f>
-        <v>-0.79999999999999982</v>
+      <c r="A53" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="21">
+        <f>Employment_Table!C38</f>
+        <v>3.2</v>
+      </c>
+      <c r="C53" s="23">
+        <f>Employment_Table!D38</f>
+        <v>0.40000000000000036</v>
       </c>
       <c r="D53" s="23">
-        <f>Employment_Table!E33</f>
-        <v>0.68534876637222908</v>
-      </c>
-      <c r="E53" s="1">
-        <f>Employment_Table!F33</f>
-        <v>-2.7563395810363822</v>
+        <f>Employment_Table!E38</f>
+        <v>-3.4293251264013946</v>
+      </c>
+      <c r="E53" s="23">
+        <f>Employment_Table!F38</f>
+        <v>3.5980148883374863</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -5440,7 +5440,7 @@
   </sheetData>
   <autoFilter ref="A2:E2">
     <sortState ref="A3:E53">
-      <sortCondition descending="1" ref="E2"/>
+      <sortCondition descending="1" ref="D2"/>
     </sortState>
   </autoFilter>
   <sortState ref="L6:L13">

--- a/static/data/source/current_employment.xlsx
+++ b/static/data/source/current_employment.xlsx
@@ -413,7 +413,7 @@
     <numFmt numFmtId="169" formatCode="0%_);\(0%\)"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="75" x14ac:knownFonts="1">
     <font>
@@ -2065,10 +2065,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="507">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -2894,14 +2894,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -4189,7 +4189,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4246,275 +4246,275 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B3" s="20">
-        <f>Employment_Table!C42</f>
-        <v>5.8</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Employment_Table!D42</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <f>Employment_Table!E42</f>
-        <v>0.65506653019447025</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Employment_Table!F42</f>
-        <v>0.43896913055789799</v>
+        <f>Employment_Table!C51</f>
+        <v>5.4</v>
+      </c>
+      <c r="C3" s="23">
+        <f>Employment_Table!D51</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D3" s="23">
+        <f>Employment_Table!E51</f>
+        <v>3.4568601499968432</v>
+      </c>
+      <c r="E3" s="21">
+        <f>Employment_Table!F51</f>
+        <v>3.3753775093267047</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="20">
-        <f>Employment_Table!C40</f>
-        <v>5.2</v>
-      </c>
-      <c r="C4" s="21">
-        <f>Employment_Table!D40</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
-        <f>Employment_Table!E40</f>
-        <v>-0.73727746808127659</v>
+      <c r="A4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="28">
+        <f>Employment_Table!C41</f>
+        <v>5.3</v>
+      </c>
+      <c r="C4" s="23">
+        <f>Employment_Table!D41</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D4" s="23">
+        <f>Employment_Table!E41</f>
+        <v>3.3424321764804255</v>
       </c>
       <c r="E4" s="21">
-        <f>Employment_Table!F40</f>
-        <v>5.6737588652477911E-2</v>
+        <f>Employment_Table!F41</f>
+        <v>3.4733708236850847</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="20">
-        <f>Employment_Table!C54</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C5" s="21">
-        <f>Employment_Table!D54</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="D5" s="21">
-        <f>Employment_Table!E54</f>
-        <v>-3.5294117647058809</v>
-      </c>
-      <c r="E5" s="21">
-        <f>Employment_Table!F54</f>
-        <v>-0.83682008368202165</v>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29">
+        <f>Employment_Table!C13</f>
+        <v>4.8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Employment_Table!D13</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Employment_Table!E13</f>
+        <v>3.0960471312978299</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Employment_Table!F13</f>
+        <v>1.4914380408764583</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
+      <c r="A6" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="20">
-        <f>Employment_Table!C29</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Employment_Table!D29</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="D6" s="21">
-        <f>Employment_Table!E29</f>
-        <v>1.8259434639116057</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Employment_Table!F29</f>
-        <v>1.1337343822304558</v>
+        <f>Employment_Table!C48</f>
+        <v>3.2</v>
+      </c>
+      <c r="C6" s="23">
+        <f>Employment_Table!D48</f>
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="D6" s="23">
+        <f>Employment_Table!E48</f>
+        <v>3.0056805925073649</v>
+      </c>
+      <c r="E6" s="21">
+        <f>Employment_Table!F48</f>
+        <v>0.85070182900892632</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B7" s="20">
-        <f>Employment_Table!C19</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Employment_Table!D19</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="D7" s="21">
-        <f>Employment_Table!E19</f>
-        <v>1.1494986908487048</v>
-      </c>
-      <c r="E7" s="21">
-        <f>Employment_Table!F19</f>
-        <v>-0.19554165037153348</v>
+        <f>Employment_Table!C45</f>
+        <v>2.8</v>
+      </c>
+      <c r="C7" s="21">
+        <f>Employment_Table!D45</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Employment_Table!E45</f>
+        <v>2.5204200700116752</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Employment_Table!F45</f>
+        <v>1.9230769230769162</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8" s="20">
-        <f>Employment_Table!C20</f>
-        <v>4.4000000000000004</v>
+        <f>Employment_Table!C9</f>
+        <v>3.5</v>
       </c>
       <c r="C8" s="21">
-        <f>Employment_Table!D20</f>
-        <v>0.40000000000000036</v>
+        <f>Employment_Table!D9</f>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="D8" s="21">
-        <f>Employment_Table!E20</f>
-        <v>-0.37803138373750933</v>
-      </c>
-      <c r="E8" s="1">
-        <f>Employment_Table!F20</f>
-        <v>0.15618898867628683</v>
+        <f>Employment_Table!E9</f>
+        <v>2.5012681937019776</v>
+      </c>
+      <c r="E8" s="21">
+        <f>Employment_Table!F9</f>
+        <v>1.5007146260124005</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Employment_Table!C27</f>
-        <v>4</v>
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="29">
+        <f>Employment_Table!C46</f>
+        <v>4.8</v>
       </c>
       <c r="C9" s="1">
-        <f>Employment_Table!D27</f>
-        <v>0.39999999999999991</v>
+        <f>Employment_Table!D46</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D9" s="1">
-        <f>Employment_Table!E27</f>
-        <v>1.1219853198182417</v>
+        <f>Employment_Table!E46</f>
+        <v>2.4229754275334914</v>
       </c>
       <c r="E9" s="1">
-        <f>Employment_Table!F27</f>
-        <v>0.71208165202942819</v>
+        <f>Employment_Table!F46</f>
+        <v>0.98452883263009383</v>
       </c>
       <c r="H9" s="8"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="20">
-        <f>Employment_Table!C22</f>
-        <v>6.3</v>
-      </c>
-      <c r="C10" s="21">
-        <f>Employment_Table!D22</f>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="D10" s="21">
-        <f>Employment_Table!E22</f>
-        <v>-0.34305317324184736</v>
+      <c r="A10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="28">
+        <f>Employment_Table!C8</f>
+        <v>5.5</v>
+      </c>
+      <c r="C10" s="23">
+        <f>Employment_Table!D8</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D10" s="23">
+        <f>Employment_Table!E8</f>
+        <v>2.4047217746167471</v>
       </c>
       <c r="E10" s="21">
-        <f>Employment_Table!F22</f>
-        <v>-0.76781326781326653</v>
+        <f>Employment_Table!F8</f>
+        <v>2.2110147266491964</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="20">
-        <f>Employment_Table!C38</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="21">
-        <f>Employment_Table!D38</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="D11" s="21">
-        <f>Employment_Table!E38</f>
-        <v>-1.8028043623414258</v>
-      </c>
-      <c r="E11" s="21">
-        <f>Employment_Table!F38</f>
-        <v>0.85889570552146743</v>
+      <c r="A11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="28">
+        <f>Employment_Table!C32</f>
+        <v>5.5</v>
+      </c>
+      <c r="C11" s="23">
+        <f>Employment_Table!D32</f>
+        <v>-1</v>
+      </c>
+      <c r="D11" s="23">
+        <f>Employment_Table!E32</f>
+        <v>2.2659323367427264</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Employment_Table!F32</f>
+        <v>1.153846153846172</v>
       </c>
       <c r="H11" s="8"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="20">
-        <f>Employment_Table!C31</f>
-        <v>3.3</v>
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29">
+        <f>Employment_Table!C14</f>
+        <v>5.2</v>
       </c>
       <c r="C12" s="1">
-        <f>Employment_Table!D31</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="D12" s="21">
-        <f>Employment_Table!E31</f>
-        <v>0.38522323192413666</v>
-      </c>
-      <c r="E12" s="21">
-        <f>Employment_Table!F31</f>
-        <v>0.58309037900874383</v>
+        <f>Employment_Table!D14</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Employment_Table!E14</f>
+        <v>2.2512287860521285</v>
+      </c>
+      <c r="E12" s="1">
+        <f>Employment_Table!F14</f>
+        <v>1.0858400586940542</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
+      <c r="A13" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="20">
-        <f>Employment_Table!C36</f>
-        <v>5.2</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Employment_Table!D36</f>
-        <v>0.29999999999999982</v>
+        <f>Employment_Table!C26</f>
+        <v>4.7</v>
+      </c>
+      <c r="C13" s="21">
+        <f>Employment_Table!D26</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D13" s="1">
-        <f>Employment_Table!E36</f>
-        <v>1.0773656255723463</v>
+        <f>Employment_Table!E26</f>
+        <v>2.2103462016267006</v>
       </c>
       <c r="E13" s="1">
-        <f>Employment_Table!F36</f>
-        <v>0.28381558909040816</v>
+        <f>Employment_Table!F26</f>
+        <v>1.0043521928356114</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20">
-        <f>Employment_Table!C5</f>
-        <v>6.8</v>
-      </c>
-      <c r="C14" s="21">
-        <f>Employment_Table!D5</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D14" s="21">
-        <f>Employment_Table!E5</f>
-        <v>-0.11788977306219639</v>
-      </c>
-      <c r="E14" s="21">
-        <f>Employment_Table!F5</f>
-        <v>3.0674846625766916</v>
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29">
+        <f>Employment_Table!C15</f>
+        <v>3.2</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Employment_Table!D15</f>
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Employment_Table!E15</f>
+        <v>2.1868166198063088</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Employment_Table!F15</f>
+        <v>0.15723270440251014</v>
       </c>
       <c r="H14" s="18"/>
       <c r="J14" s="18"/>
@@ -4522,201 +4522,201 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B15" s="20">
-        <f>Employment_Table!C47</f>
-        <v>4.7</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Employment_Table!D47</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!C16</f>
+        <v>3.8</v>
+      </c>
+      <c r="C15" s="21">
+        <f>Employment_Table!D16</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D15" s="21">
-        <f>Employment_Table!E47</f>
-        <v>1.7446064336040568</v>
+        <f>Employment_Table!E16</f>
+        <v>2.15985894798707</v>
       </c>
       <c r="E15" s="21">
-        <f>Employment_Table!F47</f>
-        <v>2.4061442612385076</v>
+        <f>Employment_Table!F16</f>
+        <v>0.16542597187758634</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="20">
-        <f>Employment_Table!C39</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C16" s="1">
-        <f>Employment_Table!D39</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D16" s="1">
-        <f>Employment_Table!E39</f>
-        <v>0.92726905492004352</v>
-      </c>
-      <c r="E16" s="1">
-        <f>Employment_Table!F39</f>
-        <v>1.5773693129970123</v>
+        <f>Employment_Table!C33</f>
+        <v>2.8</v>
+      </c>
+      <c r="C16" s="21">
+        <f>Employment_Table!D33</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D16" s="21">
+        <f>Employment_Table!E33</f>
+        <v>2.1221767470062103</v>
+      </c>
+      <c r="E16" s="21">
+        <f>Employment_Table!F33</f>
+        <v>-2.7839643652561197</v>
       </c>
       <c r="H16" s="18"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="20">
-        <f>Employment_Table!C34</f>
-        <v>5.2</v>
+        <f>Employment_Table!C25</f>
+        <v>3.3</v>
       </c>
       <c r="C17" s="21">
-        <f>Employment_Table!D34</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!D25</f>
+        <v>-1.5</v>
       </c>
       <c r="D17" s="21">
-        <f>Employment_Table!E34</f>
-        <v>0.74542133583452852</v>
+        <f>Employment_Table!E25</f>
+        <v>2.036915527914851</v>
       </c>
       <c r="E17" s="21">
-        <f>Employment_Table!F34</f>
-        <v>0</v>
+        <f>Employment_Table!F25</f>
+        <v>1.1529933481152943</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B18" s="20">
-        <f>Employment_Table!C30</f>
-        <v>4.3</v>
+        <f>Employment_Table!C6</f>
+        <v>5.2</v>
       </c>
       <c r="C18" s="21">
-        <f>Employment_Table!D30</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!D6</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D18" s="21">
-        <f>Employment_Table!E30</f>
-        <v>0.78125</v>
+        <f>Employment_Table!E6</f>
+        <v>1.9889668630615143</v>
       </c>
       <c r="E18" s="21">
-        <f>Employment_Table!F30</f>
-        <v>-0.11086474501109667</v>
+        <f>Employment_Table!F6</f>
+        <v>-4.9091801669121082E-2</v>
       </c>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="20">
-        <f>Employment_Table!C35</f>
-        <v>6.7</v>
-      </c>
-      <c r="C19" s="21">
-        <f>Employment_Table!D35</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D19" s="21">
-        <f>Employment_Table!E35</f>
-        <v>-0.37521181312031304</v>
-      </c>
-      <c r="E19" s="21">
-        <f>Employment_Table!F35</f>
-        <v>-0.57925223802001158</v>
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="29">
+        <f>Employment_Table!C37</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Employment_Table!D37</f>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="D19" s="1">
+        <f>Employment_Table!E37</f>
+        <v>1.9884029391741054</v>
+      </c>
+      <c r="E19" s="1">
+        <f>Employment_Table!F37</f>
+        <v>1.0987482614742694</v>
       </c>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="29">
-        <f>Employment_Table!C50</f>
-        <v>4.2</v>
-      </c>
-      <c r="C20" s="33">
-        <f>Employment_Table!D50</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <f>Employment_Table!E50</f>
-        <v>1.7339104446848941</v>
-      </c>
-      <c r="E20" s="1">
-        <f>Employment_Table!F50</f>
-        <v>0.22500351567993349</v>
+      <c r="A20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="28">
+        <f>Employment_Table!C44</f>
+        <v>4.7</v>
+      </c>
+      <c r="C20" s="23">
+        <f>Employment_Table!D44</f>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="D20" s="23">
+        <f>Employment_Table!E44</f>
+        <v>1.9792182088075316</v>
+      </c>
+      <c r="E20" s="21">
+        <f>Employment_Table!F44</f>
+        <v>0.19315673289184154</v>
       </c>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B21" s="20">
-        <f>Employment_Table!C18</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C21" s="1">
-        <f>Employment_Table!D18</f>
-        <v>-9.9999999999999645E-2</v>
+        <f>Employment_Table!C11</f>
+        <v>4.3</v>
+      </c>
+      <c r="C21" s="21">
+        <f>Employment_Table!D11</f>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="D21" s="1">
-        <f>Employment_Table!E18</f>
-        <v>0.99097621000818759</v>
+        <f>Employment_Table!E11</f>
+        <v>1.8776231499889606</v>
       </c>
       <c r="E21" s="1">
-        <f>Employment_Table!F18</f>
-        <v>0.77592287796850457</v>
+        <f>Employment_Table!F11</f>
+        <v>-0.30349013657056112</v>
       </c>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>39</v>
+      <c r="A22" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="20">
-        <f>Employment_Table!C43</f>
-        <v>5.5</v>
-      </c>
-      <c r="C22" s="21">
-        <f>Employment_Table!D43</f>
-        <v>-9.9999999999999645E-2</v>
+        <f>Employment_Table!C29</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Employment_Table!D29</f>
+        <v>0.59999999999999964</v>
       </c>
       <c r="D22" s="21">
-        <f>Employment_Table!E43</f>
-        <v>1.3585837793330446</v>
+        <f>Employment_Table!E29</f>
+        <v>1.8259434639116057</v>
       </c>
       <c r="E22" s="1">
-        <f>Employment_Table!F43</f>
-        <v>0.16556291390728006</v>
+        <f>Employment_Table!F29</f>
+        <v>1.1337343822304558</v>
       </c>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="20">
-        <f>Employment_Table!C9</f>
-        <v>3.5</v>
-      </c>
-      <c r="C23" s="21">
-        <f>Employment_Table!D9</f>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="D23" s="21">
-        <f>Employment_Table!E9</f>
-        <v>2.5012681937019776</v>
-      </c>
-      <c r="E23" s="21">
-        <f>Employment_Table!F9</f>
-        <v>1.5007146260124005</v>
+      <c r="A23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="29">
+        <f>Employment_Table!C12</f>
+        <v>6.1</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Employment_Table!D12</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f>Employment_Table!E12</f>
+        <v>1.7968749999999867</v>
+      </c>
+      <c r="E23" s="1">
+        <f>Employment_Table!F12</f>
+        <v>2.1775544388609624</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="8"/>
@@ -4724,413 +4724,413 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="20">
-        <f>Employment_Table!C48</f>
-        <v>3.2</v>
-      </c>
-      <c r="C24" s="23">
-        <f>Employment_Table!D48</f>
-        <v>-0.19999999999999973</v>
-      </c>
-      <c r="D24" s="23">
-        <f>Employment_Table!E48</f>
-        <v>3.0056805925073649</v>
+        <f>Employment_Table!C47</f>
+        <v>4.7</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Employment_Table!D47</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D24" s="21">
+        <f>Employment_Table!E47</f>
+        <v>1.7446064336040568</v>
       </c>
       <c r="E24" s="21">
-        <f>Employment_Table!F48</f>
-        <v>0.85070182900892632</v>
+        <f>Employment_Table!F47</f>
+        <v>2.4061442612385076</v>
       </c>
       <c r="J24" s="7"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B25" s="29">
-        <f>Employment_Table!C15</f>
-        <v>3.2</v>
-      </c>
-      <c r="C25" s="1">
-        <f>Employment_Table!D15</f>
-        <v>-0.19999999999999973</v>
+        <f>Employment_Table!C50</f>
+        <v>4.2</v>
+      </c>
+      <c r="C25" s="32">
+        <f>Employment_Table!D50</f>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f>Employment_Table!E15</f>
-        <v>2.1868166198063088</v>
+        <f>Employment_Table!E50</f>
+        <v>1.7339104446848941</v>
       </c>
       <c r="E25" s="1">
-        <f>Employment_Table!F15</f>
-        <v>0.15723270440251014</v>
+        <f>Employment_Table!F50</f>
+        <v>0.22500351567993349</v>
       </c>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="20">
-        <f>Employment_Table!C45</f>
-        <v>2.8</v>
+        <f>Employment_Table!C43</f>
+        <v>5.5</v>
       </c>
       <c r="C26" s="21">
-        <f>Employment_Table!D45</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="D26" s="1">
-        <f>Employment_Table!E45</f>
-        <v>2.5204200700116752</v>
+        <f>Employment_Table!D43</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="D26" s="21">
+        <f>Employment_Table!E43</f>
+        <v>1.3585837793330446</v>
       </c>
       <c r="E26" s="1">
-        <f>Employment_Table!F45</f>
-        <v>1.9230769230769162</v>
+        <f>Employment_Table!F43</f>
+        <v>0.16556291390728006</v>
       </c>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="20">
-        <f>Employment_Table!C16</f>
-        <v>3.8</v>
-      </c>
-      <c r="C27" s="21">
-        <f>Employment_Table!D16</f>
-        <v>-0.20000000000000018</v>
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="29">
+        <f>Employment_Table!C24</f>
+        <v>4.2</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Employment_Table!D24</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D27" s="21">
-        <f>Employment_Table!E16</f>
-        <v>2.15985894798707</v>
+        <f>Employment_Table!E24</f>
+        <v>1.2959850606909296</v>
       </c>
       <c r="E27" s="21">
-        <f>Employment_Table!F16</f>
-        <v>0.16542597187758634</v>
+        <f>Employment_Table!F24</f>
+        <v>1.0133121398768097</v>
       </c>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B28" s="20">
-        <f>Employment_Table!C23</f>
-        <v>4</v>
-      </c>
-      <c r="C28" s="26">
-        <f>Employment_Table!D23</f>
-        <v>-0.20000000000000018</v>
+        <f>Employment_Table!C4</f>
+        <v>5.7</v>
+      </c>
+      <c r="C28" s="21">
+        <f>Employment_Table!D4</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D28" s="21">
-        <f>Employment_Table!E23</f>
-        <v>-3.2803017877647278E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <f>Employment_Table!F23</f>
-        <v>0.10080645161290036</v>
+        <f>Employment_Table!E4</f>
+        <v>1.1888900276724401</v>
+      </c>
+      <c r="E28" s="21">
+        <f>Employment_Table!F4</f>
+        <v>1.3553016210470226</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="28">
-        <f>Employment_Table!C41</f>
-        <v>5.3</v>
-      </c>
-      <c r="C29" s="23">
-        <f>Employment_Table!D41</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D29" s="23">
-        <f>Employment_Table!E41</f>
-        <v>3.3424321764804255</v>
+      <c r="A29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="20">
+        <f>Employment_Table!C19</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Employment_Table!D19</f>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="D29" s="21">
+        <f>Employment_Table!E19</f>
+        <v>1.1494986908487048</v>
       </c>
       <c r="E29" s="21">
-        <f>Employment_Table!F41</f>
-        <v>3.4733708236850847</v>
+        <f>Employment_Table!F19</f>
+        <v>-0.19554165037153348</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B30" s="20">
-        <f>Employment_Table!C51</f>
-        <v>5.4</v>
-      </c>
-      <c r="C30" s="23">
-        <f>Employment_Table!D51</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D30" s="23">
-        <f>Employment_Table!E51</f>
-        <v>3.4568601499968432</v>
-      </c>
-      <c r="E30" s="21">
-        <f>Employment_Table!F51</f>
-        <v>3.3753775093267047</v>
+        <f>Employment_Table!C27</f>
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Employment_Table!D27</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="D30" s="1">
+        <f>Employment_Table!E27</f>
+        <v>1.1219853198182417</v>
+      </c>
+      <c r="E30" s="1">
+        <f>Employment_Table!F27</f>
+        <v>0.71208165202942819</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="29">
-        <f>Employment_Table!C13</f>
-        <v>4.8</v>
+        <v>32</v>
+      </c>
+      <c r="B31" s="20">
+        <f>Employment_Table!C36</f>
+        <v>5.2</v>
       </c>
       <c r="C31" s="1">
-        <f>Employment_Table!D13</f>
-        <v>-0.29999999999999982</v>
+        <f>Employment_Table!D36</f>
+        <v>0.29999999999999982</v>
       </c>
       <c r="D31" s="1">
-        <f>Employment_Table!E13</f>
-        <v>3.0960471312978299</v>
+        <f>Employment_Table!E36</f>
+        <v>1.0773656255723463</v>
       </c>
       <c r="E31" s="1">
-        <f>Employment_Table!F13</f>
-        <v>1.4914380408764583</v>
+        <f>Employment_Table!F36</f>
+        <v>0.28381558909040816</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="29">
-        <f>Employment_Table!C14</f>
+      <c r="A32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="20">
+        <f>Employment_Table!C18</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Employment_Table!D18</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <f>Employment_Table!E18</f>
+        <v>0.99097621000818759</v>
+      </c>
+      <c r="E32" s="1">
+        <f>Employment_Table!F18</f>
+        <v>0.77592287796850457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="20">
+        <f>Employment_Table!C53</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C33" s="21">
+        <f>Employment_Table!D53</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D33" s="1">
+        <f>Employment_Table!E53</f>
+        <v>0.97708663042730404</v>
+      </c>
+      <c r="E33" s="1">
+        <f>Employment_Table!F53</f>
+        <v>0.12130033964095066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="20">
+        <f>Employment_Table!C21</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C34" s="21">
+        <f>Employment_Table!D21</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D34" s="21">
+        <f>Employment_Table!E21</f>
+        <v>0.97578986233450848</v>
+      </c>
+      <c r="E34" s="21">
+        <f>Employment_Table!F21</f>
+        <v>-0.78939059046415627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="29">
+        <f>Employment_Table!C7</f>
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <f>Employment_Table!D7</f>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="D35" s="1">
+        <f>Employment_Table!E7</f>
+        <v>0.94293210888816148</v>
+      </c>
+      <c r="E35" s="1">
+        <f>Employment_Table!F7</f>
+        <v>9.3852651337411608E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20">
+        <f>Employment_Table!C39</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Employment_Table!D39</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D36" s="1">
+        <f>Employment_Table!E39</f>
+        <v>0.92726905492004352</v>
+      </c>
+      <c r="E36" s="1">
+        <f>Employment_Table!F39</f>
+        <v>1.5773693129970123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="20">
+        <f>Employment_Table!C30</f>
+        <v>4.3</v>
+      </c>
+      <c r="C37" s="21">
+        <f>Employment_Table!D30</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D37" s="21">
+        <f>Employment_Table!E30</f>
+        <v>0.78125</v>
+      </c>
+      <c r="E37" s="21">
+        <f>Employment_Table!F30</f>
+        <v>-0.11086474501109667</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="20">
+        <f>Employment_Table!C34</f>
         <v>5.2</v>
       </c>
-      <c r="C32" s="1">
-        <f>Employment_Table!D14</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D32" s="1">
-        <f>Employment_Table!E14</f>
-        <v>2.2512287860521285</v>
-      </c>
-      <c r="E32" s="1">
-        <f>Employment_Table!F14</f>
-        <v>1.0858400586940542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="C38" s="21">
+        <f>Employment_Table!D34</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D38" s="21">
+        <f>Employment_Table!E34</f>
+        <v>0.74542133583452852</v>
+      </c>
+      <c r="E38" s="21">
+        <f>Employment_Table!F34</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20">
+        <f>Employment_Table!C42</f>
+        <v>5.8</v>
+      </c>
+      <c r="C39" s="1">
+        <f>Employment_Table!D42</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f>Employment_Table!E42</f>
+        <v>0.65506653019447025</v>
+      </c>
+      <c r="E39" s="1">
+        <f>Employment_Table!F42</f>
+        <v>0.43896913055789799</v>
+      </c>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B40" s="29">
         <f>Employment_Table!C49</f>
         <v>3.3</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C40" s="1">
         <f>Employment_Table!D49</f>
         <v>-0.30000000000000027</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D40" s="1">
         <f>Employment_Table!E49</f>
         <v>0.57397959183671521</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E40" s="1">
         <f>Employment_Table!F49</f>
         <v>0.71301247771835552</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="J40" s="8"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B41" s="20">
         <f>Employment_Table!C17</f>
         <v>5.6</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C41" s="21">
         <f>Employment_Table!D17</f>
         <v>-0.30000000000000071</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D41" s="21">
         <f>Employment_Table!E17</f>
         <v>0.49223273431111547</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E41" s="21">
         <f>Employment_Table!F17</f>
         <v>0.26378896882495173</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="20">
-        <f>Employment_Table!C10</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C35" s="21">
-        <f>Employment_Table!D10</f>
-        <v>-0.30000000000000071</v>
-      </c>
-      <c r="D35" s="21">
-        <f>Employment_Table!E10</f>
-        <v>0.19125029882860467</v>
-      </c>
-      <c r="E35" s="21">
-        <f>Employment_Table!F10</f>
-        <v>-0.75789473684211295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="20">
-        <f>Employment_Table!C4</f>
-        <v>5.7</v>
-      </c>
-      <c r="C36" s="21">
-        <f>Employment_Table!D4</f>
-        <v>-0.39999999999999947</v>
-      </c>
-      <c r="D36" s="21">
-        <f>Employment_Table!E4</f>
-        <v>1.1888900276724401</v>
-      </c>
-      <c r="E36" s="21">
-        <f>Employment_Table!F4</f>
-        <v>1.3553016210470226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="20">
-        <f>Employment_Table!C26</f>
-        <v>4.7</v>
-      </c>
-      <c r="C37" s="21">
-        <f>Employment_Table!D26</f>
-        <v>-0.39999999999999947</v>
-      </c>
-      <c r="D37" s="1">
-        <f>Employment_Table!E26</f>
-        <v>2.2103462016267006</v>
-      </c>
-      <c r="E37" s="1">
-        <f>Employment_Table!F26</f>
-        <v>1.0043521928356114</v>
-      </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="28">
-        <f>Employment_Table!C8</f>
-        <v>5.5</v>
-      </c>
-      <c r="C38" s="23">
-        <f>Employment_Table!D8</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D38" s="23">
-        <f>Employment_Table!E8</f>
-        <v>2.4047217746167471</v>
-      </c>
-      <c r="E38" s="21">
-        <f>Employment_Table!F8</f>
-        <v>2.2110147266491964</v>
-      </c>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="20">
-        <f>Employment_Table!C52</f>
-        <v>6</v>
-      </c>
-      <c r="C39" s="21">
-        <f>Employment_Table!D52</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D39" s="21">
-        <f>Employment_Table!E52</f>
-        <v>2.6274303730944304E-2</v>
-      </c>
-      <c r="E39" s="1">
-        <f>Employment_Table!F52</f>
-        <v>-0.32786885245901232</v>
-      </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="20">
-        <f>Employment_Table!C21</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C40" s="21">
-        <f>Employment_Table!D21</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D40" s="21">
-        <f>Employment_Table!E21</f>
-        <v>0.97578986233450848</v>
-      </c>
-      <c r="E40" s="21">
-        <f>Employment_Table!F21</f>
-        <v>-0.78939059046415627</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="20">
-        <f>Employment_Table!C33</f>
-        <v>2.8</v>
-      </c>
-      <c r="C41" s="21">
-        <f>Employment_Table!D33</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D41" s="21">
-        <f>Employment_Table!E33</f>
-        <v>2.1221767470062103</v>
-      </c>
-      <c r="E41" s="21">
-        <f>Employment_Table!F33</f>
-        <v>-2.7839643652561197</v>
-      </c>
       <c r="J41" s="18"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="29">
-        <f>Employment_Table!C12</f>
-        <v>6.1</v>
+      <c r="A42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="20">
+        <f>Employment_Table!C31</f>
+        <v>3.3</v>
       </c>
       <c r="C42" s="1">
-        <f>Employment_Table!D12</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D42" s="1">
-        <f>Employment_Table!E12</f>
-        <v>1.7968749999999867</v>
-      </c>
-      <c r="E42" s="1">
-        <f>Employment_Table!F12</f>
-        <v>2.1775544388609624</v>
+        <f>Employment_Table!D31</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D42" s="21">
+        <f>Employment_Table!E31</f>
+        <v>0.38522323192413666</v>
+      </c>
+      <c r="E42" s="21">
+        <f>Employment_Table!F31</f>
+        <v>0.58309037900874383</v>
       </c>
       <c r="H42" s="8"/>
       <c r="J42" s="8"/>
@@ -5138,23 +5138,23 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B43" s="20">
-        <f>Employment_Table!C53</f>
-        <v>4.0999999999999996</v>
+        <f>Employment_Table!C10</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C43" s="21">
-        <f>Employment_Table!D53</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D43" s="1">
-        <f>Employment_Table!E53</f>
-        <v>0.97708663042730404</v>
-      </c>
-      <c r="E43" s="1">
-        <f>Employment_Table!F53</f>
-        <v>0.12130033964095066</v>
+        <f>Employment_Table!D10</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="D43" s="21">
+        <f>Employment_Table!E10</f>
+        <v>0.19125029882860467</v>
+      </c>
+      <c r="E43" s="21">
+        <f>Employment_Table!F10</f>
+        <v>-0.75789473684211295</v>
       </c>
       <c r="H43" s="18"/>
       <c r="J43" s="18"/>
@@ -5162,92 +5162,92 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="20">
+        <f>Employment_Table!C52</f>
+        <v>6</v>
+      </c>
+      <c r="C44" s="21">
+        <f>Employment_Table!D52</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D44" s="21">
+        <f>Employment_Table!E52</f>
+        <v>2.6274303730944304E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <f>Employment_Table!F52</f>
+        <v>-0.32786885245901232</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="20">
+        <f>Employment_Table!C23</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="26">
+        <f>Employment_Table!D23</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D45" s="21">
+        <f>Employment_Table!E23</f>
+        <v>-3.2803017877647278E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <f>Employment_Table!F23</f>
+        <v>0.10080645161290036</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B46" s="20">
         <f>Employment_Table!C28</f>
         <v>5.9</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C46" s="21">
         <f>Employment_Table!D28</f>
         <v>-0.59999999999999964</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D46" s="21">
         <f>Employment_Table!E28</f>
         <v>-8.7650100797620478E-2</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E46" s="21">
         <f>Employment_Table!F28</f>
         <v>0.24420024420024333</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="20">
-        <f>Employment_Table!C11</f>
-        <v>4.3</v>
-      </c>
-      <c r="C45" s="21">
-        <f>Employment_Table!D11</f>
-        <v>-0.60000000000000053</v>
-      </c>
-      <c r="D45" s="1">
-        <f>Employment_Table!E11</f>
-        <v>1.8776231499889606</v>
-      </c>
-      <c r="E45" s="1">
-        <f>Employment_Table!F11</f>
-        <v>-0.30349013657056112</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="29">
-        <f>Employment_Table!C37</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C46" s="1">
-        <f>Employment_Table!D37</f>
-        <v>-0.69999999999999929</v>
-      </c>
-      <c r="D46" s="1">
-        <f>Employment_Table!E37</f>
-        <v>1.9884029391741054</v>
-      </c>
-      <c r="E46" s="1">
-        <f>Employment_Table!F37</f>
-        <v>1.0987482614742694</v>
-      </c>
       <c r="H46" s="18"/>
       <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="20">
-        <f>Employment_Table!C6</f>
-        <v>5.2</v>
+        <f>Employment_Table!C5</f>
+        <v>6.8</v>
       </c>
       <c r="C47" s="21">
-        <f>Employment_Table!D6</f>
-        <v>-0.70000000000000018</v>
+        <f>Employment_Table!D5</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D47" s="21">
-        <f>Employment_Table!E6</f>
-        <v>1.9889668630615143</v>
+        <f>Employment_Table!E5</f>
+        <v>-0.11788977306219639</v>
       </c>
       <c r="E47" s="21">
-        <f>Employment_Table!F6</f>
-        <v>-4.9091801669121082E-2</v>
+        <f>Employment_Table!F5</f>
+        <v>3.0674846625766916</v>
       </c>
       <c r="H47" s="8"/>
       <c r="J47" s="18"/>
@@ -5256,24 +5256,24 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="29">
-        <f>Employment_Table!C24</f>
-        <v>4.2</v>
-      </c>
-      <c r="C48" s="1">
-        <f>Employment_Table!D24</f>
-        <v>-0.79999999999999982</v>
+      <c r="A48" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="20">
+        <f>Employment_Table!C22</f>
+        <v>6.3</v>
+      </c>
+      <c r="C48" s="21">
+        <f>Employment_Table!D22</f>
+        <v>0.39999999999999947</v>
       </c>
       <c r="D48" s="21">
-        <f>Employment_Table!E24</f>
-        <v>1.2959850606909296</v>
+        <f>Employment_Table!E22</f>
+        <v>-0.34305317324184736</v>
       </c>
       <c r="E48" s="21">
-        <f>Employment_Table!F24</f>
-        <v>1.0133121398768097</v>
+        <f>Employment_Table!F22</f>
+        <v>-0.76781326781326653</v>
       </c>
       <c r="H48" s="8"/>
       <c r="J48" s="18"/>
@@ -5282,24 +5282,24 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="29">
-        <f>Employment_Table!C46</f>
-        <v>4.8</v>
-      </c>
-      <c r="C49" s="1">
-        <f>Employment_Table!D46</f>
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="D49" s="1">
-        <f>Employment_Table!E46</f>
-        <v>2.4229754275334914</v>
-      </c>
-      <c r="E49" s="1">
-        <f>Employment_Table!F46</f>
-        <v>0.98452883263009383</v>
+      <c r="A49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="20">
+        <f>Employment_Table!C35</f>
+        <v>6.7</v>
+      </c>
+      <c r="C49" s="21">
+        <f>Employment_Table!D35</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D49" s="21">
+        <f>Employment_Table!E35</f>
+        <v>-0.37521181312031304</v>
+      </c>
+      <c r="E49" s="21">
+        <f>Employment_Table!F35</f>
+        <v>-0.57925223802001158</v>
       </c>
       <c r="H49" s="18"/>
       <c r="J49" s="8"/>
@@ -5308,24 +5308,24 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="28">
-        <f>Employment_Table!C44</f>
-        <v>4.7</v>
-      </c>
-      <c r="C50" s="23">
-        <f>Employment_Table!D44</f>
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="D50" s="23">
-        <f>Employment_Table!E44</f>
-        <v>1.9792182088075316</v>
-      </c>
-      <c r="E50" s="21">
-        <f>Employment_Table!F44</f>
-        <v>0.19315673289184154</v>
+      <c r="A50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="20">
+        <f>Employment_Table!C20</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C50" s="21">
+        <f>Employment_Table!D20</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="D50" s="21">
+        <f>Employment_Table!E20</f>
+        <v>-0.37803138373750933</v>
+      </c>
+      <c r="E50" s="1">
+        <f>Employment_Table!F20</f>
+        <v>0.15618898867628683</v>
       </c>
       <c r="H50" s="22"/>
       <c r="J50" s="8"/>
@@ -5334,24 +5334,24 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="29">
-        <f>Employment_Table!C7</f>
-        <v>4</v>
-      </c>
-      <c r="C51" s="1">
-        <f>Employment_Table!D7</f>
-        <v>-0.90000000000000036</v>
-      </c>
-      <c r="D51" s="1">
-        <f>Employment_Table!E7</f>
-        <v>0.94293210888816148</v>
-      </c>
-      <c r="E51" s="1">
-        <f>Employment_Table!F7</f>
-        <v>9.3852651337411608E-2</v>
+      <c r="A51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="20">
+        <f>Employment_Table!C40</f>
+        <v>5.2</v>
+      </c>
+      <c r="C51" s="21">
+        <f>Employment_Table!D40</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="21">
+        <f>Employment_Table!E40</f>
+        <v>-0.73727746808127659</v>
+      </c>
+      <c r="E51" s="21">
+        <f>Employment_Table!F40</f>
+        <v>5.6737588652477911E-2</v>
       </c>
       <c r="H51" s="8"/>
       <c r="K51" s="18" t="s">
@@ -5359,24 +5359,24 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="28">
-        <f>Employment_Table!C32</f>
-        <v>5.5</v>
-      </c>
-      <c r="C52" s="23">
-        <f>Employment_Table!D32</f>
-        <v>-1</v>
-      </c>
-      <c r="D52" s="23">
-        <f>Employment_Table!E32</f>
-        <v>2.2659323367427264</v>
-      </c>
-      <c r="E52" s="1">
-        <f>Employment_Table!F32</f>
-        <v>1.153846153846172</v>
+      <c r="A52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="20">
+        <f>Employment_Table!C38</f>
+        <v>3</v>
+      </c>
+      <c r="C52" s="21">
+        <f>Employment_Table!D38</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D52" s="21">
+        <f>Employment_Table!E38</f>
+        <v>-1.8028043623414258</v>
+      </c>
+      <c r="E52" s="21">
+        <f>Employment_Table!F38</f>
+        <v>0.85889570552146743</v>
       </c>
       <c r="K52" s="18" t="s">
         <v>34</v>
@@ -5384,23 +5384,23 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B53" s="20">
-        <f>Employment_Table!C25</f>
-        <v>3.3</v>
+        <f>Employment_Table!C54</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C53" s="21">
-        <f>Employment_Table!D25</f>
-        <v>-1.5</v>
+        <f>Employment_Table!D54</f>
+        <v>0.79999999999999982</v>
       </c>
       <c r="D53" s="21">
-        <f>Employment_Table!E25</f>
-        <v>2.036915527914851</v>
+        <f>Employment_Table!E54</f>
+        <v>-3.5294117647058809</v>
       </c>
       <c r="E53" s="21">
-        <f>Employment_Table!F25</f>
-        <v>1.1529933481152943</v>
+        <f>Employment_Table!F54</f>
+        <v>-0.83682008368202165</v>
       </c>
       <c r="K53" s="18" t="s">
         <v>44</v>
@@ -5450,7 +5450,7 @@
   </sheetData>
   <autoFilter ref="A2:E53">
     <sortState ref="A3:E53">
-      <sortCondition descending="1" ref="C2:C53"/>
+      <sortCondition descending="1" ref="D2:D53"/>
     </sortState>
   </autoFilter>
   <sortState ref="K6:K14">

--- a/static/data/source/current_employment.xlsx
+++ b/static/data/source/current_employment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Employment\2017\July 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Employment\2017\August 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="735" windowWidth="21075" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="735" windowWidth="21075" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Employment_Table" sheetId="4" r:id="rId1"/>
@@ -411,7 +411,7 @@
     <t>Tennessee(2)</t>
   </si>
   <si>
-    <t>Employment July 2017</t>
+    <t>Employment August 2017</t>
   </si>
 </sst>
 </file>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="C3" s="1">
         <f>+Unemployment!E2</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D3" s="1">
         <f>+Unemployment!F2</f>
-        <v>-0.60000000000000053</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" s="1">
         <f>+Total_Employment!F2</f>
-        <v>1.4938701482101857</v>
+        <v>1.4498765841820305</v>
       </c>
       <c r="F3" s="1">
         <f>+Government_Employment!F2</f>
-        <v>0.4537898189333589</v>
+        <v>3.5890533871696384E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2988,19 +2988,19 @@
       </c>
       <c r="C4" s="1">
         <f>+Unemployment!E3</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D4" s="1">
         <f>+Unemployment!F3</f>
-        <v>-1.2999999999999998</v>
+        <v>-1.7000000000000002</v>
       </c>
       <c r="E4" s="1">
         <f>+Total_Employment!F3</f>
-        <v>1.5885060960186159</v>
+        <v>1.3600283128570645</v>
       </c>
       <c r="F4" s="1">
         <f>+Government_Employment!F3</f>
-        <v>-0.50026329647183676</v>
+        <v>-0.7595599790466312</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3012,19 +3012,19 @@
       </c>
       <c r="C5" s="1">
         <f>+Unemployment!E4</f>
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D5" s="1">
         <f>+Unemployment!F4</f>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
         <f>+Total_Employment!F4</f>
-        <v>-0.33122553447757497</v>
+        <v>9.0415913200736497E-2</v>
       </c>
       <c r="F5" s="1">
         <f>+Government_Employment!F4</f>
-        <v>-0.37037037037036535</v>
+        <v>0.61804697156984112</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -3036,19 +3036,19 @@
       </c>
       <c r="C6" s="1">
         <f>+Unemployment!E5</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <f>+Unemployment!F5</f>
-        <v>-0.10000000000000053</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="E6" s="1">
         <f>+Total_Employment!F5</f>
-        <v>1.227876106194703</v>
+        <v>1.2774260050066211</v>
       </c>
       <c r="F6" s="1">
         <f>+Government_Employment!F5</f>
-        <v>0.87506076810890399</v>
+        <v>0.97418412079883776</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3060,19 +3060,19 @@
       </c>
       <c r="C7" s="1">
         <f>+Unemployment!E6</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D7" s="1">
         <f>+Unemployment!F6</f>
-        <v>-0.60000000000000009</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" s="1">
         <f>+Total_Employment!F6</f>
-        <v>2.6648194931138569</v>
+        <v>1.9047619047619202</v>
       </c>
       <c r="F7" s="1">
         <f>+Government_Employment!F6</f>
-        <v>-0.51740357478833321</v>
+        <v>-0.6117647058823561</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3084,19 +3084,19 @@
       </c>
       <c r="C8" s="1">
         <f>+Unemployment!E7</f>
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D8" s="1">
         <f>+Unemployment!F7</f>
-        <v>-0.60000000000000053</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="E8" s="1">
         <f>+Total_Employment!F7</f>
-        <v>1.6743701424183799</v>
+        <v>1.6054309713129822</v>
       </c>
       <c r="F8" s="1">
         <f>+Government_Employment!F7</f>
-        <v>1.9490851233094686</v>
+        <v>1.5611965200810207</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3112,15 +3112,15 @@
       </c>
       <c r="D9" s="1">
         <f>+Unemployment!F8</f>
-        <v>-1</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="E9" s="1">
         <f>+Total_Employment!F8</f>
-        <v>1.6660268714011606</v>
+        <v>1.7551255029699231</v>
       </c>
       <c r="F9" s="1">
         <f>+Government_Employment!F8</f>
-        <v>0.91463414634147533</v>
+        <v>0.5353817504655467</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3132,19 +3132,19 @@
       </c>
       <c r="C10" s="1">
         <f>+Unemployment!E9</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D10" s="1">
         <f>+Unemployment!F9</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="E10" s="1">
         <f>+Total_Employment!F9</f>
-        <v>0.69022967987624195</v>
+        <v>0.35688793718773315</v>
       </c>
       <c r="F10" s="1">
         <f>+Government_Employment!F9</f>
-        <v>-1.313559322033897</v>
+        <v>-1.2728044123886284</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3156,19 +3156,19 @@
       </c>
       <c r="C11" s="1">
         <f>+Unemployment!E10</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D11" s="1">
         <f>+Unemployment!F10</f>
-        <v>0.39999999999999947</v>
+        <v>0.60000000000000053</v>
       </c>
       <c r="E11" s="1">
         <f>+Total_Employment!F10</f>
-        <v>0.28602860286028875</v>
+        <v>0.61606160616061167</v>
       </c>
       <c r="F11" s="1">
         <f>+Government_Employment!F10</f>
-        <v>-1.2176560121765601</v>
+        <v>-0.30581039755351869</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3188,11 +3188,11 @@
       </c>
       <c r="E12" s="1">
         <f>+Total_Employment!F11</f>
-        <v>2.4023638232271383</v>
+        <v>1.6766926916677471</v>
       </c>
       <c r="F12" s="1">
         <f>+Government_Employment!F11</f>
-        <v>0.33627574611181377</v>
+        <v>-0.37704231252617681</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3204,19 +3204,19 @@
       </c>
       <c r="C13" s="1">
         <f>+Unemployment!E12</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <f>+Unemployment!F12</f>
-        <v>-0.80000000000000071</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="E13" s="1">
         <f>+Total_Employment!F12</f>
-        <v>2.6902629607164386</v>
+        <v>2.6268019220501815</v>
       </c>
       <c r="F13" s="1">
         <f>+Government_Employment!F12</f>
-        <v>1.2938496583143611</v>
+        <v>0.79985457189601927</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3236,11 +3236,11 @@
       </c>
       <c r="E14" s="1">
         <f>+Total_Employment!F13</f>
-        <v>2.1945432977461321</v>
+        <v>2.6515237726745022</v>
       </c>
       <c r="F14" s="1">
         <f>+Government_Employment!F13</f>
-        <v>0.74171029668412825</v>
+        <v>2.1887230033338145</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3252,19 +3252,19 @@
       </c>
       <c r="C15" s="1">
         <f>+Unemployment!E14</f>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D15" s="1">
         <f>+Unemployment!F14</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="E15" s="1">
         <f>+Total_Employment!F14</f>
-        <v>1.2488436632747568</v>
+        <v>0.58291148949225491</v>
       </c>
       <c r="F15" s="1">
         <f>+Government_Employment!F14</f>
-        <v>-2.0634920634920562</v>
+        <v>-3.125</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3276,19 +3276,19 @@
       </c>
       <c r="C16" s="1">
         <f>+Unemployment!E15</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D16" s="1">
         <f>+Unemployment!F15</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="E16" s="1">
         <f>+Total_Employment!F15</f>
-        <v>2.2512188127330246</v>
+        <v>2.1748461868650759</v>
       </c>
       <c r="F16" s="1">
         <f>+Government_Employment!F15</f>
-        <v>2.8712059064807116</v>
+        <v>2.9508196721311331</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3300,19 +3300,19 @@
       </c>
       <c r="C17" s="1">
         <f>+Unemployment!E16</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <f>+Unemployment!F16</f>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="E17" s="1">
         <f>+Total_Employment!F16</f>
-        <v>0.55188004920376788</v>
+        <v>0.39201355436697671</v>
       </c>
       <c r="F17" s="1">
         <f>+Government_Employment!F16</f>
-        <v>-0.27804642166344706</v>
+        <v>-0.37407988415590898</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3324,19 +3324,19 @@
       </c>
       <c r="C18" s="1">
         <f>+Unemployment!E17</f>
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="1">
         <f>+Unemployment!F17</f>
-        <v>-1.4</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="E18" s="1">
         <f>+Total_Employment!F17</f>
-        <v>0.88406735751296317</v>
+        <v>1.021265593691445</v>
       </c>
       <c r="F18" s="1">
         <f>+Government_Employment!F17</f>
-        <v>0.11723329425556983</v>
+        <v>1.4220183486238547</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3348,19 +3348,19 @@
       </c>
       <c r="C19" s="1">
         <f>+Unemployment!E18</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D19" s="1">
         <f>+Unemployment!F18</f>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="E19" s="1">
         <f>+Total_Employment!F18</f>
-        <v>1.0111930806410596</v>
+        <v>1.0935215207578342</v>
       </c>
       <c r="F19" s="1">
         <f>+Government_Employment!F18</f>
-        <v>-0.92915214866434725</v>
+        <v>-0.77279752704790816</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3372,19 +3372,19 @@
       </c>
       <c r="C20" s="1">
         <f>+Unemployment!E19</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D20" s="1">
         <f>+Unemployment!F19</f>
-        <v>-0.5</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="E20" s="1">
         <f>+Total_Employment!F19</f>
-        <v>-0.76492669452512541</v>
+        <v>-0.63789070805868597</v>
       </c>
       <c r="F20" s="1">
         <f>+Government_Employment!F19</f>
-        <v>0.50860719874803451</v>
+        <v>-1.0563380281690127</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3396,19 +3396,19 @@
       </c>
       <c r="C21" s="1">
         <f>+Unemployment!E20</f>
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="D21" s="1">
         <f>+Unemployment!F20</f>
-        <v>0.29999999999999982</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="E21" s="1">
         <f>+Total_Employment!F20</f>
-        <v>1.2131625533687407</v>
+        <v>1.5911936560934814</v>
       </c>
       <c r="F21" s="1">
         <f>+Government_Employment!F20</f>
-        <v>-0.18838304552590834</v>
+        <v>-0.3760576621748779</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3420,19 +3420,19 @@
       </c>
       <c r="C22" s="1">
         <f>+Unemployment!E21</f>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D22" s="1">
         <f>+Unemployment!F21</f>
-        <v>-0.90000000000000036</v>
+        <v>-0.89999999999999947</v>
       </c>
       <c r="E22" s="1">
         <f>+Total_Employment!F21</f>
-        <v>0.59886317498984987</v>
+        <v>1.2340642529321766</v>
       </c>
       <c r="F22" s="1">
         <f>+Government_Employment!F21</f>
-        <v>-1.1100832562442209</v>
+        <v>-0.74119827053737986</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3444,19 +3444,19 @@
       </c>
       <c r="C23" s="1">
         <f>+Unemployment!E22</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D23" s="1">
         <f>+Unemployment!F22</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E23" s="1">
         <f>+Total_Employment!F22</f>
-        <v>1.0192525481313552</v>
+        <v>0.43682252062771099</v>
       </c>
       <c r="F23" s="1">
         <f>+Government_Employment!F22</f>
-        <v>1.5952143569292199</v>
+        <v>1.195219123505975</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,19 +3468,19 @@
       </c>
       <c r="C24" s="1">
         <f>+Unemployment!E23</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D24" s="1">
         <f>+Unemployment!F23</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="E24" s="1">
         <f>+Total_Employment!F23</f>
-        <v>1.8815716657443193</v>
+        <v>2.3428003094264627</v>
       </c>
       <c r="F24" s="1">
         <f>+Government_Employment!F23</f>
-        <v>0.49534376857538476</v>
+        <v>1.1264822134387398</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3492,19 +3492,19 @@
       </c>
       <c r="C25" s="1">
         <f>+Unemployment!E24</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D25" s="1">
         <f>+Unemployment!F24</f>
-        <v>0.69999999999999973</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="E25" s="1">
         <f>+Total_Employment!F24</f>
-        <v>1.2652204338698292</v>
+        <v>1.6061335273378274</v>
       </c>
       <c r="F25" s="1">
         <f>+Government_Employment!F24</f>
-        <v>0.50538343221269155</v>
+        <v>0.48235036176276225</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3516,19 +3516,19 @@
       </c>
       <c r="C26" s="1">
         <f>+Unemployment!E25</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D26" s="1">
         <f>+Unemployment!F25</f>
-        <v>-1.2000000000000002</v>
+        <v>-1.0000000000000004</v>
       </c>
       <c r="E26" s="1">
         <f>+Total_Employment!F25</f>
-        <v>1.4406094886298071</v>
+        <v>1.3918703690880108</v>
       </c>
       <c r="F26" s="1">
         <f>+Government_Employment!F25</f>
-        <v>2.4945950440711684</v>
+        <v>2.2761256022595155</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3540,19 +3540,19 @@
       </c>
       <c r="C27" s="1">
         <f>+Unemployment!E26</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D27" s="1">
         <f>+Unemployment!F26</f>
-        <v>-0.19999999999999973</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E27" s="1">
         <f>+Total_Employment!F26</f>
-        <v>2.0831896254397408</v>
+        <v>1.5150993423091563</v>
       </c>
       <c r="F27" s="1">
         <f>+Government_Employment!F26</f>
-        <v>1.1578449905482069</v>
+        <v>0.75170307728447128</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3564,19 +3564,19 @@
       </c>
       <c r="C28" s="1">
         <f>+Unemployment!E27</f>
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D28" s="1">
         <f>+Unemployment!F27</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.5</v>
       </c>
       <c r="E28" s="1">
         <f>+Total_Employment!F27</f>
-        <v>0.50553473372265678</v>
+        <v>0.60177917320776153</v>
       </c>
       <c r="F28" s="1">
         <f>+Government_Employment!F27</f>
-        <v>0.32719836400818547</v>
+        <v>1.0229132569558042</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3588,19 +3588,19 @@
       </c>
       <c r="C29" s="1">
         <f>+Unemployment!E28</f>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
         <f>+Unemployment!F28</f>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="E29" s="1">
         <f>+Total_Employment!F28</f>
-        <v>2.0457661077717848</v>
+        <v>1.8361829863427159</v>
       </c>
       <c r="F29" s="1">
         <f>+Government_Employment!F28</f>
-        <v>2.9277218664226945</v>
+        <v>1.5286333561487453</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3620,11 +3620,11 @@
       </c>
       <c r="E30" s="1">
         <f>+Total_Employment!F29</f>
-        <v>1.1115861479264577</v>
+        <v>1.6253207869974196</v>
       </c>
       <c r="F30" s="1">
         <f>+Government_Employment!F29</f>
-        <v>0.76419213973799582</v>
+        <v>1.2021857923497192</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3644,11 +3644,11 @@
       </c>
       <c r="E31" s="1">
         <f>+Total_Employment!F30</f>
-        <v>1.2396694214876103</v>
+        <v>1.3318863456984964</v>
       </c>
       <c r="F31" s="1">
         <f>+Government_Employment!F30</f>
-        <v>-1.4942528735632177</v>
+        <v>5.8651026392952943E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3660,19 +3660,19 @@
       </c>
       <c r="C32" s="1">
         <f>+Unemployment!E31</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D32" s="1">
         <f>+Unemployment!F31</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E32" s="1">
         <f>+Total_Employment!F31</f>
-        <v>2.7314460596786549</v>
+        <v>2.9638683064701077</v>
       </c>
       <c r="F32" s="1">
         <f>+Government_Employment!F31</f>
-        <v>0.94221105527638738</v>
+        <v>1.8170426065162948</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3684,19 +3684,19 @@
       </c>
       <c r="C33" s="1">
         <f>+Unemployment!E32</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D33" s="1">
         <f>+Unemployment!F32</f>
-        <v>-0.10000000000000009</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="E33" s="1">
         <f>+Total_Employment!F32</f>
-        <v>1.7814371257484973</v>
+        <v>2.1333731165150027</v>
       </c>
       <c r="F33" s="1">
         <f>+Government_Employment!F32</f>
-        <v>1.4428412874583962</v>
+        <v>0.9761388286333883</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3708,19 +3708,19 @@
       </c>
       <c r="C34" s="1">
         <f>+Unemployment!E33</f>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D34" s="1">
         <f>+Unemployment!F33</f>
-        <v>-0.89999999999999947</v>
+        <v>-0.5</v>
       </c>
       <c r="E34" s="1">
         <f>+Total_Employment!F33</f>
-        <v>1.1578947368421133</v>
+        <v>0.93124434776230558</v>
       </c>
       <c r="F34" s="1">
         <f>+Government_Employment!F33</f>
-        <v>-0.47100860808837464</v>
+        <v>-0.69680764867932066</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3740,11 +3740,11 @@
       </c>
       <c r="E35" s="1">
         <f>+Total_Employment!F34</f>
-        <v>0.24090580582991628</v>
+        <v>1.0597302504816941</v>
       </c>
       <c r="F35" s="1">
         <f>+Government_Employment!F34</f>
-        <v>-2.8287061288632787</v>
+        <v>-1.8315018315018361</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,19 +3756,19 @@
       </c>
       <c r="C36" s="1">
         <f>+Unemployment!E35</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D36" s="1">
         <f>+Unemployment!F35</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="E36" s="1">
         <f>+Total_Employment!F35</f>
-        <v>1.466543481262006</v>
+        <v>1.3649776041777306</v>
       </c>
       <c r="F36" s="1">
         <f>+Government_Employment!F35</f>
-        <v>0.5739575409722919</v>
+        <v>0.65698478561548868</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3784,15 +3784,15 @@
       </c>
       <c r="D37" s="1">
         <f>+Unemployment!F36</f>
-        <v>-0.80000000000000071</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="E37" s="1">
         <f>+Total_Employment!F36</f>
-        <v>1.480459770114928</v>
+        <v>1.6197587593337115</v>
       </c>
       <c r="F37" s="1">
         <f>+Government_Employment!F36</f>
-        <v>1.2873185428649681</v>
+        <v>0.83733699382293469</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,19 +3804,19 @@
       </c>
       <c r="C38" s="1">
         <f>+Unemployment!E37</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D38" s="1">
         <f>+Unemployment!F37</f>
-        <v>-0.89999999999999991</v>
+        <v>-0.80000000000000027</v>
       </c>
       <c r="E38" s="1">
         <f>+Total_Employment!F37</f>
-        <v>1.517939282428693</v>
+        <v>1.3100436681222627</v>
       </c>
       <c r="F38" s="1">
         <f>+Government_Employment!F37</f>
-        <v>-0.59808612440190867</v>
+        <v>-0.23894862604539879</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3828,19 +3828,19 @@
       </c>
       <c r="C39" s="1">
         <f>+Unemployment!E38</f>
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D39" s="1">
         <f>+Unemployment!F38</f>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="1">
         <f>+Total_Employment!F38</f>
-        <v>0.86511492368774867</v>
+        <v>1.0404329367176057</v>
       </c>
       <c r="F39" s="1">
         <f>+Government_Employment!F38</f>
-        <v>0.61672876782732367</v>
+        <v>-0.53846153846154321</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3852,19 +3852,19 @@
       </c>
       <c r="C40" s="1">
         <f>+Unemployment!E39</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D40" s="1">
         <f>+Unemployment!F39</f>
-        <v>-0.59999999999999964</v>
+        <v>-0.5</v>
       </c>
       <c r="E40" s="1">
         <f>+Total_Employment!F39</f>
-        <v>1.1038330907326532</v>
+        <v>1.2067188163240594</v>
       </c>
       <c r="F40" s="1">
         <f>+Government_Employment!F39</f>
-        <v>0.25452488687782715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3876,19 +3876,19 @@
       </c>
       <c r="C41" s="1">
         <f>+Unemployment!E40</f>
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D41" s="1">
         <f>+Unemployment!F40</f>
-        <v>-1.2999999999999998</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="E41" s="1">
         <f>+Total_Employment!F40</f>
-        <v>2.9137338353249165</v>
+        <v>2.2651783283419435</v>
       </c>
       <c r="F41" s="1">
         <f>+Government_Employment!F40</f>
-        <v>0.45395590142673914</v>
+        <v>1.2757605495584023</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,19 +3900,19 @@
       </c>
       <c r="C42" s="1">
         <f>+Unemployment!E41</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D42" s="1">
         <f>+Unemployment!F41</f>
-        <v>-0.5</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E42" s="1">
         <f>+Total_Employment!F41</f>
-        <v>1.045449916839214</v>
+        <v>1.0077532531428623</v>
       </c>
       <c r="F42" s="1">
         <f>+Government_Employment!F41</f>
-        <v>-1.8990012660008437</v>
+        <v>-1.3504009002672679</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3928,15 +3928,15 @@
       </c>
       <c r="D43" s="1">
         <f>+Unemployment!F42</f>
-        <v>-1.1000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="1">
         <f>+Total_Employment!F42</f>
-        <v>1.7322192785816259</v>
+        <v>1.8964110929853284</v>
       </c>
       <c r="F43" s="1">
         <f>+Government_Employment!F42</f>
-        <v>0.16447368421053099</v>
+        <v>-0.98360655737704805</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3948,19 +3948,19 @@
       </c>
       <c r="C44" s="1">
         <f>+Unemployment!E43</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
         <f>+Unemployment!F43</f>
-        <v>-0.89999999999999991</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E44" s="1">
         <f>+Total_Employment!F43</f>
-        <v>1.4450586752012606</v>
+        <v>1.7287427766716768</v>
       </c>
       <c r="F44" s="1">
         <f>+Government_Employment!F43</f>
-        <v>0.21774632553075435</v>
+        <v>1.5359297860669141</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3972,19 +3972,19 @@
       </c>
       <c r="C45" s="1">
         <f>+Unemployment!E44</f>
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D45" s="1">
         <f>+Unemployment!F44</f>
-        <v>0.20000000000000018</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="E45" s="1">
         <f>+Total_Employment!F44</f>
-        <v>0.36883356385430943</v>
+        <v>0.76124567474049609</v>
       </c>
       <c r="F45" s="1">
         <f>+Government_Employment!F44</f>
-        <v>1.5170670037926604</v>
+        <v>1.6455696202531511</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3996,19 +3996,19 @@
       </c>
       <c r="C46" s="1">
         <f>+Unemployment!E45</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D46" s="1">
         <f>+Unemployment!F45</f>
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E46" s="1">
         <f>+Total_Employment!F45</f>
-        <v>1.6521973214886465</v>
+        <v>1.754385964912264</v>
       </c>
       <c r="F46" s="1">
         <f>+Government_Employment!F45</f>
-        <v>1.685787871692801</v>
+        <v>1.3099415204678388</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,19 +4020,19 @@
       </c>
       <c r="C47" s="1">
         <f>+Unemployment!E46</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D47" s="1">
         <f>+Unemployment!F46</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
       <c r="E47" s="1">
         <f>+Total_Employment!F46</f>
-        <v>2.4383149531700621</v>
+        <v>2.4810349555058897</v>
       </c>
       <c r="F47" s="1">
         <f>+Government_Employment!F46</f>
-        <v>1.4190273965508204</v>
+        <v>1.439370404887641</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,15 +4048,15 @@
       </c>
       <c r="D48" s="1">
         <f>+Unemployment!F47</f>
-        <v>0.10000000000000009</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E48" s="1">
         <f>+Total_Employment!F47</f>
-        <v>2.5342083216978395</v>
+        <v>2.5998466578378787</v>
       </c>
       <c r="F48" s="1">
         <f>+Government_Employment!F47</f>
-        <v>1.7580577647551276</v>
+        <v>1.3819095477386911</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4068,19 +4068,19 @@
       </c>
       <c r="C49" s="1">
         <f>+Unemployment!E48</f>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1">
         <f>+Unemployment!F48</f>
-        <v>-0.19999999999999973</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E49" s="1">
         <f>+Total_Employment!F48</f>
-        <v>0.25324469768914781</v>
+        <v>0.60451797645559857</v>
       </c>
       <c r="F49" s="1">
         <f>+Government_Employment!F48</f>
-        <v>-2.9513888888888951</v>
+        <v>-0.35460992907800915</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4100,11 +4100,11 @@
       </c>
       <c r="E50" s="1">
         <f>+Total_Employment!F49</f>
-        <v>1.5399938706711636</v>
+        <v>1.4964945825366449</v>
       </c>
       <c r="F50" s="1">
         <f>+Government_Employment!F49</f>
-        <v>0.19596864501678635</v>
+        <v>-0.18156424581005082</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,19 +4116,19 @@
       </c>
       <c r="C51" s="1">
         <f>+Unemployment!E50</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D51" s="1">
         <f>+Unemployment!F50</f>
-        <v>-1</v>
+        <v>-0.80000000000000071</v>
       </c>
       <c r="E51" s="1">
         <f>+Total_Employment!F50</f>
-        <v>2.1957378664695826</v>
+        <v>2.0664455907639212</v>
       </c>
       <c r="F51" s="1">
         <f>+Government_Employment!F50</f>
-        <v>2.8955171812314662</v>
+        <v>2.4899878112484952</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4140,19 +4140,19 @@
       </c>
       <c r="C52" s="1">
         <f>+Unemployment!E51</f>
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
         <f>+Unemployment!F51</f>
-        <v>-1.2999999999999998</v>
+        <v>-1</v>
       </c>
       <c r="E52" s="1">
         <f>+Total_Employment!F51</f>
-        <v>0.21462105969147771</v>
+        <v>0.12088650100738896</v>
       </c>
       <c r="F52" s="1">
         <f>+Government_Employment!F51</f>
-        <v>-1.2226512226512276</v>
+        <v>-1.0276172125883054</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4164,19 +4164,19 @@
       </c>
       <c r="C53" s="1">
         <f>+Unemployment!E52</f>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D53" s="1">
         <f>+Unemployment!F52</f>
-        <v>-1</v>
+        <v>-0.80000000000000027</v>
       </c>
       <c r="E53" s="1">
         <f>+Total_Employment!F52</f>
-        <v>0.90499282835871941</v>
+        <v>0.64866341196954114</v>
       </c>
       <c r="F53" s="1">
         <f>+Government_Employment!F52</f>
-        <v>0.36337209302326201</v>
+        <v>-0.26531596719729933</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4192,15 +4192,15 @@
       </c>
       <c r="D54" s="1">
         <f>+Unemployment!F53</f>
-        <v>-1.4000000000000004</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="E54" s="1">
         <f>+Total_Employment!F53</f>
-        <v>-1.0714285714285676</v>
+        <v>-0.85867620751340912</v>
       </c>
       <c r="F54" s="1">
         <f>+Government_Employment!F53</f>
-        <v>-1.9607843137254943</v>
+        <v>-2.3809523809523836</v>
       </c>
     </row>
   </sheetData>
@@ -4216,8 +4216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4236,19 +4236,19 @@
       </c>
       <c r="B1" s="12">
         <f>Employment_Table!C3</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C1" s="17">
         <f>Employment_Table!D3</f>
-        <v>-0.60000000000000053</v>
+        <v>-0.5</v>
       </c>
       <c r="D1" s="17">
         <f>Employment_Table!E3</f>
-        <v>1.4938701482101857</v>
+        <v>1.4498765841820305</v>
       </c>
       <c r="E1" s="17">
         <f>Employment_Table!F3</f>
-        <v>0.4537898189333589</v>
+        <v>3.5890533871696384E-2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -4279,19 +4279,19 @@
       </c>
       <c r="B3" s="20">
         <f>Employment_Table!C29</f>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <f>Employment_Table!D29</f>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D3" s="21">
         <f>Employment_Table!E29</f>
-        <v>2.0457661077717848</v>
+        <v>1.8361829863427159</v>
       </c>
       <c r="E3" s="1">
         <f>Employment_Table!F29</f>
-        <v>2.9277218664226945</v>
+        <v>1.5286333561487453</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4300,19 +4300,19 @@
       </c>
       <c r="B4" s="20">
         <f>Employment_Table!C51</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C4" s="23">
         <f>Employment_Table!D51</f>
-        <v>-1</v>
+        <v>-0.80000000000000071</v>
       </c>
       <c r="D4" s="23">
         <f>Employment_Table!E51</f>
-        <v>2.1957378664695826</v>
+        <v>2.0664455907639212</v>
       </c>
       <c r="E4" s="21">
         <f>Employment_Table!F51</f>
-        <v>2.8955171812314662</v>
+        <v>2.4899878112484952</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4321,19 +4321,19 @@
       </c>
       <c r="B5" s="20">
         <f>Employment_Table!C16</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C5" s="21">
         <f>Employment_Table!D16</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="D5" s="21">
         <f>Employment_Table!E16</f>
-        <v>2.2512188127330246</v>
+        <v>2.1748461868650759</v>
       </c>
       <c r="E5" s="21">
         <f>Employment_Table!F16</f>
-        <v>2.8712059064807116</v>
+        <v>2.9508196721311331</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -4344,19 +4344,19 @@
       </c>
       <c r="B6" s="20">
         <f>Employment_Table!C26</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="C6" s="21">
         <f>Employment_Table!D26</f>
-        <v>-1.2000000000000002</v>
+        <v>-1.0000000000000004</v>
       </c>
       <c r="D6" s="1">
         <f>Employment_Table!E26</f>
-        <v>1.4406094886298071</v>
+        <v>1.3918703690880108</v>
       </c>
       <c r="E6" s="1">
         <f>Employment_Table!F26</f>
-        <v>2.4945950440711684</v>
+        <v>2.2761256022595155</v>
       </c>
       <c r="H6" s="8"/>
       <c r="J6" s="8"/>
@@ -4369,19 +4369,19 @@
       </c>
       <c r="B7" s="27">
         <f>Employment_Table!C8</f>
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C7" s="23">
         <f>Employment_Table!D8</f>
-        <v>-0.60000000000000053</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="D7" s="23">
         <f>Employment_Table!E8</f>
-        <v>1.6743701424183799</v>
+        <v>1.6054309713129822</v>
       </c>
       <c r="E7" s="21">
         <f>Employment_Table!F8</f>
-        <v>1.9490851233094686</v>
+        <v>1.5611965200810207</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -4399,15 +4399,15 @@
       </c>
       <c r="C8" s="23">
         <f>Employment_Table!D48</f>
-        <v>0.10000000000000009</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D8" s="23">
         <f>Employment_Table!E48</f>
-        <v>2.5342083216978395</v>
+        <v>2.5998466578378787</v>
       </c>
       <c r="E8" s="21">
         <f>Employment_Table!F48</f>
-        <v>1.7580577647551276</v>
+        <v>1.3819095477386911</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4421,19 +4421,19 @@
       </c>
       <c r="B9" s="28">
         <f>Employment_Table!C46</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C9" s="1">
         <f>Employment_Table!D46</f>
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="D9" s="1">
         <f>Employment_Table!E46</f>
-        <v>1.6521973214886465</v>
+        <v>1.754385964912264</v>
       </c>
       <c r="E9" s="1">
         <f>Employment_Table!F46</f>
-        <v>1.685787871692801</v>
+        <v>1.3099415204678388</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -4447,19 +4447,19 @@
       </c>
       <c r="B10" s="20">
         <f>Employment_Table!C23</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C10" s="26">
         <f>Employment_Table!D23</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D10" s="21">
         <f>Employment_Table!E23</f>
-        <v>1.0192525481313552</v>
+        <v>0.43682252062771099</v>
       </c>
       <c r="E10" s="1">
         <f>Employment_Table!F23</f>
-        <v>1.5952143569292199</v>
+        <v>1.195219123505975</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -4473,19 +4473,19 @@
       </c>
       <c r="B11" s="20">
         <f>Employment_Table!C45</f>
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="C11" s="21">
         <f>Employment_Table!D45</f>
-        <v>0.20000000000000018</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="D11" s="1">
         <f>Employment_Table!E45</f>
-        <v>0.36883356385430943</v>
+        <v>0.76124567474049609</v>
       </c>
       <c r="E11" s="1">
         <f>Employment_Table!F45</f>
-        <v>1.5170670037926604</v>
+        <v>1.6455696202531511</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="18"/>
@@ -4499,19 +4499,19 @@
       </c>
       <c r="B12" s="20">
         <f>Employment_Table!C33</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C12" s="21">
         <f>Employment_Table!D33</f>
-        <v>-0.10000000000000009</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="D12" s="21">
         <f>Employment_Table!E33</f>
-        <v>1.7814371257484973</v>
+        <v>2.1333731165150027</v>
       </c>
       <c r="E12" s="21">
         <f>Employment_Table!F33</f>
-        <v>1.4428412874583962</v>
+        <v>0.9761388286333883</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="8"/>
@@ -4525,19 +4525,19 @@
       </c>
       <c r="B13" s="20">
         <f>Employment_Table!C47</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C13" s="1">
         <f>Employment_Table!D47</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
       <c r="D13" s="21">
         <f>Employment_Table!E47</f>
-        <v>2.4383149531700621</v>
+        <v>2.4810349555058897</v>
       </c>
       <c r="E13" s="21">
         <f>Employment_Table!F47</f>
-        <v>1.4190273965508204</v>
+        <v>1.439370404887641</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -4551,19 +4551,19 @@
       </c>
       <c r="B14" s="28">
         <f>Employment_Table!C13</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <f>Employment_Table!D13</f>
-        <v>-0.80000000000000071</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="D14" s="1">
         <f>Employment_Table!E13</f>
-        <v>2.6902629607164386</v>
+        <v>2.6268019220501815</v>
       </c>
       <c r="E14" s="1">
         <f>Employment_Table!F13</f>
-        <v>1.2938496583143611</v>
+        <v>0.79985457189601927</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -4581,15 +4581,15 @@
       </c>
       <c r="C15" s="1">
         <f>Employment_Table!D37</f>
-        <v>-0.80000000000000071</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="D15" s="1">
         <f>Employment_Table!E37</f>
-        <v>1.480459770114928</v>
+        <v>1.6197587593337115</v>
       </c>
       <c r="E15" s="1">
         <f>Employment_Table!F37</f>
-        <v>1.2873185428649681</v>
+        <v>0.83733699382293469</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="18"/>
@@ -4602,19 +4602,19 @@
       </c>
       <c r="B16" s="20">
         <f>Employment_Table!C27</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C16" s="1">
         <f>Employment_Table!D27</f>
-        <v>-0.19999999999999973</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D16" s="1">
         <f>Employment_Table!E27</f>
-        <v>2.0831896254397408</v>
+        <v>1.5150993423091563</v>
       </c>
       <c r="E16" s="1">
         <f>Employment_Table!F27</f>
-        <v>1.1578449905482069</v>
+        <v>0.75170307728447128</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -4627,19 +4627,19 @@
       </c>
       <c r="B17" s="27">
         <f>Employment_Table!C32</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C17" s="23">
         <f>Employment_Table!D32</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D17" s="23">
         <f>Employment_Table!E32</f>
-        <v>2.7314460596786549</v>
+        <v>2.9638683064701077</v>
       </c>
       <c r="E17" s="1">
         <f>Employment_Table!F32</f>
-        <v>0.94221105527638738</v>
+        <v>1.8170426065162948</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="7"/>
@@ -4655,15 +4655,15 @@
       </c>
       <c r="C18" s="21">
         <f>Employment_Table!D9</f>
-        <v>-1</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="D18" s="21">
         <f>Employment_Table!E9</f>
-        <v>1.6660268714011606</v>
+        <v>1.7551255029699231</v>
       </c>
       <c r="E18" s="21">
         <f>Employment_Table!F9</f>
-        <v>0.91463414634147533</v>
+        <v>0.5353817504655467</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -4673,19 +4673,19 @@
       </c>
       <c r="B19" s="20">
         <f>Employment_Table!C6</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C19" s="21">
         <f>Employment_Table!D6</f>
-        <v>-0.10000000000000053</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="D19" s="21">
         <f>Employment_Table!E6</f>
-        <v>1.227876106194703</v>
+        <v>1.2774260050066211</v>
       </c>
       <c r="E19" s="21">
         <f>Employment_Table!F6</f>
-        <v>0.87506076810890399</v>
+        <v>0.97418412079883776</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>0</v>
@@ -4705,11 +4705,11 @@
       </c>
       <c r="D20" s="21">
         <f>Employment_Table!E30</f>
-        <v>1.1115861479264577</v>
+        <v>1.6253207869974196</v>
       </c>
       <c r="E20" s="21">
         <f>Employment_Table!F30</f>
-        <v>0.76419213973799582</v>
+        <v>1.2021857923497192</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>5</v>
@@ -4729,11 +4729,11 @@
       </c>
       <c r="D21" s="1">
         <f>Employment_Table!E14</f>
-        <v>2.1945432977461321</v>
+        <v>2.6515237726745022</v>
       </c>
       <c r="E21" s="1">
         <f>Employment_Table!F14</f>
-        <v>0.74171029668412825</v>
+        <v>2.1887230033338145</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>13</v>
@@ -4745,19 +4745,19 @@
       </c>
       <c r="B22" s="20">
         <f>Employment_Table!C39</f>
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="C22" s="1">
         <f>Employment_Table!D39</f>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="1">
         <f>Employment_Table!E39</f>
-        <v>0.86511492368774867</v>
+        <v>1.0404329367176057</v>
       </c>
       <c r="E22" s="1">
         <f>Employment_Table!F39</f>
-        <v>0.61672876782732367</v>
+        <v>-0.53846153846154321</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>22</v>
@@ -4769,19 +4769,19 @@
       </c>
       <c r="B23" s="20">
         <f>Employment_Table!C36</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C23" s="1">
         <f>Employment_Table!D36</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="D23" s="1">
         <f>Employment_Table!E36</f>
-        <v>1.466543481262006</v>
+        <v>1.3649776041777306</v>
       </c>
       <c r="E23" s="1">
         <f>Employment_Table!F36</f>
-        <v>0.5739575409722919</v>
+        <v>0.65698478561548868</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>25</v>
@@ -4795,19 +4795,19 @@
       </c>
       <c r="B24" s="20">
         <f>Employment_Table!C20</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="C24" s="21">
         <f>Employment_Table!D20</f>
-        <v>-0.5</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="D24" s="21">
         <f>Employment_Table!E20</f>
-        <v>-0.76492669452512541</v>
+        <v>-0.63789070805868597</v>
       </c>
       <c r="E24" s="1">
         <f>Employment_Table!F20</f>
-        <v>0.50860719874803451</v>
+        <v>-1.0563380281690127</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>37</v>
@@ -4820,19 +4820,19 @@
       </c>
       <c r="B25" s="20">
         <f>Employment_Table!C25</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C25" s="21">
         <f>Employment_Table!D25</f>
-        <v>0.69999999999999973</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="D25" s="21">
         <f>Employment_Table!E25</f>
-        <v>1.2652204338698292</v>
+        <v>1.6061335273378274</v>
       </c>
       <c r="E25" s="21">
         <f>Employment_Table!F25</f>
-        <v>0.50538343221269155</v>
+        <v>0.48235036176276225</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>39</v>
@@ -4844,19 +4844,19 @@
       </c>
       <c r="B26" s="28">
         <f>Employment_Table!C24</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C26" s="1">
         <f>Employment_Table!D24</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="D26" s="21">
         <f>Employment_Table!E24</f>
-        <v>1.8815716657443193</v>
+        <v>2.3428003094264627</v>
       </c>
       <c r="E26" s="21">
         <f>Employment_Table!F24</f>
-        <v>0.49534376857538476</v>
+        <v>1.1264822134387398</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>47</v>
@@ -4868,19 +4868,19 @@
       </c>
       <c r="B27" s="27">
         <f>Employment_Table!C41</f>
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="23">
         <f>Employment_Table!D41</f>
-        <v>-1.2999999999999998</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="D27" s="23">
         <f>Employment_Table!E41</f>
-        <v>2.9137338353249165</v>
+        <v>2.2651783283419435</v>
       </c>
       <c r="E27" s="21">
         <f>Employment_Table!F41</f>
-        <v>0.45395590142673914</v>
+        <v>1.2757605495584023</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>48</v>
@@ -4892,19 +4892,19 @@
       </c>
       <c r="B28" s="20">
         <f>Employment_Table!C53</f>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="C28" s="21">
         <f>Employment_Table!D53</f>
-        <v>-1</v>
+        <v>-0.80000000000000027</v>
       </c>
       <c r="D28" s="1">
         <f>Employment_Table!E53</f>
-        <v>0.90499282835871941</v>
+        <v>0.64866341196954114</v>
       </c>
       <c r="E28" s="1">
         <f>Employment_Table!F53</f>
-        <v>0.36337209302326201</v>
+        <v>-0.26531596719729933</v>
       </c>
       <c r="J28" s="18" t="s">
         <v>49</v>
@@ -4924,11 +4924,11 @@
       </c>
       <c r="D29" s="1">
         <f>Employment_Table!E12</f>
-        <v>2.4023638232271383</v>
+        <v>1.6766926916677471</v>
       </c>
       <c r="E29" s="1">
         <f>Employment_Table!F12</f>
-        <v>0.33627574611181377</v>
+        <v>-0.37704231252617681</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -4937,19 +4937,19 @@
       </c>
       <c r="B30" s="20">
         <f>Employment_Table!C28</f>
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C30" s="21">
         <f>Employment_Table!D28</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.5</v>
       </c>
       <c r="D30" s="21">
         <f>Employment_Table!E28</f>
-        <v>0.50553473372265678</v>
+        <v>0.60177917320776153</v>
       </c>
       <c r="E30" s="21">
         <f>Employment_Table!F28</f>
-        <v>0.32719836400818547</v>
+        <v>1.0229132569558042</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="B31" s="20">
         <f>Employment_Table!C40</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C31" s="21">
         <f>Employment_Table!D40</f>
-        <v>-0.59999999999999964</v>
+        <v>-0.5</v>
       </c>
       <c r="D31" s="21">
         <f>Employment_Table!E40</f>
-        <v>1.1038330907326532</v>
+        <v>1.2067188163240594</v>
       </c>
       <c r="E31" s="21">
         <f>Employment_Table!F40</f>
-        <v>0.25452488687782715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4979,19 +4979,19 @@
       </c>
       <c r="B32" s="27">
         <f>Employment_Table!C44</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C32" s="23">
         <f>Employment_Table!D44</f>
-        <v>-0.89999999999999991</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D32" s="23">
         <f>Employment_Table!E44</f>
-        <v>1.4450586752012606</v>
+        <v>1.7287427766716768</v>
       </c>
       <c r="E32" s="21">
         <f>Employment_Table!F44</f>
-        <v>0.21774632553075435</v>
+        <v>1.5359297860669141</v>
       </c>
       <c r="I32" s="18"/>
     </row>
@@ -5009,11 +5009,11 @@
       </c>
       <c r="D33" s="1">
         <f>Employment_Table!E50</f>
-        <v>1.5399938706711636</v>
+        <v>1.4964945825366449</v>
       </c>
       <c r="E33" s="1">
         <f>Employment_Table!F50</f>
-        <v>0.19596864501678635</v>
+        <v>-0.18156424581005082</v>
       </c>
       <c r="I33" s="18"/>
     </row>
@@ -5027,15 +5027,15 @@
       </c>
       <c r="C34" s="21">
         <f>Employment_Table!D43</f>
-        <v>-1.1000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="21">
         <f>Employment_Table!E43</f>
-        <v>1.7322192785816259</v>
+        <v>1.8964110929853284</v>
       </c>
       <c r="E34" s="1">
         <f>Employment_Table!F43</f>
-        <v>0.16447368421053099</v>
+        <v>-0.98360655737704805</v>
       </c>
       <c r="I34" s="18"/>
     </row>
@@ -5045,19 +5045,19 @@
       </c>
       <c r="B35" s="20">
         <f>Employment_Table!C18</f>
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="C35" s="1">
         <f>Employment_Table!D18</f>
-        <v>-1.4</v>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="D35" s="1">
         <f>Employment_Table!E18</f>
-        <v>0.88406735751296317</v>
+        <v>1.021265593691445</v>
       </c>
       <c r="E35" s="1">
         <f>Employment_Table!F18</f>
-        <v>0.11723329425556983</v>
+        <v>1.4220183486238547</v>
       </c>
       <c r="I35" s="18"/>
     </row>
@@ -5067,19 +5067,19 @@
       </c>
       <c r="B36" s="20">
         <f>Employment_Table!C21</f>
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="C36" s="21">
         <f>Employment_Table!D21</f>
-        <v>0.29999999999999982</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="D36" s="21">
         <f>Employment_Table!E21</f>
-        <v>1.2131625533687407</v>
+        <v>1.5911936560934814</v>
       </c>
       <c r="E36" s="21">
         <f>Employment_Table!F21</f>
-        <v>-0.18838304552590834</v>
+        <v>-0.3760576621748779</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="8"/>
@@ -5090,19 +5090,19 @@
       </c>
       <c r="B37" s="20">
         <f>Employment_Table!C17</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="C37" s="21">
         <f>Employment_Table!D17</f>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D37" s="21">
         <f>Employment_Table!E17</f>
-        <v>0.55188004920376788</v>
+        <v>0.39201355436697671</v>
       </c>
       <c r="E37" s="21">
         <f>Employment_Table!F17</f>
-        <v>-0.27804642166344706</v>
+        <v>-0.37407988415590898</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="18"/>
@@ -5114,19 +5114,19 @@
       </c>
       <c r="B38" s="20">
         <f>Employment_Table!C5</f>
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C38" s="21">
         <f>Employment_Table!D5</f>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
       <c r="D38" s="21">
         <f>Employment_Table!E5</f>
-        <v>-0.33122553447757497</v>
+        <v>9.0415913200736497E-2</v>
       </c>
       <c r="E38" s="21">
         <f>Employment_Table!F5</f>
-        <v>-0.37037037037036535</v>
+        <v>0.61804697156984112</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -5138,19 +5138,19 @@
       </c>
       <c r="B39" s="20">
         <f>Employment_Table!C34</f>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="C39" s="21">
         <f>Employment_Table!D34</f>
-        <v>-0.89999999999999947</v>
+        <v>-0.5</v>
       </c>
       <c r="D39" s="21">
         <f>Employment_Table!E34</f>
-        <v>1.1578947368421133</v>
+        <v>0.93124434776230558</v>
       </c>
       <c r="E39" s="21">
         <f>Employment_Table!F34</f>
-        <v>-0.47100860808837464</v>
+        <v>-0.69680764867932066</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="18"/>
@@ -5163,19 +5163,19 @@
       </c>
       <c r="B40" s="20">
         <f>Employment_Table!C4</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C40" s="21">
         <f>Employment_Table!D4</f>
-        <v>-1.2999999999999998</v>
+        <v>-1.7000000000000002</v>
       </c>
       <c r="D40" s="21">
         <f>Employment_Table!E4</f>
-        <v>1.5885060960186159</v>
+        <v>1.3600283128570645</v>
       </c>
       <c r="E40" s="21">
         <f>Employment_Table!F4</f>
-        <v>-0.50026329647183676</v>
+        <v>-0.7595599790466312</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5188,19 +5188,19 @@
       </c>
       <c r="B41" s="28">
         <f>Employment_Table!C7</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C41" s="1">
         <f>Employment_Table!D7</f>
-        <v>-0.60000000000000009</v>
+        <v>-0.5</v>
       </c>
       <c r="D41" s="1">
         <f>Employment_Table!E7</f>
-        <v>2.6648194931138569</v>
+        <v>1.9047619047619202</v>
       </c>
       <c r="E41" s="1">
         <f>Employment_Table!F7</f>
-        <v>-0.51740357478833321</v>
+        <v>-0.6117647058823561</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="18"/>
@@ -5213,19 +5213,19 @@
       </c>
       <c r="B42" s="20">
         <f>Employment_Table!C38</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C42" s="21">
         <f>Employment_Table!D38</f>
-        <v>-0.89999999999999991</v>
+        <v>-0.80000000000000027</v>
       </c>
       <c r="D42" s="21">
         <f>Employment_Table!E38</f>
-        <v>1.517939282428693</v>
+        <v>1.3100436681222627</v>
       </c>
       <c r="E42" s="21">
         <f>Employment_Table!F38</f>
-        <v>-0.59808612440190867</v>
+        <v>-0.23894862604539879</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="18"/>
@@ -5238,19 +5238,19 @@
       </c>
       <c r="B43" s="20">
         <f>Employment_Table!C19</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C43" s="1">
         <f>Employment_Table!D19</f>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="D43" s="21">
         <f>Employment_Table!E19</f>
-        <v>1.0111930806410596</v>
+        <v>1.0935215207578342</v>
       </c>
       <c r="E43" s="21">
         <f>Employment_Table!F19</f>
-        <v>-0.92915214866434725</v>
+        <v>-0.77279752704790816</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
@@ -5264,19 +5264,19 @@
       </c>
       <c r="B44" s="20">
         <f>Employment_Table!C22</f>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C44" s="21">
         <f>Employment_Table!D22</f>
-        <v>-0.90000000000000036</v>
+        <v>-0.89999999999999947</v>
       </c>
       <c r="D44" s="21">
         <f>Employment_Table!E22</f>
-        <v>0.59886317498984987</v>
+        <v>1.2340642529321766</v>
       </c>
       <c r="E44" s="21">
         <f>Employment_Table!F22</f>
-        <v>-1.1100832562442209</v>
+        <v>-0.74119827053737986</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
@@ -5290,19 +5290,19 @@
       </c>
       <c r="B45" s="20">
         <f>Employment_Table!C11</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C45" s="21">
         <f>Employment_Table!D11</f>
-        <v>0.39999999999999947</v>
+        <v>0.60000000000000053</v>
       </c>
       <c r="D45" s="1">
         <f>Employment_Table!E11</f>
-        <v>0.28602860286028875</v>
+        <v>0.61606160616061167</v>
       </c>
       <c r="E45" s="1">
         <f>Employment_Table!F11</f>
-        <v>-1.2176560121765601</v>
+        <v>-0.30581039755351869</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="18"/>
@@ -5316,19 +5316,19 @@
       </c>
       <c r="B46" s="20">
         <f>Employment_Table!C52</f>
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="21">
         <f>Employment_Table!D52</f>
-        <v>-1.2999999999999998</v>
+        <v>-1</v>
       </c>
       <c r="D46" s="21">
         <f>Employment_Table!E52</f>
-        <v>0.21462105969147771</v>
+        <v>0.12088650100738896</v>
       </c>
       <c r="E46" s="1">
         <f>Employment_Table!F52</f>
-        <v>-1.2226512226512276</v>
+        <v>-1.0276172125883054</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
@@ -5342,19 +5342,19 @@
       </c>
       <c r="B47" s="20">
         <f>Employment_Table!C10</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C47" s="21">
         <f>Employment_Table!D10</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="D47" s="21">
         <f>Employment_Table!E10</f>
-        <v>0.69022967987624195</v>
+        <v>0.35688793718773315</v>
       </c>
       <c r="E47" s="21">
         <f>Employment_Table!F10</f>
-        <v>-1.313559322033897</v>
+        <v>-1.2728044123886284</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
@@ -5377,11 +5377,11 @@
       </c>
       <c r="D48" s="21">
         <f>Employment_Table!E31</f>
-        <v>1.2396694214876103</v>
+        <v>1.3318863456984964</v>
       </c>
       <c r="E48" s="21">
         <f>Employment_Table!F31</f>
-        <v>-1.4942528735632177</v>
+        <v>5.8651026392952943E-2</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="18"/>
@@ -5396,19 +5396,19 @@
       </c>
       <c r="B49" s="20">
         <f>Employment_Table!C42</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C49" s="1">
         <f>Employment_Table!D42</f>
-        <v>-0.5</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D49" s="1">
         <f>Employment_Table!E42</f>
-        <v>1.045449916839214</v>
+        <v>1.0077532531428623</v>
       </c>
       <c r="E49" s="1">
         <f>Employment_Table!F42</f>
-        <v>-1.8990012660008437</v>
+        <v>-1.3504009002672679</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
@@ -5427,15 +5427,15 @@
       </c>
       <c r="C50" s="21">
         <f>Employment_Table!D54</f>
-        <v>-1.4000000000000004</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="D50" s="21">
         <f>Employment_Table!E54</f>
-        <v>-1.0714285714285676</v>
+        <v>-0.85867620751340912</v>
       </c>
       <c r="E50" s="21">
         <f>Employment_Table!F54</f>
-        <v>-1.9607843137254943</v>
+        <v>-2.3809523809523836</v>
       </c>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
@@ -5450,19 +5450,19 @@
       </c>
       <c r="B51" s="28">
         <f>Employment_Table!C15</f>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C51" s="1">
         <f>Employment_Table!D15</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="D51" s="1">
         <f>Employment_Table!E15</f>
-        <v>1.2488436632747568</v>
+        <v>0.58291148949225491</v>
       </c>
       <c r="E51" s="1">
         <f>Employment_Table!F15</f>
-        <v>-2.0634920634920562</v>
+        <v>-3.125</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
@@ -5482,11 +5482,11 @@
       </c>
       <c r="D52" s="21">
         <f>Employment_Table!E35</f>
-        <v>0.24090580582991628</v>
+        <v>1.0597302504816941</v>
       </c>
       <c r="E52" s="21">
         <f>Employment_Table!F35</f>
-        <v>-2.8287061288632787</v>
+        <v>-1.8315018315018361</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
@@ -5498,19 +5498,19 @@
       </c>
       <c r="B53" s="28">
         <f>Employment_Table!C49</f>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
         <f>Employment_Table!D49</f>
-        <v>-0.19999999999999973</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D53" s="1">
         <f>Employment_Table!E49</f>
-        <v>0.25324469768914781</v>
+        <v>0.60451797645559857</v>
       </c>
       <c r="E53" s="1">
         <f>Employment_Table!F49</f>
-        <v>-2.9513888888888951</v>
+        <v>-0.35460992907800915</v>
       </c>
       <c r="I53" s="18"/>
       <c r="K53" s="18"/>
@@ -5527,7 +5527,7 @@
       <c r="A55" s="19"/>
       <c r="B55" s="14">
         <f>COUNTIF(B3:B53, "&lt;4")</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" s="14">
         <f>COUNTIF(C3:C53, "&lt;0")</f>
@@ -5536,7 +5536,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14">
         <f>COUNTIF(E3:E53, "&lt;0")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K55" s="7"/>
     </row>
@@ -5575,8 +5575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5591,16 +5591,16 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="C1" s="4">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="D1" s="4">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="E1" s="6">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -5614,17 +5614,17 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C2" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D2" s="1">
         <v>4.3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="33">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="E2" s="33">
-        <v>4.3</v>
       </c>
       <c r="F2" s="1">
         <f>E2-B2</f>
-        <v>-0.60000000000000053</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5633,23 +5633,23 @@
       </c>
       <c r="B3" s="1">
         <f>BLS_Table_1!B2</f>
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C3" s="1">
         <f>BLS_Table_1!C2</f>
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D3" s="1">
         <f>BLS_Table_1!D2</f>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E3" s="1">
         <f>BLS_Table_1!E2</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">E3-B3</f>
-        <v>-1.2999999999999998</v>
+        <v>-1.7000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5662,19 +5662,19 @@
       </c>
       <c r="C4" s="1">
         <f>BLS_Table_1!C3</f>
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D4" s="1">
         <f>BLS_Table_1!D3</f>
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <f>BLS_Table_1!E3</f>
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B5" s="1">
         <f>BLS_Table_1!B4</f>
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C5" s="1">
         <f>BLS_Table_1!C4</f>
@@ -5695,11 +5695,11 @@
       </c>
       <c r="E5" s="1">
         <f>BLS_Table_1!E4</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000053</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5720,11 +5720,11 @@
       </c>
       <c r="E6" s="1">
         <f>BLS_Table_1!E5</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.60000000000000009</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5741,15 +5741,15 @@
       </c>
       <c r="D7" s="1">
         <f>BLS_Table_1!D6</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E7" s="1">
         <f>BLS_Table_1!E6</f>
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.60000000000000053</v>
+        <v>-0.30000000000000071</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="B8" s="1">
         <f>BLS_Table_1!B7</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C8" s="1">
         <f>BLS_Table_1!C7</f>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="D8" s="1">
         <f>BLS_Table_1!D7</f>
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E8" s="1">
         <f>BLS_Table_1!E7</f>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.89999999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5783,11 +5783,11 @@
       </c>
       <c r="B9" s="1">
         <f>BLS_Table_1!B8</f>
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C9" s="1">
         <f>BLS_Table_1!C8</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <f>BLS_Table_1!D8</f>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="E9" s="1">
         <f>BLS_Table_1!E8</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.10000000000000053</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="B10" s="1">
         <f>BLS_Table_1!B9</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C10" s="1">
         <f>BLS_Table_1!C9</f>
@@ -5816,15 +5816,15 @@
       </c>
       <c r="D10" s="1">
         <f>BLS_Table_1!D9</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E10" s="1">
         <f>BLS_Table_1!E9</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.39999999999999947</v>
+        <v>0.60000000000000053</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5837,11 +5837,11 @@
       </c>
       <c r="C11" s="1">
         <f>BLS_Table_1!C10</f>
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D11" s="1">
         <f>BLS_Table_1!D10</f>
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="E11" s="1">
         <f>BLS_Table_1!E10</f>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="C12" s="1">
         <f>BLS_Table_1!C11</f>
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D12" s="1">
         <f>BLS_Table_1!D11</f>
@@ -5870,11 +5870,11 @@
       </c>
       <c r="E12" s="1">
         <f>BLS_Table_1!E11</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.80000000000000071</v>
+        <v>-0.90000000000000036</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5887,11 +5887,11 @@
       </c>
       <c r="C13" s="1">
         <f>BLS_Table_1!C12</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D13" s="1">
         <f>BLS_Table_1!D12</f>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="E13" s="1">
         <f>BLS_Table_1!E12</f>
@@ -5912,19 +5912,19 @@
       </c>
       <c r="C14" s="1">
         <f>BLS_Table_1!C13</f>
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D14" s="1">
         <f>BLS_Table_1!D13</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="E14" s="1">
         <f>BLS_Table_1!E13</f>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5937,19 +5937,19 @@
       </c>
       <c r="C15" s="1">
         <f>BLS_Table_1!C14</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D15" s="1">
         <f>BLS_Table_1!D14</f>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
         <f>BLS_Table_1!E14</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999982</v>
+        <v>-0.89999999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,19 +5962,19 @@
       </c>
       <c r="C16" s="1">
         <f>BLS_Table_1!C15</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D16" s="1">
         <f>BLS_Table_1!D15</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E16" s="1">
         <f>BLS_Table_1!E15</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5983,23 +5983,23 @@
       </c>
       <c r="B17" s="1">
         <f>BLS_Table_1!B16</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C17" s="1">
         <f>BLS_Table_1!C16</f>
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <f>BLS_Table_1!D16</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E17" s="1">
         <f>BLS_Table_1!E16</f>
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4</v>
+        <v>-0.90000000000000036</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C18" s="1">
         <f>BLS_Table_1!C17</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D18" s="1">
         <f>BLS_Table_1!D17</f>
@@ -6020,11 +6020,11 @@
       </c>
       <c r="E18" s="1">
         <f>BLS_Table_1!E17</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B19" s="1">
         <f>BLS_Table_1!B18</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C19" s="1">
         <f>BLS_Table_1!C18</f>
@@ -6045,11 +6045,11 @@
       </c>
       <c r="E19" s="1">
         <f>BLS_Table_1!E18</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,19 +6062,19 @@
       </c>
       <c r="C20" s="1">
         <f>BLS_Table_1!C19</f>
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D20" s="1">
         <f>BLS_Table_1!D19</f>
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="E20" s="1">
         <f>BLS_Table_1!E19</f>
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0.40000000000000036</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6083,23 +6083,23 @@
       </c>
       <c r="B21" s="1">
         <f>BLS_Table_1!B20</f>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C21" s="1">
         <f>BLS_Table_1!C20</f>
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="D21" s="1">
         <f>BLS_Table_1!D20</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="E21" s="1">
         <f>BLS_Table_1!E20</f>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.90000000000000036</v>
+        <v>-0.89999999999999947</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6112,19 +6112,19 @@
       </c>
       <c r="C22" s="1">
         <f>BLS_Table_1!C21</f>
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D22" s="1">
         <f>BLS_Table_1!D21</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E22" s="1">
         <f>BLS_Table_1!E21</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6133,23 +6133,23 @@
       </c>
       <c r="B23" s="1">
         <f>BLS_Table_1!B22</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C23" s="1">
         <f>BLS_Table_1!C22</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D23" s="1">
         <f>BLS_Table_1!D22</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
         <f>BLS_Table_1!E22</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.30000000000000027</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6158,11 +6158,11 @@
       </c>
       <c r="B24" s="1">
         <f>BLS_Table_1!B23</f>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C24" s="1">
         <f>BLS_Table_1!C23</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D24" s="1">
         <f>BLS_Table_1!D23</f>
@@ -6170,11 +6170,11 @@
       </c>
       <c r="E24" s="1">
         <f>BLS_Table_1!E23</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.69999999999999973</v>
+        <v>0.80000000000000027</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6187,19 +6187,19 @@
       </c>
       <c r="C25" s="1">
         <f>BLS_Table_1!C24</f>
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D25" s="1">
         <f>BLS_Table_1!D24</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E25" s="1">
         <f>BLS_Table_1!E24</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2000000000000002</v>
+        <v>-1.0000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="B26" s="1">
         <f>BLS_Table_1!B25</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
         <f>BLS_Table_1!C25</f>
@@ -6220,11 +6220,11 @@
       </c>
       <c r="E26" s="1">
         <f>BLS_Table_1!E25</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>-0.19999999999999973</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -6233,23 +6233,23 @@
       </c>
       <c r="B27" s="1">
         <f>BLS_Table_1!B26</f>
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C27" s="1">
         <f>BLS_Table_1!C26</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
         <f>BLS_Table_1!D26</f>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E27" s="1">
         <f>BLS_Table_1!E26</f>
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="C28" s="1">
         <f>BLS_Table_1!C27</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D28" s="1">
         <f>BLS_Table_1!D27</f>
@@ -6270,11 +6270,11 @@
       </c>
       <c r="E28" s="1">
         <f>BLS_Table_1!E27</f>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="D30" s="1">
         <f>BLS_Table_1!D29</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E30" s="1">
         <f>BLS_Table_1!E29</f>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B31" s="1">
         <f>BLS_Table_1!B30</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C31" s="1">
         <f>BLS_Table_1!C30</f>
@@ -6341,15 +6341,15 @@
       </c>
       <c r="D31" s="1">
         <f>BLS_Table_1!D30</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E31" s="1">
         <f>BLS_Table_1!E30</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999982</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -6366,15 +6366,15 @@
       </c>
       <c r="D32" s="1">
         <f>BLS_Table_1!D31</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E32" s="1">
         <f>BLS_Table_1!E31</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
+        <v>-0.19999999999999973</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B33" s="1">
         <f>BLS_Table_1!B32</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
         <f>BLS_Table_1!C32</f>
@@ -6391,15 +6391,15 @@
       </c>
       <c r="D33" s="1">
         <f>BLS_Table_1!D32</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E33" s="1">
         <f>BLS_Table_1!E32</f>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.89999999999999947</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6412,11 +6412,11 @@
       </c>
       <c r="C34" s="1">
         <f>BLS_Table_1!C33</f>
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D34" s="1">
         <f>BLS_Table_1!D33</f>
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E34" s="1">
         <f>BLS_Table_1!E33</f>
@@ -6437,19 +6437,19 @@
       </c>
       <c r="C35" s="1">
         <f>BLS_Table_1!C34</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D35" s="1">
         <f>BLS_Table_1!D34</f>
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E35" s="1">
         <f>BLS_Table_1!E34</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20000000000000018</v>
+        <v>-0.10000000000000053</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6458,15 +6458,15 @@
       </c>
       <c r="B36" s="1">
         <f>BLS_Table_1!B35</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
         <f>BLS_Table_1!C35</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D36" s="1">
         <f>BLS_Table_1!D35</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E36" s="1">
         <f>BLS_Table_1!E35</f>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>-0.80000000000000071</v>
+        <v>-0.90000000000000036</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="C37" s="1">
         <f>BLS_Table_1!C36</f>
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D37" s="1">
         <f>BLS_Table_1!D36</f>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="E37" s="1">
         <f>BLS_Table_1!E36</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>-0.89999999999999991</v>
+        <v>-0.80000000000000027</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6512,19 +6512,19 @@
       </c>
       <c r="C38" s="1">
         <f>BLS_Table_1!C37</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <f>BLS_Table_1!D37</f>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E38" s="1">
         <f>BLS_Table_1!E37</f>
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6541,15 +6541,15 @@
       </c>
       <c r="D39" s="1">
         <f>BLS_Table_1!D38</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E39" s="1">
         <f>BLS_Table_1!E38</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>-0.59999999999999964</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6558,23 +6558,23 @@
       </c>
       <c r="B40" s="1">
         <f>BLS_Table_1!B39</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
         <f>BLS_Table_1!C39</f>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D40" s="1">
         <f>BLS_Table_1!D39</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E40" s="1">
         <f>BLS_Table_1!E39</f>
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2999999999999998</v>
+        <v>-0.90000000000000036</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6595,11 +6595,11 @@
       </c>
       <c r="E41" s="1">
         <f>BLS_Table_1!E40</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6608,15 +6608,15 @@
       </c>
       <c r="B42" s="1">
         <f>BLS_Table_1!B41</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C42" s="1">
         <f>BLS_Table_1!C41</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D42" s="1">
         <f>BLS_Table_1!D41</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E42" s="1">
         <f>BLS_Table_1!E41</f>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000005</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6633,11 +6633,11 @@
       </c>
       <c r="B43" s="1">
         <f>BLS_Table_1!B42</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C43" s="1">
         <f>BLS_Table_1!C42</f>
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D43" s="1">
         <f>BLS_Table_1!D42</f>
@@ -6645,11 +6645,11 @@
       </c>
       <c r="E43" s="1">
         <f>BLS_Table_1!E42</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>-0.89999999999999991</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6662,19 +6662,19 @@
       </c>
       <c r="C44" s="1">
         <f>BLS_Table_1!C43</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1">
         <f>BLS_Table_1!D43</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E44" s="1">
         <f>BLS_Table_1!E43</f>
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.20000000000000018</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6687,19 +6687,19 @@
       </c>
       <c r="C45" s="1">
         <f>BLS_Table_1!C44</f>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D45" s="1">
         <f>BLS_Table_1!D44</f>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="E45" s="1">
         <f>BLS_Table_1!E44</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6712,19 +6712,19 @@
       </c>
       <c r="C46" s="1">
         <f>BLS_Table_1!C45</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D46" s="1">
         <f>BLS_Table_1!D45</f>
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E46" s="1">
         <f>BLS_Table_1!E45</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6733,15 +6733,15 @@
       </c>
       <c r="B47" s="1">
         <f>BLS_Table_1!B46</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C47" s="1">
         <f>BLS_Table_1!C46</f>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D47" s="1">
         <f>BLS_Table_1!D46</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E47" s="1">
         <f>BLS_Table_1!E46</f>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0.10000000000000009</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="B48" s="1">
         <f>BLS_Table_1!B47</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C48" s="1">
         <f>BLS_Table_1!C47</f>
@@ -6766,15 +6766,15 @@
       </c>
       <c r="D48" s="1">
         <f>BLS_Table_1!D47</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E48" s="1">
         <f>BLS_Table_1!E47</f>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>-0.19999999999999973</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6787,11 +6787,11 @@
       </c>
       <c r="C49" s="1">
         <f>BLS_Table_1!C48</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D49" s="1">
         <f>BLS_Table_1!D48</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E49" s="1">
         <f>BLS_Table_1!E48</f>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B50" s="1">
         <f>BLS_Table_1!B49</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C50" s="1">
         <f>BLS_Table_1!C49</f>
@@ -6820,11 +6820,11 @@
       </c>
       <c r="E50" s="1">
         <f>BLS_Table_1!E49</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.80000000000000071</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6837,19 +6837,19 @@
       </c>
       <c r="C51" s="1">
         <f>BLS_Table_1!C50</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D51" s="1">
         <f>BLS_Table_1!D50</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="E51" s="1">
         <f>BLS_Table_1!E50</f>
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2999999999999998</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6866,15 +6866,15 @@
       </c>
       <c r="D52" s="1">
         <f>BLS_Table_1!D51</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E52" s="1">
         <f>BLS_Table_1!E51</f>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.80000000000000027</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6883,15 +6883,15 @@
       </c>
       <c r="B53" s="1">
         <f>BLS_Table_1!B52</f>
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C53" s="1">
         <f>BLS_Table_1!C52</f>
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D53" s="1">
         <f>BLS_Table_1!D52</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1">
         <f>BLS_Table_1!E52</f>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4000000000000004</v>
+        <v>-1.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6912,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6929,16 +6929,16 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="C1" s="4">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="D1" s="4">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="E1" s="6">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -6949,20 +6949,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="32">
-        <v>144457</v>
+        <v>144633</v>
       </c>
       <c r="C2" s="32">
-        <v>146175</v>
+        <v>146385</v>
       </c>
       <c r="D2" s="32">
-        <v>146406</v>
+        <v>146574</v>
       </c>
       <c r="E2" s="32">
-        <v>146615</v>
+        <v>146730</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>1.4938701482101857</v>
+        <v>1.4498765841820305</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -6971,23 +6971,23 @@
       </c>
       <c r="B3" s="32">
         <f>BLS_T3_Total!B2</f>
-        <v>1976.7</v>
+        <v>1977.9</v>
       </c>
       <c r="C3" s="32">
         <f>BLS_T3_Total!C2</f>
-        <v>2003</v>
+        <v>2009.8</v>
       </c>
       <c r="D3" s="32">
         <f>BLS_T3_Total!D2</f>
-        <v>2009.8</v>
+        <v>2007.7</v>
       </c>
       <c r="E3" s="32">
         <f>BLS_T3_Total!E2</f>
-        <v>2008.1</v>
+        <v>2004.8</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">((E3/B3)-1)*100</f>
-        <v>1.5885060960186159</v>
+        <v>1.3600283128570645</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6996,23 +6996,23 @@
       </c>
       <c r="B4" s="32">
         <f>BLS_T3_Total!B3</f>
-        <v>332.1</v>
+        <v>331.8</v>
       </c>
       <c r="C4" s="32">
         <f>BLS_T3_Total!C3</f>
-        <v>330.9</v>
+        <v>332.4</v>
       </c>
       <c r="D4" s="32">
         <f>BLS_T3_Total!D3</f>
-        <v>332.4</v>
+        <v>331.7</v>
       </c>
       <c r="E4" s="32">
         <f>BLS_T3_Total!E3</f>
-        <v>331</v>
+        <v>332.1</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.33122553447757497</v>
+        <v>9.0415913200736497E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -7021,23 +7021,23 @@
       </c>
       <c r="B5" s="32">
         <f>BLS_T3_Total!B4</f>
-        <v>2712</v>
+        <v>2716.4</v>
       </c>
       <c r="C5" s="32">
         <f>BLS_T3_Total!C4</f>
-        <v>2745.2</v>
+        <v>2751.1</v>
       </c>
       <c r="D5" s="32">
         <f>BLS_T3_Total!D4</f>
-        <v>2751.1</v>
+        <v>2743.9</v>
       </c>
       <c r="E5" s="32">
         <f>BLS_T3_Total!E4</f>
-        <v>2745.3</v>
+        <v>2751.1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.227876106194703</v>
+        <v>1.2774260050066211</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -7046,23 +7046,23 @@
       </c>
       <c r="B6" s="32">
         <f>BLS_T3_Total!B5</f>
-        <v>1227.0999999999999</v>
+        <v>1228.5</v>
       </c>
       <c r="C6" s="32">
         <f>BLS_T3_Total!C5</f>
-        <v>1245.0999999999999</v>
+        <v>1253.7</v>
       </c>
       <c r="D6" s="32">
         <f>BLS_T3_Total!D5</f>
-        <v>1253.7</v>
+        <v>1259.0999999999999</v>
       </c>
       <c r="E6" s="32">
         <f>BLS_T3_Total!E5</f>
-        <v>1259.8</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>2.6648194931138569</v>
+        <v>1.9047619047619202</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -7071,23 +7071,23 @@
       </c>
       <c r="B7" s="32">
         <f>BLS_T3_Total!B6</f>
-        <v>16507.7</v>
+        <v>16512.7</v>
       </c>
       <c r="C7" s="32">
         <f>BLS_T3_Total!C6</f>
-        <v>16704.7</v>
+        <v>16701.5</v>
       </c>
       <c r="D7" s="32">
         <f>BLS_T3_Total!D6</f>
-        <v>16701.5</v>
+        <v>16786</v>
       </c>
       <c r="E7" s="32">
         <f>BLS_T3_Total!E6</f>
-        <v>16784.099999999999</v>
+        <v>16777.8</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.6743701424183799</v>
+        <v>1.6054309713129822</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -7096,23 +7096,23 @@
       </c>
       <c r="B8" s="32">
         <f>BLS_T3_Total!B7</f>
-        <v>2605</v>
+        <v>2609.5</v>
       </c>
       <c r="C8" s="32">
         <f>BLS_T3_Total!C7</f>
-        <v>2640.5</v>
+        <v>2644.8</v>
       </c>
       <c r="D8" s="32">
         <f>BLS_T3_Total!D7</f>
-        <v>2644.8</v>
+        <v>2650.9</v>
       </c>
       <c r="E8" s="32">
         <f>BLS_T3_Total!E7</f>
-        <v>2648.4</v>
+        <v>2655.3</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.6660268714011606</v>
+        <v>1.7551255029699231</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -7121,23 +7121,23 @@
       </c>
       <c r="B9" s="32">
         <f>BLS_T3_Total!B8</f>
-        <v>1680.6</v>
+        <v>1681.2</v>
       </c>
       <c r="C9" s="32">
         <f>BLS_T3_Total!C8</f>
-        <v>1687.2</v>
+        <v>1692.8</v>
       </c>
       <c r="D9" s="32">
         <f>BLS_T3_Total!D8</f>
-        <v>1692.8</v>
+        <v>1691.1</v>
       </c>
       <c r="E9" s="32">
         <f>BLS_T3_Total!E8</f>
-        <v>1692.2</v>
+        <v>1687.2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.69022967987624195</v>
+        <v>0.35688793718773315</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -7150,19 +7150,19 @@
       </c>
       <c r="C10" s="32">
         <f>BLS_T3_Total!C9</f>
-        <v>456</v>
+        <v>454.7</v>
       </c>
       <c r="D10" s="32">
         <f>BLS_T3_Total!D9</f>
-        <v>454.7</v>
+        <v>456.3</v>
       </c>
       <c r="E10" s="32">
         <f>BLS_T3_Total!E9</f>
-        <v>455.8</v>
+        <v>457.3</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.28602860286028875</v>
+        <v>0.61606160616061167</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>113</v>
@@ -7177,23 +7177,23 @@
       </c>
       <c r="B11" s="32">
         <f>BLS_T3_Total!B10</f>
-        <v>778.4</v>
+        <v>781.3</v>
       </c>
       <c r="C11" s="32">
         <f>BLS_T3_Total!C10</f>
-        <v>791.1</v>
+        <v>792.4</v>
       </c>
       <c r="D11" s="32">
         <f>BLS_T3_Total!D10</f>
-        <v>792.4</v>
+        <v>796.5</v>
       </c>
       <c r="E11" s="32">
         <f>BLS_T3_Total!E10</f>
-        <v>797.1</v>
+        <v>794.4</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>2.4023638232271383</v>
+        <v>1.6766926916677471</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>114</v>
@@ -7208,23 +7208,23 @@
       </c>
       <c r="B12" s="32">
         <f>BLS_T3_Total!B11</f>
-        <v>8408.1</v>
+        <v>8428.5</v>
       </c>
       <c r="C12" s="32">
         <f>BLS_T3_Total!C11</f>
-        <v>8583.2999999999993</v>
+        <v>8601.6</v>
       </c>
       <c r="D12" s="32">
         <f>BLS_T3_Total!D11</f>
-        <v>8601.6</v>
+        <v>8629.7999999999993</v>
       </c>
       <c r="E12" s="32">
         <f>BLS_T3_Total!E11</f>
-        <v>8634.2999999999993</v>
+        <v>8649.9</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>2.6902629607164386</v>
+        <v>2.6268019220501815</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -7233,23 +7233,23 @@
       </c>
       <c r="B13" s="32">
         <f>BLS_T3_Total!B12</f>
-        <v>4383.6000000000004</v>
+        <v>4393.7</v>
       </c>
       <c r="C13" s="32">
         <f>BLS_T3_Total!C12</f>
-        <v>4468.6000000000004</v>
+        <v>4493.8999999999996</v>
       </c>
       <c r="D13" s="32">
         <f>BLS_T3_Total!D12</f>
-        <v>4493.8999999999996</v>
+        <v>4490.3999999999996</v>
       </c>
       <c r="E13" s="32">
         <f>BLS_T3_Total!E12</f>
-        <v>4479.8</v>
+        <v>4510.2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>2.1945432977461321</v>
+        <v>2.6515237726745022</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -7258,23 +7258,23 @@
       </c>
       <c r="B14" s="32">
         <f>BLS_T3_Total!B13</f>
-        <v>648.6</v>
+        <v>651.9</v>
       </c>
       <c r="C14" s="32">
         <f>BLS_T3_Total!C13</f>
-        <v>653.9</v>
+        <v>654.29999999999995</v>
       </c>
       <c r="D14" s="32">
         <f>BLS_T3_Total!D13</f>
-        <v>654.29999999999995</v>
+        <v>658.2</v>
       </c>
       <c r="E14" s="32">
         <f>BLS_T3_Total!E13</f>
-        <v>656.7</v>
+        <v>655.7</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>1.2488436632747568</v>
+        <v>0.58291148949225491</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B15" s="32">
         <f>BLS_T3_Total!B14</f>
-        <v>697.4</v>
+        <v>698.9</v>
       </c>
       <c r="C15" s="32">
         <f>BLS_T3_Total!C14</f>
@@ -7291,15 +7291,15 @@
       </c>
       <c r="D15" s="32">
         <f>BLS_T3_Total!D14</f>
-        <v>708.8</v>
+        <v>711.7</v>
       </c>
       <c r="E15" s="32">
         <f>BLS_T3_Total!E14</f>
-        <v>713.1</v>
+        <v>714.1</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>2.2512188127330246</v>
+        <v>2.1748461868650759</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -7308,23 +7308,23 @@
       </c>
       <c r="B16" s="32">
         <f>BLS_T3_Total!B15</f>
-        <v>6015.8</v>
+        <v>6020.2</v>
       </c>
       <c r="C16" s="32">
         <f>BLS_T3_Total!C15</f>
-        <v>6040.5</v>
+        <v>6046.9</v>
       </c>
       <c r="D16" s="32">
         <f>BLS_T3_Total!D15</f>
-        <v>6046.9</v>
+        <v>6047.5</v>
       </c>
       <c r="E16" s="32">
         <f>BLS_T3_Total!E15</f>
-        <v>6049</v>
+        <v>6043.8</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.55188004920376788</v>
+        <v>0.39201355436697671</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -7333,23 +7333,23 @@
       </c>
       <c r="B17" s="32">
         <f>BLS_T3_Total!B16</f>
-        <v>3088</v>
+        <v>3094.2</v>
       </c>
       <c r="C17" s="32">
         <f>BLS_T3_Total!C16</f>
-        <v>3110.6</v>
+        <v>3118.1</v>
       </c>
       <c r="D17" s="32">
         <f>BLS_T3_Total!D16</f>
-        <v>3118.1</v>
+        <v>3126.6</v>
       </c>
       <c r="E17" s="32">
         <f>BLS_T3_Total!E16</f>
-        <v>3115.3</v>
+        <v>3125.8</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.88406735751296317</v>
+        <v>1.021265593691445</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7358,23 +7358,23 @@
       </c>
       <c r="B18" s="32">
         <f>BLS_T3_Total!B17</f>
-        <v>1572.4</v>
+        <v>1572.9</v>
       </c>
       <c r="C18" s="32">
         <f>BLS_T3_Total!C17</f>
-        <v>1580.6</v>
+        <v>1586.7</v>
       </c>
       <c r="D18" s="32">
         <f>BLS_T3_Total!D17</f>
-        <v>1586.7</v>
+        <v>1587.8</v>
       </c>
       <c r="E18" s="32">
         <f>BLS_T3_Total!E17</f>
-        <v>1588.3</v>
+        <v>1590.1</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>1.0111930806410596</v>
+        <v>1.0935215207578342</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7383,23 +7383,23 @@
       </c>
       <c r="B19" s="32">
         <f>BLS_T3_Total!B18</f>
-        <v>1411.9</v>
+        <v>1410.9</v>
       </c>
       <c r="C19" s="32">
         <f>BLS_T3_Total!C18</f>
-        <v>1406.9</v>
+        <v>1399.8</v>
       </c>
       <c r="D19" s="32">
         <f>BLS_T3_Total!D18</f>
-        <v>1399.8</v>
+        <v>1401.1</v>
       </c>
       <c r="E19" s="32">
         <f>BLS_T3_Total!E18</f>
-        <v>1401.1</v>
+        <v>1401.9</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.76492669452512541</v>
+        <v>-0.63789070805868597</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7408,23 +7408,23 @@
       </c>
       <c r="B20" s="32">
         <f>BLS_T3_Total!B19</f>
-        <v>1920.6</v>
+        <v>1916.8</v>
       </c>
       <c r="C20" s="32">
         <f>BLS_T3_Total!C19</f>
-        <v>1940</v>
+        <v>1936.2</v>
       </c>
       <c r="D20" s="32">
         <f>BLS_T3_Total!D19</f>
-        <v>1936.2</v>
+        <v>1939</v>
       </c>
       <c r="E20" s="32">
         <f>BLS_T3_Total!E19</f>
-        <v>1943.9</v>
+        <v>1947.3</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.2131625533687407</v>
+        <v>1.5911936560934814</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -7433,23 +7433,23 @@
       </c>
       <c r="B21" s="32">
         <f>BLS_T3_Total!B20</f>
-        <v>1970.4</v>
+        <v>1961</v>
       </c>
       <c r="C21" s="32">
         <f>BLS_T3_Total!C20</f>
-        <v>1984.4</v>
+        <v>1988.1</v>
       </c>
       <c r="D21" s="32">
         <f>BLS_T3_Total!D20</f>
-        <v>1988.1</v>
+        <v>1981.8</v>
       </c>
       <c r="E21" s="32">
         <f>BLS_T3_Total!E20</f>
-        <v>1982.2</v>
+        <v>1985.2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.59886317498984987</v>
+        <v>1.2340642529321766</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -7462,19 +7462,19 @@
       </c>
       <c r="C22" s="32">
         <f>BLS_T3_Total!C21</f>
-        <v>620.5</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="D22" s="32">
         <f>BLS_T3_Total!D21</f>
-        <v>623.29999999999995</v>
+        <v>624.5</v>
       </c>
       <c r="E22" s="32">
         <f>BLS_T3_Total!E21</f>
-        <v>624.4</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>1.0192525481313552</v>
+        <v>0.43682252062771099</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -7483,23 +7483,23 @@
       </c>
       <c r="B23" s="32">
         <f>BLS_T3_Total!B22</f>
-        <v>2710.5</v>
+        <v>2714.7</v>
       </c>
       <c r="C23" s="32">
         <f>BLS_T3_Total!C22</f>
-        <v>2744.1</v>
+        <v>2760.7</v>
       </c>
       <c r="D23" s="32">
         <f>BLS_T3_Total!D22</f>
-        <v>2760.7</v>
+        <v>2764.1</v>
       </c>
       <c r="E23" s="32">
         <f>BLS_T3_Total!E22</f>
-        <v>2761.5</v>
+        <v>2778.3</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>1.8815716657443193</v>
+        <v>2.3428003094264627</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7508,23 +7508,23 @@
       </c>
       <c r="B24" s="32">
         <f>BLS_T3_Total!B23</f>
-        <v>3572.5</v>
+        <v>3573.8</v>
       </c>
       <c r="C24" s="32">
         <f>BLS_T3_Total!C23</f>
-        <v>3607</v>
+        <v>3617.9</v>
       </c>
       <c r="D24" s="32">
         <f>BLS_T3_Total!D23</f>
-        <v>3617.9</v>
+        <v>3620.4</v>
       </c>
       <c r="E24" s="32">
         <f>BLS_T3_Total!E23</f>
-        <v>3617.7</v>
+        <v>3631.2</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>1.2652204338698292</v>
+        <v>1.6061335273378274</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -7533,23 +7533,23 @@
       </c>
       <c r="B25" s="32">
         <f>BLS_T3_Total!B24</f>
-        <v>4331.5</v>
+        <v>4332.3</v>
       </c>
       <c r="C25" s="32">
         <f>BLS_T3_Total!C24</f>
-        <v>4383.3</v>
+        <v>4386.1000000000004</v>
       </c>
       <c r="D25" s="32">
         <f>BLS_T3_Total!D24</f>
-        <v>4386.1000000000004</v>
+        <v>4391.1000000000004</v>
       </c>
       <c r="E25" s="32">
         <f>BLS_T3_Total!E24</f>
-        <v>4393.8999999999996</v>
+        <v>4392.6000000000004</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>1.4406094886298071</v>
+        <v>1.3918703690880108</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -7558,23 +7558,23 @@
       </c>
       <c r="B26" s="32">
         <f>BLS_T3_Total!B25</f>
-        <v>2899.4</v>
+        <v>2904.1</v>
       </c>
       <c r="C26" s="32">
         <f>BLS_T3_Total!C25</f>
-        <v>2942.8</v>
+        <v>2952.1</v>
       </c>
       <c r="D26" s="32">
         <f>BLS_T3_Total!D25</f>
-        <v>2952.1</v>
+        <v>2954.7</v>
       </c>
       <c r="E26" s="32">
         <f>BLS_T3_Total!E25</f>
-        <v>2959.8</v>
+        <v>2948.1</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>2.0831896254397408</v>
+        <v>1.5150993423091563</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -7583,23 +7583,23 @@
       </c>
       <c r="B27" s="32">
         <f>BLS_T3_Total!B26</f>
-        <v>1147.3</v>
+        <v>1146.5999999999999</v>
       </c>
       <c r="C27" s="32">
         <f>BLS_T3_Total!C26</f>
-        <v>1144.5999999999999</v>
+        <v>1151.3</v>
       </c>
       <c r="D27" s="32">
         <f>BLS_T3_Total!D26</f>
-        <v>1151.3</v>
+        <v>1153.5</v>
       </c>
       <c r="E27" s="32">
         <f>BLS_T3_Total!E26</f>
-        <v>1153.0999999999999</v>
+        <v>1153.5</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.50553473372265678</v>
+        <v>0.60177917320776153</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7608,23 +7608,23 @@
       </c>
       <c r="B28" s="32">
         <f>BLS_T3_Total!B27</f>
-        <v>2844.9</v>
+        <v>2848.3</v>
       </c>
       <c r="C28" s="32">
         <f>BLS_T3_Total!C27</f>
-        <v>2874.4</v>
+        <v>2889</v>
       </c>
       <c r="D28" s="32">
         <f>BLS_T3_Total!D27</f>
-        <v>2889</v>
+        <v>2900.4</v>
       </c>
       <c r="E28" s="32">
         <f>BLS_T3_Total!E27</f>
-        <v>2903.1</v>
+        <v>2900.6</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>2.0457661077717848</v>
+        <v>1.8361829863427159</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -7633,23 +7633,23 @@
       </c>
       <c r="B29" s="32">
         <f>BLS_T3_Total!B28</f>
-        <v>467.8</v>
+        <v>467.6</v>
       </c>
       <c r="C29" s="32">
         <f>BLS_T3_Total!C28</f>
-        <v>474.4</v>
+        <v>473.7</v>
       </c>
       <c r="D29" s="32">
         <f>BLS_T3_Total!D28</f>
-        <v>473.7</v>
+        <v>473.2</v>
       </c>
       <c r="E29" s="32">
         <f>BLS_T3_Total!E28</f>
-        <v>473</v>
+        <v>475.2</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>1.1115861479264577</v>
+        <v>1.6253207869974196</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -7658,23 +7658,23 @@
       </c>
       <c r="B30" s="32">
         <f>BLS_T3_Total!B29</f>
-        <v>1016.4</v>
+        <v>1013.6</v>
       </c>
       <c r="C30" s="32">
         <f>BLS_T3_Total!C29</f>
-        <v>1024.5</v>
+        <v>1029.8</v>
       </c>
       <c r="D30" s="32">
         <f>BLS_T3_Total!D29</f>
-        <v>1029.8</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="E30" s="32">
         <f>BLS_T3_Total!E29</f>
-        <v>1029</v>
+        <v>1027.0999999999999</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>1.2396694214876103</v>
+        <v>1.3318863456984964</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -7683,23 +7683,23 @@
       </c>
       <c r="B31" s="32">
         <f>BLS_T3_Total!B30</f>
-        <v>1307</v>
+        <v>1309.0999999999999</v>
       </c>
       <c r="C31" s="32">
         <f>BLS_T3_Total!C30</f>
-        <v>1331.5</v>
+        <v>1337.4</v>
       </c>
       <c r="D31" s="32">
         <f>BLS_T3_Total!D30</f>
-        <v>1337.4</v>
+        <v>1345.2</v>
       </c>
       <c r="E31" s="32">
         <f>BLS_T3_Total!E30</f>
-        <v>1342.7</v>
+        <v>1347.9</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>2.7314460596786549</v>
+        <v>2.9638683064701077</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -7708,23 +7708,23 @@
       </c>
       <c r="B32" s="32">
         <f>BLS_T3_Total!B31</f>
-        <v>668</v>
+        <v>670.3</v>
       </c>
       <c r="C32" s="32">
         <f>BLS_T3_Total!C31</f>
-        <v>675.2</v>
+        <v>676.9</v>
       </c>
       <c r="D32" s="32">
         <f>BLS_T3_Total!D31</f>
-        <v>676.9</v>
+        <v>680.4</v>
       </c>
       <c r="E32" s="32">
         <f>BLS_T3_Total!E31</f>
-        <v>679.9</v>
+        <v>684.6</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>1.7814371257484973</v>
+        <v>2.1333731165150027</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -7733,23 +7733,23 @@
       </c>
       <c r="B33" s="32">
         <f>BLS_T3_Total!B32</f>
-        <v>4085</v>
+        <v>4091.3</v>
       </c>
       <c r="C33" s="32">
         <f>BLS_T3_Total!C32</f>
-        <v>4107.6000000000004</v>
+        <v>4122.5</v>
       </c>
       <c r="D33" s="32">
         <f>BLS_T3_Total!D32</f>
-        <v>4122.5</v>
+        <v>4129.2</v>
       </c>
       <c r="E33" s="32">
         <f>BLS_T3_Total!E32</f>
-        <v>4132.3</v>
+        <v>4129.3999999999996</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>1.1578947368421133</v>
+        <v>0.93124434776230558</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -7758,23 +7758,23 @@
       </c>
       <c r="B34" s="32">
         <f>BLS_T3_Total!B33</f>
-        <v>830.2</v>
+        <v>830.4</v>
       </c>
       <c r="C34" s="32">
         <f>BLS_T3_Total!C33</f>
-        <v>837.7</v>
+        <v>834.3</v>
       </c>
       <c r="D34" s="32">
         <f>BLS_T3_Total!D33</f>
-        <v>834.3</v>
+        <v>833.5</v>
       </c>
       <c r="E34" s="32">
         <f>BLS_T3_Total!E33</f>
-        <v>832.2</v>
+        <v>839.2</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.24090580582991628</v>
+        <v>1.0597302504816941</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -7783,23 +7783,23 @@
       </c>
       <c r="B35" s="32">
         <f>BLS_T3_Total!B34</f>
-        <v>9416.7000000000007</v>
+        <v>9421.4</v>
       </c>
       <c r="C35" s="32">
         <f>BLS_T3_Total!C34</f>
-        <v>9504.7999999999993</v>
+        <v>9533.2000000000007</v>
       </c>
       <c r="D35" s="32">
         <f>BLS_T3_Total!D34</f>
-        <v>9533.2000000000007</v>
+        <v>9547.7999999999993</v>
       </c>
       <c r="E35" s="32">
         <f>BLS_T3_Total!E34</f>
-        <v>9554.7999999999993</v>
+        <v>9550</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>1.466543481262006</v>
+        <v>1.3649776041777306</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -7808,23 +7808,23 @@
       </c>
       <c r="B36" s="32">
         <f>BLS_T3_Total!B35</f>
-        <v>4350</v>
+        <v>4352.5</v>
       </c>
       <c r="C36" s="32">
         <f>BLS_T3_Total!C35</f>
-        <v>4394.3</v>
+        <v>4405.6000000000004</v>
       </c>
       <c r="D36" s="32">
         <f>BLS_T3_Total!D35</f>
-        <v>4405.6000000000004</v>
+        <v>4414.6000000000004</v>
       </c>
       <c r="E36" s="32">
         <f>BLS_T3_Total!E35</f>
-        <v>4414.3999999999996</v>
+        <v>4423</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>1.480459770114928</v>
+        <v>1.6197587593337115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B37" s="32">
         <f>BLS_T3_Total!B36</f>
-        <v>434.8</v>
+        <v>435.1</v>
       </c>
       <c r="C37" s="32">
         <f>BLS_T3_Total!C36</f>
@@ -7841,15 +7841,15 @@
       </c>
       <c r="D37" s="32">
         <f>BLS_T3_Total!D36</f>
-        <v>439.6</v>
+        <v>441.3</v>
       </c>
       <c r="E37" s="32">
         <f>BLS_T3_Total!E36</f>
-        <v>441.4</v>
+        <v>440.8</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>1.517939282428693</v>
+        <v>1.3100436681222627</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -7858,23 +7858,23 @@
       </c>
       <c r="B38" s="32">
         <f>BLS_T3_Total!B37</f>
-        <v>5490.6</v>
+        <v>5488.1</v>
       </c>
       <c r="C38" s="32">
         <f>BLS_T3_Total!C37</f>
-        <v>5517.3</v>
+        <v>5536.5</v>
       </c>
       <c r="D38" s="32">
         <f>BLS_T3_Total!D37</f>
-        <v>5536.5</v>
+        <v>5540</v>
       </c>
       <c r="E38" s="32">
         <f>BLS_T3_Total!E37</f>
-        <v>5538.1</v>
+        <v>5545.2</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.86511492368774867</v>
+        <v>1.0404329367176057</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -7883,23 +7883,23 @@
       </c>
       <c r="B39" s="32">
         <f>BLS_T3_Total!B38</f>
-        <v>1648.8</v>
+        <v>1649.1</v>
       </c>
       <c r="C39" s="32">
         <f>BLS_T3_Total!C38</f>
-        <v>1651.8</v>
+        <v>1656.8</v>
       </c>
       <c r="D39" s="32">
         <f>BLS_T3_Total!D38</f>
-        <v>1656.8</v>
+        <v>1665.1</v>
       </c>
       <c r="E39" s="32">
         <f>BLS_T3_Total!E38</f>
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>1.1038330907326532</v>
+        <v>1.2067188163240594</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -7908,23 +7908,23 @@
       </c>
       <c r="B40" s="32">
         <f>BLS_T3_Total!B39</f>
-        <v>1832.7</v>
+        <v>1836.5</v>
       </c>
       <c r="C40" s="32">
         <f>BLS_T3_Total!C39</f>
-        <v>1871.5</v>
+        <v>1880.2</v>
       </c>
       <c r="D40" s="32">
         <f>BLS_T3_Total!D39</f>
-        <v>1880.2</v>
+        <v>1887.6</v>
       </c>
       <c r="E40" s="32">
         <f>BLS_T3_Total!E39</f>
-        <v>1886.1</v>
+        <v>1878.1</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>2.9137338353249165</v>
+        <v>2.2651783283419435</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -7933,23 +7933,23 @@
       </c>
       <c r="B41" s="32">
         <f>BLS_T3_Total!B40</f>
-        <v>5892.2</v>
+        <v>5894.3</v>
       </c>
       <c r="C41" s="32">
         <f>BLS_T3_Total!C40</f>
-        <v>5930.3</v>
+        <v>5924.8</v>
       </c>
       <c r="D41" s="32">
         <f>BLS_T3_Total!D40</f>
-        <v>5924.8</v>
+        <v>5961.7</v>
       </c>
       <c r="E41" s="32">
         <f>BLS_T3_Total!E40</f>
-        <v>5953.8</v>
+        <v>5953.7</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>1.045449916839214</v>
+        <v>1.0077532531428623</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -7958,23 +7958,23 @@
       </c>
       <c r="B42" s="32">
         <f>BLS_T3_Total!B41</f>
-        <v>490.7</v>
+        <v>490.4</v>
       </c>
       <c r="C42" s="32">
         <f>BLS_T3_Total!C41</f>
-        <v>496.4</v>
+        <v>496.1</v>
       </c>
       <c r="D42" s="32">
         <f>BLS_T3_Total!D41</f>
-        <v>496.1</v>
+        <v>499.7</v>
       </c>
       <c r="E42" s="32">
         <f>BLS_T3_Total!E41</f>
-        <v>499.2</v>
+        <v>499.7</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.7322192785816259</v>
+        <v>1.8964110929853284</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -7983,23 +7983,23 @@
       </c>
       <c r="B43" s="32">
         <f>BLS_T3_Total!B42</f>
-        <v>2062.1999999999998</v>
+        <v>2059.3000000000002</v>
       </c>
       <c r="C43" s="32">
         <f>BLS_T3_Total!C42</f>
-        <v>2079.5</v>
+        <v>2084.3000000000002</v>
       </c>
       <c r="D43" s="32">
         <f>BLS_T3_Total!D42</f>
-        <v>2084.3000000000002</v>
+        <v>2088.6999999999998</v>
       </c>
       <c r="E43" s="32">
         <f>BLS_T3_Total!E42</f>
-        <v>2092</v>
+        <v>2094.9</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>1.4450586752012606</v>
+        <v>1.7287427766716768</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -8008,23 +8008,23 @@
       </c>
       <c r="B44" s="32">
         <f>BLS_T3_Total!B43</f>
-        <v>433.8</v>
+        <v>433.5</v>
       </c>
       <c r="C44" s="32">
         <f>BLS_T3_Total!C43</f>
-        <v>437.1</v>
+        <v>435.9</v>
       </c>
       <c r="D44" s="32">
         <f>BLS_T3_Total!D43</f>
-        <v>435.9</v>
+        <v>435.7</v>
       </c>
       <c r="E44" s="32">
         <f>BLS_T3_Total!E43</f>
-        <v>435.4</v>
+        <v>436.8</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.36883356385430943</v>
+        <v>0.76124567474049609</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -8033,23 +8033,23 @@
       </c>
       <c r="B45" s="32">
         <f>BLS_T3_Total!B44</f>
-        <v>2971.8</v>
+        <v>2975.4</v>
       </c>
       <c r="C45" s="32">
         <f>BLS_T3_Total!C44</f>
-        <v>3012.3</v>
+        <v>3016.2</v>
       </c>
       <c r="D45" s="32">
         <f>BLS_T3_Total!D44</f>
-        <v>3016.2</v>
+        <v>3019.4</v>
       </c>
       <c r="E45" s="32">
         <f>BLS_T3_Total!E44</f>
-        <v>3020.9</v>
+        <v>3027.6</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>1.6521973214886465</v>
+        <v>1.754385964912264</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -8058,23 +8058,23 @@
       </c>
       <c r="B46" s="32">
         <f>BLS_T3_Total!B45</f>
-        <v>12032.9</v>
+        <v>12035.3</v>
       </c>
       <c r="C46" s="32">
         <f>BLS_T3_Total!C45</f>
-        <v>12266.1</v>
+        <v>12306.7</v>
       </c>
       <c r="D46" s="32">
         <f>BLS_T3_Total!D45</f>
-        <v>12306.7</v>
+        <v>12328.4</v>
       </c>
       <c r="E46" s="32">
         <f>BLS_T3_Total!E45</f>
-        <v>12326.3</v>
+        <v>12333.9</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>2.4383149531700621</v>
+        <v>2.4810349555058897</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -8083,23 +8083,23 @@
       </c>
       <c r="B47" s="32">
         <f>BLS_T3_Total!B46</f>
-        <v>1432.4</v>
+        <v>1434.7</v>
       </c>
       <c r="C47" s="32">
         <f>BLS_T3_Total!C46</f>
-        <v>1469.7</v>
+        <v>1468.9</v>
       </c>
       <c r="D47" s="32">
         <f>BLS_T3_Total!D46</f>
-        <v>1468.9</v>
+        <v>1468.4</v>
       </c>
       <c r="E47" s="32">
         <f>BLS_T3_Total!E46</f>
-        <v>1468.7</v>
+        <v>1472</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>2.5342083216978395</v>
+        <v>2.5998466578378787</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -8108,23 +8108,23 @@
       </c>
       <c r="B48" s="32">
         <f>BLS_T3_Total!B47</f>
-        <v>315.89999999999998</v>
+        <v>314.3</v>
       </c>
       <c r="C48" s="32">
         <f>BLS_T3_Total!C47</f>
-        <v>313.89999999999998</v>
+        <v>315</v>
       </c>
       <c r="D48" s="32">
         <f>BLS_T3_Total!D47</f>
-        <v>315</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="E48" s="32">
         <f>BLS_T3_Total!E47</f>
-        <v>316.7</v>
+        <v>316.2</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0.25324469768914781</v>
+        <v>0.60451797645559857</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -8133,23 +8133,23 @@
       </c>
       <c r="B49" s="32">
         <f>BLS_T3_Total!B48</f>
-        <v>3915.6</v>
+        <v>3922.5</v>
       </c>
       <c r="C49" s="32">
         <f>BLS_T3_Total!C48</f>
-        <v>3952.5</v>
+        <v>3967.6</v>
       </c>
       <c r="D49" s="32">
         <f>BLS_T3_Total!D48</f>
-        <v>3967.6</v>
+        <v>3979</v>
       </c>
       <c r="E49" s="32">
         <f>BLS_T3_Total!E48</f>
-        <v>3975.9</v>
+        <v>3981.2</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>1.5399938706711636</v>
+        <v>1.4964945825366449</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -8158,23 +8158,23 @@
       </c>
       <c r="B50" s="32">
         <f>BLS_T3_Total!B49</f>
-        <v>3247.2</v>
+        <v>3256.8</v>
       </c>
       <c r="C50" s="32">
         <f>BLS_T3_Total!C49</f>
-        <v>3312.7</v>
+        <v>3316.9</v>
       </c>
       <c r="D50" s="32">
         <f>BLS_T3_Total!D49</f>
-        <v>3316.9</v>
+        <v>3322.1</v>
       </c>
       <c r="E50" s="32">
         <f>BLS_T3_Total!E49</f>
-        <v>3318.5</v>
+        <v>3324.1</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>2.1957378664695826</v>
+        <v>2.0664455907639212</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -8183,23 +8183,23 @@
       </c>
       <c r="B51" s="32">
         <f>BLS_T3_Total!B50</f>
-        <v>745.5</v>
+        <v>744.5</v>
       </c>
       <c r="C51" s="32">
         <f>BLS_T3_Total!C50</f>
-        <v>742.6</v>
+        <v>746.7</v>
       </c>
       <c r="D51" s="32">
         <f>BLS_T3_Total!D50</f>
-        <v>746.7</v>
+        <v>747.3</v>
       </c>
       <c r="E51" s="32">
         <f>BLS_T3_Total!E50</f>
-        <v>747.1</v>
+        <v>745.4</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.21462105969147771</v>
+        <v>0.12088650100738896</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -8208,23 +8208,23 @@
       </c>
       <c r="B52" s="32">
         <f>BLS_T3_Total!B51</f>
-        <v>2928.2</v>
+        <v>2929.1</v>
       </c>
       <c r="C52" s="32">
         <f>BLS_T3_Total!C51</f>
-        <v>2956.5</v>
+        <v>2951.1</v>
       </c>
       <c r="D52" s="32">
         <f>BLS_T3_Total!D51</f>
-        <v>2951.1</v>
+        <v>2956.9</v>
       </c>
       <c r="E52" s="32">
         <f>BLS_T3_Total!E51</f>
-        <v>2954.7</v>
+        <v>2948.1</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.90499282835871941</v>
+        <v>0.64866341196954114</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -8233,11 +8233,11 @@
       </c>
       <c r="B53" s="32">
         <f>BLS_T3_Total!B52</f>
-        <v>280</v>
+        <v>279.5</v>
       </c>
       <c r="C53" s="32">
         <f>BLS_T3_Total!C52</f>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D53" s="32">
         <f>BLS_T3_Total!D52</f>
@@ -8245,11 +8245,11 @@
       </c>
       <c r="E53" s="32">
         <f>BLS_T3_Total!E52</f>
-        <v>277</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0714285714285676</v>
+        <v>-0.85867620751340912</v>
       </c>
     </row>
   </sheetData>
@@ -8262,8 +8262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8277,16 +8277,16 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="C1" s="4">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="D1" s="4">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="E1" s="6">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -8297,20 +8297,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="35">
-        <v>22257</v>
+        <v>22290</v>
       </c>
       <c r="C2" s="35">
-        <v>22317</v>
+        <v>22320</v>
       </c>
       <c r="D2" s="35">
-        <v>22354</v>
+        <v>22307</v>
       </c>
       <c r="E2" s="35">
-        <v>22358</v>
+        <v>22298</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>0.4537898189333589</v>
+        <v>3.5890533871696384E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -8319,23 +8319,23 @@
       </c>
       <c r="B3" s="7">
         <f>BLS_T3_GOV!B2</f>
-        <v>379.8</v>
+        <v>381.8</v>
       </c>
       <c r="C3" s="7">
         <f>BLS_T3_GOV!C2</f>
-        <v>379.5</v>
+        <v>378.5</v>
       </c>
       <c r="D3" s="7">
         <f>BLS_T3_GOV!D2</f>
-        <v>378.5</v>
+        <v>378.4</v>
       </c>
       <c r="E3" s="7">
         <f>BLS_T3_GOV!E2</f>
-        <v>377.9</v>
+        <v>378.9</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">((E3/B3)-1)*100</f>
-        <v>-0.50026329647183676</v>
+        <v>-0.7595599790466312</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -8344,23 +8344,23 @@
       </c>
       <c r="B4" s="7">
         <f>BLS_T3_GOV!B3</f>
-        <v>81</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C4" s="7">
         <f>BLS_T3_GOV!C3</f>
-        <v>82.1</v>
+        <v>81.7</v>
       </c>
       <c r="D4" s="7">
         <f>BLS_T3_GOV!D3</f>
-        <v>81.7</v>
+        <v>80.8</v>
       </c>
       <c r="E4" s="7">
         <f>BLS_T3_GOV!E3</f>
-        <v>80.7</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.37037037037036535</v>
+        <v>0.61804697156984112</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -8369,23 +8369,23 @@
       </c>
       <c r="B5" s="7">
         <f>BLS_T3_GOV!B4</f>
-        <v>411.4</v>
+        <v>410.6</v>
       </c>
       <c r="C5" s="7">
         <f>BLS_T3_GOV!C4</f>
-        <v>411.1</v>
+        <v>416.3</v>
       </c>
       <c r="D5" s="7">
         <f>BLS_T3_GOV!D4</f>
-        <v>416.3</v>
+        <v>414.2</v>
       </c>
       <c r="E5" s="7">
         <f>BLS_T3_GOV!E4</f>
-        <v>415</v>
+        <v>414.6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.87506076810890399</v>
+        <v>0.97418412079883776</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="B6" s="7">
         <f>BLS_T3_GOV!B5</f>
-        <v>212.6</v>
+        <v>212.5</v>
       </c>
       <c r="C6" s="7">
         <f>BLS_T3_GOV!C5</f>
@@ -8402,15 +8402,15 @@
       </c>
       <c r="D6" s="7">
         <f>BLS_T3_GOV!D5</f>
-        <v>211.1</v>
+        <v>211.5</v>
       </c>
       <c r="E6" s="7">
         <f>BLS_T3_GOV!E5</f>
-        <v>211.5</v>
+        <v>211.2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.51740357478833321</v>
+        <v>-0.6117647058823561</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -8419,23 +8419,23 @@
       </c>
       <c r="B7" s="7">
         <f>BLS_T3_GOV!B6</f>
-        <v>2514</v>
+        <v>2517.3000000000002</v>
       </c>
       <c r="C7" s="7">
         <f>BLS_T3_GOV!C6</f>
-        <v>2555.1999999999998</v>
+        <v>2544.1999999999998</v>
       </c>
       <c r="D7" s="7">
         <f>BLS_T3_GOV!D6</f>
-        <v>2544.1999999999998</v>
+        <v>2562.9</v>
       </c>
       <c r="E7" s="7">
         <f>BLS_T3_GOV!E6</f>
-        <v>2563</v>
+        <v>2556.6</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.9490851233094686</v>
+        <v>1.5611965200810207</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -8444,23 +8444,23 @@
       </c>
       <c r="B8" s="7">
         <f>BLS_T3_GOV!B7</f>
-        <v>426.4</v>
+        <v>429.6</v>
       </c>
       <c r="C8" s="7">
         <f>BLS_T3_GOV!C7</f>
-        <v>427.8</v>
+        <v>426.8</v>
       </c>
       <c r="D8" s="7">
         <f>BLS_T3_GOV!D7</f>
-        <v>426.8</v>
+        <v>430.2</v>
       </c>
       <c r="E8" s="7">
         <f>BLS_T3_GOV!E7</f>
-        <v>430.3</v>
+        <v>431.9</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.91463414634147533</v>
+        <v>0.5353817504655467</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8469,23 +8469,23 @@
       </c>
       <c r="B9" s="7">
         <f>BLS_T3_GOV!B8</f>
-        <v>236</v>
+        <v>235.7</v>
       </c>
       <c r="C9" s="7">
         <f>BLS_T3_GOV!C8</f>
-        <v>233.9</v>
+        <v>233.8</v>
       </c>
       <c r="D9" s="7">
         <f>BLS_T3_GOV!D8</f>
-        <v>233.8</v>
+        <v>232.9</v>
       </c>
       <c r="E9" s="7">
         <f>BLS_T3_GOV!E8</f>
-        <v>232.9</v>
+        <v>232.7</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-1.313559322033897</v>
+        <v>-1.2728044123886284</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -8494,23 +8494,23 @@
       </c>
       <c r="B10" s="7">
         <f>BLS_T3_GOV!B9</f>
-        <v>65.7</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C10" s="7">
         <f>BLS_T3_GOV!C9</f>
-        <v>65.3</v>
+        <v>64.7</v>
       </c>
       <c r="D10" s="7">
         <f>BLS_T3_GOV!D9</f>
-        <v>64.7</v>
+        <v>65.5</v>
       </c>
       <c r="E10" s="7">
         <f>BLS_T3_GOV!E9</f>
-        <v>64.900000000000006</v>
+        <v>65.2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2176560121765601</v>
+        <v>-0.30581039755351869</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -8519,23 +8519,23 @@
       </c>
       <c r="B11" s="7">
         <f>BLS_T3_GOV!B10</f>
-        <v>237.9</v>
+        <v>238.7</v>
       </c>
       <c r="C11" s="7">
         <f>BLS_T3_GOV!C10</f>
-        <v>239.1</v>
+        <v>238.2</v>
       </c>
       <c r="D11" s="7">
         <f>BLS_T3_GOV!D10</f>
-        <v>238.2</v>
+        <v>238.7</v>
       </c>
       <c r="E11" s="7">
         <f>BLS_T3_GOV!E10</f>
-        <v>238.7</v>
+        <v>237.8</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.33627574611181377</v>
+        <v>-0.37704231252617681</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>113</v>
@@ -8550,23 +8550,23 @@
       </c>
       <c r="B12" s="7">
         <f>BLS_T3_GOV!B11</f>
-        <v>1097.5</v>
+        <v>1100.2</v>
       </c>
       <c r="C12" s="7">
         <f>BLS_T3_GOV!C11</f>
-        <v>1103.8</v>
+        <v>1105.3</v>
       </c>
       <c r="D12" s="7">
         <f>BLS_T3_GOV!D11</f>
-        <v>1105.3</v>
+        <v>1111</v>
       </c>
       <c r="E12" s="7">
         <f>BLS_T3_GOV!E11</f>
-        <v>1111.7</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1.2938496583143611</v>
+        <v>0.79985457189601927</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>114</v>
@@ -8581,23 +8581,23 @@
       </c>
       <c r="B13" s="7">
         <f>BLS_T3_GOV!B12</f>
-        <v>687.6</v>
+        <v>689.9</v>
       </c>
       <c r="C13" s="7">
         <f>BLS_T3_GOV!C12</f>
-        <v>693.8</v>
+        <v>695.2</v>
       </c>
       <c r="D13" s="7">
         <f>BLS_T3_GOV!D12</f>
-        <v>695.2</v>
+        <v>700.7</v>
       </c>
       <c r="E13" s="7">
         <f>BLS_T3_GOV!E12</f>
-        <v>692.7</v>
+        <v>705</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.74171029668412825</v>
+        <v>2.1887230033338145</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -8606,23 +8606,23 @@
       </c>
       <c r="B14" s="7">
         <f>BLS_T3_GOV!B13</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" s="7">
         <f>BLS_T3_GOV!C13</f>
-        <v>126.5</v>
+        <v>125.6</v>
       </c>
       <c r="D14" s="7">
         <f>BLS_T3_GOV!D13</f>
-        <v>125.6</v>
+        <v>123.5</v>
       </c>
       <c r="E14" s="7">
         <f>BLS_T3_GOV!E13</f>
-        <v>123.4</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0634920634920562</v>
+        <v>-3.125</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -8631,23 +8631,23 @@
       </c>
       <c r="B15" s="7">
         <f>BLS_T3_GOV!B14</f>
-        <v>121.9</v>
+        <v>122</v>
       </c>
       <c r="C15" s="7">
         <f>BLS_T3_GOV!C14</f>
-        <v>124</v>
+        <v>124.6</v>
       </c>
       <c r="D15" s="7">
         <f>BLS_T3_GOV!D14</f>
-        <v>124.6</v>
+        <v>125.2</v>
       </c>
       <c r="E15" s="7">
         <f>BLS_T3_GOV!E14</f>
-        <v>125.4</v>
+        <v>125.6</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>2.8712059064807116</v>
+        <v>2.9508196721311331</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -8656,23 +8656,23 @@
       </c>
       <c r="B16" s="7">
         <f>BLS_T3_GOV!B15</f>
-        <v>827.2</v>
+        <v>828.7</v>
       </c>
       <c r="C16" s="7">
         <f>BLS_T3_GOV!C15</f>
-        <v>822.5</v>
+        <v>823.9</v>
       </c>
       <c r="D16" s="7">
         <f>BLS_T3_GOV!D15</f>
-        <v>823.9</v>
+        <v>824.9</v>
       </c>
       <c r="E16" s="7">
         <f>BLS_T3_GOV!E15</f>
-        <v>824.9</v>
+        <v>825.6</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.27804642166344706</v>
+        <v>-0.37407988415590898</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8681,23 +8681,23 @@
       </c>
       <c r="B17" s="7">
         <f>BLS_T3_GOV!B16</f>
-        <v>426.5</v>
+        <v>436</v>
       </c>
       <c r="C17" s="7">
         <f>BLS_T3_GOV!C16</f>
-        <v>428.1</v>
+        <v>431.8</v>
       </c>
       <c r="D17" s="7">
         <f>BLS_T3_GOV!D16</f>
-        <v>431.8</v>
+        <v>438.1</v>
       </c>
       <c r="E17" s="7">
         <f>BLS_T3_GOV!E16</f>
-        <v>427</v>
+        <v>442.2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11723329425556983</v>
+        <v>1.4220183486238547</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8706,23 +8706,23 @@
       </c>
       <c r="B18" s="7">
         <f>BLS_T3_GOV!B17</f>
-        <v>258.3</v>
+        <v>258.8</v>
       </c>
       <c r="C18" s="7">
         <f>BLS_T3_GOV!C17</f>
-        <v>254.7</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="D18" s="7">
         <f>BLS_T3_GOV!D17</f>
-        <v>256.39999999999998</v>
+        <v>256.8</v>
       </c>
       <c r="E18" s="7">
         <f>BLS_T3_GOV!E17</f>
-        <v>255.9</v>
+        <v>256.8</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.92915214866434725</v>
+        <v>-0.77279752704790816</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8735,19 +8735,19 @@
       </c>
       <c r="C19" s="7">
         <f>BLS_T3_GOV!C18</f>
-        <v>256</v>
+        <v>254.4</v>
       </c>
       <c r="D19" s="7">
         <f>BLS_T3_GOV!D18</f>
-        <v>254.4</v>
+        <v>256.2</v>
       </c>
       <c r="E19" s="7">
         <f>BLS_T3_GOV!E18</f>
-        <v>256.89999999999998</v>
+        <v>252.9</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.50860719874803451</v>
+        <v>-1.0563380281690127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8756,15 +8756,15 @@
       </c>
       <c r="B20" s="7">
         <f>BLS_T3_GOV!B19</f>
-        <v>318.5</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="C20" s="7">
         <f>BLS_T3_GOV!C19</f>
-        <v>317.5</v>
+        <v>316.2</v>
       </c>
       <c r="D20" s="7">
         <f>BLS_T3_GOV!D19</f>
-        <v>316.2</v>
+        <v>317.89999999999998</v>
       </c>
       <c r="E20" s="7">
         <f>BLS_T3_GOV!E19</f>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>-0.18838304552590834</v>
+        <v>-0.3760576621748779</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8781,23 +8781,23 @@
       </c>
       <c r="B21" s="7">
         <f>BLS_T3_GOV!B20</f>
-        <v>324.3</v>
+        <v>323.8</v>
       </c>
       <c r="C21" s="7">
         <f>BLS_T3_GOV!C20</f>
-        <v>324.10000000000002</v>
+        <v>323.7</v>
       </c>
       <c r="D21" s="7">
         <f>BLS_T3_GOV!D20</f>
-        <v>323.7</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="E21" s="7">
         <f>BLS_T3_GOV!E20</f>
-        <v>320.7</v>
+        <v>321.39999999999998</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1100832562442209</v>
+        <v>-0.74119827053737986</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8806,23 +8806,23 @@
       </c>
       <c r="B22" s="7">
         <f>BLS_T3_GOV!B21</f>
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="C22" s="7">
         <f>BLS_T3_GOV!C21</f>
-        <v>99.9</v>
+        <v>101.1</v>
       </c>
       <c r="D22" s="7">
         <f>BLS_T3_GOV!D21</f>
-        <v>101.1</v>
+        <v>101.9</v>
       </c>
       <c r="E22" s="7">
         <f>BLS_T3_GOV!E21</f>
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>1.5952143569292199</v>
+        <v>1.195219123505975</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8831,23 +8831,23 @@
       </c>
       <c r="B23" s="7">
         <f>BLS_T3_GOV!B22</f>
-        <v>504.7</v>
+        <v>506</v>
       </c>
       <c r="C23" s="7">
         <f>BLS_T3_GOV!C22</f>
-        <v>511.7</v>
+        <v>517.9</v>
       </c>
       <c r="D23" s="7">
         <f>BLS_T3_GOV!D22</f>
-        <v>517.9</v>
+        <v>507.2</v>
       </c>
       <c r="E23" s="7">
         <f>BLS_T3_GOV!E22</f>
-        <v>507.2</v>
+        <v>511.7</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.49534376857538476</v>
+        <v>1.1264822134387398</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -8856,23 +8856,23 @@
       </c>
       <c r="B24" s="7">
         <f>BLS_T3_GOV!B23</f>
-        <v>455.1</v>
+        <v>456.1</v>
       </c>
       <c r="C24" s="7">
         <f>BLS_T3_GOV!C23</f>
-        <v>458.7</v>
+        <v>459.1</v>
       </c>
       <c r="D24" s="7">
         <f>BLS_T3_GOV!D23</f>
-        <v>459.1</v>
+        <v>457.4</v>
       </c>
       <c r="E24" s="7">
         <f>BLS_T3_GOV!E23</f>
-        <v>457.4</v>
+        <v>458.3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.50538343221269155</v>
+        <v>0.48235036176276225</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -8881,23 +8881,23 @@
       </c>
       <c r="B25" s="7">
         <f>BLS_T3_GOV!B24</f>
-        <v>601.29999999999995</v>
+        <v>601.9</v>
       </c>
       <c r="C25" s="7">
         <f>BLS_T3_GOV!C24</f>
-        <v>607.20000000000005</v>
+        <v>612.1</v>
       </c>
       <c r="D25" s="7">
         <f>BLS_T3_GOV!D24</f>
-        <v>612.1</v>
+        <v>615.5</v>
       </c>
       <c r="E25" s="7">
         <f>BLS_T3_GOV!E24</f>
-        <v>616.29999999999995</v>
+        <v>615.6</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>2.4945950440711684</v>
+        <v>2.2761256022595155</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8906,23 +8906,23 @@
       </c>
       <c r="B26" s="7">
         <f>BLS_T3_GOV!B25</f>
-        <v>423.2</v>
+        <v>425.7</v>
       </c>
       <c r="C26" s="7">
         <f>BLS_T3_GOV!C25</f>
-        <v>425</v>
+        <v>426.5</v>
       </c>
       <c r="D26" s="7">
         <f>BLS_T3_GOV!D25</f>
-        <v>426.5</v>
+        <v>428.1</v>
       </c>
       <c r="E26" s="7">
         <f>BLS_T3_GOV!E25</f>
-        <v>428.1</v>
+        <v>428.9</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1.1578449905482069</v>
+        <v>0.75170307728447128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -8931,23 +8931,23 @@
       </c>
       <c r="B27" s="7">
         <f>BLS_T3_GOV!B26</f>
-        <v>244.5</v>
+        <v>244.4</v>
       </c>
       <c r="C27" s="7">
         <f>BLS_T3_GOV!C26</f>
-        <v>245.6</v>
+        <v>245.2</v>
       </c>
       <c r="D27" s="7">
         <f>BLS_T3_GOV!D26</f>
-        <v>245.2</v>
+        <v>247.6</v>
       </c>
       <c r="E27" s="7">
         <f>BLS_T3_GOV!E26</f>
-        <v>245.3</v>
+        <v>246.9</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.32719836400818547</v>
+        <v>1.0229132569558042</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8956,23 +8956,23 @@
       </c>
       <c r="B28" s="7">
         <f>BLS_T3_GOV!B27</f>
-        <v>437.2</v>
+        <v>438.3</v>
       </c>
       <c r="C28" s="7">
         <f>BLS_T3_GOV!C27</f>
-        <v>430.3</v>
+        <v>438.9</v>
       </c>
       <c r="D28" s="7">
         <f>BLS_T3_GOV!D27</f>
-        <v>438.9</v>
+        <v>451.2</v>
       </c>
       <c r="E28" s="7">
         <f>BLS_T3_GOV!E27</f>
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>2.9277218664226945</v>
+        <v>1.5286333561487453</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -8981,23 +8981,23 @@
       </c>
       <c r="B29" s="7">
         <f>BLS_T3_GOV!B28</f>
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="C29" s="7">
         <f>BLS_T3_GOV!C28</f>
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="D29" s="7">
         <f>BLS_T3_GOV!D28</f>
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="E29" s="7">
         <f>BLS_T3_GOV!E28</f>
-        <v>92.3</v>
+        <v>92.6</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.76419213973799582</v>
+        <v>1.2021857923497192</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -9006,23 +9006,23 @@
       </c>
       <c r="B30" s="7">
         <f>BLS_T3_GOV!B29</f>
-        <v>174</v>
+        <v>170.5</v>
       </c>
       <c r="C30" s="7">
         <f>BLS_T3_GOV!C29</f>
-        <v>170.7</v>
+        <v>173.4</v>
       </c>
       <c r="D30" s="7">
         <f>BLS_T3_GOV!D29</f>
-        <v>173.4</v>
+        <v>171.4</v>
       </c>
       <c r="E30" s="7">
         <f>BLS_T3_GOV!E29</f>
-        <v>171.4</v>
+        <v>170.6</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4942528735632177</v>
+        <v>5.8651026392952943E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -9031,23 +9031,23 @@
       </c>
       <c r="B31" s="7">
         <f>BLS_T3_GOV!B30</f>
-        <v>159.19999999999999</v>
+        <v>159.6</v>
       </c>
       <c r="C31" s="7">
         <f>BLS_T3_GOV!C30</f>
-        <v>159.5</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="D31" s="7">
         <f>BLS_T3_GOV!D30</f>
-        <v>159.30000000000001</v>
+        <v>162.4</v>
       </c>
       <c r="E31" s="7">
         <f>BLS_T3_GOV!E30</f>
-        <v>160.69999999999999</v>
+        <v>162.5</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.94221105527638738</v>
+        <v>1.8170426065162948</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -9056,23 +9056,23 @@
       </c>
       <c r="B32" s="7">
         <f>BLS_T3_GOV!B31</f>
-        <v>90.1</v>
+        <v>92.2</v>
       </c>
       <c r="C32" s="7">
         <f>BLS_T3_GOV!C31</f>
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="D32" s="7">
         <f>BLS_T3_GOV!D31</f>
-        <v>90.5</v>
+        <v>91.4</v>
       </c>
       <c r="E32" s="7">
         <f>BLS_T3_GOV!E31</f>
-        <v>91.4</v>
+        <v>93.1</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>1.4428412874583962</v>
+        <v>0.9761388286333883</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -9081,15 +9081,15 @@
       </c>
       <c r="B33" s="7">
         <f>BLS_T3_GOV!B32</f>
-        <v>615.70000000000005</v>
+        <v>617.1</v>
       </c>
       <c r="C33" s="7">
         <f>BLS_T3_GOV!C32</f>
-        <v>609.9</v>
+        <v>610.29999999999995</v>
       </c>
       <c r="D33" s="7">
         <f>BLS_T3_GOV!D32</f>
-        <v>610.29999999999995</v>
+        <v>611.9</v>
       </c>
       <c r="E33" s="7">
         <f>BLS_T3_GOV!E32</f>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.47100860808837464</v>
+        <v>-0.69680764867932066</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -9106,23 +9106,23 @@
       </c>
       <c r="B34" s="7">
         <f>BLS_T3_GOV!B33</f>
-        <v>190.9</v>
+        <v>191.1</v>
       </c>
       <c r="C34" s="7">
         <f>BLS_T3_GOV!C33</f>
-        <v>189.2</v>
+        <v>184.5</v>
       </c>
       <c r="D34" s="7">
         <f>BLS_T3_GOV!D33</f>
-        <v>184.5</v>
+        <v>185.8</v>
       </c>
       <c r="E34" s="7">
         <f>BLS_T3_GOV!E33</f>
-        <v>185.5</v>
+        <v>187.6</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>-2.8287061288632787</v>
+        <v>-1.8315018315018361</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -9131,23 +9131,23 @@
       </c>
       <c r="B35" s="7">
         <f>BLS_T3_GOV!B34</f>
-        <v>1446.1</v>
+        <v>1446</v>
       </c>
       <c r="C35" s="7">
         <f>BLS_T3_GOV!C34</f>
-        <v>1449.5</v>
+        <v>1451.6</v>
       </c>
       <c r="D35" s="7">
         <f>BLS_T3_GOV!D34</f>
-        <v>1451.6</v>
+        <v>1455</v>
       </c>
       <c r="E35" s="7">
         <f>BLS_T3_GOV!E34</f>
-        <v>1454.4</v>
+        <v>1455.5</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.5739575409722919</v>
+        <v>0.65698478561548868</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -9156,23 +9156,23 @@
       </c>
       <c r="B36" s="7">
         <f>BLS_T3_GOV!B35</f>
-        <v>730.2</v>
+        <v>728.5</v>
       </c>
       <c r="C36" s="7">
         <f>BLS_T3_GOV!C35</f>
-        <v>728.6</v>
+        <v>737.7</v>
       </c>
       <c r="D36" s="7">
         <f>BLS_T3_GOV!D35</f>
-        <v>737.7</v>
+        <v>739.6</v>
       </c>
       <c r="E36" s="7">
         <f>BLS_T3_GOV!E35</f>
-        <v>739.6</v>
+        <v>734.6</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>1.2873185428649681</v>
+        <v>0.83733699382293469</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -9181,23 +9181,23 @@
       </c>
       <c r="B37" s="7">
         <f>BLS_T3_GOV!B36</f>
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="C37" s="7">
         <f>BLS_T3_GOV!C36</f>
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="D37" s="7">
         <f>BLS_T3_GOV!D36</f>
-        <v>83.5</v>
+        <v>83.1</v>
       </c>
       <c r="E37" s="7">
         <f>BLS_T3_GOV!E36</f>
-        <v>83.1</v>
+        <v>83.5</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>-0.59808612440190867</v>
+        <v>-0.23894862604539879</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -9206,23 +9206,23 @@
       </c>
       <c r="B38" s="7">
         <f>BLS_T3_GOV!B37</f>
-        <v>778.3</v>
+        <v>780</v>
       </c>
       <c r="C38" s="7">
         <f>BLS_T3_GOV!C37</f>
-        <v>773.5</v>
+        <v>779</v>
       </c>
       <c r="D38" s="7">
         <f>BLS_T3_GOV!D37</f>
-        <v>779</v>
+        <v>781.7</v>
       </c>
       <c r="E38" s="7">
         <f>BLS_T3_GOV!E37</f>
-        <v>783.1</v>
+        <v>775.8</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.61672876782732367</v>
+        <v>-0.53846153846154321</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -9231,23 +9231,23 @@
       </c>
       <c r="B39" s="7">
         <f>BLS_T3_GOV!B38</f>
-        <v>353.6</v>
+        <v>353.9</v>
       </c>
       <c r="C39" s="7">
         <f>BLS_T3_GOV!C38</f>
-        <v>353.6</v>
+        <v>354</v>
       </c>
       <c r="D39" s="7">
         <f>BLS_T3_GOV!D38</f>
-        <v>354</v>
+        <v>354.5</v>
       </c>
       <c r="E39" s="7">
         <f>BLS_T3_GOV!E38</f>
-        <v>354.5</v>
+        <v>353.9</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.25452488687782715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -9256,23 +9256,23 @@
       </c>
       <c r="B40" s="7">
         <f>BLS_T3_GOV!B39</f>
-        <v>308.39999999999998</v>
+        <v>305.7</v>
       </c>
       <c r="C40" s="7">
         <f>BLS_T3_GOV!C39</f>
-        <v>309.60000000000002</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="D40" s="7">
         <f>BLS_T3_GOV!D39</f>
-        <v>310.60000000000002</v>
+        <v>312.8</v>
       </c>
       <c r="E40" s="7">
         <f>BLS_T3_GOV!E39</f>
-        <v>309.8</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.45395590142673914</v>
+        <v>1.2757605495584023</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -9285,19 +9285,19 @@
       </c>
       <c r="C41" s="7">
         <f>BLS_T3_GOV!C40</f>
-        <v>700.7</v>
+        <v>694.9</v>
       </c>
       <c r="D41" s="7">
         <f>BLS_T3_GOV!D40</f>
-        <v>694.9</v>
+        <v>705.7</v>
       </c>
       <c r="E41" s="7">
         <f>BLS_T3_GOV!E40</f>
-        <v>697.4</v>
+        <v>701.3</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8990012660008437</v>
+        <v>-1.3504009002672679</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="B42" s="7">
         <f>BLS_T3_GOV!B41</f>
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7">
         <f>BLS_T3_GOV!C41</f>
@@ -9314,15 +9314,15 @@
       </c>
       <c r="D42" s="7">
         <f>BLS_T3_GOV!D41</f>
-        <v>60.6</v>
+        <v>60.9</v>
       </c>
       <c r="E42" s="7">
         <f>BLS_T3_GOV!E41</f>
-        <v>60.9</v>
+        <v>60.4</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0.16447368421053099</v>
+        <v>-0.98360655737704805</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -9331,23 +9331,23 @@
       </c>
       <c r="B43" s="7">
         <f>BLS_T3_GOV!B42</f>
-        <v>367.4</v>
+        <v>364.6</v>
       </c>
       <c r="C43" s="7">
         <f>BLS_T3_GOV!C42</f>
-        <v>365.6</v>
+        <v>366</v>
       </c>
       <c r="D43" s="7">
         <f>BLS_T3_GOV!D42</f>
-        <v>366</v>
+        <v>368.5</v>
       </c>
       <c r="E43" s="7">
         <f>BLS_T3_GOV!E42</f>
-        <v>368.2</v>
+        <v>370.2</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.21774632553075435</v>
+        <v>1.5359297860669141</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -9356,15 +9356,15 @@
       </c>
       <c r="B44" s="7">
         <f>BLS_T3_GOV!B43</f>
-        <v>79.099999999999994</v>
+        <v>79</v>
       </c>
       <c r="C44" s="7">
         <f>BLS_T3_GOV!C43</f>
-        <v>80.5</v>
+        <v>80.8</v>
       </c>
       <c r="D44" s="7">
         <f>BLS_T3_GOV!D43</f>
-        <v>80.8</v>
+        <v>80.5</v>
       </c>
       <c r="E44" s="7">
         <f>BLS_T3_GOV!E43</f>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>1.5170670037926604</v>
+        <v>1.6455696202531511</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -9381,23 +9381,23 @@
       </c>
       <c r="B45" s="7">
         <f>BLS_T3_GOV!B44</f>
-        <v>427.1</v>
+        <v>427.5</v>
       </c>
       <c r="C45" s="7">
         <f>BLS_T3_GOV!C44</f>
-        <v>433.1</v>
+        <v>433.5</v>
       </c>
       <c r="D45" s="7">
         <f>BLS_T3_GOV!D44</f>
-        <v>433.5</v>
+        <v>434.3</v>
       </c>
       <c r="E45" s="7">
         <f>BLS_T3_GOV!E44</f>
-        <v>434.3</v>
+        <v>433.1</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>1.685787871692801</v>
+        <v>1.3099415204678388</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -9406,23 +9406,23 @@
       </c>
       <c r="B46" s="7">
         <f>BLS_T3_GOV!B45</f>
-        <v>1930.9</v>
+        <v>1931.4</v>
       </c>
       <c r="C46" s="7">
         <f>BLS_T3_GOV!C45</f>
-        <v>1953.2</v>
+        <v>1959.2</v>
       </c>
       <c r="D46" s="7">
         <f>BLS_T3_GOV!D45</f>
-        <v>1959.2</v>
+        <v>1958.1</v>
       </c>
       <c r="E46" s="7">
         <f>BLS_T3_GOV!E45</f>
-        <v>1958.3</v>
+        <v>1959.2</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>1.4190273965508204</v>
+        <v>1.439370404887641</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -9431,23 +9431,23 @@
       </c>
       <c r="B47" s="7">
         <f>BLS_T3_GOV!B46</f>
-        <v>238.9</v>
+        <v>238.8</v>
       </c>
       <c r="C47" s="7">
         <f>BLS_T3_GOV!C46</f>
-        <v>244.1</v>
+        <v>242.3</v>
       </c>
       <c r="D47" s="7">
         <f>BLS_T3_GOV!D46</f>
-        <v>242.3</v>
+        <v>243.1</v>
       </c>
       <c r="E47" s="7">
         <f>BLS_T3_GOV!E46</f>
-        <v>243.1</v>
+        <v>242.1</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>1.7580577647551276</v>
+        <v>1.3819095477386911</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -9456,23 +9456,23 @@
       </c>
       <c r="B48" s="7">
         <f>BLS_T3_GOV!B47</f>
-        <v>57.6</v>
+        <v>56.4</v>
       </c>
       <c r="C48" s="7">
         <f>BLS_T3_GOV!C47</f>
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="D48" s="7">
         <f>BLS_T3_GOV!D47</f>
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="E48" s="7">
         <f>BLS_T3_GOV!E47</f>
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9513888888888951</v>
+        <v>-0.35460992907800915</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -9481,23 +9481,23 @@
       </c>
       <c r="B49" s="7">
         <f>BLS_T3_GOV!B48</f>
-        <v>714.4</v>
+        <v>716</v>
       </c>
       <c r="C49" s="7">
         <f>BLS_T3_GOV!C48</f>
-        <v>714.5</v>
+        <v>714.7</v>
       </c>
       <c r="D49" s="7">
         <f>BLS_T3_GOV!D48</f>
-        <v>714.7</v>
+        <v>714.6</v>
       </c>
       <c r="E49" s="7">
         <f>BLS_T3_GOV!E48</f>
-        <v>715.8</v>
+        <v>714.7</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.19596864501678635</v>
+        <v>-0.18156424581005082</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -9506,23 +9506,23 @@
       </c>
       <c r="B50" s="7">
         <f>BLS_T3_GOV!B49</f>
-        <v>573.29999999999995</v>
+        <v>574.29999999999995</v>
       </c>
       <c r="C50" s="7">
         <f>BLS_T3_GOV!C49</f>
-        <v>582.20000000000005</v>
+        <v>584.6</v>
       </c>
       <c r="D50" s="7">
         <f>BLS_T3_GOV!D49</f>
-        <v>584.6</v>
+        <v>591.5</v>
       </c>
       <c r="E50" s="7">
         <f>BLS_T3_GOV!E49</f>
-        <v>589.9</v>
+        <v>588.6</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>2.8955171812314662</v>
+        <v>2.4899878112484952</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -9531,23 +9531,23 @@
       </c>
       <c r="B51" s="7">
         <f>BLS_T3_GOV!B50</f>
-        <v>155.4</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="C51" s="7">
         <f>BLS_T3_GOV!C50</f>
-        <v>153.9</v>
+        <v>154.1</v>
       </c>
       <c r="D51" s="7">
         <f>BLS_T3_GOV!D50</f>
-        <v>154.1</v>
+        <v>153.5</v>
       </c>
       <c r="E51" s="7">
         <f>BLS_T3_GOV!E50</f>
-        <v>153.5</v>
+        <v>154.1</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2226512226512276</v>
+        <v>-1.0276172125883054</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -9556,23 +9556,23 @@
       </c>
       <c r="B52" s="7">
         <f>BLS_T3_GOV!B51</f>
-        <v>412.8</v>
+        <v>414.6</v>
       </c>
       <c r="C52" s="7">
         <f>BLS_T3_GOV!C51</f>
-        <v>417.5</v>
+        <v>410.8</v>
       </c>
       <c r="D52" s="7">
         <f>BLS_T3_GOV!D51</f>
-        <v>410.8</v>
+        <v>417.1</v>
       </c>
       <c r="E52" s="7">
         <f>BLS_T3_GOV!E51</f>
-        <v>414.3</v>
+        <v>413.5</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.36337209302326201</v>
+        <v>-0.26531596719729933</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -9585,19 +9585,19 @@
       </c>
       <c r="C53" s="7">
         <f>BLS_T3_GOV!C52</f>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="D53" s="7">
         <f>BLS_T3_GOV!D52</f>
-        <v>70</v>
+        <v>69.8</v>
       </c>
       <c r="E53" s="7">
         <f>BLS_T3_GOV!E52</f>
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9607843137254943</v>
+        <v>-2.3809523809523836</v>
       </c>
     </row>
   </sheetData>
@@ -9609,8 +9609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9639,16 +9639,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C2" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D2" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E2" s="7">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9659,13 +9659,13 @@
         <v>6.7</v>
       </c>
       <c r="C3" s="7">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D3" s="7">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9673,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C4" s="7">
         <v>5.0999999999999996</v>
@@ -9682,7 +9682,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E4" s="7">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9699,7 +9699,7 @@
         <v>3.4</v>
       </c>
       <c r="E5" s="7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -9713,10 +9713,10 @@
         <v>4.7</v>
       </c>
       <c r="D6" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E6" s="7">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9724,13 +9724,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C7" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="D7" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E7" s="7">
         <v>2.4</v>
@@ -9741,33 +9741,33 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C8" s="7">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C9" s="7">
         <v>4.7</v>
       </c>
       <c r="D9" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E9" s="7">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9778,10 +9778,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D10" s="7">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="E10" s="7">
         <v>6.4</v>
@@ -9795,13 +9795,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C11" s="7">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D11" s="7">
         <v>4.0999999999999996</v>
       </c>
       <c r="E11" s="7">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9812,10 +9812,10 @@
         <v>5.3</v>
       </c>
       <c r="C12" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D12" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="E12" s="7">
         <v>4.7</v>
@@ -9829,13 +9829,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="D13" s="7">
         <v>2.7</v>
       </c>
-      <c r="D13" s="7">
-        <v>2.8</v>
-      </c>
       <c r="E13" s="7">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9846,13 +9846,13 @@
         <v>3.8</v>
       </c>
       <c r="C14" s="7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D14" s="7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9863,13 +9863,13 @@
         <v>5.8</v>
       </c>
       <c r="C15" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D15" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E15" s="7">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9877,16 +9877,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C16" s="7">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E16" s="7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9897,13 +9897,13 @@
         <v>3.7</v>
       </c>
       <c r="C17" s="7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D17" s="7">
         <v>3.2</v>
       </c>
       <c r="E17" s="7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9911,7 +9911,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C18" s="7">
         <v>3.7</v>
@@ -9920,7 +9920,7 @@
         <v>3.7</v>
       </c>
       <c r="E18" s="7">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -9931,13 +9931,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D19" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="E19" s="7">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -9945,16 +9945,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C20" s="7">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="D20" s="7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="E20" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -9965,13 +9965,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="7">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D21" s="7">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E21" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -9979,16 +9979,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C22" s="7">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D22" s="7">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E22" s="7">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -9996,16 +9996,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C23" s="7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D23" s="7">
         <v>4.3</v>
       </c>
       <c r="E23" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10016,13 +10016,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C24" s="7">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D24" s="7">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E24" s="7">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10030,7 +10030,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C25" s="7">
         <v>3.7</v>
@@ -10039,7 +10039,7 @@
         <v>3.7</v>
       </c>
       <c r="E25" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -10047,16 +10047,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="7">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C26" s="7">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E26" s="7">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10067,13 +10067,13 @@
         <v>4.8</v>
       </c>
       <c r="C27" s="7">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D27" s="7">
         <v>3.8</v>
       </c>
       <c r="E27" s="7">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10104,7 +10104,7 @@
         <v>2.9</v>
       </c>
       <c r="D29" s="7">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E29" s="7">
         <v>2.8</v>
@@ -10115,16 +10115,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="7">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C30" s="7">
         <v>4.7</v>
       </c>
       <c r="D30" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E30" s="7">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -10138,10 +10138,10 @@
         <v>2.9</v>
       </c>
       <c r="D31" s="7">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E31" s="7">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -10149,16 +10149,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="7">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C32" s="7">
         <v>4.0999999999999996</v>
       </c>
       <c r="D32" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E32" s="7">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10169,10 +10169,10 @@
         <v>6.8</v>
       </c>
       <c r="C33" s="7">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D33" s="7">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E33" s="7">
         <v>6.3</v>
@@ -10186,13 +10186,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C34" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D34" s="7">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E34" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10200,13 +10200,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="C35" s="7">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D35" s="7">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E35" s="7">
         <v>4.0999999999999996</v>
@@ -10220,13 +10220,13 @@
         <v>3.1</v>
       </c>
       <c r="C36" s="7">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D36" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="E36" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -10237,13 +10237,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C37" s="7">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E37" s="7">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -10257,10 +10257,10 @@
         <v>4.3</v>
       </c>
       <c r="D38" s="7">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E38" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -10268,16 +10268,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C39" s="7">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D39" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E39" s="7">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -10294,7 +10294,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="7">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -10302,13 +10302,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C41" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D41" s="7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E41" s="7">
         <v>4.3</v>
@@ -10319,16 +10319,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="7">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C42" s="7">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D42" s="7">
         <v>3.9</v>
       </c>
       <c r="E42" s="7">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -10339,13 +10339,13 @@
         <v>2.9</v>
       </c>
       <c r="C43" s="7">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D43" s="7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E43" s="7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -10356,13 +10356,13 @@
         <v>4.8</v>
       </c>
       <c r="C44" s="7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D44" s="7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="E44" s="7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -10373,13 +10373,13 @@
         <v>4.7</v>
       </c>
       <c r="C45" s="7">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D45" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E45" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -10387,13 +10387,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C46" s="7">
         <v>3.4</v>
       </c>
-      <c r="C46" s="7">
-        <v>3.2</v>
-      </c>
       <c r="D46" s="7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E46" s="7">
         <v>3.5</v>
@@ -10404,16 +10404,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C47" s="7">
         <v>3.2</v>
       </c>
       <c r="D47" s="7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E47" s="7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -10424,10 +10424,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C48" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="D48" s="7">
         <v>3.8</v>
-      </c>
-      <c r="D48" s="7">
-        <v>3.7</v>
       </c>
       <c r="E48" s="7">
         <v>3.8</v>
@@ -10438,7 +10438,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C49" s="7">
         <v>4.5</v>
@@ -10447,7 +10447,7 @@
         <v>4.5</v>
       </c>
       <c r="E49" s="7">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -10458,13 +10458,13 @@
         <v>6</v>
       </c>
       <c r="C50" s="7">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D50" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="E50" s="7">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -10478,10 +10478,10 @@
         <v>3.1</v>
       </c>
       <c r="D51" s="7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E51" s="7">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -10489,13 +10489,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="7">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C52" s="7">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D52" s="7">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E52" s="7">
         <v>4</v>
@@ -10512,7 +10512,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10542,16 +10542,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="37">
-        <v>1976.7</v>
+        <v>1977.9</v>
       </c>
       <c r="C2" s="37">
-        <v>2003</v>
+        <v>2009.8</v>
       </c>
       <c r="D2" s="37">
-        <v>2009.8</v>
+        <v>2007.7</v>
       </c>
       <c r="E2" s="37">
-        <v>2008.1</v>
+        <v>2004.8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10559,16 +10559,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="37">
+        <v>331.8</v>
+      </c>
+      <c r="C3" s="37">
+        <v>332.4</v>
+      </c>
+      <c r="D3" s="37">
+        <v>331.7</v>
+      </c>
+      <c r="E3" s="37">
         <v>332.1</v>
-      </c>
-      <c r="C3" s="37">
-        <v>330.9</v>
-      </c>
-      <c r="D3" s="37">
-        <v>332.4</v>
-      </c>
-      <c r="E3" s="37">
-        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10576,16 +10576,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="37">
-        <v>2712</v>
+        <v>2716.4</v>
       </c>
       <c r="C4" s="37">
-        <v>2745.2</v>
+        <v>2751.1</v>
       </c>
       <c r="D4" s="37">
+        <v>2743.9</v>
+      </c>
+      <c r="E4" s="37">
         <v>2751.1</v>
-      </c>
-      <c r="E4" s="37">
-        <v>2745.3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -10593,33 +10593,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="37">
-        <v>1227.0999999999999</v>
+        <v>1228.5</v>
       </c>
       <c r="C5" s="37">
-        <v>1245.0999999999999</v>
+        <v>1253.7</v>
       </c>
       <c r="D5" s="37">
-        <v>1253.7</v>
+        <v>1259.0999999999999</v>
       </c>
       <c r="E5" s="37">
-        <v>1259.8</v>
-      </c>
+        <v>1251.9000000000001</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="37">
-        <v>16507.7</v>
+        <v>16512.7</v>
       </c>
       <c r="C6" s="37">
-        <v>16704.7</v>
+        <v>16701.5</v>
       </c>
       <c r="D6" s="37">
-        <v>16701.5</v>
+        <v>16786</v>
       </c>
       <c r="E6" s="37">
-        <v>16784.099999999999</v>
+        <v>16777.8</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -10631,16 +10635,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="37">
-        <v>2605</v>
+        <v>2609.5</v>
       </c>
       <c r="C7" s="37">
-        <v>2640.5</v>
+        <v>2644.8</v>
       </c>
       <c r="D7" s="37">
-        <v>2644.8</v>
+        <v>2650.9</v>
       </c>
       <c r="E7" s="37">
-        <v>2648.4</v>
+        <v>2655.3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10648,16 +10652,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="37">
-        <v>1680.6</v>
+        <v>1681.2</v>
       </c>
       <c r="C8" s="37">
+        <v>1692.8</v>
+      </c>
+      <c r="D8" s="37">
+        <v>1691.1</v>
+      </c>
+      <c r="E8" s="37">
         <v>1687.2</v>
-      </c>
-      <c r="D8" s="37">
-        <v>1692.8</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1692.2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10668,13 +10672,13 @@
         <v>454.5</v>
       </c>
       <c r="C9" s="37">
-        <v>456</v>
+        <v>454.7</v>
       </c>
       <c r="D9" s="37">
-        <v>454.7</v>
+        <v>456.3</v>
       </c>
       <c r="E9" s="37">
-        <v>455.8</v>
+        <v>457.3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -10682,16 +10686,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="37">
-        <v>778.4</v>
+        <v>781.3</v>
       </c>
       <c r="C10" s="37">
-        <v>791.1</v>
+        <v>792.4</v>
       </c>
       <c r="D10" s="37">
-        <v>792.4</v>
+        <v>796.5</v>
       </c>
       <c r="E10" s="37">
-        <v>797.1</v>
+        <v>794.4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10699,16 +10703,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="37">
-        <v>8408.1</v>
+        <v>8428.5</v>
       </c>
       <c r="C11" s="37">
-        <v>8583.2999999999993</v>
+        <v>8601.6</v>
       </c>
       <c r="D11" s="37">
-        <v>8601.6</v>
+        <v>8629.7999999999993</v>
       </c>
       <c r="E11" s="37">
-        <v>8634.2999999999993</v>
+        <v>8649.9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -10716,16 +10720,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="37">
-        <v>4383.6000000000004</v>
+        <v>4393.7</v>
       </c>
       <c r="C12" s="37">
-        <v>4468.6000000000004</v>
+        <v>4493.8999999999996</v>
       </c>
       <c r="D12" s="37">
-        <v>4493.8999999999996</v>
+        <v>4490.3999999999996</v>
       </c>
       <c r="E12" s="37">
-        <v>4479.8</v>
+        <v>4510.2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -10733,16 +10737,16 @@
         <v>118</v>
       </c>
       <c r="B13" s="37">
-        <v>648.6</v>
+        <v>651.9</v>
       </c>
       <c r="C13" s="37">
-        <v>653.9</v>
+        <v>654.29999999999995</v>
       </c>
       <c r="D13" s="37">
-        <v>654.29999999999995</v>
+        <v>658.2</v>
       </c>
       <c r="E13" s="37">
-        <v>656.7</v>
+        <v>655.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10750,16 +10754,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="37">
-        <v>697.4</v>
+        <v>698.9</v>
       </c>
       <c r="C14" s="37">
         <v>708.8</v>
       </c>
       <c r="D14" s="37">
-        <v>708.8</v>
+        <v>711.7</v>
       </c>
       <c r="E14" s="37">
-        <v>713.1</v>
+        <v>714.1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10767,16 +10771,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="37">
-        <v>6015.8</v>
+        <v>6020.2</v>
       </c>
       <c r="C15" s="37">
-        <v>6040.5</v>
+        <v>6046.9</v>
       </c>
       <c r="D15" s="37">
-        <v>6046.9</v>
+        <v>6047.5</v>
       </c>
       <c r="E15" s="37">
-        <v>6049</v>
+        <v>6043.8</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10784,16 +10788,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="37">
-        <v>3088</v>
+        <v>3094.2</v>
       </c>
       <c r="C16" s="37">
-        <v>3110.6</v>
+        <v>3118.1</v>
       </c>
       <c r="D16" s="37">
-        <v>3118.1</v>
+        <v>3126.6</v>
       </c>
       <c r="E16" s="37">
-        <v>3115.3</v>
+        <v>3125.8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -10801,16 +10805,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="37">
-        <v>1572.4</v>
+        <v>1572.9</v>
       </c>
       <c r="C17" s="37">
-        <v>1580.6</v>
+        <v>1586.7</v>
       </c>
       <c r="D17" s="37">
-        <v>1586.7</v>
+        <v>1587.8</v>
       </c>
       <c r="E17" s="37">
-        <v>1588.3</v>
+        <v>1590.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -10818,16 +10822,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="37">
-        <v>1411.9</v>
+        <v>1410.9</v>
       </c>
       <c r="C18" s="37">
-        <v>1406.9</v>
+        <v>1399.8</v>
       </c>
       <c r="D18" s="37">
-        <v>1399.8</v>
+        <v>1401.1</v>
       </c>
       <c r="E18" s="37">
-        <v>1401.1</v>
+        <v>1401.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -10835,16 +10839,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="37">
-        <v>1920.6</v>
+        <v>1916.8</v>
       </c>
       <c r="C19" s="37">
-        <v>1940</v>
+        <v>1936.2</v>
       </c>
       <c r="D19" s="37">
-        <v>1936.2</v>
+        <v>1939</v>
       </c>
       <c r="E19" s="37">
-        <v>1943.9</v>
+        <v>1947.3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -10852,16 +10856,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="37">
-        <v>1970.4</v>
+        <v>1961</v>
       </c>
       <c r="C20" s="37">
-        <v>1984.4</v>
+        <v>1988.1</v>
       </c>
       <c r="D20" s="37">
-        <v>1988.1</v>
+        <v>1981.8</v>
       </c>
       <c r="E20" s="37">
-        <v>1982.2</v>
+        <v>1985.2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -10872,13 +10876,13 @@
         <v>618.1</v>
       </c>
       <c r="C21" s="37">
-        <v>620.5</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="D21" s="37">
-        <v>623.29999999999995</v>
+        <v>624.5</v>
       </c>
       <c r="E21" s="37">
-        <v>624.4</v>
+        <v>620.79999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -10886,16 +10890,16 @@
         <v>119</v>
       </c>
       <c r="B22" s="37">
-        <v>2710.5</v>
+        <v>2714.7</v>
       </c>
       <c r="C22" s="37">
-        <v>2744.1</v>
+        <v>2760.7</v>
       </c>
       <c r="D22" s="37">
-        <v>2760.7</v>
+        <v>2764.1</v>
       </c>
       <c r="E22" s="37">
-        <v>2761.5</v>
+        <v>2778.3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -10903,16 +10907,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="37">
-        <v>3572.5</v>
+        <v>3573.8</v>
       </c>
       <c r="C23" s="37">
-        <v>3607</v>
+        <v>3617.9</v>
       </c>
       <c r="D23" s="37">
-        <v>3617.9</v>
+        <v>3620.4</v>
       </c>
       <c r="E23" s="37">
-        <v>3617.7</v>
+        <v>3631.2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10920,16 +10924,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="37">
-        <v>4331.5</v>
+        <v>4332.3</v>
       </c>
       <c r="C24" s="37">
-        <v>4383.3</v>
+        <v>4386.1000000000004</v>
       </c>
       <c r="D24" s="37">
-        <v>4386.1000000000004</v>
+        <v>4391.1000000000004</v>
       </c>
       <c r="E24" s="37">
-        <v>4393.8999999999996</v>
+        <v>4392.6000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10937,16 +10941,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="37">
-        <v>2899.4</v>
+        <v>2904.1</v>
       </c>
       <c r="C25" s="37">
-        <v>2942.8</v>
+        <v>2952.1</v>
       </c>
       <c r="D25" s="37">
-        <v>2952.1</v>
+        <v>2954.7</v>
       </c>
       <c r="E25" s="37">
-        <v>2959.8</v>
+        <v>2948.1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -10954,16 +10958,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="37">
-        <v>1147.3</v>
+        <v>1146.5999999999999</v>
       </c>
       <c r="C26" s="37">
-        <v>1144.5999999999999</v>
+        <v>1151.3</v>
       </c>
       <c r="D26" s="37">
-        <v>1151.3</v>
+        <v>1153.5</v>
       </c>
       <c r="E26" s="37">
-        <v>1153.0999999999999</v>
+        <v>1153.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10971,16 +10975,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="37">
-        <v>2844.9</v>
+        <v>2848.3</v>
       </c>
       <c r="C27" s="37">
-        <v>2874.4</v>
+        <v>2889</v>
       </c>
       <c r="D27" s="37">
-        <v>2889</v>
+        <v>2900.4</v>
       </c>
       <c r="E27" s="37">
-        <v>2903.1</v>
+        <v>2900.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10988,16 +10992,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="37">
-        <v>467.8</v>
+        <v>467.6</v>
       </c>
       <c r="C28" s="37">
-        <v>474.4</v>
+        <v>473.7</v>
       </c>
       <c r="D28" s="37">
-        <v>473.7</v>
+        <v>473.2</v>
       </c>
       <c r="E28" s="37">
-        <v>473</v>
+        <v>475.2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11005,16 +11009,16 @@
         <v>120</v>
       </c>
       <c r="B29" s="37">
-        <v>1016.4</v>
+        <v>1013.6</v>
       </c>
       <c r="C29" s="37">
-        <v>1024.5</v>
+        <v>1029.8</v>
       </c>
       <c r="D29" s="37">
-        <v>1029.8</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="E29" s="37">
-        <v>1029</v>
+        <v>1027.0999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11022,118 +11026,118 @@
         <v>28</v>
       </c>
       <c r="B30" s="37">
-        <v>1307</v>
+        <v>1309.0999999999999</v>
       </c>
       <c r="C30" s="37">
-        <v>1331.5</v>
+        <v>1337.4</v>
       </c>
       <c r="D30" s="37">
-        <v>1337.4</v>
+        <v>1345.2</v>
       </c>
       <c r="E30" s="37">
-        <v>1342.7</v>
+        <v>1347.9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="37">
-        <v>668</v>
-      </c>
-      <c r="C31" s="37">
-        <v>675.2</v>
-      </c>
-      <c r="D31" s="37">
+      <c r="B31" s="36">
+        <v>670.3</v>
+      </c>
+      <c r="C31" s="36">
         <v>676.9</v>
       </c>
-      <c r="E31" s="37">
-        <v>679.9</v>
+      <c r="D31" s="36">
+        <v>680.4</v>
+      </c>
+      <c r="E31" s="36">
+        <v>684.6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="37">
-        <v>4085</v>
-      </c>
-      <c r="C32" s="37">
-        <v>4107.6000000000004</v>
-      </c>
-      <c r="D32" s="37">
+      <c r="B32" s="36">
+        <v>4091.3</v>
+      </c>
+      <c r="C32" s="36">
         <v>4122.5</v>
       </c>
-      <c r="E32" s="37">
-        <v>4132.3</v>
+      <c r="D32" s="36">
+        <v>4129.2</v>
+      </c>
+      <c r="E32" s="36">
+        <v>4129.3999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="37">
-        <v>830.2</v>
-      </c>
-      <c r="C33" s="37">
-        <v>837.7</v>
-      </c>
-      <c r="D33" s="37">
+      <c r="B33" s="36">
+        <v>830.4</v>
+      </c>
+      <c r="C33" s="36">
         <v>834.3</v>
       </c>
-      <c r="E33" s="37">
-        <v>832.2</v>
+      <c r="D33" s="36">
+        <v>833.5</v>
+      </c>
+      <c r="E33" s="36">
+        <v>839.2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="37">
-        <v>9416.7000000000007</v>
-      </c>
-      <c r="C34" s="37">
-        <v>9504.7999999999993</v>
-      </c>
-      <c r="D34" s="37">
+      <c r="B34" s="36">
+        <v>9421.4</v>
+      </c>
+      <c r="C34" s="36">
         <v>9533.2000000000007</v>
       </c>
-      <c r="E34" s="37">
-        <v>9554.7999999999993</v>
+      <c r="D34" s="36">
+        <v>9547.7999999999993</v>
+      </c>
+      <c r="E34" s="36">
+        <v>9550</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="37">
-        <v>4350</v>
-      </c>
-      <c r="C35" s="37">
-        <v>4394.3</v>
-      </c>
-      <c r="D35" s="37">
+      <c r="B35" s="36">
+        <v>4352.5</v>
+      </c>
+      <c r="C35" s="36">
         <v>4405.6000000000004</v>
       </c>
-      <c r="E35" s="37">
-        <v>4414.3999999999996</v>
+      <c r="D35" s="36">
+        <v>4414.6000000000004</v>
+      </c>
+      <c r="E35" s="36">
+        <v>4423</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="37">
-        <v>434.8</v>
-      </c>
-      <c r="C36" s="37">
+      <c r="B36" s="36">
+        <v>435.1</v>
+      </c>
+      <c r="C36" s="36">
         <v>439.6</v>
       </c>
-      <c r="D36" s="37">
-        <v>439.6</v>
-      </c>
-      <c r="E36" s="37">
-        <v>441.4</v>
+      <c r="D36" s="36">
+        <v>441.3</v>
+      </c>
+      <c r="E36" s="36">
+        <v>440.8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -11141,16 +11145,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="36">
-        <v>5490.6</v>
+        <v>5488.1</v>
       </c>
       <c r="C37" s="36">
-        <v>5517.3</v>
+        <v>5536.5</v>
       </c>
       <c r="D37" s="36">
-        <v>5536.5</v>
+        <v>5540</v>
       </c>
       <c r="E37" s="36">
-        <v>5538.1</v>
+        <v>5545.2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -11158,16 +11162,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="36">
-        <v>1648.8</v>
+        <v>1649.1</v>
       </c>
       <c r="C38" s="36">
-        <v>1651.8</v>
+        <v>1656.8</v>
       </c>
       <c r="D38" s="36">
-        <v>1656.8</v>
+        <v>1665.1</v>
       </c>
       <c r="E38" s="36">
-        <v>1667</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -11175,16 +11179,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="36">
-        <v>1832.7</v>
+        <v>1836.5</v>
       </c>
       <c r="C39" s="36">
-        <v>1871.5</v>
+        <v>1880.2</v>
       </c>
       <c r="D39" s="36">
-        <v>1880.2</v>
+        <v>1887.6</v>
       </c>
       <c r="E39" s="36">
-        <v>1886.1</v>
+        <v>1878.1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -11192,16 +11196,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="36">
-        <v>5892.2</v>
+        <v>5894.3</v>
       </c>
       <c r="C40" s="36">
-        <v>5930.3</v>
+        <v>5924.8</v>
       </c>
       <c r="D40" s="36">
-        <v>5924.8</v>
+        <v>5961.7</v>
       </c>
       <c r="E40" s="36">
-        <v>5953.8</v>
+        <v>5953.7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -11209,16 +11213,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="36">
-        <v>490.7</v>
+        <v>490.4</v>
       </c>
       <c r="C41" s="36">
-        <v>496.4</v>
+        <v>496.1</v>
       </c>
       <c r="D41" s="36">
-        <v>496.1</v>
+        <v>499.7</v>
       </c>
       <c r="E41" s="36">
-        <v>499.2</v>
+        <v>499.7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -11226,33 +11230,33 @@
         <v>40</v>
       </c>
       <c r="B42" s="36">
-        <v>2062.1999999999998</v>
+        <v>2059.3000000000002</v>
       </c>
       <c r="C42" s="36">
-        <v>2079.5</v>
+        <v>2084.3000000000002</v>
       </c>
       <c r="D42" s="36">
-        <v>2084.3000000000002</v>
+        <v>2088.6999999999998</v>
       </c>
       <c r="E42" s="36">
-        <v>2092</v>
+        <v>2094.9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="36">
-        <v>433.8</v>
-      </c>
-      <c r="C43" s="36">
-        <v>437.1</v>
-      </c>
-      <c r="D43" s="36">
+      <c r="B43" s="7">
+        <v>433.5</v>
+      </c>
+      <c r="C43" s="7">
         <v>435.9</v>
       </c>
-      <c r="E43" s="36">
-        <v>435.4</v>
+      <c r="D43" s="7">
+        <v>435.7</v>
+      </c>
+      <c r="E43" s="7">
+        <v>436.8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -11260,16 +11264,16 @@
         <v>122</v>
       </c>
       <c r="B44" s="36">
-        <v>2971.8</v>
+        <v>2975.4</v>
       </c>
       <c r="C44" s="36">
-        <v>3012.3</v>
+        <v>3016.2</v>
       </c>
       <c r="D44" s="36">
-        <v>3016.2</v>
+        <v>3019.4</v>
       </c>
       <c r="E44" s="36">
-        <v>3020.9</v>
+        <v>3027.6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -11277,16 +11281,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="36">
-        <v>12032.9</v>
+        <v>12035.3</v>
       </c>
       <c r="C45" s="36">
-        <v>12266.1</v>
+        <v>12306.7</v>
       </c>
       <c r="D45" s="36">
-        <v>12306.7</v>
+        <v>12328.4</v>
       </c>
       <c r="E45" s="36">
-        <v>12326.3</v>
+        <v>12333.9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -11294,16 +11298,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="36">
-        <v>1432.4</v>
+        <v>1434.7</v>
       </c>
       <c r="C46" s="36">
-        <v>1469.7</v>
+        <v>1468.9</v>
       </c>
       <c r="D46" s="36">
-        <v>1468.9</v>
+        <v>1468.4</v>
       </c>
       <c r="E46" s="36">
-        <v>1468.7</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -11311,16 +11315,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>315.89999999999998</v>
+        <v>314.3</v>
       </c>
       <c r="C47" s="7">
-        <v>313.89999999999998</v>
+        <v>315</v>
       </c>
       <c r="D47" s="7">
-        <v>315</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="E47" s="7">
-        <v>316.7</v>
+        <v>316.2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -11328,16 +11332,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="36">
-        <v>3915.6</v>
+        <v>3922.5</v>
       </c>
       <c r="C48" s="36">
-        <v>3952.5</v>
+        <v>3967.6</v>
       </c>
       <c r="D48" s="36">
-        <v>3967.6</v>
+        <v>3979</v>
       </c>
       <c r="E48" s="36">
-        <v>3975.9</v>
+        <v>3981.2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -11345,16 +11349,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="36">
-        <v>3247.2</v>
+        <v>3256.8</v>
       </c>
       <c r="C49" s="36">
-        <v>3312.7</v>
+        <v>3316.9</v>
       </c>
       <c r="D49" s="36">
-        <v>3316.9</v>
+        <v>3322.1</v>
       </c>
       <c r="E49" s="36">
-        <v>3318.5</v>
+        <v>3324.1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -11362,16 +11366,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="7">
-        <v>745.5</v>
+        <v>744.5</v>
       </c>
       <c r="C50" s="7">
-        <v>742.6</v>
+        <v>746.7</v>
       </c>
       <c r="D50" s="7">
-        <v>746.7</v>
+        <v>747.3</v>
       </c>
       <c r="E50" s="7">
-        <v>747.1</v>
+        <v>745.4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -11379,16 +11383,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="36">
-        <v>2928.2</v>
+        <v>2929.1</v>
       </c>
       <c r="C51" s="36">
-        <v>2956.5</v>
+        <v>2951.1</v>
       </c>
       <c r="D51" s="36">
-        <v>2951.1</v>
+        <v>2956.9</v>
       </c>
       <c r="E51" s="36">
-        <v>2954.7</v>
+        <v>2948.1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -11396,16 +11400,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="7">
-        <v>280</v>
+        <v>279.5</v>
       </c>
       <c r="C52" s="7">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D52" s="7">
         <v>277</v>
       </c>
       <c r="E52" s="7">
-        <v>277</v>
+        <v>277.10000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -11418,7 +11422,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11449,16 +11453,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>379.8</v>
+        <v>381.8</v>
       </c>
       <c r="C2" s="7">
-        <v>379.5</v>
+        <v>378.5</v>
       </c>
       <c r="D2" s="7">
-        <v>378.5</v>
+        <v>378.4</v>
       </c>
       <c r="E2" s="7">
-        <v>377.9</v>
+        <v>378.9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11466,16 +11470,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>81</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C3" s="7">
-        <v>82.1</v>
+        <v>81.7</v>
       </c>
       <c r="D3" s="7">
-        <v>81.7</v>
+        <v>80.8</v>
       </c>
       <c r="E3" s="7">
-        <v>80.7</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11483,16 +11487,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>411.4</v>
+        <v>410.6</v>
       </c>
       <c r="C4" s="7">
-        <v>411.1</v>
+        <v>416.3</v>
       </c>
       <c r="D4" s="7">
-        <v>416.3</v>
+        <v>414.2</v>
       </c>
       <c r="E4" s="7">
-        <v>415</v>
+        <v>414.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11500,16 +11504,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>212.6</v>
+        <v>212.5</v>
       </c>
       <c r="C5" s="7">
         <v>211.1</v>
       </c>
       <c r="D5" s="7">
-        <v>211.1</v>
+        <v>211.5</v>
       </c>
       <c r="E5" s="7">
-        <v>211.5</v>
+        <v>211.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -11517,16 +11521,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="36">
-        <v>2514</v>
+        <v>2517.3000000000002</v>
       </c>
       <c r="C6" s="36">
-        <v>2555.1999999999998</v>
+        <v>2544.1999999999998</v>
       </c>
       <c r="D6" s="36">
-        <v>2544.1999999999998</v>
+        <v>2562.9</v>
       </c>
       <c r="E6" s="36">
-        <v>2563</v>
+        <v>2556.6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11534,16 +11538,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>426.4</v>
+        <v>429.6</v>
       </c>
       <c r="C7" s="7">
-        <v>427.8</v>
+        <v>426.8</v>
       </c>
       <c r="D7" s="7">
-        <v>426.8</v>
+        <v>430.2</v>
       </c>
       <c r="E7" s="7">
-        <v>430.3</v>
+        <v>431.9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11551,16 +11555,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>236</v>
+        <v>235.7</v>
       </c>
       <c r="C8" s="7">
-        <v>233.9</v>
+        <v>233.8</v>
       </c>
       <c r="D8" s="7">
-        <v>233.8</v>
+        <v>232.9</v>
       </c>
       <c r="E8" s="7">
-        <v>232.9</v>
+        <v>232.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11568,16 +11572,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>65.7</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C9" s="7">
-        <v>65.3</v>
+        <v>64.7</v>
       </c>
       <c r="D9" s="7">
-        <v>64.7</v>
+        <v>65.5</v>
       </c>
       <c r="E9" s="7">
-        <v>64.900000000000006</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11585,16 +11589,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>237.9</v>
+        <v>238.7</v>
       </c>
       <c r="C10" s="7">
-        <v>239.1</v>
+        <v>238.2</v>
       </c>
       <c r="D10" s="7">
-        <v>238.2</v>
+        <v>238.7</v>
       </c>
       <c r="E10" s="7">
-        <v>238.7</v>
+        <v>237.8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11602,16 +11606,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="36">
-        <v>1097.5</v>
+        <v>1100.2</v>
       </c>
       <c r="C11" s="36">
-        <v>1103.8</v>
+        <v>1105.3</v>
       </c>
       <c r="D11" s="36">
-        <v>1105.3</v>
+        <v>1111</v>
       </c>
       <c r="E11" s="36">
-        <v>1111.7</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11619,16 +11623,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>687.6</v>
+        <v>689.9</v>
       </c>
       <c r="C12" s="7">
-        <v>693.8</v>
+        <v>695.2</v>
       </c>
       <c r="D12" s="7">
-        <v>695.2</v>
+        <v>700.7</v>
       </c>
       <c r="E12" s="7">
-        <v>692.7</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11636,16 +11640,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" s="7">
-        <v>126.5</v>
+        <v>125.6</v>
       </c>
       <c r="D13" s="7">
-        <v>125.6</v>
+        <v>123.5</v>
       </c>
       <c r="E13" s="7">
-        <v>123.4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11653,16 +11657,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>121.9</v>
+        <v>122</v>
       </c>
       <c r="C14" s="7">
-        <v>124</v>
+        <v>124.6</v>
       </c>
       <c r="D14" s="7">
-        <v>124.6</v>
+        <v>125.2</v>
       </c>
       <c r="E14" s="7">
-        <v>125.4</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11670,16 +11674,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>827.2</v>
+        <v>828.7</v>
       </c>
       <c r="C15" s="7">
-        <v>822.5</v>
+        <v>823.9</v>
       </c>
       <c r="D15" s="7">
-        <v>823.9</v>
+        <v>824.9</v>
       </c>
       <c r="E15" s="7">
-        <v>824.9</v>
+        <v>825.6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11687,16 +11691,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="7">
-        <v>426.5</v>
+        <v>436</v>
       </c>
       <c r="C16" s="7">
-        <v>428.1</v>
+        <v>431.8</v>
       </c>
       <c r="D16" s="7">
-        <v>431.8</v>
+        <v>438.1</v>
       </c>
       <c r="E16" s="7">
-        <v>427</v>
+        <v>442.2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11704,16 +11708,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>258.3</v>
+        <v>258.8</v>
       </c>
       <c r="C17" s="7">
-        <v>254.7</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="D17" s="7">
-        <v>256.39999999999998</v>
+        <v>256.8</v>
       </c>
       <c r="E17" s="7">
-        <v>255.9</v>
+        <v>256.8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11724,13 +11728,13 @@
         <v>255.6</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>254.4</v>
       </c>
       <c r="D18" s="7">
-        <v>254.4</v>
+        <v>256.2</v>
       </c>
       <c r="E18" s="7">
-        <v>256.89999999999998</v>
+        <v>252.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11738,13 +11742,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>318.5</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="C19" s="7">
-        <v>317.5</v>
+        <v>316.2</v>
       </c>
       <c r="D19" s="7">
-        <v>316.2</v>
+        <v>317.89999999999998</v>
       </c>
       <c r="E19" s="7">
         <v>317.89999999999998</v>
@@ -11755,16 +11759,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <v>324.3</v>
+        <v>323.8</v>
       </c>
       <c r="C20" s="7">
-        <v>324.10000000000002</v>
+        <v>323.7</v>
       </c>
       <c r="D20" s="7">
-        <v>323.7</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="E20" s="7">
-        <v>320.7</v>
+        <v>321.39999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11772,16 +11776,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="C21" s="7">
-        <v>99.9</v>
+        <v>101.1</v>
       </c>
       <c r="D21" s="7">
-        <v>101.1</v>
+        <v>101.9</v>
       </c>
       <c r="E21" s="7">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11789,16 +11793,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="7">
-        <v>504.7</v>
+        <v>506</v>
       </c>
       <c r="C22" s="7">
+        <v>517.9</v>
+      </c>
+      <c r="D22" s="7">
+        <v>507.2</v>
+      </c>
+      <c r="E22" s="7">
         <v>511.7</v>
-      </c>
-      <c r="D22" s="7">
-        <v>517.9</v>
-      </c>
-      <c r="E22" s="7">
-        <v>507.2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11806,16 +11810,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>455.1</v>
+        <v>456.1</v>
       </c>
       <c r="C23" s="7">
-        <v>458.7</v>
+        <v>459.1</v>
       </c>
       <c r="D23" s="7">
-        <v>459.1</v>
+        <v>457.4</v>
       </c>
       <c r="E23" s="7">
-        <v>457.4</v>
+        <v>458.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11823,16 +11827,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="7">
-        <v>601.29999999999995</v>
+        <v>601.9</v>
       </c>
       <c r="C24" s="7">
-        <v>607.20000000000005</v>
+        <v>612.1</v>
       </c>
       <c r="D24" s="7">
-        <v>612.1</v>
+        <v>615.5</v>
       </c>
       <c r="E24" s="7">
-        <v>616.29999999999995</v>
+        <v>615.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11840,16 +11844,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>423.2</v>
+        <v>425.7</v>
       </c>
       <c r="C25" s="7">
-        <v>425</v>
+        <v>426.5</v>
       </c>
       <c r="D25" s="7">
-        <v>426.5</v>
+        <v>428.1</v>
       </c>
       <c r="E25" s="7">
-        <v>428.1</v>
+        <v>428.9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11857,16 +11861,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="7">
-        <v>244.5</v>
+        <v>244.4</v>
       </c>
       <c r="C26" s="7">
-        <v>245.6</v>
+        <v>245.2</v>
       </c>
       <c r="D26" s="7">
-        <v>245.2</v>
+        <v>247.6</v>
       </c>
       <c r="E26" s="7">
-        <v>245.3</v>
+        <v>246.9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11874,16 +11878,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>437.2</v>
+        <v>438.3</v>
       </c>
       <c r="C27" s="7">
-        <v>430.3</v>
+        <v>438.9</v>
       </c>
       <c r="D27" s="7">
-        <v>438.9</v>
+        <v>451.2</v>
       </c>
       <c r="E27" s="7">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11891,16 +11895,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="7">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="C28" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="D28" s="7">
         <v>92.3</v>
       </c>
-      <c r="D28" s="7">
-        <v>92.5</v>
-      </c>
       <c r="E28" s="7">
-        <v>92.3</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11908,16 +11912,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>174</v>
+        <v>170.5</v>
       </c>
       <c r="C29" s="7">
-        <v>170.7</v>
+        <v>173.4</v>
       </c>
       <c r="D29" s="7">
-        <v>173.4</v>
+        <v>171.4</v>
       </c>
       <c r="E29" s="7">
-        <v>171.4</v>
+        <v>170.6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11925,16 +11929,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="7">
-        <v>159.19999999999999</v>
+        <v>159.6</v>
       </c>
       <c r="C30" s="7">
-        <v>159.5</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="D30" s="7">
-        <v>159.30000000000001</v>
+        <v>162.4</v>
       </c>
       <c r="E30" s="7">
-        <v>160.69999999999999</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -11942,16 +11946,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>90.1</v>
+        <v>92.2</v>
       </c>
       <c r="C31" s="7">
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="D31" s="7">
-        <v>90.5</v>
+        <v>91.4</v>
       </c>
       <c r="E31" s="7">
-        <v>91.4</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -11959,13 +11963,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="7">
-        <v>615.70000000000005</v>
+        <v>617.1</v>
       </c>
       <c r="C32" s="7">
-        <v>609.9</v>
+        <v>610.29999999999995</v>
       </c>
       <c r="D32" s="7">
-        <v>610.29999999999995</v>
+        <v>611.9</v>
       </c>
       <c r="E32" s="7">
         <v>612.79999999999995</v>
@@ -11976,16 +11980,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>190.9</v>
+        <v>191.1</v>
       </c>
       <c r="C33" s="7">
-        <v>189.2</v>
+        <v>184.5</v>
       </c>
       <c r="D33" s="7">
-        <v>184.5</v>
+        <v>185.8</v>
       </c>
       <c r="E33" s="7">
-        <v>185.5</v>
+        <v>187.6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -11993,16 +11997,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="36">
-        <v>1446.1</v>
+        <v>1446</v>
       </c>
       <c r="C34" s="36">
-        <v>1449.5</v>
+        <v>1451.6</v>
       </c>
       <c r="D34" s="36">
-        <v>1451.6</v>
+        <v>1455</v>
       </c>
       <c r="E34" s="36">
-        <v>1454.4</v>
+        <v>1455.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -12010,16 +12014,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>730.2</v>
+        <v>728.5</v>
       </c>
       <c r="C35" s="7">
-        <v>728.6</v>
+        <v>737.7</v>
       </c>
       <c r="D35" s="7">
-        <v>737.7</v>
+        <v>739.6</v>
       </c>
       <c r="E35" s="7">
-        <v>739.6</v>
+        <v>734.6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -12027,16 +12031,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="7">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="C36" s="7">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="D36" s="7">
+        <v>83.1</v>
+      </c>
+      <c r="E36" s="7">
         <v>83.5</v>
-      </c>
-      <c r="E36" s="7">
-        <v>83.1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -12044,16 +12048,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>778.3</v>
+        <v>780</v>
       </c>
       <c r="C37" s="7">
-        <v>773.5</v>
+        <v>779</v>
       </c>
       <c r="D37" s="7">
-        <v>779</v>
+        <v>781.7</v>
       </c>
       <c r="E37" s="7">
-        <v>783.1</v>
+        <v>775.8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -12061,16 +12065,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="7">
-        <v>353.6</v>
+        <v>353.9</v>
       </c>
       <c r="C38" s="7">
-        <v>353.6</v>
+        <v>354</v>
       </c>
       <c r="D38" s="7">
-        <v>354</v>
+        <v>354.5</v>
       </c>
       <c r="E38" s="7">
-        <v>354.5</v>
+        <v>353.9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -12078,16 +12082,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>308.39999999999998</v>
+        <v>305.7</v>
       </c>
       <c r="C39" s="7">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="D39" s="7">
+        <v>312.8</v>
+      </c>
+      <c r="E39" s="7">
         <v>309.60000000000002</v>
-      </c>
-      <c r="D39" s="7">
-        <v>310.60000000000002</v>
-      </c>
-      <c r="E39" s="7">
-        <v>309.8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -12098,13 +12102,13 @@
         <v>710.9</v>
       </c>
       <c r="C40" s="7">
-        <v>700.7</v>
+        <v>694.9</v>
       </c>
       <c r="D40" s="7">
-        <v>694.9</v>
+        <v>705.7</v>
       </c>
       <c r="E40" s="7">
-        <v>697.4</v>
+        <v>701.3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -12112,16 +12116,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7">
         <v>60.6</v>
       </c>
       <c r="D41" s="7">
-        <v>60.6</v>
+        <v>60.9</v>
       </c>
       <c r="E41" s="7">
-        <v>60.9</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12129,16 +12133,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="7">
-        <v>367.4</v>
+        <v>364.6</v>
       </c>
       <c r="C42" s="7">
-        <v>365.6</v>
+        <v>366</v>
       </c>
       <c r="D42" s="7">
-        <v>366</v>
+        <v>368.5</v>
       </c>
       <c r="E42" s="7">
-        <v>368.2</v>
+        <v>370.2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -12146,13 +12150,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>79.099999999999994</v>
+        <v>79</v>
       </c>
       <c r="C43" s="7">
+        <v>80.8</v>
+      </c>
+      <c r="D43" s="7">
         <v>80.5</v>
-      </c>
-      <c r="D43" s="7">
-        <v>80.8</v>
       </c>
       <c r="E43" s="7">
         <v>80.3</v>
@@ -12163,16 +12167,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="7">
-        <v>427.1</v>
+        <v>427.5</v>
       </c>
       <c r="C44" s="7">
+        <v>433.5</v>
+      </c>
+      <c r="D44" s="7">
+        <v>434.3</v>
+      </c>
+      <c r="E44" s="7">
         <v>433.1</v>
-      </c>
-      <c r="D44" s="7">
-        <v>433.5</v>
-      </c>
-      <c r="E44" s="7">
-        <v>434.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12180,16 +12184,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="36">
-        <v>1930.9</v>
+        <v>1931.4</v>
       </c>
       <c r="C45" s="36">
-        <v>1953.2</v>
+        <v>1959.2</v>
       </c>
       <c r="D45" s="36">
+        <v>1958.1</v>
+      </c>
+      <c r="E45" s="36">
         <v>1959.2</v>
-      </c>
-      <c r="E45" s="36">
-        <v>1958.3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12197,16 +12201,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="7">
-        <v>238.9</v>
+        <v>238.8</v>
       </c>
       <c r="C46" s="7">
-        <v>244.1</v>
+        <v>242.3</v>
       </c>
       <c r="D46" s="7">
-        <v>242.3</v>
+        <v>243.1</v>
       </c>
       <c r="E46" s="7">
-        <v>243.1</v>
+        <v>242.1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12214,16 +12218,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>57.6</v>
+        <v>56.4</v>
       </c>
       <c r="C47" s="7">
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="E47" s="7">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12231,16 +12235,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="7">
-        <v>714.4</v>
+        <v>716</v>
       </c>
       <c r="C48" s="7">
-        <v>714.5</v>
+        <v>714.7</v>
       </c>
       <c r="D48" s="7">
+        <v>714.6</v>
+      </c>
+      <c r="E48" s="7">
         <v>714.7</v>
-      </c>
-      <c r="E48" s="7">
-        <v>715.8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12248,16 +12252,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>573.29999999999995</v>
+        <v>574.29999999999995</v>
       </c>
       <c r="C49" s="7">
-        <v>582.20000000000005</v>
+        <v>584.6</v>
       </c>
       <c r="D49" s="7">
-        <v>584.6</v>
+        <v>591.5</v>
       </c>
       <c r="E49" s="7">
-        <v>589.9</v>
+        <v>588.6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12265,16 +12269,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="7">
-        <v>155.4</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="C50" s="7">
-        <v>153.9</v>
+        <v>154.1</v>
       </c>
       <c r="D50" s="7">
+        <v>153.5</v>
+      </c>
+      <c r="E50" s="7">
         <v>154.1</v>
-      </c>
-      <c r="E50" s="7">
-        <v>153.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12282,16 +12286,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>412.8</v>
+        <v>414.6</v>
       </c>
       <c r="C51" s="7">
-        <v>417.5</v>
+        <v>410.8</v>
       </c>
       <c r="D51" s="7">
-        <v>410.8</v>
+        <v>417.1</v>
       </c>
       <c r="E51" s="7">
-        <v>414.3</v>
+        <v>413.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12302,13 +12306,13 @@
         <v>71.400000000000006</v>
       </c>
       <c r="C52" s="7">
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="D52" s="7">
-        <v>70</v>
+        <v>69.8</v>
       </c>
       <c r="E52" s="7">
-        <v>70</v>
+        <v>69.7</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/current_employment.xlsx
+++ b/static/data/source/current_employment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Online SEM\Employment\2018\November 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Online SEM\Employment\2018\December 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -411,7 +411,7 @@
     <t>District of Columbia(2)</t>
   </si>
   <si>
-    <t>Employment November 2018</t>
+    <t>Employment December 2018</t>
   </si>
 </sst>
 </file>
@@ -2940,7 +2940,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2997,19 +2997,19 @@
       </c>
       <c r="C3" s="1">
         <f>+Unemployment!E2</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D3" s="1">
         <f>+Unemployment!F2</f>
-        <v>-0.39999999999999947</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="E3" s="1">
         <f>+Total_Employment!F2</f>
-        <v>1.6568328246863384</v>
+        <v>1.7869602032176024</v>
       </c>
       <c r="F3" s="1">
         <f>+Government_Employment!F2</f>
-        <v>0.21495745633677288</v>
+        <v>0.33137790515427312</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3021,19 +3021,19 @@
       </c>
       <c r="C4" s="1">
         <f>+Unemployment!E3</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D4" s="1">
         <f>+Unemployment!F3</f>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E4" s="1">
         <f>+Total_Employment!F3</f>
-        <v>1.7227722772277243</v>
+        <v>2.1582021582021715</v>
       </c>
       <c r="F4" s="1">
         <f>+Government_Employment!F3</f>
-        <v>0.5457380457380312</v>
+        <v>1.2226847034339405</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3053,11 +3053,11 @@
       </c>
       <c r="E5" s="1">
         <f>+Total_Employment!F4</f>
-        <v>-0.15313935681470214</v>
+        <v>-0.12251148545175949</v>
       </c>
       <c r="F5" s="1">
         <f>+Government_Employment!F4</f>
-        <v>-0.24752475247524774</v>
+        <v>-0.24875621890547706</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -3069,19 +3069,19 @@
       </c>
       <c r="C6" s="1">
         <f>+Unemployment!E5</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D6" s="1">
         <f>+Unemployment!F5</f>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="E6" s="1">
         <f>+Total_Employment!F5</f>
-        <v>3.640272303833747</v>
+        <v>3.3666058459446813</v>
       </c>
       <c r="F6" s="1">
         <f>+Government_Employment!F5</f>
-        <v>1.1146110976496315</v>
+        <v>1.0419190695420522</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3101,11 +3101,11 @@
       </c>
       <c r="E7" s="1">
         <f>+Total_Employment!F6</f>
-        <v>0.98236572992993487</v>
+        <v>1.3801452784503621</v>
       </c>
       <c r="F7" s="1">
         <f>+Government_Employment!F6</f>
-        <v>9.4607379375588607E-2</v>
+        <v>4.7326076668241512E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3117,19 +3117,19 @@
       </c>
       <c r="C8" s="1">
         <f>+Unemployment!E7</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D8" s="1">
         <f>+Unemployment!F7</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="E8" s="1">
         <f>+Total_Employment!F7</f>
-        <v>1.7668656698825336</v>
+        <v>1.67206770609718</v>
       </c>
       <c r="F8" s="1">
         <f>+Government_Employment!F7</f>
-        <v>1.2234910277324706</v>
+        <v>1.1748284285215904</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3141,19 +3141,19 @@
       </c>
       <c r="C9" s="1">
         <f>+Unemployment!E8</f>
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D9" s="1">
         <f>+Unemployment!F8</f>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="1">
         <f>+Total_Employment!F8</f>
-        <v>2.5776849330398921</v>
+        <v>2.8063123418192504</v>
       </c>
       <c r="F9" s="1">
         <f>+Government_Employment!F8</f>
-        <v>1.5692517625653934</v>
+        <v>1.5909090909090873</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3165,19 +3165,19 @@
       </c>
       <c r="C10" s="1">
         <f>+Unemployment!E9</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <f>+Unemployment!F9</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" s="1">
         <f>+Total_Employment!F9</f>
-        <v>1.3691291148282714</v>
+        <v>1.1805885144755557</v>
       </c>
       <c r="F10" s="1">
         <f>+Government_Employment!F9</f>
-        <v>-1.4273356401384052</v>
+        <v>-1.5577672003461718</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3189,19 +3189,19 @@
       </c>
       <c r="C11" s="1">
         <f>+Unemployment!E10</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D11" s="1">
         <f>+Unemployment!F10</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="E11" s="1">
         <f>+Total_Employment!F10</f>
-        <v>1.5529308836395472</v>
+        <v>2.2392974753018713</v>
       </c>
       <c r="F11" s="1">
         <f>+Government_Employment!F10</f>
-        <v>1.0526315789473717</v>
+        <v>1.2048192771084265</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3213,19 +3213,19 @@
       </c>
       <c r="C12" s="1">
         <f>+Unemployment!E11</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D12" s="1">
         <f>+Unemployment!F11</f>
-        <v>-0.30000000000000071</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="E12" s="1">
         <f>+Total_Employment!F11</f>
-        <v>2.5204788909904963E-2</v>
+        <v>0.28967254408058807</v>
       </c>
       <c r="F12" s="1">
         <f>+Government_Employment!F11</f>
-        <v>-1.0878661087866059</v>
+        <v>-0.62893081761006275</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="E13" s="1">
         <f>+Total_Employment!F12</f>
-        <v>2.7990824200013975</v>
+        <v>2.6697459584295702</v>
       </c>
       <c r="F13" s="1">
         <f>+Government_Employment!F12</f>
-        <v>-0.86548864046160912</v>
+        <v>-0.88177073960772345</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3261,19 +3261,19 @@
       </c>
       <c r="C14" s="1">
         <f>+Unemployment!E13</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D14" s="1">
         <f>+Unemployment!F13</f>
-        <v>-1</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="E14" s="1">
         <f>+Total_Employment!F13</f>
-        <v>2.2087367810450287</v>
+        <v>2.5361026921019825</v>
       </c>
       <c r="F14" s="1">
         <f>+Government_Employment!F13</f>
-        <v>0.34732272069464276</v>
+        <v>1.0635198135198198</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3285,19 +3285,19 @@
       </c>
       <c r="C15" s="1">
         <f>+Unemployment!E14</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="1">
         <f>+Unemployment!F14</f>
-        <v>0.29999999999999982</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="E15" s="1">
         <f>+Total_Employment!F14</f>
-        <v>2.0373774509804043</v>
+        <v>1.4459665144596734</v>
       </c>
       <c r="F15" s="1">
         <f>+Government_Employment!F14</f>
-        <v>2.9220779220779258</v>
+        <v>0.47808764940238113</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3317,11 +3317,11 @@
       </c>
       <c r="E16" s="1">
         <f>+Total_Employment!F15</f>
-        <v>1.8179314144057157</v>
+        <v>1.9914846861694757</v>
       </c>
       <c r="F16" s="1">
         <f>+Government_Employment!F15</f>
-        <v>1.6000000000000014</v>
+        <v>2.1582733812949728</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3333,19 +3333,19 @@
       </c>
       <c r="C17" s="1">
         <f>+Unemployment!E16</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D17" s="1">
         <f>+Unemployment!F16</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="E17" s="1">
         <f>+Total_Employment!F16</f>
-        <v>0.89774577023629121</v>
+        <v>1.1675327238045208</v>
       </c>
       <c r="F17" s="1">
         <f>+Government_Employment!F16</f>
-        <v>1.7805582290663979</v>
+        <v>2.973038035628317</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="E18" s="1">
         <f>+Total_Employment!F17</f>
-        <v>0.96744126249477258</v>
+        <v>1.4286172910847883</v>
       </c>
       <c r="F18" s="1">
         <f>+Government_Employment!F17</f>
-        <v>0.11734334663224821</v>
+        <v>0.42253521126760507</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3389,11 +3389,11 @@
       </c>
       <c r="E19" s="1">
         <f>+Total_Employment!F18</f>
-        <v>1.0081795700970231</v>
+        <v>0.9794009857196917</v>
       </c>
       <c r="F19" s="1">
         <f>+Government_Employment!F18</f>
-        <v>0.11556240369798854</v>
+        <v>0.42438271604938738</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3405,19 +3405,19 @@
       </c>
       <c r="C20" s="1">
         <f>+Unemployment!E19</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D20" s="1">
         <f>+Unemployment!F19</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E20" s="1">
         <f>+Total_Employment!F19</f>
-        <v>1.3982539569877162</v>
+        <v>1.4242188053567695</v>
       </c>
       <c r="F20" s="1">
         <f>+Government_Employment!F19</f>
-        <v>1.0911925175369985</v>
+        <v>1.1292834890965553</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3429,19 +3429,19 @@
       </c>
       <c r="C21" s="1">
         <f>+Unemployment!E20</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D21" s="1">
         <f>+Unemployment!F20</f>
-        <v>0</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="E21" s="1">
         <f>+Total_Employment!F20</f>
-        <v>0.88394342762063705</v>
+        <v>1.1070686070685953</v>
       </c>
       <c r="F21" s="1">
         <f>+Government_Employment!F20</f>
-        <v>-9.526833915527444E-2</v>
+        <v>-0.22250476795933061</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3453,19 +3453,19 @@
       </c>
       <c r="C22" s="1">
         <f>+Unemployment!E21</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D22" s="1">
         <f>+Unemployment!F21</f>
-        <v>0.29999999999999982</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E22" s="1">
         <f>+Total_Employment!F21</f>
-        <v>1.1737804878048763</v>
+        <v>1.1115058620514651</v>
       </c>
       <c r="F22" s="1">
         <f>+Government_Employment!F21</f>
-        <v>-0.64377682403432557</v>
+        <v>-0.58353808353809322</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="E23" s="1">
         <f>+Total_Employment!F22</f>
-        <v>0.98039215686271941</v>
+        <v>0.68932350112216323</v>
       </c>
       <c r="F23" s="1">
         <f>+Government_Employment!F22</f>
-        <v>0.19980019980019303</v>
+        <v>0.20040080160321772</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3501,19 +3501,19 @@
       </c>
       <c r="C24" s="1">
         <f>+Unemployment!E23</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D24" s="1">
         <f>+Unemployment!F23</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="E24" s="1">
         <f>+Total_Employment!F23</f>
-        <v>1.3457518976201843</v>
+        <v>1.8740105298037602</v>
       </c>
       <c r="F24" s="1">
         <f>+Government_Employment!F23</f>
-        <v>0.119165839126123</v>
+        <v>-1.9864918553824662E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3525,19 +3525,19 @@
       </c>
       <c r="C25" s="1">
         <f>+Unemployment!E24</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D25" s="1">
         <f>+Unemployment!F24</f>
-        <v>-0.10000000000000009</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E25" s="1">
         <f>+Total_Employment!F24</f>
-        <v>1.6685052399338041</v>
+        <v>1.8133715482555379</v>
       </c>
       <c r="F25" s="1">
         <f>+Government_Employment!F24</f>
-        <v>-4.4228217602826359E-2</v>
+        <v>-4.4169611307420809E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3549,19 +3549,19 @@
       </c>
       <c r="C26" s="1">
         <f>+Unemployment!E25</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <f>+Unemployment!F25</f>
-        <v>-0.80000000000000027</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="E26" s="1">
         <f>+Total_Employment!F25</f>
-        <v>1.1824208871573871</v>
+        <v>1.251479020660784</v>
       </c>
       <c r="F26" s="1">
         <f>+Government_Employment!F25</f>
-        <v>0.70561207745325483</v>
+        <v>0.36065573770491799</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3581,11 +3581,11 @@
       </c>
       <c r="E27" s="1">
         <f>+Total_Employment!F26</f>
-        <v>1.1967904256765971</v>
+        <v>1.0938614668614344</v>
       </c>
       <c r="F27" s="1">
         <f>+Government_Employment!F26</f>
-        <v>0.51401869158878011</v>
+        <v>0.65573770491802463</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="E28" s="1">
         <f>+Total_Employment!F27</f>
-        <v>1.2168809873133624</v>
+        <v>0.94664371772805733</v>
       </c>
       <c r="F28" s="1">
         <f>+Government_Employment!F27</f>
-        <v>0.82236842105263275</v>
+        <v>0.57589469354175638</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C29" s="1">
         <f>+Unemployment!E28</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D29" s="1">
         <f>+Unemployment!F28</f>
@@ -3629,11 +3629,11 @@
       </c>
       <c r="E29" s="1">
         <f>+Total_Employment!F28</f>
-        <v>1.1251953464143094</v>
+        <v>1.3538846073734678</v>
       </c>
       <c r="F29" s="1">
         <f>+Government_Employment!F28</f>
-        <v>0.27726432532346745</v>
+        <v>0.50890585241729624</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3653,11 +3653,11 @@
       </c>
       <c r="E30" s="1">
         <f>+Total_Employment!F29</f>
-        <v>1.5608521408985387</v>
+        <v>0.98594503880846673</v>
       </c>
       <c r="F30" s="1">
         <f>+Government_Employment!F29</f>
-        <v>0.76335877862596657</v>
+        <v>1.3086150490730697</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3677,11 +3677,11 @@
       </c>
       <c r="E31" s="1">
         <f>+Total_Employment!F30</f>
-        <v>1.2655744138134084</v>
+        <v>1.2437567329350641</v>
       </c>
       <c r="F31" s="1">
         <f>+Government_Employment!F30</f>
-        <v>0.29002320185613772</v>
+        <v>0.69767441860464352</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="E32" s="1">
         <f>+Total_Employment!F31</f>
-        <v>3.835069829306148</v>
+        <v>3.8535078688042512</v>
       </c>
       <c r="F32" s="1">
         <f>+Government_Employment!F31</f>
-        <v>2.7472527472527375</v>
+        <v>3.3700980392156854</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="E33" s="1">
         <f>+Total_Employment!F32</f>
-        <v>2.2209148404177093</v>
+        <v>2.6700103260067998</v>
       </c>
       <c r="F33" s="1">
         <f>+Government_Employment!F32</f>
-        <v>1.1123470522803158</v>
+        <v>1.3363028953229383</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3749,11 +3749,11 @@
       </c>
       <c r="E34" s="1">
         <f>+Total_Employment!F33</f>
-        <v>1.4672930972172038</v>
+        <v>1.4927172759718221</v>
       </c>
       <c r="F34" s="1">
         <f>+Government_Employment!F33</f>
-        <v>-0.16252234682269107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3765,19 +3765,19 @@
       </c>
       <c r="C35" s="1">
         <f>+Unemployment!E34</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D35" s="1">
         <f>+Unemployment!F34</f>
-        <v>-1.4000000000000004</v>
+        <v>-1.2999999999999998</v>
       </c>
       <c r="E35" s="1">
         <f>+Total_Employment!F34</f>
-        <v>2.1164653832356883</v>
+        <v>2.3809523809523947</v>
       </c>
       <c r="F35" s="1">
         <f>+Government_Employment!F34</f>
-        <v>0.32085561497325887</v>
+        <v>0.42735042735042583</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3797,11 +3797,11 @@
       </c>
       <c r="E36" s="1">
         <f>+Total_Employment!F35</f>
-        <v>1.195702161461587</v>
+        <v>1.2733730283087885</v>
       </c>
       <c r="F36" s="1">
         <f>+Government_Employment!F35</f>
-        <v>0.17260425296878878</v>
+        <v>0.14491753502174909</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3821,11 +3821,11 @@
       </c>
       <c r="E37" s="1">
         <f>+Total_Employment!F36</f>
-        <v>2.2694492021995805</v>
+        <v>1.9599029038928295</v>
       </c>
       <c r="F37" s="1">
         <f>+Government_Employment!F36</f>
-        <v>0.51735874744722743</v>
+        <v>0.61266167460858334</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3837,19 +3837,19 @@
       </c>
       <c r="C38" s="1">
         <f>+Unemployment!E37</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D38" s="1">
         <f>+Unemployment!F37</f>
-        <v>0.19999999999999973</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E38" s="1">
         <f>+Total_Employment!F37</f>
-        <v>1.7330210772833698</v>
+        <v>2.1116846550915058</v>
       </c>
       <c r="F38" s="1">
         <f>+Government_Employment!F37</f>
-        <v>-1.2239902080783405</v>
+        <v>-0.73529411764705621</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3869,11 +3869,11 @@
       </c>
       <c r="E39" s="1">
         <f>+Total_Employment!F38</f>
-        <v>2.1039313149570749</v>
+        <v>2.1050539363605125</v>
       </c>
       <c r="F39" s="1">
         <f>+Government_Employment!F38</f>
-        <v>1.0226255912054283</v>
+        <v>1.4961636828644487</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3885,19 +3885,19 @@
       </c>
       <c r="C40" s="1">
         <f>+Unemployment!E39</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D40" s="1">
         <f>+Unemployment!F39</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.89999999999999947</v>
       </c>
       <c r="E40" s="1">
         <f>+Total_Employment!F39</f>
-        <v>1.6825775656324593</v>
+        <v>1.5197568389057725</v>
       </c>
       <c r="F40" s="1">
         <f>+Government_Employment!F39</f>
-        <v>0.2277904328018332</v>
+        <v>0.34188034188034067</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3909,19 +3909,19 @@
       </c>
       <c r="C41" s="1">
         <f>+Unemployment!E40</f>
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D41" s="1">
         <f>+Unemployment!F40</f>
-        <v>-0.30000000000000027</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <f>+Total_Employment!F40</f>
-        <v>2.474827768945409</v>
+        <v>1.8504850274146056</v>
       </c>
       <c r="F41" s="1">
         <f>+Government_Employment!F40</f>
-        <v>-3.9805825242718473</v>
+        <v>-3.83994837044207</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3941,11 +3941,11 @@
       </c>
       <c r="E42" s="1">
         <f>+Total_Employment!F41</f>
-        <v>1.3167581314415644</v>
+        <v>1.2479978643886724</v>
       </c>
       <c r="F42" s="1">
         <f>+Government_Employment!F41</f>
-        <v>2.85184657065507E-2</v>
+        <v>0.30012862655421912</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3957,19 +3957,19 @@
       </c>
       <c r="C43" s="1">
         <f>+Unemployment!E42</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D43" s="1">
         <f>+Unemployment!F42</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="E43" s="1">
         <f>+Total_Employment!F42</f>
-        <v>1.0249196141479011</v>
+        <v>1.4259891544486925</v>
       </c>
       <c r="F43" s="1">
         <f>+Government_Employment!F42</f>
-        <v>-0.32840722495893759</v>
+        <v>-0.16420361247947435</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3989,11 +3989,11 @@
       </c>
       <c r="E44" s="1">
         <f>+Total_Employment!F43</f>
-        <v>1.5580467414022525</v>
+        <v>1.9526066350710858</v>
       </c>
       <c r="F44" s="1">
         <f>+Government_Employment!F43</f>
-        <v>0.90040927694405859</v>
+        <v>0.81788440567065468</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4005,19 +4005,19 @@
       </c>
       <c r="C45" s="1">
         <f>+Unemployment!E44</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D45" s="1">
         <f>+Unemployment!F44</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.5</v>
       </c>
       <c r="E45" s="1">
         <f>+Total_Employment!F44</f>
-        <v>2.1291208791208716</v>
+        <v>2.0082154267457852</v>
       </c>
       <c r="F45" s="1">
         <f>+Government_Employment!F44</f>
-        <v>0.87719298245614308</v>
+        <v>0.75282308657464991</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="E46" s="1">
         <f>+Total_Employment!F45</f>
-        <v>2.0044249248753365</v>
+        <v>1.9524281466798854</v>
       </c>
       <c r="F46" s="1">
         <f>+Government_Employment!F45</f>
-        <v>0.37002775208141436</v>
+        <v>0.74263170109074572</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4057,15 +4057,15 @@
       </c>
       <c r="D47" s="1">
         <f>+Unemployment!F46</f>
-        <v>-0.19999999999999973</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="E47" s="1">
         <f>+Total_Employment!F46</f>
-        <v>2.9615821040687385</v>
+        <v>3.1718789213345033</v>
       </c>
       <c r="F47" s="1">
         <f>+Government_Employment!F46</f>
-        <v>8.7592745259690297E-2</v>
+        <v>0.15442425490297396</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="E48" s="1">
         <f>+Total_Employment!F47</f>
-        <v>2.9413744362926542</v>
+        <v>3.1134670871636683</v>
       </c>
       <c r="F48" s="1">
         <f>+Government_Employment!F47</f>
-        <v>2.2412387938060219</v>
+        <v>2.2792022792022859</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4109,11 +4109,11 @@
       </c>
       <c r="E49" s="1">
         <f>+Total_Employment!F48</f>
-        <v>-0.41335453100159736</v>
+        <v>-6.3795853269532632E-2</v>
       </c>
       <c r="F49" s="1">
         <f>+Government_Employment!F48</f>
-        <v>0.17921146953405742</v>
+        <v>-0.17889087656529634</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4133,11 +4133,11 @@
       </c>
       <c r="E50" s="1">
         <f>+Total_Employment!F49</f>
-        <v>1.8980943234089942</v>
+        <v>1.9473457929743754</v>
       </c>
       <c r="F50" s="1">
         <f>+Government_Employment!F49</f>
-        <v>-2.2476615943040512</v>
+        <v>-2.2203602848764104</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4157,11 +4157,11 @@
       </c>
       <c r="E51" s="1">
         <f>+Total_Employment!F50</f>
-        <v>2.9445882038011906</v>
+        <v>3.0854125255881604</v>
       </c>
       <c r="F51" s="1">
         <f>+Government_Employment!F50</f>
-        <v>0.4406032875783783</v>
+        <v>0.99881496529541369</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4173,19 +4173,19 @@
       </c>
       <c r="C52" s="1">
         <f>+Unemployment!E51</f>
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D52" s="1">
         <f>+Unemployment!F51</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="E52" s="1">
         <f>+Total_Employment!F51</f>
-        <v>0.87003078570473402</v>
+        <v>0.62783863211326452</v>
       </c>
       <c r="F52" s="1">
         <f>+Government_Employment!F51</f>
-        <v>1.0416666666666741</v>
+        <v>1.3671875</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="E53" s="1">
         <f>+Total_Employment!F52</f>
-        <v>1.4866607833819989</v>
+        <v>1.6354586394880188</v>
       </c>
       <c r="F53" s="1">
         <f>+Government_Employment!F52</f>
-        <v>0.8152173913043459</v>
+        <v>0.83682008368199945</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4225,15 +4225,15 @@
       </c>
       <c r="D54" s="1">
         <f>+Unemployment!F53</f>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <f>+Total_Employment!F53</f>
-        <v>3.1926214969847377</v>
+        <v>2.8238616307801001</v>
       </c>
       <c r="F54" s="1">
         <f>+Government_Employment!F53</f>
-        <v>-0.28776978417266452</v>
+        <v>-0.14409221902018654</v>
       </c>
     </row>
   </sheetData>
@@ -4269,19 +4269,19 @@
       </c>
       <c r="B1" s="12">
         <f>Employment_Table!C3</f>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="C1" s="17">
         <f>Employment_Table!D3</f>
-        <v>-0.39999999999999947</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="D1" s="17">
         <f>Employment_Table!E3</f>
-        <v>1.6568328246863384</v>
+        <v>1.7869602032176024</v>
       </c>
       <c r="E1" s="17">
         <f>Employment_Table!F3</f>
-        <v>0.21495745633677288</v>
+        <v>0.33137790515427312</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -4312,19 +4312,19 @@
       </c>
       <c r="B3" s="23">
         <f>Employment_Table!C4</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C3" s="20">
         <f>Employment_Table!D4</f>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="D3" s="20">
         <f>Employment_Table!E4</f>
-        <v>1.7227722772277243</v>
+        <v>2.1582021582021715</v>
       </c>
       <c r="E3" s="20">
         <f>Employment_Table!F4</f>
-        <v>0.5457380457380312</v>
+        <v>1.2226847034339405</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4341,11 +4341,11 @@
       </c>
       <c r="D4" s="20">
         <f>Employment_Table!E5</f>
-        <v>-0.15313935681470214</v>
+        <v>-0.12251148545175949</v>
       </c>
       <c r="E4" s="20">
         <f>Employment_Table!F5</f>
-        <v>-0.24752475247524774</v>
+        <v>-0.24875621890547706</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -4359,19 +4359,19 @@
       </c>
       <c r="B5" s="23">
         <f>Employment_Table!C6</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="20">
         <f>Employment_Table!D6</f>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="D5" s="20">
         <f>Employment_Table!E6</f>
-        <v>3.640272303833747</v>
+        <v>3.3666058459446813</v>
       </c>
       <c r="E5" s="20">
         <f>Employment_Table!F6</f>
-        <v>1.1146110976496315</v>
+        <v>1.0419190695420522</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="8"/>
@@ -4393,11 +4393,11 @@
       </c>
       <c r="D6" s="20">
         <f>Employment_Table!E7</f>
-        <v>0.98236572992993487</v>
+        <v>1.3801452784503621</v>
       </c>
       <c r="E6" s="20">
         <f>Employment_Table!F7</f>
-        <v>9.4607379375588607E-2</v>
+        <v>4.7326076668241512E-2</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4411,19 +4411,19 @@
       </c>
       <c r="B7" s="23">
         <f>Employment_Table!C8</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C7" s="20">
         <f>Employment_Table!D8</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="D7" s="20">
         <f>Employment_Table!E8</f>
-        <v>1.7668656698825336</v>
+        <v>1.67206770609718</v>
       </c>
       <c r="E7" s="20">
         <f>Employment_Table!F8</f>
-        <v>1.2234910277324706</v>
+        <v>1.1748284285215904</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4437,19 +4437,19 @@
       </c>
       <c r="B8" s="23">
         <f>Employment_Table!C9</f>
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="20">
         <f>Employment_Table!D9</f>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="20">
         <f>Employment_Table!E9</f>
-        <v>2.5776849330398921</v>
+        <v>2.8063123418192504</v>
       </c>
       <c r="E8" s="20">
         <f>Employment_Table!F9</f>
-        <v>1.5692517625653934</v>
+        <v>1.5909090909090873</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4463,19 +4463,19 @@
       </c>
       <c r="B9" s="23">
         <f>Employment_Table!C10</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C9" s="20">
         <f>Employment_Table!D10</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
       <c r="D9" s="20">
         <f>Employment_Table!E10</f>
-        <v>1.3691291148282714</v>
+        <v>1.1805885144755557</v>
       </c>
       <c r="E9" s="20">
         <f>Employment_Table!F10</f>
-        <v>-1.4273356401384052</v>
+        <v>-1.5577672003461718</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -4487,19 +4487,19 @@
       </c>
       <c r="B10" s="23">
         <f>Employment_Table!C11</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C10" s="20">
         <f>Employment_Table!D11</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D10" s="20">
         <f>Employment_Table!E11</f>
-        <v>1.5529308836395472</v>
+        <v>2.2392974753018713</v>
       </c>
       <c r="E10" s="20">
         <f>Employment_Table!F11</f>
-        <v>1.0526315789473717</v>
+        <v>1.2048192771084265</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4508,19 +4508,19 @@
       </c>
       <c r="B11" s="23">
         <f>Employment_Table!C12</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C11" s="20">
         <f>Employment_Table!D12</f>
-        <v>-0.30000000000000071</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="D11" s="20">
         <f>Employment_Table!E12</f>
-        <v>2.5204788909904963E-2</v>
+        <v>0.28967254408058807</v>
       </c>
       <c r="E11" s="20">
         <f>Employment_Table!F12</f>
-        <v>-1.0878661087866059</v>
+        <v>-0.62893081761006275</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="D12" s="20">
         <f>Employment_Table!E13</f>
-        <v>2.7990824200013975</v>
+        <v>2.6697459584295702</v>
       </c>
       <c r="E12" s="20">
         <f>Employment_Table!F13</f>
-        <v>-0.86548864046160912</v>
+        <v>-0.88177073960772345</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -4560,19 +4560,19 @@
       </c>
       <c r="B13" s="23">
         <f>Employment_Table!C14</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C13" s="20">
         <f>Employment_Table!D14</f>
-        <v>-1</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="D13" s="20">
         <f>Employment_Table!E14</f>
-        <v>2.2087367810450287</v>
+        <v>2.5361026921019825</v>
       </c>
       <c r="E13" s="20">
         <f>Employment_Table!F14</f>
-        <v>0.34732272069464276</v>
+        <v>1.0635198135198198</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -4586,19 +4586,19 @@
       </c>
       <c r="B14" s="23">
         <f>Employment_Table!C15</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C14" s="20">
         <f>Employment_Table!D15</f>
-        <v>0.29999999999999982</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="D14" s="20">
         <f>Employment_Table!E15</f>
-        <v>2.0373774509804043</v>
+        <v>1.4459665144596734</v>
       </c>
       <c r="E14" s="20">
         <f>Employment_Table!F15</f>
-        <v>2.9220779220779258</v>
+        <v>0.47808764940238113</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -4620,11 +4620,11 @@
       </c>
       <c r="D15" s="20">
         <f>Employment_Table!E16</f>
-        <v>1.8179314144057157</v>
+        <v>1.9914846861694757</v>
       </c>
       <c r="E15" s="20">
         <f>Employment_Table!F16</f>
-        <v>1.6000000000000014</v>
+        <v>2.1582733812949728</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="18"/>
@@ -4637,19 +4637,19 @@
       </c>
       <c r="B16" s="23">
         <f>Employment_Table!C17</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C16" s="20">
         <f>Employment_Table!D17</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="D16" s="20">
         <f>Employment_Table!E17</f>
-        <v>0.89774577023629121</v>
+        <v>1.1675327238045208</v>
       </c>
       <c r="E16" s="20">
         <f>Employment_Table!F17</f>
-        <v>1.7805582290663979</v>
+        <v>2.973038035628317</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -4670,11 +4670,11 @@
       </c>
       <c r="D17" s="20">
         <f>Employment_Table!E18</f>
-        <v>0.96744126249477258</v>
+        <v>1.4286172910847883</v>
       </c>
       <c r="E17" s="20">
         <f>Employment_Table!F18</f>
-        <v>0.11734334663224821</v>
+        <v>0.42253521126760507</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="7"/>
@@ -4694,11 +4694,11 @@
       </c>
       <c r="D18" s="20">
         <f>Employment_Table!E19</f>
-        <v>1.0081795700970231</v>
+        <v>0.9794009857196917</v>
       </c>
       <c r="E18" s="20">
         <f>Employment_Table!F19</f>
-        <v>0.11556240369798854</v>
+        <v>0.42438271604938738</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -4708,19 +4708,19 @@
       </c>
       <c r="B19" s="23">
         <f>Employment_Table!C20</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C19" s="20">
         <f>Employment_Table!D20</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D19" s="20">
         <f>Employment_Table!E20</f>
-        <v>1.3982539569877162</v>
+        <v>1.4242188053567695</v>
       </c>
       <c r="E19" s="20">
         <f>Employment_Table!F20</f>
-        <v>1.0911925175369985</v>
+        <v>1.1292834890965553</v>
       </c>
       <c r="J19" s="18"/>
     </row>
@@ -4730,19 +4730,19 @@
       </c>
       <c r="B20" s="23">
         <f>Employment_Table!C21</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C20" s="20">
         <f>Employment_Table!D21</f>
-        <v>0</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="D20" s="20">
         <f>Employment_Table!E21</f>
-        <v>0.88394342762063705</v>
+        <v>1.1070686070685953</v>
       </c>
       <c r="E20" s="20">
         <f>Employment_Table!F21</f>
-        <v>-9.526833915527444E-2</v>
+        <v>-0.22250476795933061</v>
       </c>
       <c r="J20" s="18"/>
     </row>
@@ -4752,19 +4752,19 @@
       </c>
       <c r="B21" s="23">
         <f>Employment_Table!C22</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C21" s="20">
         <f>Employment_Table!D22</f>
-        <v>0.29999999999999982</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D21" s="20">
         <f>Employment_Table!E22</f>
-        <v>1.1737804878048763</v>
+        <v>1.1115058620514651</v>
       </c>
       <c r="E21" s="20">
         <f>Employment_Table!F22</f>
-        <v>-0.64377682403432557</v>
+        <v>-0.58353808353809322</v>
       </c>
       <c r="J21" s="18"/>
     </row>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="D22" s="20">
         <f>Employment_Table!E23</f>
-        <v>0.98039215686271941</v>
+        <v>0.68932350112216323</v>
       </c>
       <c r="E22" s="20">
         <f>Employment_Table!F23</f>
-        <v>0.19980019980019303</v>
+        <v>0.20040080160321772</v>
       </c>
       <c r="J22" s="18"/>
     </row>
@@ -4796,19 +4796,19 @@
       </c>
       <c r="B23" s="23">
         <f>Employment_Table!C24</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C23" s="20">
         <f>Employment_Table!D24</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="D23" s="20">
         <f>Employment_Table!E24</f>
-        <v>1.3457518976201843</v>
+        <v>1.8740105298037602</v>
       </c>
       <c r="E23" s="20">
         <f>Employment_Table!F24</f>
-        <v>0.119165839126123</v>
+        <v>-1.9864918553824662E-2</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -4820,19 +4820,19 @@
       </c>
       <c r="B24" s="23">
         <f>Employment_Table!C25</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C24" s="20">
         <f>Employment_Table!D25</f>
-        <v>-0.10000000000000009</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D24" s="20">
         <f>Employment_Table!E25</f>
-        <v>1.6685052399338041</v>
+        <v>1.8133715482555379</v>
       </c>
       <c r="E24" s="20">
         <f>Employment_Table!F25</f>
-        <v>-4.4228217602826359E-2</v>
+        <v>-4.4169611307420809E-2</v>
       </c>
       <c r="J24" s="21"/>
       <c r="M24" s="7"/>
@@ -4843,19 +4843,19 @@
       </c>
       <c r="B25" s="23">
         <f>Employment_Table!C26</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C25" s="20">
         <f>Employment_Table!D26</f>
-        <v>-0.80000000000000027</v>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D25" s="20">
         <f>Employment_Table!E26</f>
-        <v>1.1824208871573871</v>
+        <v>1.251479020660784</v>
       </c>
       <c r="E25" s="20">
         <f>Employment_Table!F26</f>
-        <v>0.70561207745325483</v>
+        <v>0.36065573770491799</v>
       </c>
       <c r="J25" s="18"/>
     </row>
@@ -4873,11 +4873,11 @@
       </c>
       <c r="D26" s="20">
         <f>Employment_Table!E27</f>
-        <v>1.1967904256765971</v>
+        <v>1.0938614668614344</v>
       </c>
       <c r="E26" s="20">
         <f>Employment_Table!F27</f>
-        <v>0.51401869158878011</v>
+        <v>0.65573770491802463</v>
       </c>
       <c r="J26" s="18"/>
     </row>
@@ -4895,11 +4895,11 @@
       </c>
       <c r="D27" s="20">
         <f>Employment_Table!E28</f>
-        <v>1.2168809873133624</v>
+        <v>0.94664371772805733</v>
       </c>
       <c r="E27" s="20">
         <f>Employment_Table!F28</f>
-        <v>0.82236842105263275</v>
+        <v>0.57589469354175638</v>
       </c>
       <c r="J27" s="18"/>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B28" s="23">
         <f>Employment_Table!C29</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C28" s="20">
         <f>Employment_Table!D29</f>
@@ -4917,11 +4917,11 @@
       </c>
       <c r="D28" s="20">
         <f>Employment_Table!E29</f>
-        <v>1.1251953464143094</v>
+        <v>1.3538846073734678</v>
       </c>
       <c r="E28" s="20">
         <f>Employment_Table!F29</f>
-        <v>0.27726432532346745</v>
+        <v>0.50890585241729624</v>
       </c>
       <c r="J28" s="18"/>
     </row>
@@ -4939,11 +4939,11 @@
       </c>
       <c r="D29" s="20">
         <f>Employment_Table!E30</f>
-        <v>1.5608521408985387</v>
+        <v>0.98594503880846673</v>
       </c>
       <c r="E29" s="20">
         <f>Employment_Table!F30</f>
-        <v>0.76335877862596657</v>
+        <v>1.3086150490730697</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -4960,11 +4960,11 @@
       </c>
       <c r="D30" s="20">
         <f>Employment_Table!E31</f>
-        <v>1.2655744138134084</v>
+        <v>1.2437567329350641</v>
       </c>
       <c r="E30" s="20">
         <f>Employment_Table!F31</f>
-        <v>0.29002320185613772</v>
+        <v>0.69767441860464352</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -4981,11 +4981,11 @@
       </c>
       <c r="D31" s="20">
         <f>Employment_Table!E32</f>
-        <v>3.835069829306148</v>
+        <v>3.8535078688042512</v>
       </c>
       <c r="E31" s="20">
         <f>Employment_Table!F32</f>
-        <v>2.7472527472527375</v>
+        <v>3.3700980392156854</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -5002,11 +5002,11 @@
       </c>
       <c r="D32" s="20">
         <f>Employment_Table!E33</f>
-        <v>2.2209148404177093</v>
+        <v>2.6700103260067998</v>
       </c>
       <c r="E32" s="20">
         <f>Employment_Table!F33</f>
-        <v>1.1123470522803158</v>
+        <v>1.3363028953229383</v>
       </c>
       <c r="I32" s="18"/>
     </row>
@@ -5024,11 +5024,11 @@
       </c>
       <c r="D33" s="20">
         <f>Employment_Table!E34</f>
-        <v>1.4672930972172038</v>
+        <v>1.4927172759718221</v>
       </c>
       <c r="E33" s="20">
         <f>Employment_Table!F34</f>
-        <v>-0.16252234682269107</v>
+        <v>0</v>
       </c>
       <c r="I33" s="18"/>
     </row>
@@ -5038,19 +5038,19 @@
       </c>
       <c r="B34" s="23">
         <f>Employment_Table!C35</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C34" s="20">
         <f>Employment_Table!D35</f>
-        <v>-1.4000000000000004</v>
+        <v>-1.2999999999999998</v>
       </c>
       <c r="D34" s="20">
         <f>Employment_Table!E35</f>
-        <v>2.1164653832356883</v>
+        <v>2.3809523809523947</v>
       </c>
       <c r="E34" s="20">
         <f>Employment_Table!F35</f>
-        <v>0.32085561497325887</v>
+        <v>0.42735042735042583</v>
       </c>
       <c r="I34" s="18"/>
     </row>
@@ -5068,11 +5068,11 @@
       </c>
       <c r="D35" s="20">
         <f>Employment_Table!E36</f>
-        <v>1.195702161461587</v>
+        <v>1.2733730283087885</v>
       </c>
       <c r="E35" s="20">
         <f>Employment_Table!F36</f>
-        <v>0.17260425296878878</v>
+        <v>0.14491753502174909</v>
       </c>
       <c r="I35" s="18"/>
     </row>
@@ -5090,11 +5090,11 @@
       </c>
       <c r="D36" s="20">
         <f>Employment_Table!E37</f>
-        <v>2.2694492021995805</v>
+        <v>1.9599029038928295</v>
       </c>
       <c r="E36" s="20">
         <f>Employment_Table!F37</f>
-        <v>0.51735874744722743</v>
+        <v>0.61266167460858334</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="8"/>
@@ -5105,19 +5105,19 @@
       </c>
       <c r="B37" s="23">
         <f>Employment_Table!C38</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C37" s="20">
         <f>Employment_Table!D38</f>
-        <v>0.19999999999999973</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="D37" s="20">
         <f>Employment_Table!E38</f>
-        <v>1.7330210772833698</v>
+        <v>2.1116846550915058</v>
       </c>
       <c r="E37" s="20">
         <f>Employment_Table!F38</f>
-        <v>-1.2239902080783405</v>
+        <v>-0.73529411764705621</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="18"/>
@@ -5137,11 +5137,11 @@
       </c>
       <c r="D38" s="20">
         <f>Employment_Table!E39</f>
-        <v>2.1039313149570749</v>
+        <v>2.1050539363605125</v>
       </c>
       <c r="E38" s="20">
         <f>Employment_Table!F39</f>
-        <v>1.0226255912054283</v>
+        <v>1.4961636828644487</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -5153,19 +5153,19 @@
       </c>
       <c r="B39" s="23">
         <f>Employment_Table!C40</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C39" s="20">
         <f>Employment_Table!D40</f>
-        <v>-0.79999999999999982</v>
+        <v>-0.89999999999999947</v>
       </c>
       <c r="D39" s="20">
         <f>Employment_Table!E40</f>
-        <v>1.6825775656324593</v>
+        <v>1.5197568389057725</v>
       </c>
       <c r="E39" s="20">
         <f>Employment_Table!F40</f>
-        <v>0.2277904328018332</v>
+        <v>0.34188034188034067</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="18"/>
@@ -5178,19 +5178,19 @@
       </c>
       <c r="B40" s="23">
         <f>Employment_Table!C41</f>
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C40" s="20">
         <f>Employment_Table!D41</f>
-        <v>-0.30000000000000027</v>
+        <v>0</v>
       </c>
       <c r="D40" s="20">
         <f>Employment_Table!E41</f>
-        <v>2.474827768945409</v>
+        <v>1.8504850274146056</v>
       </c>
       <c r="E40" s="20">
         <f>Employment_Table!F41</f>
-        <v>-3.9805825242718473</v>
+        <v>-3.83994837044207</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5211,11 +5211,11 @@
       </c>
       <c r="D41" s="20">
         <f>Employment_Table!E42</f>
-        <v>1.3167581314415644</v>
+        <v>1.2479978643886724</v>
       </c>
       <c r="E41" s="20">
         <f>Employment_Table!F42</f>
-        <v>2.85184657065507E-2</v>
+        <v>0.30012862655421912</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="18"/>
@@ -5228,19 +5228,19 @@
       </c>
       <c r="B42" s="23">
         <f>Employment_Table!C43</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C42" s="20">
         <f>Employment_Table!D43</f>
-        <v>-0.70000000000000018</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="D42" s="20">
         <f>Employment_Table!E43</f>
-        <v>1.0249196141479011</v>
+        <v>1.4259891544486925</v>
       </c>
       <c r="E42" s="20">
         <f>Employment_Table!F43</f>
-        <v>-0.32840722495893759</v>
+        <v>-0.16420361247947435</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="18"/>
@@ -5261,11 +5261,11 @@
       </c>
       <c r="D43" s="20">
         <f>Employment_Table!E44</f>
-        <v>1.5580467414022525</v>
+        <v>1.9526066350710858</v>
       </c>
       <c r="E43" s="20">
         <f>Employment_Table!F44</f>
-        <v>0.90040927694405859</v>
+        <v>0.81788440567065468</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
@@ -5279,19 +5279,19 @@
       </c>
       <c r="B44" s="23">
         <f>Employment_Table!C45</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C44" s="20">
         <f>Employment_Table!D45</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.5</v>
       </c>
       <c r="D44" s="20">
         <f>Employment_Table!E45</f>
-        <v>2.1291208791208716</v>
+        <v>2.0082154267457852</v>
       </c>
       <c r="E44" s="20">
         <f>Employment_Table!F45</f>
-        <v>0.87719298245614308</v>
+        <v>0.75282308657464991</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
@@ -5313,11 +5313,11 @@
       </c>
       <c r="D45" s="20">
         <f>Employment_Table!E46</f>
-        <v>2.0044249248753365</v>
+        <v>1.9524281466798854</v>
       </c>
       <c r="E45" s="20">
         <f>Employment_Table!F46</f>
-        <v>0.37002775208141436</v>
+        <v>0.74263170109074572</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
@@ -5335,15 +5335,15 @@
       </c>
       <c r="C46" s="20">
         <f>Employment_Table!D47</f>
-        <v>-0.19999999999999973</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="D46" s="20">
         <f>Employment_Table!E47</f>
-        <v>2.9615821040687385</v>
+        <v>3.1718789213345033</v>
       </c>
       <c r="E46" s="20">
         <f>Employment_Table!F47</f>
-        <v>8.7592745259690297E-2</v>
+        <v>0.15442425490297396</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
@@ -5365,11 +5365,11 @@
       </c>
       <c r="D47" s="20">
         <f>Employment_Table!E48</f>
-        <v>2.9413744362926542</v>
+        <v>3.1134670871636683</v>
       </c>
       <c r="E47" s="20">
         <f>Employment_Table!F48</f>
-        <v>2.2412387938060219</v>
+        <v>2.2792022792022859</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
@@ -5392,11 +5392,11 @@
       </c>
       <c r="D48" s="20">
         <f>Employment_Table!E49</f>
-        <v>-0.41335453100159736</v>
+        <v>-6.3795853269532632E-2</v>
       </c>
       <c r="E48" s="20">
         <f>Employment_Table!F49</f>
-        <v>0.17921146953405742</v>
+        <v>-0.17889087656529634</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="18"/>
@@ -5419,11 +5419,11 @@
       </c>
       <c r="D49" s="20">
         <f>Employment_Table!E50</f>
-        <v>1.8980943234089942</v>
+        <v>1.9473457929743754</v>
       </c>
       <c r="E49" s="20">
         <f>Employment_Table!F50</f>
-        <v>-2.2476615943040512</v>
+        <v>-2.2203602848764104</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
@@ -5446,11 +5446,11 @@
       </c>
       <c r="D50" s="20">
         <f>Employment_Table!E51</f>
-        <v>2.9445882038011906</v>
+        <v>3.0854125255881604</v>
       </c>
       <c r="E50" s="20">
         <f>Employment_Table!F51</f>
-        <v>0.4406032875783783</v>
+        <v>0.99881496529541369</v>
       </c>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
@@ -5465,19 +5465,19 @@
       </c>
       <c r="B51" s="23">
         <f>Employment_Table!C52</f>
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C51" s="20">
         <f>Employment_Table!D52</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="D51" s="20">
         <f>Employment_Table!E52</f>
-        <v>0.87003078570473402</v>
+        <v>0.62783863211326452</v>
       </c>
       <c r="E51" s="20">
         <f>Employment_Table!F52</f>
-        <v>1.0416666666666741</v>
+        <v>1.3671875</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="18"/>
@@ -5497,11 +5497,11 @@
       </c>
       <c r="D52" s="20">
         <f>Employment_Table!E53</f>
-        <v>1.4866607833819989</v>
+        <v>1.6354586394880188</v>
       </c>
       <c r="E52" s="20">
         <f>Employment_Table!F53</f>
-        <v>0.8152173913043459</v>
+        <v>0.83682008368199945</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
@@ -5517,15 +5517,15 @@
       </c>
       <c r="C53" s="20">
         <f>Employment_Table!D54</f>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
       <c r="D53" s="20">
         <f>Employment_Table!E54</f>
-        <v>3.1926214969847377</v>
+        <v>2.8238616307801001</v>
       </c>
       <c r="E53" s="20">
         <f>Employment_Table!F54</f>
-        <v>-0.28776978417266452</v>
+        <v>-0.14409221902018654</v>
       </c>
       <c r="I53" s="18"/>
       <c r="K53" s="18"/>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C55" s="14">
         <f>COUNTIF(C3:C53, "&gt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="14">
         <f>COUNTIF(D3:D53, "&gt;1.98")</f>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E55" s="14">
         <f>COUNTIF(E3:E53, "&lt;0.00")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K55" s="7"/>
     </row>
@@ -5563,7 +5563,7 @@
       <c r="B56" s="24"/>
       <c r="C56" s="14">
         <f>COUNTIF(C3:C53, "&lt;-0.49")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -5596,7 +5596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5613,16 +5615,16 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="C1" s="4">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="D1" s="4">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="E1" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -5636,17 +5638,17 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C2" s="29">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D2" s="29">
         <v>3.7</v>
       </c>
       <c r="E2" s="33">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F33" si="0">E2-B2</f>
-        <v>-0.39999999999999947</v>
+        <v>-0.19999999999999973</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5663,15 +5665,15 @@
       </c>
       <c r="D3" s="32">
         <f>BLS_Table_1!D2</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E3" s="34">
         <f>BLS_Table_1!E2</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5684,11 +5686,11 @@
       </c>
       <c r="C4" s="32">
         <f>BLS_Table_1!C3</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D4" s="32">
         <f>BLS_Table_1!D3</f>
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E4" s="34">
         <f>BLS_Table_1!E3</f>
@@ -5713,15 +5715,15 @@
       </c>
       <c r="D5" s="32">
         <f>BLS_Table_1!D4</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="E5" s="34">
         <f>BLS_Table_1!E4</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5738,7 +5740,7 @@
       </c>
       <c r="D6" s="32">
         <f>BLS_Table_1!D5</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E6" s="34">
         <f>BLS_Table_1!E5</f>
@@ -5767,11 +5769,11 @@
       </c>
       <c r="E7" s="34">
         <f>BLS_Table_1!E6</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.40000000000000036</v>
+        <v>-0.29999999999999982</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5784,19 +5786,19 @@
       </c>
       <c r="C8" s="32">
         <f>BLS_Table_1!C7</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D8" s="32">
         <f>BLS_Table_1!D7</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E8" s="34">
         <f>BLS_Table_1!E7</f>
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5813,15 +5815,15 @@
       </c>
       <c r="D9" s="32">
         <f>BLS_Table_1!D8</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E9" s="34">
         <f>BLS_Table_1!E8</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.40000000000000036</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5834,19 +5836,19 @@
       </c>
       <c r="C10" s="32">
         <f>BLS_Table_1!C9</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D10" s="32">
         <f>BLS_Table_1!D9</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E10" s="34">
         <f>BLS_Table_1!E9</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5859,7 +5861,7 @@
       </c>
       <c r="C11" s="32">
         <f>BLS_Table_1!C10</f>
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="D11" s="32">
         <f>BLS_Table_1!D10</f>
@@ -5867,11 +5869,11 @@
       </c>
       <c r="E11" s="34">
         <f>BLS_Table_1!E10</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.30000000000000071</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5884,11 +5886,11 @@
       </c>
       <c r="C12" s="32">
         <f>BLS_Table_1!C11</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D12" s="32">
         <f>BLS_Table_1!D11</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E12" s="34">
         <f>BLS_Table_1!E11</f>
@@ -5909,19 +5911,19 @@
       </c>
       <c r="C13" s="32">
         <f>BLS_Table_1!C12</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D13" s="32">
         <f>BLS_Table_1!D12</f>
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E13" s="34">
         <f>BLS_Table_1!E12</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.89999999999999991</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5934,19 +5936,19 @@
       </c>
       <c r="C14" s="32">
         <f>BLS_Table_1!C13</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D14" s="32">
         <f>BLS_Table_1!D13</f>
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E14" s="34">
         <f>BLS_Table_1!E13</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5963,7 +5965,7 @@
       </c>
       <c r="D15" s="32">
         <f>BLS_Table_1!D14</f>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E15" s="34">
         <f>BLS_Table_1!E14</f>
@@ -5984,7 +5986,7 @@
       </c>
       <c r="C16" s="32">
         <f>BLS_Table_1!C15</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D16" s="32">
         <f>BLS_Table_1!D15</f>
@@ -5992,11 +5994,11 @@
       </c>
       <c r="E16" s="34">
         <f>BLS_Table_1!E15</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.60000000000000053</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -6013,7 +6015,7 @@
       </c>
       <c r="D17" s="32">
         <f>BLS_Table_1!D16</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E17" s="34">
         <f>BLS_Table_1!E16</f>
@@ -6034,7 +6036,7 @@
       </c>
       <c r="C18" s="32">
         <f>BLS_Table_1!C17</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D18" s="32">
         <f>BLS_Table_1!D17</f>
@@ -6063,15 +6065,15 @@
       </c>
       <c r="D19" s="32">
         <f>BLS_Table_1!D18</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E19" s="34">
         <f>BLS_Table_1!E18</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6092,11 +6094,11 @@
       </c>
       <c r="E20" s="34">
         <f>BLS_Table_1!E19</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6117,11 +6119,11 @@
       </c>
       <c r="E21" s="34">
         <f>BLS_Table_1!E20</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6134,7 +6136,7 @@
       </c>
       <c r="C22" s="32">
         <f>BLS_Table_1!C21</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D22" s="32">
         <f>BLS_Table_1!D21</f>
@@ -6159,19 +6161,19 @@
       </c>
       <c r="C23" s="32">
         <f>BLS_Table_1!C22</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D23" s="32">
         <f>BLS_Table_1!D22</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E23" s="34">
         <f>BLS_Table_1!E22</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-9.9999999999999645E-2</v>
+        <v>-0.19999999999999973</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6184,19 +6186,19 @@
       </c>
       <c r="C24" s="32">
         <f>BLS_Table_1!C23</f>
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D24" s="32">
         <f>BLS_Table_1!D23</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E24" s="34">
         <f>BLS_Table_1!E23</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6209,7 +6211,7 @@
       </c>
       <c r="C25" s="32">
         <f>BLS_Table_1!C24</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D25" s="32">
         <f>BLS_Table_1!D24</f>
@@ -6217,11 +6219,11 @@
       </c>
       <c r="E25" s="34">
         <f>BLS_Table_1!E24</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-0.80000000000000027</v>
+        <v>-0.70000000000000018</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6259,7 +6261,7 @@
       </c>
       <c r="C27" s="32">
         <f>BLS_Table_1!C26</f>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D27" s="32">
         <f>BLS_Table_1!D26</f>
@@ -6280,19 +6282,19 @@
       </c>
       <c r="B28" s="32">
         <f>BLS_Table_1!B27</f>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C28" s="32">
         <f>BLS_Table_1!C27</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D28" s="32">
         <f>BLS_Table_1!D27</f>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="34">
         <f>BLS_Table_1!E27</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
@@ -6309,7 +6311,7 @@
       </c>
       <c r="C29" s="32">
         <f>BLS_Table_1!C28</f>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D29" s="32">
         <f>BLS_Table_1!D28</f>
@@ -6359,7 +6361,7 @@
       </c>
       <c r="C31" s="32">
         <f>BLS_Table_1!C30</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D31" s="32">
         <f>BLS_Table_1!D30</f>
@@ -6384,11 +6386,11 @@
       </c>
       <c r="C32" s="32">
         <f>BLS_Table_1!C31</f>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D32" s="32">
         <f>BLS_Table_1!D31</f>
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E32" s="34">
         <f>BLS_Table_1!E31</f>
@@ -6409,11 +6411,11 @@
       </c>
       <c r="C33" s="32">
         <f>BLS_Table_1!C32</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D33" s="32">
         <f>BLS_Table_1!D32</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E33" s="34">
         <f>BLS_Table_1!E32</f>
@@ -6442,11 +6444,11 @@
       </c>
       <c r="E34" s="34">
         <f>BLS_Table_1!E33</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ref="F34:F53" si="1">E34-B34</f>
-        <v>-1.4000000000000004</v>
+        <v>-1.2999999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6459,11 +6461,11 @@
       </c>
       <c r="C35" s="32">
         <f>BLS_Table_1!C34</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D35" s="32">
         <f>BLS_Table_1!D34</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E35" s="34">
         <f>BLS_Table_1!E34</f>
@@ -6484,7 +6486,7 @@
       </c>
       <c r="C36" s="32">
         <f>BLS_Table_1!C35</f>
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D36" s="32">
         <f>BLS_Table_1!D35</f>
@@ -6509,7 +6511,7 @@
       </c>
       <c r="C37" s="32">
         <f>BLS_Table_1!C36</f>
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D37" s="32">
         <f>BLS_Table_1!D36</f>
@@ -6517,11 +6519,11 @@
       </c>
       <c r="E37" s="34">
         <f>BLS_Table_1!E36</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
-        <v>0.19999999999999973</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6559,19 +6561,19 @@
       </c>
       <c r="C39" s="32">
         <f>BLS_Table_1!C38</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D39" s="32">
         <f>BLS_Table_1!D38</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E39" s="34">
         <f>BLS_Table_1!E38</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
-        <v>-0.79999999999999982</v>
+        <v>-0.89999999999999947</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6580,7 +6582,7 @@
       </c>
       <c r="B40" s="32">
         <f>BLS_Table_1!B39</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C40" s="32">
         <f>BLS_Table_1!C39</f>
@@ -6588,15 +6590,15 @@
       </c>
       <c r="D40" s="32">
         <f>BLS_Table_1!D39</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E40" s="34">
         <f>BLS_Table_1!E39</f>
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
-        <v>-0.30000000000000027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6613,7 +6615,7 @@
       </c>
       <c r="D41" s="32">
         <f>BLS_Table_1!D40</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E41" s="34">
         <f>BLS_Table_1!E40</f>
@@ -6634,7 +6636,7 @@
       </c>
       <c r="C42" s="32">
         <f>BLS_Table_1!C41</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D42" s="32">
         <f>BLS_Table_1!D41</f>
@@ -6642,11 +6644,11 @@
       </c>
       <c r="E42" s="34">
         <f>BLS_Table_1!E41</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>-0.70000000000000018</v>
+        <v>-0.60000000000000009</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6692,11 +6694,11 @@
       </c>
       <c r="E44" s="34">
         <f>BLS_Table_1!E43</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6709,11 +6711,11 @@
       </c>
       <c r="C45" s="32">
         <f>BLS_Table_1!C44</f>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D45" s="32">
         <f>BLS_Table_1!D44</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E45" s="34">
         <f>BLS_Table_1!E44</f>
@@ -6730,11 +6732,11 @@
       </c>
       <c r="B46" s="32">
         <f>BLS_Table_1!B45</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C46" s="32">
         <f>BLS_Table_1!C45</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D46" s="32">
         <f>BLS_Table_1!D45</f>
@@ -6746,7 +6748,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19999999999999973</v>
+        <v>-0.29999999999999982</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6784,11 +6786,11 @@
       </c>
       <c r="C48" s="32">
         <f>BLS_Table_1!C47</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D48" s="32">
         <f>BLS_Table_1!D47</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="E48" s="34">
         <f>BLS_Table_1!E47</f>
@@ -6813,7 +6815,7 @@
       </c>
       <c r="D49" s="32">
         <f>BLS_Table_1!D48</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E49" s="34">
         <f>BLS_Table_1!E48</f>
@@ -6834,7 +6836,7 @@
       </c>
       <c r="C50" s="32">
         <f>BLS_Table_1!C49</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="D50" s="32">
         <f>BLS_Table_1!D49</f>
@@ -6867,11 +6869,11 @@
       </c>
       <c r="E51" s="34">
         <f>BLS_Table_1!E50</f>
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000018</v>
+        <v>-0.30000000000000071</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6905,7 +6907,7 @@
       </c>
       <c r="B53" s="32">
         <f>BLS_Table_1!B52</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C53" s="32">
         <f>BLS_Table_1!C52</f>
@@ -6921,7 +6923,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6934,7 +6936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6947,16 +6951,16 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="C1" s="4">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="D1" s="4">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="E1" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -6967,20 +6971,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="35">
-        <v>147450</v>
+        <v>147625</v>
       </c>
       <c r="C2" s="35">
-        <v>149501</v>
+        <v>149775</v>
       </c>
       <c r="D2" s="35">
-        <v>149738</v>
+        <v>149951</v>
       </c>
       <c r="E2" s="35">
-        <v>149893</v>
+        <v>150263</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>1.6568328246863384</v>
+        <v>1.7869602032176024</v>
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
@@ -6993,23 +6997,23 @@
       </c>
       <c r="B3" s="36">
         <f>BLS_T3_Total!B2</f>
-        <v>2020</v>
+        <v>2020.2</v>
       </c>
       <c r="C3" s="36">
         <f>BLS_T3_Total!C2</f>
-        <v>2046.2</v>
+        <v>2053</v>
       </c>
       <c r="D3" s="36">
         <f>BLS_T3_Total!D2</f>
-        <v>2053</v>
+        <v>2055.6999999999998</v>
       </c>
       <c r="E3" s="36">
         <f>BLS_T3_Total!E2</f>
-        <v>2054.8000000000002</v>
+        <v>2063.8000000000002</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">((E3/B3)-1)*100</f>
-        <v>1.7227722772277243</v>
+        <v>2.1582021582021715</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -7022,19 +7026,19 @@
       </c>
       <c r="C4" s="36">
         <f>BLS_T3_Total!C3</f>
-        <v>327.2</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="D4" s="36">
         <f>BLS_T3_Total!D3</f>
-        <v>327.39999999999998</v>
+        <v>325.8</v>
       </c>
       <c r="E4" s="36">
         <f>BLS_T3_Total!E3</f>
-        <v>326</v>
+        <v>326.10000000000002</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.15313935681470214</v>
+        <v>-0.12251148545175949</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -7047,23 +7051,23 @@
       </c>
       <c r="B5" s="36">
         <f>BLS_T3_Total!B4</f>
-        <v>2791</v>
+        <v>2795.1</v>
       </c>
       <c r="C5" s="36">
         <f>BLS_T3_Total!C4</f>
-        <v>2875.3</v>
+        <v>2884.9</v>
       </c>
       <c r="D5" s="36">
         <f>BLS_T3_Total!D4</f>
-        <v>2884.9</v>
+        <v>2891.5</v>
       </c>
       <c r="E5" s="36">
         <f>BLS_T3_Total!E4</f>
-        <v>2892.6</v>
+        <v>2889.2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>3.640272303833747</v>
+        <v>3.3666058459446813</v>
       </c>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -7076,23 +7080,23 @@
       </c>
       <c r="B6" s="36">
         <f>BLS_T3_Total!B5</f>
-        <v>1241.9000000000001</v>
+        <v>1239</v>
       </c>
       <c r="C6" s="36">
         <f>BLS_T3_Total!C5</f>
-        <v>1253.5</v>
+        <v>1252.3</v>
       </c>
       <c r="D6" s="36">
         <f>BLS_T3_Total!D5</f>
-        <v>1252.3</v>
+        <v>1254.3</v>
       </c>
       <c r="E6" s="36">
         <f>BLS_T3_Total!E5</f>
-        <v>1254.0999999999999</v>
+        <v>1256.0999999999999</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.98236572992993487</v>
+        <v>1.3801452784503621</v>
       </c>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -7109,23 +7113,23 @@
       </c>
       <c r="B7" s="36">
         <f>BLS_T3_Total!B6</f>
-        <v>16967.900000000001</v>
+        <v>17002.900000000001</v>
       </c>
       <c r="C7" s="36">
         <f>BLS_T3_Total!C6</f>
-        <v>17200.2</v>
+        <v>17237</v>
       </c>
       <c r="D7" s="36">
         <f>BLS_T3_Total!D6</f>
-        <v>17237</v>
+        <v>17262.7</v>
       </c>
       <c r="E7" s="36">
         <f>BLS_T3_Total!E6</f>
-        <v>17267.7</v>
+        <v>17287.2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.7668656698825336</v>
+        <v>1.67206770609718</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -7134,23 +7138,23 @@
       </c>
       <c r="B8" s="36">
         <f>BLS_T3_Total!B7</f>
-        <v>2680.7</v>
+        <v>2686.8</v>
       </c>
       <c r="C8" s="36">
         <f>BLS_T3_Total!C7</f>
-        <v>2742.3</v>
+        <v>2748</v>
       </c>
       <c r="D8" s="36">
         <f>BLS_T3_Total!D7</f>
-        <v>2748</v>
+        <v>2752.4</v>
       </c>
       <c r="E8" s="36">
         <f>BLS_T3_Total!E7</f>
-        <v>2749.8</v>
+        <v>2762.2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>2.5776849330398921</v>
+        <v>2.8063123418192504</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -7163,23 +7167,23 @@
       </c>
       <c r="B9" s="36">
         <f>BLS_T3_Total!B8</f>
-        <v>1679.9</v>
+        <v>1685.6</v>
       </c>
       <c r="C9" s="36">
         <f>BLS_T3_Total!C8</f>
-        <v>1700.4</v>
+        <v>1703.4</v>
       </c>
       <c r="D9" s="36">
         <f>BLS_T3_Total!D8</f>
-        <v>1703.4</v>
+        <v>1704.4</v>
       </c>
       <c r="E9" s="36">
         <f>BLS_T3_Total!E8</f>
-        <v>1702.9</v>
+        <v>1705.5</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>1.3691291148282714</v>
+        <v>1.1805885144755557</v>
       </c>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -7192,23 +7196,23 @@
       </c>
       <c r="B10" s="36">
         <f>BLS_T3_Total!B9</f>
-        <v>457.2</v>
+        <v>455.5</v>
       </c>
       <c r="C10" s="36">
         <f>BLS_T3_Total!C9</f>
-        <v>463</v>
+        <v>464.2</v>
       </c>
       <c r="D10" s="36">
         <f>BLS_T3_Total!D9</f>
-        <v>464.2</v>
+        <v>464.5</v>
       </c>
       <c r="E10" s="36">
         <f>BLS_T3_Total!E9</f>
-        <v>464.3</v>
+        <v>465.7</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>1.5529308836395472</v>
+        <v>2.2392974753018713</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>113</v>
@@ -7223,23 +7227,23 @@
       </c>
       <c r="B11" s="36">
         <f>BLS_T3_Total!B10</f>
-        <v>793.5</v>
+        <v>794</v>
       </c>
       <c r="C11" s="36">
         <f>BLS_T3_Total!C10</f>
-        <v>795.5</v>
+        <v>795.2</v>
       </c>
       <c r="D11" s="36">
         <f>BLS_T3_Total!D10</f>
-        <v>795.2</v>
+        <v>794.2</v>
       </c>
       <c r="E11" s="36">
         <f>BLS_T3_Total!E10</f>
-        <v>793.7</v>
+        <v>796.3</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>2.5204788909904963E-2</v>
+        <v>0.28967254408058807</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>114</v>
@@ -7254,23 +7258,23 @@
       </c>
       <c r="B12" s="36">
         <f>BLS_T3_Total!B11</f>
-        <v>8631.4</v>
+        <v>8660</v>
       </c>
       <c r="C12" s="36">
         <f>BLS_T3_Total!C11</f>
-        <v>8829.5</v>
+        <v>8849.4</v>
       </c>
       <c r="D12" s="36">
         <f>BLS_T3_Total!D11</f>
-        <v>8849.4</v>
+        <v>8868.4</v>
       </c>
       <c r="E12" s="36">
         <f>BLS_T3_Total!E11</f>
-        <v>8873</v>
+        <v>8891.2000000000007</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>2.7990824200013975</v>
+        <v>2.6697459584295702</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -7283,23 +7287,23 @@
       </c>
       <c r="B13" s="36">
         <f>BLS_T3_Total!B12</f>
-        <v>4482.2</v>
+        <v>4487.2</v>
       </c>
       <c r="C13" s="36">
         <f>BLS_T3_Total!C12</f>
-        <v>4573.3999999999996</v>
+        <v>4576.7</v>
       </c>
       <c r="D13" s="36">
         <f>BLS_T3_Total!D12</f>
-        <v>4576.7</v>
+        <v>4584.3</v>
       </c>
       <c r="E13" s="36">
         <f>BLS_T3_Total!E12</f>
-        <v>4581.2</v>
+        <v>4601</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>2.2087367810450287</v>
+        <v>2.5361026921019825</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -7308,23 +7312,23 @@
       </c>
       <c r="B14" s="36">
         <f>BLS_T3_Total!B13</f>
-        <v>652.79999999999995</v>
+        <v>657</v>
       </c>
       <c r="C14" s="36">
         <f>BLS_T3_Total!C13</f>
-        <v>664.4</v>
+        <v>665.2</v>
       </c>
       <c r="D14" s="36">
         <f>BLS_T3_Total!D13</f>
-        <v>665.2</v>
+        <v>665.4</v>
       </c>
       <c r="E14" s="36">
         <f>BLS_T3_Total!E13</f>
-        <v>666.1</v>
+        <v>666.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>2.0373774509804043</v>
+        <v>1.4459665144596734</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
@@ -7337,23 +7341,23 @@
       </c>
       <c r="B15" s="36">
         <f>BLS_T3_Total!B14</f>
-        <v>726.1</v>
+        <v>728.1</v>
       </c>
       <c r="C15" s="36">
         <f>BLS_T3_Total!C14</f>
-        <v>738.5</v>
+        <v>738.9</v>
       </c>
       <c r="D15" s="36">
         <f>BLS_T3_Total!D14</f>
-        <v>738.9</v>
+        <v>740.3</v>
       </c>
       <c r="E15" s="36">
         <f>BLS_T3_Total!E14</f>
-        <v>739.3</v>
+        <v>742.6</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1.8179314144057157</v>
+        <v>1.9914846861694757</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -7362,23 +7366,23 @@
       </c>
       <c r="B16" s="36">
         <f>BLS_T3_Total!B15</f>
-        <v>6081.9</v>
+        <v>6081.2</v>
       </c>
       <c r="C16" s="36">
         <f>BLS_T3_Total!C15</f>
-        <v>6123.8</v>
+        <v>6130.6</v>
       </c>
       <c r="D16" s="36">
         <f>BLS_T3_Total!D15</f>
-        <v>6130.6</v>
+        <v>6138.6</v>
       </c>
       <c r="E16" s="36">
         <f>BLS_T3_Total!E15</f>
-        <v>6136.5</v>
+        <v>6152.2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.89774577023629121</v>
+        <v>1.1675327238045208</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -7387,23 +7391,23 @@
       </c>
       <c r="B17" s="36">
         <f>BLS_T3_Total!B16</f>
-        <v>3111.3</v>
+        <v>3114.9</v>
       </c>
       <c r="C17" s="36">
         <f>BLS_T3_Total!C16</f>
-        <v>3136</v>
+        <v>3138.1</v>
       </c>
       <c r="D17" s="36">
         <f>BLS_T3_Total!D16</f>
-        <v>3138.1</v>
+        <v>3146.2</v>
       </c>
       <c r="E17" s="36">
         <f>BLS_T3_Total!E16</f>
-        <v>3141.4</v>
+        <v>3159.4</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.96744126249477258</v>
+        <v>1.4286172910847883</v>
       </c>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
@@ -7416,23 +7420,23 @@
       </c>
       <c r="B18" s="36">
         <f>BLS_T3_Total!B17</f>
-        <v>1577.1</v>
+        <v>1582.6</v>
       </c>
       <c r="C18" s="36">
         <f>BLS_T3_Total!C17</f>
-        <v>1591.4</v>
+        <v>1593.8</v>
       </c>
       <c r="D18" s="36">
         <f>BLS_T3_Total!D17</f>
-        <v>1593.8</v>
+        <v>1594.2</v>
       </c>
       <c r="E18" s="36">
         <f>BLS_T3_Total!E17</f>
-        <v>1593</v>
+        <v>1598.1</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>1.0081795700970231</v>
+        <v>0.9794009857196917</v>
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
@@ -7445,23 +7449,23 @@
       </c>
       <c r="B19" s="36">
         <f>BLS_T3_Total!B18</f>
-        <v>1408.9</v>
+        <v>1411.3</v>
       </c>
       <c r="C19" s="36">
         <f>BLS_T3_Total!C18</f>
-        <v>1425</v>
+        <v>1427.1</v>
       </c>
       <c r="D19" s="36">
         <f>BLS_T3_Total!D18</f>
-        <v>1427.1</v>
+        <v>1430.3</v>
       </c>
       <c r="E19" s="36">
         <f>BLS_T3_Total!E18</f>
-        <v>1428.6</v>
+        <v>1431.4</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>1.3982539569877162</v>
+        <v>1.4242188053567695</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -7470,23 +7474,23 @@
       </c>
       <c r="B20" s="36">
         <f>BLS_T3_Total!B19</f>
-        <v>1923.2</v>
+        <v>1924</v>
       </c>
       <c r="C20" s="36">
         <f>BLS_T3_Total!C19</f>
-        <v>1934.2</v>
+        <v>1935</v>
       </c>
       <c r="D20" s="36">
         <f>BLS_T3_Total!D19</f>
-        <v>1935</v>
+        <v>1940.8</v>
       </c>
       <c r="E20" s="36">
         <f>BLS_T3_Total!E19</f>
-        <v>1940.2</v>
+        <v>1945.3</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.88394342762063705</v>
+        <v>1.1070686070685953</v>
       </c>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
@@ -7499,23 +7503,23 @@
       </c>
       <c r="B21" s="36">
         <f>BLS_T3_Total!B20</f>
-        <v>1968</v>
+        <v>1970.3</v>
       </c>
       <c r="C21" s="36">
         <f>BLS_T3_Total!C20</f>
-        <v>1989.7</v>
+        <v>1992.2</v>
       </c>
       <c r="D21" s="36">
         <f>BLS_T3_Total!D20</f>
-        <v>1992.2</v>
+        <v>1991.5</v>
       </c>
       <c r="E21" s="36">
         <f>BLS_T3_Total!E20</f>
-        <v>1991.1</v>
+        <v>1992.2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1.1737804878048763</v>
+        <v>1.1115058620514651</v>
       </c>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
@@ -7528,23 +7532,23 @@
       </c>
       <c r="B22" s="36">
         <f>BLS_T3_Total!B21</f>
-        <v>622.20000000000005</v>
+        <v>623.79999999999995</v>
       </c>
       <c r="C22" s="36">
         <f>BLS_T3_Total!C21</f>
-        <v>629.1</v>
+        <v>628</v>
       </c>
       <c r="D22" s="36">
         <f>BLS_T3_Total!D21</f>
-        <v>628</v>
+        <v>629.1</v>
       </c>
       <c r="E22" s="36">
         <f>BLS_T3_Total!E21</f>
-        <v>628.29999999999995</v>
+        <v>628.1</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.98039215686271941</v>
+        <v>0.68932350112216323</v>
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
@@ -7557,23 +7561,23 @@
       </c>
       <c r="B23" s="36">
         <f>BLS_T3_Total!B22</f>
-        <v>2727.1</v>
+        <v>2716.1</v>
       </c>
       <c r="C23" s="36">
         <f>BLS_T3_Total!C22</f>
-        <v>2750.9</v>
+        <v>2755.9</v>
       </c>
       <c r="D23" s="36">
         <f>BLS_T3_Total!D22</f>
-        <v>2755.9</v>
+        <v>2762.1</v>
       </c>
       <c r="E23" s="36">
         <f>BLS_T3_Total!E22</f>
-        <v>2763.8</v>
+        <v>2767</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>1.3457518976201843</v>
+        <v>1.8740105298037602</v>
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
@@ -7586,23 +7590,23 @@
       </c>
       <c r="B24" s="36">
         <f>BLS_T3_Total!B23</f>
-        <v>3626</v>
+        <v>3628.6</v>
       </c>
       <c r="C24" s="36">
         <f>BLS_T3_Total!C23</f>
-        <v>3679.1</v>
+        <v>3681.9</v>
       </c>
       <c r="D24" s="36">
         <f>BLS_T3_Total!D23</f>
-        <v>3681.9</v>
+        <v>3688.8</v>
       </c>
       <c r="E24" s="36">
         <f>BLS_T3_Total!E23</f>
-        <v>3686.5</v>
+        <v>3694.4</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>1.6685052399338041</v>
+        <v>1.8133715482555379</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -7611,23 +7615,23 @@
       </c>
       <c r="B25" s="36">
         <f>BLS_T3_Total!B24</f>
-        <v>4389.3</v>
+        <v>4394.8</v>
       </c>
       <c r="C25" s="36">
         <f>BLS_T3_Total!C24</f>
-        <v>4438</v>
+        <v>4442.1000000000004</v>
       </c>
       <c r="D25" s="36">
         <f>BLS_T3_Total!D24</f>
-        <v>4442.1000000000004</v>
+        <v>4442.3</v>
       </c>
       <c r="E25" s="36">
         <f>BLS_T3_Total!E24</f>
-        <v>4441.2</v>
+        <v>4449.8</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>1.1824208871573871</v>
+        <v>1.251479020660784</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -7636,23 +7640,23 @@
       </c>
       <c r="B26" s="36">
         <f>BLS_T3_Total!B25</f>
-        <v>2941.2</v>
+        <v>2943.7</v>
       </c>
       <c r="C26" s="36">
         <f>BLS_T3_Total!C25</f>
-        <v>2974.7</v>
+        <v>2977.2</v>
       </c>
       <c r="D26" s="36">
         <f>BLS_T3_Total!D25</f>
-        <v>2977.2</v>
+        <v>2975.4</v>
       </c>
       <c r="E26" s="36">
         <f>BLS_T3_Total!E25</f>
-        <v>2976.4</v>
+        <v>2975.9</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1.1967904256765971</v>
+        <v>1.0938614668614344</v>
       </c>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -7665,23 +7669,23 @@
       </c>
       <c r="B27" s="36">
         <f>BLS_T3_Total!B26</f>
-        <v>1158.7</v>
+        <v>1162</v>
       </c>
       <c r="C27" s="36">
         <f>BLS_T3_Total!C26</f>
-        <v>1168.0999999999999</v>
+        <v>1170</v>
       </c>
       <c r="D27" s="36">
         <f>BLS_T3_Total!D26</f>
-        <v>1170</v>
+        <v>1172.5999999999999</v>
       </c>
       <c r="E27" s="36">
         <f>BLS_T3_Total!E26</f>
-        <v>1172.8</v>
+        <v>1173</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>1.2168809873133624</v>
+        <v>0.94664371772805733</v>
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
@@ -7694,23 +7698,23 @@
       </c>
       <c r="B28" s="36">
         <f>BLS_T3_Total!B27</f>
-        <v>2879.5</v>
+        <v>2880.6</v>
       </c>
       <c r="C28" s="36">
         <f>BLS_T3_Total!C27</f>
-        <v>2913.2</v>
+        <v>2913.1</v>
       </c>
       <c r="D28" s="36">
         <f>BLS_T3_Total!D27</f>
-        <v>2913.1</v>
+        <v>2915.5</v>
       </c>
       <c r="E28" s="36">
         <f>BLS_T3_Total!E27</f>
-        <v>2911.9</v>
+        <v>2919.6</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>1.1251953464143094</v>
+        <v>1.3538846073734678</v>
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
@@ -7723,23 +7727,23 @@
       </c>
       <c r="B29" s="36">
         <f>BLS_T3_Total!B28</f>
-        <v>474.1</v>
+        <v>476.7</v>
       </c>
       <c r="C29" s="36">
         <f>BLS_T3_Total!C28</f>
-        <v>479.6</v>
+        <v>479.5</v>
       </c>
       <c r="D29" s="36">
         <f>BLS_T3_Total!D28</f>
-        <v>479.5</v>
+        <v>481.1</v>
       </c>
       <c r="E29" s="36">
         <f>BLS_T3_Total!E28</f>
-        <v>481.5</v>
+        <v>481.4</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>1.5608521408985387</v>
+        <v>0.98594503880846673</v>
       </c>
       <c r="M29" s="28"/>
       <c r="N29" s="28"/>
@@ -7752,23 +7756,23 @@
       </c>
       <c r="B30" s="36">
         <f>BLS_T3_Total!B29</f>
-        <v>1019.3</v>
+        <v>1021.1</v>
       </c>
       <c r="C30" s="36">
         <f>BLS_T3_Total!C29</f>
-        <v>1033.3</v>
+        <v>1030.9000000000001</v>
       </c>
       <c r="D30" s="36">
         <f>BLS_T3_Total!D29</f>
-        <v>1030.9000000000001</v>
+        <v>1033.0999999999999</v>
       </c>
       <c r="E30" s="36">
         <f>BLS_T3_Total!E29</f>
-        <v>1032.2</v>
+        <v>1033.8</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>1.2655744138134084</v>
+        <v>1.2437567329350641</v>
       </c>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -7781,23 +7785,23 @@
       </c>
       <c r="B31" s="36">
         <f>BLS_T3_Total!B30</f>
-        <v>1353.3</v>
+        <v>1359.8</v>
       </c>
       <c r="C31" s="36">
         <f>BLS_T3_Total!C30</f>
-        <v>1392.8</v>
+        <v>1400</v>
       </c>
       <c r="D31" s="36">
         <f>BLS_T3_Total!D30</f>
-        <v>1400</v>
+        <v>1405.9</v>
       </c>
       <c r="E31" s="36">
         <f>BLS_T3_Total!E30</f>
-        <v>1405.2</v>
+        <v>1412.2</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>3.835069829306148</v>
+        <v>3.8535078688042512</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -7806,23 +7810,23 @@
       </c>
       <c r="B32" s="36">
         <f>BLS_T3_Total!B31</f>
-        <v>679.9</v>
+        <v>677.9</v>
       </c>
       <c r="C32" s="36">
         <f>BLS_T3_Total!C31</f>
-        <v>690.9</v>
+        <v>694.4</v>
       </c>
       <c r="D32" s="36">
         <f>BLS_T3_Total!D31</f>
-        <v>694.4</v>
+        <v>695.1</v>
       </c>
       <c r="E32" s="36">
         <f>BLS_T3_Total!E31</f>
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>2.2209148404177093</v>
+        <v>2.6700103260067998</v>
       </c>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
@@ -7835,23 +7839,23 @@
       </c>
       <c r="B33" s="36">
         <f>BLS_T3_Total!B32</f>
-        <v>4150.5</v>
+        <v>4146.8</v>
       </c>
       <c r="C33" s="36">
         <f>BLS_T3_Total!C32</f>
-        <v>4195.8999999999996</v>
+        <v>4213.2</v>
       </c>
       <c r="D33" s="36">
         <f>BLS_T3_Total!D32</f>
-        <v>4213.2</v>
+        <v>4211.3</v>
       </c>
       <c r="E33" s="36">
         <f>BLS_T3_Total!E32</f>
-        <v>4211.3999999999996</v>
+        <v>4208.7</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>1.4672930972172038</v>
+        <v>1.4927172759718221</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -7860,23 +7864,23 @@
       </c>
       <c r="B34" s="36">
         <f>BLS_T3_Total!B33</f>
-        <v>836.3</v>
+        <v>835.8</v>
       </c>
       <c r="C34" s="36">
         <f>BLS_T3_Total!C33</f>
-        <v>852.6</v>
+        <v>855.4</v>
       </c>
       <c r="D34" s="36">
         <f>BLS_T3_Total!D33</f>
-        <v>855.4</v>
+        <v>854.4</v>
       </c>
       <c r="E34" s="36">
         <f>BLS_T3_Total!E33</f>
-        <v>854</v>
+        <v>855.7</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>2.1164653832356883</v>
+        <v>2.3809523809523947</v>
       </c>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
@@ -7889,23 +7893,23 @@
       </c>
       <c r="B35" s="36">
         <f>BLS_T3_Total!B34</f>
-        <v>9567.6</v>
+        <v>9573</v>
       </c>
       <c r="C35" s="36">
         <f>BLS_T3_Total!C34</f>
-        <v>9646.7999999999993</v>
+        <v>9676</v>
       </c>
       <c r="D35" s="36">
         <f>BLS_T3_Total!D34</f>
-        <v>9676</v>
+        <v>9683.1</v>
       </c>
       <c r="E35" s="36">
         <f>BLS_T3_Total!E34</f>
-        <v>9682</v>
+        <v>9694.9</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>1.195702161461587</v>
+        <v>1.2733730283087885</v>
       </c>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
@@ -7918,23 +7922,23 @@
       </c>
       <c r="B36" s="36">
         <f>BLS_T3_Total!B35</f>
-        <v>4437.2</v>
+        <v>4449.2</v>
       </c>
       <c r="C36" s="36">
         <f>BLS_T3_Total!C35</f>
-        <v>4511</v>
+        <v>4534.5</v>
       </c>
       <c r="D36" s="36">
         <f>BLS_T3_Total!D35</f>
-        <v>4534.5</v>
+        <v>4535.2</v>
       </c>
       <c r="E36" s="36">
         <f>BLS_T3_Total!E35</f>
-        <v>4537.8999999999996</v>
+        <v>4536.3999999999996</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>2.2694492021995805</v>
+        <v>1.9599029038928295</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -7943,23 +7947,23 @@
       </c>
       <c r="B37" s="36">
         <f>BLS_T3_Total!B36</f>
-        <v>427</v>
+        <v>426.2</v>
       </c>
       <c r="C37" s="36">
         <f>BLS_T3_Total!C36</f>
-        <v>435</v>
+        <v>434.8</v>
       </c>
       <c r="D37" s="36">
         <f>BLS_T3_Total!D36</f>
-        <v>434.8</v>
+        <v>433.5</v>
       </c>
       <c r="E37" s="36">
         <f>BLS_T3_Total!E36</f>
-        <v>434.4</v>
+        <v>435.2</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>1.7330210772833698</v>
+        <v>2.1116846550915058</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -7968,23 +7972,23 @@
       </c>
       <c r="B38" s="36">
         <f>BLS_T3_Total!B37</f>
-        <v>5532.5</v>
+        <v>5534.3</v>
       </c>
       <c r="C38" s="36">
         <f>BLS_T3_Total!C37</f>
-        <v>5636.3</v>
+        <v>5643.7</v>
       </c>
       <c r="D38" s="36">
         <f>BLS_T3_Total!D37</f>
-        <v>5643.7</v>
+        <v>5647.9</v>
       </c>
       <c r="E38" s="36">
         <f>BLS_T3_Total!E37</f>
-        <v>5648.9</v>
+        <v>5650.8</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>2.1039313149570749</v>
+        <v>2.1050539363605125</v>
       </c>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -7997,23 +8001,23 @@
       </c>
       <c r="B39" s="36">
         <f>BLS_T3_Total!B38</f>
-        <v>1676</v>
+        <v>1677.9</v>
       </c>
       <c r="C39" s="36">
         <f>BLS_T3_Total!C38</f>
-        <v>1699.7</v>
+        <v>1702</v>
       </c>
       <c r="D39" s="36">
         <f>BLS_T3_Total!D38</f>
-        <v>1702</v>
+        <v>1702.8</v>
       </c>
       <c r="E39" s="36">
         <f>BLS_T3_Total!E38</f>
-        <v>1704.2</v>
+        <v>1703.4</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>1.6825775656324593</v>
+        <v>1.5197568389057725</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -8022,23 +8026,23 @@
       </c>
       <c r="B40" s="36">
         <f>BLS_T3_Total!B39</f>
-        <v>1887</v>
+        <v>1896.8</v>
       </c>
       <c r="C40" s="36">
         <f>BLS_T3_Total!C39</f>
-        <v>1927</v>
+        <v>1931.3</v>
       </c>
       <c r="D40" s="36">
         <f>BLS_T3_Total!D39</f>
-        <v>1931.3</v>
+        <v>1931.6</v>
       </c>
       <c r="E40" s="36">
         <f>BLS_T3_Total!E39</f>
-        <v>1933.7</v>
+        <v>1931.9</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>2.474827768945409</v>
+        <v>1.8504850274146056</v>
       </c>
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
@@ -8051,23 +8055,23 @@
       </c>
       <c r="B41" s="36">
         <f>BLS_T3_Total!B40</f>
-        <v>5976.8</v>
+        <v>5993.6</v>
       </c>
       <c r="C41" s="36">
         <f>BLS_T3_Total!C40</f>
-        <v>6044.9</v>
+        <v>6060.9</v>
       </c>
       <c r="D41" s="36">
         <f>BLS_T3_Total!D40</f>
-        <v>6060.9</v>
+        <v>6055.2</v>
       </c>
       <c r="E41" s="36">
         <f>BLS_T3_Total!E40</f>
-        <v>6055.5</v>
+        <v>6068.4</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>1.3167581314415644</v>
+        <v>1.2479978643886724</v>
       </c>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
@@ -8080,23 +8084,23 @@
       </c>
       <c r="B42" s="36">
         <f>BLS_T3_Total!B41</f>
-        <v>497.6</v>
+        <v>497.9</v>
       </c>
       <c r="C42" s="36">
         <f>BLS_T3_Total!C41</f>
-        <v>502.6</v>
+        <v>503.6</v>
       </c>
       <c r="D42" s="36">
         <f>BLS_T3_Total!D41</f>
-        <v>503.6</v>
+        <v>502.8</v>
       </c>
       <c r="E42" s="36">
         <f>BLS_T3_Total!E41</f>
-        <v>502.7</v>
+        <v>505</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.0249196141479011</v>
+        <v>1.4259891544486925</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -8105,23 +8109,23 @@
       </c>
       <c r="B43" s="36">
         <f>BLS_T3_Total!B42</f>
-        <v>2105.1999999999998</v>
+        <v>2110</v>
       </c>
       <c r="C43" s="36">
         <f>BLS_T3_Total!C42</f>
-        <v>2115.1</v>
+        <v>2134.6</v>
       </c>
       <c r="D43" s="36">
         <f>BLS_T3_Total!D42</f>
-        <v>2134.6</v>
+        <v>2140.4</v>
       </c>
       <c r="E43" s="36">
         <f>BLS_T3_Total!E42</f>
-        <v>2138</v>
+        <v>2151.1999999999998</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>1.5580467414022525</v>
+        <v>1.9526066350710858</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -8130,23 +8134,23 @@
       </c>
       <c r="B44" s="36">
         <f>BLS_T3_Total!B43</f>
-        <v>436.8</v>
+        <v>438.2</v>
       </c>
       <c r="C44" s="36">
         <f>BLS_T3_Total!C43</f>
-        <v>442.3</v>
+        <v>443.2</v>
       </c>
       <c r="D44" s="36">
         <f>BLS_T3_Total!D43</f>
-        <v>443.2</v>
+        <v>445.7</v>
       </c>
       <c r="E44" s="36">
         <f>BLS_T3_Total!E43</f>
-        <v>446.1</v>
+        <v>447</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>2.1291208791208716</v>
+        <v>2.0082154267457852</v>
       </c>
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
@@ -8159,23 +8163,23 @@
       </c>
       <c r="B45" s="36">
         <f>BLS_T3_Total!B44</f>
-        <v>3028.3</v>
+        <v>3027</v>
       </c>
       <c r="C45" s="36">
         <f>BLS_T3_Total!C44</f>
-        <v>3078.4</v>
+        <v>3085.6</v>
       </c>
       <c r="D45" s="36">
         <f>BLS_T3_Total!D44</f>
-        <v>3085.6</v>
+        <v>3091.9</v>
       </c>
       <c r="E45" s="36">
         <f>BLS_T3_Total!E44</f>
-        <v>3089</v>
+        <v>3086.1</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>2.0044249248753365</v>
+        <v>1.9524281466798854</v>
       </c>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
@@ -8188,23 +8192,23 @@
       </c>
       <c r="B46" s="36">
         <f>BLS_T3_Total!B45</f>
-        <v>12338</v>
+        <v>12352.3</v>
       </c>
       <c r="C46" s="36">
         <f>BLS_T3_Total!C45</f>
-        <v>12653.4</v>
+        <v>12689.4</v>
       </c>
       <c r="D46" s="36">
         <f>BLS_T3_Total!D45</f>
-        <v>12689.4</v>
+        <v>12706.1</v>
       </c>
       <c r="E46" s="36">
         <f>BLS_T3_Total!E45</f>
-        <v>12703.4</v>
+        <v>12744.1</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>2.9615821040687385</v>
+        <v>3.1718789213345033</v>
       </c>
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
@@ -8217,23 +8221,23 @@
       </c>
       <c r="B47" s="36">
         <f>BLS_T3_Total!B46</f>
-        <v>1485.7</v>
+        <v>1490.3</v>
       </c>
       <c r="C47" s="36">
         <f>BLS_T3_Total!C46</f>
-        <v>1524.8</v>
+        <v>1528</v>
       </c>
       <c r="D47" s="36">
         <f>BLS_T3_Total!D46</f>
-        <v>1528</v>
+        <v>1530.6</v>
       </c>
       <c r="E47" s="36">
         <f>BLS_T3_Total!E46</f>
-        <v>1529.4</v>
+        <v>1536.7</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>2.9413744362926542</v>
+        <v>3.1134670871636683</v>
       </c>
       <c r="M47" s="28"/>
       <c r="N47" s="28"/>
@@ -8246,7 +8250,7 @@
       </c>
       <c r="B48" s="36">
         <f>BLS_T3_Total!B47</f>
-        <v>314.5</v>
+        <v>313.5</v>
       </c>
       <c r="C48" s="36">
         <f>BLS_T3_Total!C47</f>
@@ -8254,15 +8258,15 @@
       </c>
       <c r="D48" s="36">
         <f>BLS_T3_Total!D47</f>
-        <v>312.7</v>
+        <v>313.5</v>
       </c>
       <c r="E48" s="36">
         <f>BLS_T3_Total!E47</f>
-        <v>313.2</v>
+        <v>313.3</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>-0.41335453100159736</v>
+        <v>-6.3795853269532632E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -8271,23 +8275,23 @@
       </c>
       <c r="B49" s="36">
         <f>BLS_T3_Total!B48</f>
-        <v>3956.6</v>
+        <v>3954.1</v>
       </c>
       <c r="C49" s="36">
         <f>BLS_T3_Total!C48</f>
-        <v>4025</v>
+        <v>4025.1</v>
       </c>
       <c r="D49" s="36">
         <f>BLS_T3_Total!D48</f>
-        <v>4025.1</v>
+        <v>4031.2</v>
       </c>
       <c r="E49" s="36">
         <f>BLS_T3_Total!E48</f>
-        <v>4031.7</v>
+        <v>4031.1</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>1.8980943234089942</v>
+        <v>1.9473457929743754</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -8296,23 +8300,23 @@
       </c>
       <c r="B50" s="36">
         <f>BLS_T3_Total!B49</f>
-        <v>3362.1</v>
+        <v>3370.7</v>
       </c>
       <c r="C50" s="36">
         <f>BLS_T3_Total!C49</f>
-        <v>3448.3</v>
+        <v>3456</v>
       </c>
       <c r="D50" s="36">
         <f>BLS_T3_Total!D49</f>
-        <v>3456</v>
+        <v>3463.3</v>
       </c>
       <c r="E50" s="36">
         <f>BLS_T3_Total!E49</f>
-        <v>3461.1</v>
+        <v>3474.7</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>2.9445882038011906</v>
+        <v>3.0854125255881604</v>
       </c>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
@@ -8325,23 +8329,23 @@
       </c>
       <c r="B51" s="36">
         <f>BLS_T3_Total!B50</f>
-        <v>747.1</v>
+        <v>748.6</v>
       </c>
       <c r="C51" s="36">
         <f>BLS_T3_Total!C50</f>
-        <v>752</v>
+        <v>753.9</v>
       </c>
       <c r="D51" s="36">
         <f>BLS_T3_Total!D50</f>
-        <v>753.9</v>
+        <v>753</v>
       </c>
       <c r="E51" s="36">
         <f>BLS_T3_Total!E50</f>
-        <v>753.6</v>
+        <v>753.3</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.87003078570473402</v>
+        <v>0.62783863211326452</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -8350,23 +8354,23 @@
       </c>
       <c r="B52" s="36">
         <f>BLS_T3_Total!B51</f>
-        <v>2946.2</v>
+        <v>2953.3</v>
       </c>
       <c r="C52" s="36">
         <f>BLS_T3_Total!C51</f>
-        <v>2982.2</v>
+        <v>2979.4</v>
       </c>
       <c r="D52" s="36">
         <f>BLS_T3_Total!D51</f>
-        <v>2979.4</v>
+        <v>2992.5</v>
       </c>
       <c r="E52" s="36">
         <f>BLS_T3_Total!E51</f>
-        <v>2990</v>
+        <v>3001.6</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>1.4866607833819989</v>
+        <v>1.6354586394880188</v>
       </c>
       <c r="M52" s="28"/>
       <c r="N52" s="28"/>
@@ -8379,23 +8383,23 @@
       </c>
       <c r="B53" s="36">
         <f>BLS_T3_Total!B52</f>
-        <v>281.89999999999998</v>
+        <v>283.3</v>
       </c>
       <c r="C53" s="36">
         <f>BLS_T3_Total!C52</f>
-        <v>288.5</v>
+        <v>289.2</v>
       </c>
       <c r="D53" s="36">
         <f>BLS_T3_Total!D52</f>
-        <v>289.2</v>
+        <v>290.3</v>
       </c>
       <c r="E53" s="36">
         <f>BLS_T3_Total!E52</f>
-        <v>290.89999999999998</v>
+        <v>291.3</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>3.1926214969847377</v>
+        <v>2.8238616307801001</v>
       </c>
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
@@ -8436,7 +8440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8449,16 +8455,16 @@
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="C1" s="4">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="D1" s="4">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="E1" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -8469,20 +8475,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="35">
-        <v>22330</v>
+        <v>22331</v>
       </c>
       <c r="C2" s="35">
-        <v>22398</v>
+        <v>22391</v>
       </c>
       <c r="D2" s="35">
-        <v>22384</v>
+        <v>22394</v>
       </c>
       <c r="E2" s="35">
-        <v>22378</v>
+        <v>22405</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>0.21495745633677288</v>
+        <v>0.33137790515427312</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -8491,23 +8497,23 @@
       </c>
       <c r="B3" s="36">
         <f>BLS_T3_GOV!B2</f>
-        <v>384.8</v>
+        <v>384.4</v>
       </c>
       <c r="C3" s="36">
         <f>BLS_T3_GOV!C2</f>
-        <v>387.5</v>
+        <v>386.6</v>
       </c>
       <c r="D3" s="36">
         <f>BLS_T3_GOV!D2</f>
-        <v>386.6</v>
+        <v>387.6</v>
       </c>
       <c r="E3" s="36">
         <f>BLS_T3_GOV!E2</f>
-        <v>386.9</v>
+        <v>389.1</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">((E3/B3)-1)*100</f>
-        <v>0.5457380457380312</v>
+        <v>1.2226847034339405</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -8516,11 +8522,11 @@
       </c>
       <c r="B4" s="36">
         <f>BLS_T3_GOV!B3</f>
-        <v>80.8</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="C4" s="36">
         <f>BLS_T3_GOV!C3</f>
-        <v>80.3</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="D4" s="36">
         <f>BLS_T3_GOV!D3</f>
@@ -8528,11 +8534,11 @@
       </c>
       <c r="E4" s="36">
         <f>BLS_T3_GOV!E3</f>
-        <v>80.599999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.24752475247524774</v>
+        <v>-0.24875621890547706</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -8545,19 +8551,19 @@
       </c>
       <c r="C5" s="36">
         <f>BLS_T3_GOV!C4</f>
-        <v>417.8</v>
+        <v>416.5</v>
       </c>
       <c r="D5" s="36">
         <f>BLS_T3_GOV!D4</f>
-        <v>416.5</v>
+        <v>416.7</v>
       </c>
       <c r="E5" s="36">
         <f>BLS_T3_GOV!E4</f>
-        <v>417.3</v>
+        <v>417</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.1146110976496315</v>
+        <v>1.0419190695420522</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -8566,23 +8572,23 @@
       </c>
       <c r="B6" s="36">
         <f>BLS_T3_GOV!B5</f>
-        <v>211.4</v>
+        <v>211.3</v>
       </c>
       <c r="C6" s="36">
         <f>BLS_T3_GOV!C5</f>
-        <v>211.4</v>
+        <v>211.6</v>
       </c>
       <c r="D6" s="36">
         <f>BLS_T3_GOV!D5</f>
-        <v>211.6</v>
+        <v>211.5</v>
       </c>
       <c r="E6" s="36">
         <f>BLS_T3_GOV!E5</f>
-        <v>211.6</v>
+        <v>211.4</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>9.4607379375588607E-2</v>
+        <v>4.7326076668241512E-2</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -8591,23 +8597,23 @@
       </c>
       <c r="B7" s="36">
         <f>BLS_T3_GOV!B6</f>
-        <v>2574.6</v>
+        <v>2579.1</v>
       </c>
       <c r="C7" s="36">
         <f>BLS_T3_GOV!C6</f>
-        <v>2601.4</v>
+        <v>2603.4</v>
       </c>
       <c r="D7" s="36">
         <f>BLS_T3_GOV!D6</f>
-        <v>2603.4</v>
+        <v>2607.5</v>
       </c>
       <c r="E7" s="36">
         <f>BLS_T3_GOV!E6</f>
-        <v>2606.1</v>
+        <v>2609.4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2234910277324706</v>
+        <v>1.1748284285215904</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -8628,23 +8634,23 @@
       </c>
       <c r="B8" s="36">
         <f>BLS_T3_GOV!B7</f>
-        <v>439.7</v>
+        <v>440</v>
       </c>
       <c r="C8" s="36">
         <f>BLS_T3_GOV!C7</f>
-        <v>447.7</v>
+        <v>445.5</v>
       </c>
       <c r="D8" s="36">
         <f>BLS_T3_GOV!D7</f>
-        <v>445.5</v>
+        <v>446.3</v>
       </c>
       <c r="E8" s="36">
         <f>BLS_T3_GOV!E7</f>
-        <v>446.6</v>
+        <v>447</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.5692517625653934</v>
+        <v>1.5909090909090873</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -8653,23 +8659,23 @@
       </c>
       <c r="B9" s="36">
         <f>BLS_T3_GOV!B8</f>
-        <v>231.2</v>
+        <v>231.1</v>
       </c>
       <c r="C9" s="36">
         <f>BLS_T3_GOV!C8</f>
-        <v>227.5</v>
+        <v>227.9</v>
       </c>
       <c r="D9" s="36">
         <f>BLS_T3_GOV!D8</f>
-        <v>227.9</v>
+        <v>228</v>
       </c>
       <c r="E9" s="36">
         <f>BLS_T3_GOV!E8</f>
-        <v>227.9</v>
+        <v>227.5</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4273356401384052</v>
+        <v>-1.5577672003461718</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -8678,15 +8684,15 @@
       </c>
       <c r="B10" s="36">
         <f>BLS_T3_GOV!B9</f>
-        <v>66.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="C10" s="36">
         <f>BLS_T3_GOV!C9</f>
-        <v>66.900000000000006</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D10" s="36">
         <f>BLS_T3_GOV!D9</f>
-        <v>67.400000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E10" s="36">
         <f>BLS_T3_GOV!E9</f>
@@ -8694,7 +8700,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>1.0526315789473717</v>
+        <v>1.2048192771084265</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8703,23 +8709,23 @@
       </c>
       <c r="B11" s="36">
         <f>BLS_T3_GOV!B10</f>
-        <v>239</v>
+        <v>238.5</v>
       </c>
       <c r="C11" s="36">
         <f>BLS_T3_GOV!C10</f>
-        <v>237.3</v>
+        <v>237</v>
       </c>
       <c r="D11" s="36">
         <f>BLS_T3_GOV!D10</f>
-        <v>237</v>
+        <v>236.9</v>
       </c>
       <c r="E11" s="36">
         <f>BLS_T3_GOV!E10</f>
-        <v>236.4</v>
+        <v>237</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0878661087866059</v>
+        <v>-0.62893081761006275</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>113</v>
@@ -8734,23 +8740,23 @@
       </c>
       <c r="B12" s="36">
         <f>BLS_T3_GOV!B11</f>
-        <v>1109.2</v>
+        <v>1111.4000000000001</v>
       </c>
       <c r="C12" s="36">
         <f>BLS_T3_GOV!C11</f>
-        <v>1102.5</v>
+        <v>1099</v>
       </c>
       <c r="D12" s="36">
         <f>BLS_T3_GOV!D11</f>
-        <v>1099</v>
+        <v>1100.7</v>
       </c>
       <c r="E12" s="36">
         <f>BLS_T3_GOV!E11</f>
-        <v>1099.5999999999999</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.86548864046160912</v>
+        <v>-0.88177073960772345</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>114</v>
@@ -8769,23 +8775,23 @@
       </c>
       <c r="B13" s="36">
         <f>BLS_T3_GOV!B12</f>
-        <v>691</v>
+        <v>686.4</v>
       </c>
       <c r="C13" s="36">
         <f>BLS_T3_GOV!C12</f>
-        <v>693.1</v>
+        <v>692.4</v>
       </c>
       <c r="D13" s="36">
         <f>BLS_T3_GOV!D12</f>
-        <v>692.4</v>
+        <v>694.3</v>
       </c>
       <c r="E13" s="36">
         <f>BLS_T3_GOV!E12</f>
-        <v>693.4</v>
+        <v>693.7</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.34732272069464276</v>
+        <v>1.0635198135198198</v>
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -8802,23 +8808,23 @@
       </c>
       <c r="B14" s="36">
         <f>BLS_T3_GOV!B13</f>
-        <v>123.2</v>
+        <v>125.5</v>
       </c>
       <c r="C14" s="36">
         <f>BLS_T3_GOV!C13</f>
-        <v>125.2</v>
+        <v>125</v>
       </c>
       <c r="D14" s="36">
         <f>BLS_T3_GOV!D13</f>
-        <v>125</v>
+        <v>127.5</v>
       </c>
       <c r="E14" s="36">
         <f>BLS_T3_GOV!E13</f>
-        <v>126.8</v>
+        <v>126.1</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>2.9220779220779258</v>
+        <v>0.47808764940238113</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -8827,11 +8833,11 @@
       </c>
       <c r="B15" s="36">
         <f>BLS_T3_GOV!B14</f>
-        <v>125</v>
+        <v>125.1</v>
       </c>
       <c r="C15" s="36">
         <f>BLS_T3_GOV!C14</f>
-        <v>126.7</v>
+        <v>127</v>
       </c>
       <c r="D15" s="36">
         <f>BLS_T3_GOV!D14</f>
@@ -8839,11 +8845,11 @@
       </c>
       <c r="E15" s="36">
         <f>BLS_T3_GOV!E14</f>
-        <v>127</v>
+        <v>127.8</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1.6000000000000014</v>
+        <v>2.1582733812949728</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -8852,23 +8858,23 @@
       </c>
       <c r="B16" s="36">
         <f>BLS_T3_GOV!B15</f>
-        <v>831.2</v>
+        <v>830.8</v>
       </c>
       <c r="C16" s="36">
         <f>BLS_T3_GOV!C15</f>
-        <v>845.4</v>
+        <v>845.5</v>
       </c>
       <c r="D16" s="36">
         <f>BLS_T3_GOV!D15</f>
-        <v>845.5</v>
+        <v>849.2</v>
       </c>
       <c r="E16" s="36">
         <f>BLS_T3_GOV!E15</f>
-        <v>846</v>
+        <v>855.5</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1.7805582290663979</v>
+        <v>2.973038035628317</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8877,23 +8883,23 @@
       </c>
       <c r="B17" s="36">
         <f>BLS_T3_GOV!B16</f>
-        <v>426.1</v>
+        <v>426</v>
       </c>
       <c r="C17" s="36">
         <f>BLS_T3_GOV!C16</f>
-        <v>426.2</v>
+        <v>426.1</v>
       </c>
       <c r="D17" s="36">
         <f>BLS_T3_GOV!D16</f>
-        <v>426.1</v>
+        <v>426.8</v>
       </c>
       <c r="E17" s="36">
         <f>BLS_T3_GOV!E16</f>
-        <v>426.6</v>
+        <v>427.8</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11734334663224821</v>
+        <v>0.42253521126760507</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8902,23 +8908,23 @@
       </c>
       <c r="B18" s="36">
         <f>BLS_T3_GOV!B17</f>
-        <v>259.60000000000002</v>
+        <v>259.2</v>
       </c>
       <c r="C18" s="36">
         <f>BLS_T3_GOV!C17</f>
-        <v>260</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="D18" s="36">
         <f>BLS_T3_GOV!D17</f>
-        <v>259.60000000000002</v>
+        <v>259.7</v>
       </c>
       <c r="E18" s="36">
         <f>BLS_T3_GOV!E17</f>
-        <v>259.89999999999998</v>
+        <v>260.3</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11556240369798854</v>
+        <v>0.42438271604938738</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8927,23 +8933,23 @@
       </c>
       <c r="B19" s="36">
         <f>BLS_T3_GOV!B18</f>
-        <v>256.60000000000002</v>
+        <v>256.8</v>
       </c>
       <c r="C19" s="36">
         <f>BLS_T3_GOV!C18</f>
-        <v>260.3</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="D19" s="36">
         <f>BLS_T3_GOV!D18</f>
-        <v>259.39999999999998</v>
+        <v>259.5</v>
       </c>
       <c r="E19" s="36">
         <f>BLS_T3_GOV!E18</f>
-        <v>259.39999999999998</v>
+        <v>259.7</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>1.0911925175369985</v>
+        <v>1.1292834890965553</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8952,23 +8958,23 @@
       </c>
       <c r="B20" s="36">
         <f>BLS_T3_GOV!B19</f>
-        <v>314.89999999999998</v>
+        <v>314.60000000000002</v>
       </c>
       <c r="C20" s="36">
         <f>BLS_T3_GOV!C19</f>
-        <v>315.60000000000002</v>
+        <v>314.3</v>
       </c>
       <c r="D20" s="36">
         <f>BLS_T3_GOV!D19</f>
-        <v>314.3</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="E20" s="36">
         <f>BLS_T3_GOV!E19</f>
-        <v>314.60000000000002</v>
+        <v>313.89999999999998</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>-9.526833915527444E-2</v>
+        <v>-0.22250476795933061</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8977,23 +8983,23 @@
       </c>
       <c r="B21" s="36">
         <f>BLS_T3_GOV!B20</f>
-        <v>326.2</v>
+        <v>325.60000000000002</v>
       </c>
       <c r="C21" s="36">
         <f>BLS_T3_GOV!C20</f>
-        <v>323.8</v>
+        <v>323.7</v>
       </c>
       <c r="D21" s="36">
         <f>BLS_T3_GOV!D20</f>
-        <v>323.7</v>
+        <v>324.10000000000002</v>
       </c>
       <c r="E21" s="36">
         <f>BLS_T3_GOV!E20</f>
-        <v>324.10000000000002</v>
+        <v>323.7</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.64377682403432557</v>
+        <v>-0.58353808353809322</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -9002,23 +9008,23 @@
       </c>
       <c r="B22" s="36">
         <f>BLS_T3_GOV!B21</f>
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="C22" s="36">
         <f>BLS_T3_GOV!C21</f>
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="D22" s="36">
         <f>BLS_T3_GOV!D21</f>
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E22" s="36">
         <f>BLS_T3_GOV!E21</f>
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.19980019980019303</v>
+        <v>0.20040080160321772</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -9027,23 +9033,23 @@
       </c>
       <c r="B23" s="36">
         <f>BLS_T3_GOV!B22</f>
-        <v>503.5</v>
+        <v>503.4</v>
       </c>
       <c r="C23" s="36">
         <f>BLS_T3_GOV!C22</f>
-        <v>501.7</v>
+        <v>503.6</v>
       </c>
       <c r="D23" s="36">
         <f>BLS_T3_GOV!D22</f>
-        <v>503.6</v>
+        <v>502.6</v>
       </c>
       <c r="E23" s="36">
         <f>BLS_T3_GOV!E22</f>
-        <v>504.1</v>
+        <v>503.3</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.119165839126123</v>
+        <v>-1.9864918553824662E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -9052,23 +9058,23 @@
       </c>
       <c r="B24" s="36">
         <f>BLS_T3_GOV!B23</f>
-        <v>452.2</v>
+        <v>452.8</v>
       </c>
       <c r="C24" s="36">
         <f>BLS_T3_GOV!C23</f>
-        <v>452.5</v>
+        <v>452</v>
       </c>
       <c r="D24" s="36">
         <f>BLS_T3_GOV!D23</f>
-        <v>452</v>
+        <v>452.5</v>
       </c>
       <c r="E24" s="36">
         <f>BLS_T3_GOV!E23</f>
-        <v>452</v>
+        <v>452.6</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4228217602826359E-2</v>
+        <v>-4.4169611307420809E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -9077,23 +9083,23 @@
       </c>
       <c r="B25" s="36">
         <f>BLS_T3_GOV!B24</f>
-        <v>609.4</v>
+        <v>610</v>
       </c>
       <c r="C25" s="36">
         <f>BLS_T3_GOV!C24</f>
-        <v>610.79999999999995</v>
+        <v>612.5</v>
       </c>
       <c r="D25" s="36">
         <f>BLS_T3_GOV!D24</f>
-        <v>612.5</v>
+        <v>612.79999999999995</v>
       </c>
       <c r="E25" s="36">
         <f>BLS_T3_GOV!E24</f>
-        <v>613.70000000000005</v>
+        <v>612.20000000000005</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.70561207745325483</v>
+        <v>0.36065573770491799</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -9102,23 +9108,23 @@
       </c>
       <c r="B26" s="36">
         <f>BLS_T3_GOV!B25</f>
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C26" s="36">
         <f>BLS_T3_GOV!C25</f>
-        <v>431.7</v>
+        <v>430.6</v>
       </c>
       <c r="D26" s="36">
         <f>BLS_T3_GOV!D25</f>
-        <v>430.6</v>
+        <v>429.9</v>
       </c>
       <c r="E26" s="36">
         <f>BLS_T3_GOV!E25</f>
-        <v>430.2</v>
+        <v>429.8</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.51401869158878011</v>
+        <v>0.65573770491802463</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -9127,23 +9133,23 @@
       </c>
       <c r="B27" s="36">
         <f>BLS_T3_GOV!B26</f>
-        <v>243.2</v>
+        <v>243.1</v>
       </c>
       <c r="C27" s="36">
         <f>BLS_T3_GOV!C26</f>
-        <v>245.3</v>
+        <v>244.8</v>
       </c>
       <c r="D27" s="36">
         <f>BLS_T3_GOV!D26</f>
-        <v>244.8</v>
+        <v>245.1</v>
       </c>
       <c r="E27" s="36">
         <f>BLS_T3_GOV!E26</f>
-        <v>245.2</v>
+        <v>244.5</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.82236842105263275</v>
+        <v>0.57589469354175638</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -9152,11 +9158,11 @@
       </c>
       <c r="B28" s="36">
         <f>BLS_T3_GOV!B27</f>
-        <v>432.8</v>
+        <v>432.3</v>
       </c>
       <c r="C28" s="36">
         <f>BLS_T3_GOV!C27</f>
-        <v>434.6</v>
+        <v>434.2</v>
       </c>
       <c r="D28" s="36">
         <f>BLS_T3_GOV!D27</f>
@@ -9164,11 +9170,11 @@
       </c>
       <c r="E28" s="36">
         <f>BLS_T3_GOV!E27</f>
-        <v>434</v>
+        <v>434.5</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.27726432532346745</v>
+        <v>0.50890585241729624</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -9181,19 +9187,19 @@
       </c>
       <c r="C29" s="36">
         <f>BLS_T3_GOV!C28</f>
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="D29" s="36">
         <f>BLS_T3_GOV!D28</f>
-        <v>92.3</v>
+        <v>92.6</v>
       </c>
       <c r="E29" s="36">
         <f>BLS_T3_GOV!E28</f>
-        <v>92.4</v>
+        <v>92.9</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.76335877862596657</v>
+        <v>1.3086150490730697</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -9202,23 +9208,23 @@
       </c>
       <c r="B30" s="36">
         <f>BLS_T3_GOV!B29</f>
-        <v>172.4</v>
+        <v>172</v>
       </c>
       <c r="C30" s="36">
         <f>BLS_T3_GOV!C29</f>
-        <v>173.3</v>
+        <v>172.3</v>
       </c>
       <c r="D30" s="36">
         <f>BLS_T3_GOV!D29</f>
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="E30" s="36">
         <f>BLS_T3_GOV!E29</f>
-        <v>172.9</v>
+        <v>173.2</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.29002320185613772</v>
+        <v>0.69767441860464352</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -9227,23 +9233,23 @@
       </c>
       <c r="B31" s="36">
         <f>BLS_T3_GOV!B30</f>
-        <v>163.80000000000001</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="C31" s="36">
         <f>BLS_T3_GOV!C30</f>
-        <v>167.3</v>
+        <v>166.7</v>
       </c>
       <c r="D31" s="36">
         <f>BLS_T3_GOV!D30</f>
-        <v>166.7</v>
+        <v>168.3</v>
       </c>
       <c r="E31" s="36">
         <f>BLS_T3_GOV!E30</f>
-        <v>168.3</v>
+        <v>168.7</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>2.7472527472527375</v>
+        <v>3.3700980392156854</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -9252,23 +9258,23 @@
       </c>
       <c r="B32" s="36">
         <f>BLS_T3_GOV!B31</f>
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="C32" s="36">
         <f>BLS_T3_GOV!C31</f>
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="D32" s="36">
         <f>BLS_T3_GOV!D31</f>
-        <v>90.6</v>
+        <v>91</v>
       </c>
       <c r="E32" s="36">
         <f>BLS_T3_GOV!E31</f>
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>1.1123470522803158</v>
+        <v>1.3363028953229383</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -9277,23 +9283,23 @@
       </c>
       <c r="B33" s="36">
         <f>BLS_T3_GOV!B32</f>
-        <v>615.29999999999995</v>
+        <v>614</v>
       </c>
       <c r="C33" s="36">
         <f>BLS_T3_GOV!C32</f>
-        <v>616.1</v>
+        <v>615.29999999999995</v>
       </c>
       <c r="D33" s="36">
         <f>BLS_T3_GOV!D32</f>
-        <v>615.29999999999995</v>
+        <v>614.29999999999995</v>
       </c>
       <c r="E33" s="36">
         <f>BLS_T3_GOV!E32</f>
-        <v>614.29999999999995</v>
+        <v>614</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.16252234682269107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -9302,23 +9308,23 @@
       </c>
       <c r="B34" s="36">
         <f>BLS_T3_GOV!B33</f>
-        <v>187</v>
+        <v>187.2</v>
       </c>
       <c r="C34" s="36">
         <f>BLS_T3_GOV!C33</f>
-        <v>187</v>
+        <v>187.3</v>
       </c>
       <c r="D34" s="36">
         <f>BLS_T3_GOV!D33</f>
-        <v>187.3</v>
+        <v>187.6</v>
       </c>
       <c r="E34" s="36">
         <f>BLS_T3_GOV!E33</f>
-        <v>187.6</v>
+        <v>188</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.32085561497325887</v>
+        <v>0.42735042735042583</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -9327,23 +9333,23 @@
       </c>
       <c r="B35" s="36">
         <f>BLS_T3_GOV!B34</f>
-        <v>1448.4</v>
+        <v>1449.1</v>
       </c>
       <c r="C35" s="36">
         <f>BLS_T3_GOV!C34</f>
-        <v>1450.6</v>
+        <v>1450.1</v>
       </c>
       <c r="D35" s="36">
         <f>BLS_T3_GOV!D34</f>
-        <v>1450.1</v>
+        <v>1451</v>
       </c>
       <c r="E35" s="36">
         <f>BLS_T3_GOV!E34</f>
-        <v>1450.9</v>
+        <v>1451.2</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.17260425296878878</v>
+        <v>0.14491753502174909</v>
       </c>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
@@ -9360,19 +9366,19 @@
       </c>
       <c r="C36" s="36">
         <f>BLS_T3_GOV!C35</f>
-        <v>740.5</v>
+        <v>738</v>
       </c>
       <c r="D36" s="36">
         <f>BLS_T3_GOV!D35</f>
-        <v>738</v>
+        <v>738.5</v>
       </c>
       <c r="E36" s="36">
         <f>BLS_T3_GOV!E35</f>
-        <v>738.3</v>
+        <v>739</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.51735874744722743</v>
+        <v>0.61266167460858334</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -9381,11 +9387,11 @@
       </c>
       <c r="B37" s="36">
         <f>BLS_T3_GOV!B36</f>
-        <v>81.7</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C37" s="36">
         <f>BLS_T3_GOV!C36</f>
-        <v>80.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="D37" s="36">
         <f>BLS_T3_GOV!D36</f>
@@ -9393,11 +9399,11 @@
       </c>
       <c r="E37" s="36">
         <f>BLS_T3_GOV!E36</f>
-        <v>80.7</v>
+        <v>81</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2239902080783405</v>
+        <v>-0.73529411764705621</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
@@ -9406,23 +9412,23 @@
       </c>
       <c r="B38" s="36">
         <f>BLS_T3_GOV!B37</f>
-        <v>782.3</v>
+        <v>782</v>
       </c>
       <c r="C38" s="36">
         <f>BLS_T3_GOV!C37</f>
-        <v>791.3</v>
+        <v>790.9</v>
       </c>
       <c r="D38" s="36">
         <f>BLS_T3_GOV!D37</f>
-        <v>790.9</v>
+        <v>790.3</v>
       </c>
       <c r="E38" s="36">
         <f>BLS_T3_GOV!E37</f>
-        <v>790.3</v>
+        <v>793.7</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>1.0226255912054283</v>
+        <v>1.4961636828644487</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -9431,11 +9437,11 @@
       </c>
       <c r="B39" s="36">
         <f>BLS_T3_GOV!B38</f>
-        <v>351.2</v>
+        <v>351</v>
       </c>
       <c r="C39" s="36">
         <f>BLS_T3_GOV!C38</f>
-        <v>352.3</v>
+        <v>352</v>
       </c>
       <c r="D39" s="36">
         <f>BLS_T3_GOV!D38</f>
@@ -9443,11 +9449,11 @@
       </c>
       <c r="E39" s="36">
         <f>BLS_T3_GOV!E38</f>
-        <v>352</v>
+        <v>352.2</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.2277904328018332</v>
+        <v>0.34188034188034067</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -9456,23 +9462,23 @@
       </c>
       <c r="B40" s="36">
         <f>BLS_T3_GOV!B39</f>
-        <v>309</v>
+        <v>309.89999999999998</v>
       </c>
       <c r="C40" s="36">
         <f>BLS_T3_GOV!C39</f>
-        <v>295.3</v>
+        <v>296</v>
       </c>
       <c r="D40" s="36">
         <f>BLS_T3_GOV!D39</f>
-        <v>296</v>
+        <v>297.10000000000002</v>
       </c>
       <c r="E40" s="36">
         <f>BLS_T3_GOV!E39</f>
-        <v>296.7</v>
+        <v>298</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9805825242718473</v>
+        <v>-3.83994837044207</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -9481,23 +9487,23 @@
       </c>
       <c r="B41" s="36">
         <f>BLS_T3_GOV!B40</f>
-        <v>701.3</v>
+        <v>699.7</v>
       </c>
       <c r="C41" s="36">
         <f>BLS_T3_GOV!C40</f>
-        <v>702.7</v>
+        <v>701.5</v>
       </c>
       <c r="D41" s="36">
         <f>BLS_T3_GOV!D40</f>
-        <v>701.5</v>
+        <v>700.7</v>
       </c>
       <c r="E41" s="36">
         <f>BLS_T3_GOV!E40</f>
-        <v>701.5</v>
+        <v>701.8</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>2.85184657065507E-2</v>
+        <v>0.30012862655421912</v>
       </c>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
@@ -9514,19 +9520,19 @@
       </c>
       <c r="C42" s="36">
         <f>BLS_T3_GOV!C41</f>
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="D42" s="36">
         <f>BLS_T3_GOV!D41</f>
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="E42" s="36">
         <f>BLS_T3_GOV!E41</f>
-        <v>60.7</v>
+        <v>60.8</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>-0.32840722495893759</v>
+        <v>-0.16420361247947435</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -9535,15 +9541,15 @@
       </c>
       <c r="B43" s="36">
         <f>BLS_T3_GOV!B42</f>
-        <v>366.5</v>
+        <v>366.8</v>
       </c>
       <c r="C43" s="36">
         <f>BLS_T3_GOV!C42</f>
-        <v>368.7</v>
+        <v>368.9</v>
       </c>
       <c r="D43" s="36">
         <f>BLS_T3_GOV!D42</f>
-        <v>368.9</v>
+        <v>369.6</v>
       </c>
       <c r="E43" s="36">
         <f>BLS_T3_GOV!E42</f>
@@ -9551,7 +9557,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.90040927694405859</v>
+        <v>0.81788440567065468</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -9560,23 +9566,23 @@
       </c>
       <c r="B44" s="36">
         <f>BLS_T3_GOV!B43</f>
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="C44" s="36">
         <f>BLS_T3_GOV!C43</f>
-        <v>80.099999999999994</v>
+        <v>80.3</v>
       </c>
       <c r="D44" s="36">
         <f>BLS_T3_GOV!D43</f>
-        <v>80.3</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E44" s="36">
         <f>BLS_T3_GOV!E43</f>
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.87719298245614308</v>
+        <v>0.75282308657464991</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -9585,23 +9591,23 @@
       </c>
       <c r="B45" s="36">
         <f>BLS_T3_GOV!B44</f>
-        <v>432.4</v>
+        <v>430.9</v>
       </c>
       <c r="C45" s="36">
         <f>BLS_T3_GOV!C44</f>
-        <v>433.9</v>
+        <v>433.7</v>
       </c>
       <c r="D45" s="36">
         <f>BLS_T3_GOV!D44</f>
-        <v>433.7</v>
+        <v>434.1</v>
       </c>
       <c r="E45" s="36">
         <f>BLS_T3_GOV!E44</f>
-        <v>434</v>
+        <v>434.1</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.37002775208141436</v>
+        <v>0.74263170109074572</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -9610,23 +9616,23 @@
       </c>
       <c r="B46" s="36">
         <f>BLS_T3_GOV!B45</f>
-        <v>1940.8</v>
+        <v>1942.7</v>
       </c>
       <c r="C46" s="36">
         <f>BLS_T3_GOV!C45</f>
-        <v>1939.7</v>
+        <v>1940.5</v>
       </c>
       <c r="D46" s="36">
         <f>BLS_T3_GOV!D45</f>
-        <v>1940.5</v>
+        <v>1943.1</v>
       </c>
       <c r="E46" s="36">
         <f>BLS_T3_GOV!E45</f>
-        <v>1942.5</v>
+        <v>1945.7</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>8.7592745259690297E-2</v>
+        <v>0.15442425490297396</v>
       </c>
       <c r="W46" s="28"/>
       <c r="X46" s="28"/>
@@ -9639,23 +9645,23 @@
       </c>
       <c r="B47" s="36">
         <f>BLS_T3_GOV!B46</f>
-        <v>245.4</v>
+        <v>245.7</v>
       </c>
       <c r="C47" s="36">
         <f>BLS_T3_GOV!C46</f>
-        <v>249.8</v>
+        <v>250.7</v>
       </c>
       <c r="D47" s="36">
         <f>BLS_T3_GOV!D46</f>
-        <v>250.7</v>
+        <v>250.9</v>
       </c>
       <c r="E47" s="36">
         <f>BLS_T3_GOV!E46</f>
-        <v>250.9</v>
+        <v>251.3</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>2.2412387938060219</v>
+        <v>2.2792022792022859</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
@@ -9664,23 +9670,23 @@
       </c>
       <c r="B48" s="36">
         <f>BLS_T3_GOV!B47</f>
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="C48" s="36">
         <f>BLS_T3_GOV!C47</f>
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="D48" s="36">
         <f>BLS_T3_GOV!D47</f>
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="E48" s="36">
         <f>BLS_T3_GOV!E47</f>
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0.17921146953405742</v>
+        <v>-0.17889087656529634</v>
       </c>
       <c r="O48" s="28"/>
       <c r="P48" s="28"/>
@@ -9693,15 +9699,15 @@
       </c>
       <c r="B49" s="36">
         <f>BLS_T3_GOV!B48</f>
-        <v>716.3</v>
+        <v>716.1</v>
       </c>
       <c r="C49" s="36">
         <f>BLS_T3_GOV!C48</f>
-        <v>699.9</v>
+        <v>697.6</v>
       </c>
       <c r="D49" s="36">
         <f>BLS_T3_GOV!D48</f>
-        <v>697.6</v>
+        <v>699.2</v>
       </c>
       <c r="E49" s="36">
         <f>BLS_T3_GOV!E48</f>
@@ -9709,7 +9715,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2476615943040512</v>
+        <v>-2.2203602848764104</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -9718,23 +9724,23 @@
       </c>
       <c r="B50" s="36">
         <f>BLS_T3_GOV!B49</f>
-        <v>590.1</v>
+        <v>590.70000000000005</v>
       </c>
       <c r="C50" s="36">
         <f>BLS_T3_GOV!C49</f>
-        <v>595.5</v>
+        <v>594</v>
       </c>
       <c r="D50" s="36">
         <f>BLS_T3_GOV!D49</f>
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E50" s="36">
         <f>BLS_T3_GOV!E49</f>
-        <v>592.70000000000005</v>
+        <v>596.6</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0.4406032875783783</v>
+        <v>0.99881496529541369</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
@@ -9747,7 +9753,7 @@
       </c>
       <c r="C51" s="36">
         <f>BLS_T3_GOV!C50</f>
-        <v>155.30000000000001</v>
+        <v>155.4</v>
       </c>
       <c r="D51" s="36">
         <f>BLS_T3_GOV!D50</f>
@@ -9755,11 +9761,11 @@
       </c>
       <c r="E51" s="36">
         <f>BLS_T3_GOV!E50</f>
-        <v>155.19999999999999</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>1.0416666666666741</v>
+        <v>1.3671875</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -9768,23 +9774,23 @@
       </c>
       <c r="B52" s="36">
         <f>BLS_T3_GOV!B51</f>
-        <v>404.8</v>
+        <v>406.3</v>
       </c>
       <c r="C52" s="36">
         <f>BLS_T3_GOV!C51</f>
-        <v>410</v>
+        <v>407.4</v>
       </c>
       <c r="D52" s="36">
         <f>BLS_T3_GOV!D51</f>
-        <v>407.4</v>
+        <v>409.7</v>
       </c>
       <c r="E52" s="36">
         <f>BLS_T3_GOV!E51</f>
-        <v>408.1</v>
+        <v>409.7</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.8152173913043459</v>
+        <v>0.83682008368199945</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
@@ -9793,15 +9799,15 @@
       </c>
       <c r="B53" s="36">
         <f>BLS_T3_GOV!B52</f>
-        <v>69.5</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="C53" s="36">
         <f>BLS_T3_GOV!C52</f>
-        <v>69.400000000000006</v>
+        <v>69.5</v>
       </c>
       <c r="D53" s="36">
         <f>BLS_T3_GOV!D52</f>
-        <v>69.5</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E53" s="36">
         <f>BLS_T3_GOV!E52</f>
@@ -9809,7 +9815,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-0.28776978417266452</v>
+        <v>-0.14409221902018654</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -9831,7 +9837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E52" sqref="B2:E52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9844,16 +9852,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="C1" s="4">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="D1" s="4">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="E1" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9867,10 +9875,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9881,10 +9889,10 @@
         <v>7.2</v>
       </c>
       <c r="C3" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D3" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E3" s="1">
         <v>6.3</v>
@@ -9901,10 +9909,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="E4" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9918,7 +9926,7 @@
         <v>3.5</v>
       </c>
       <c r="D5" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E5" s="1">
         <v>3.6</v>
@@ -9938,7 +9946,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E6" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9949,13 +9957,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D7" s="1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E7" s="1">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9969,10 +9977,10 @@
         <v>4.2</v>
       </c>
       <c r="D8" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E8" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -9983,13 +9991,13 @@
         <v>4.5</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D9" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E9" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10000,13 +10008,13 @@
         <v>5.9</v>
       </c>
       <c r="C10" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="D10" s="1">
         <v>5.6</v>
       </c>
       <c r="E10" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10017,10 +10025,10 @@
         <v>3.9</v>
       </c>
       <c r="C11" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D11" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E11" s="1">
         <v>3.3</v>
@@ -10034,13 +10042,13 @@
         <v>4.5</v>
       </c>
       <c r="C12" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="1">
         <v>3.6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -10051,13 +10059,13 @@
         <v>2.1</v>
       </c>
       <c r="C13" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E13" s="1">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -10071,7 +10079,7 @@
         <v>2.7</v>
       </c>
       <c r="D14" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E14" s="1">
         <v>2.6</v>
@@ -10085,13 +10093,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D15" s="1">
         <v>4.2</v>
       </c>
       <c r="E15" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -10105,7 +10113,7 @@
         <v>3.5</v>
       </c>
       <c r="D16" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E16" s="1">
         <v>3.6</v>
@@ -10119,7 +10127,7 @@
         <v>2.9</v>
       </c>
       <c r="C17" s="1">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D17" s="1">
         <v>2.4</v>
@@ -10139,10 +10147,10 @@
         <v>3.3</v>
       </c>
       <c r="D18" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E18" s="1">
         <v>3.3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -10159,7 +10167,7 @@
         <v>4.5</v>
       </c>
       <c r="E19" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -10176,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -10187,7 +10195,7 @@
         <v>3.1</v>
       </c>
       <c r="C21" s="1">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D21" s="1">
         <v>3.4</v>
@@ -10204,13 +10212,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -10221,13 +10229,13 @@
         <v>3.5</v>
       </c>
       <c r="C23" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D23" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E23" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10238,13 +10246,13 @@
         <v>4.7</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D24" s="1">
         <v>3.9</v>
       </c>
       <c r="E24" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10272,7 +10280,7 @@
         <v>4.8</v>
       </c>
       <c r="C26" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D26" s="1">
         <v>4.7</v>
@@ -10286,16 +10294,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C27" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
         <v>3.1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10306,7 +10314,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C28" s="1">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D28" s="1">
         <v>3.7</v>
@@ -10340,7 +10348,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C30" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D30" s="1">
         <v>4.4000000000000004</v>
@@ -10357,10 +10365,10 @@
         <v>2.6</v>
       </c>
       <c r="C31" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D31" s="1">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E31" s="1">
         <v>2.5</v>
@@ -10374,10 +10382,10 @@
         <v>4.7</v>
       </c>
       <c r="C32" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D32" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -10397,7 +10405,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E33" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10408,10 +10416,10 @@
         <v>4.7</v>
       </c>
       <c r="C34" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E34" s="1">
         <v>3.9</v>
@@ -10425,7 +10433,7 @@
         <v>4.5</v>
       </c>
       <c r="C35" s="1">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D35" s="1">
         <v>3.6</v>
@@ -10435,24 +10443,24 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>2.6</v>
       </c>
       <c r="C36" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D36" s="1">
         <v>2.8</v>
       </c>
       <c r="E36" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1">
@@ -10469,41 +10477,41 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="C38" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D38" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E38" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C39" s="1">
         <v>3.8</v>
       </c>
       <c r="D39" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E39" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -10513,7 +10521,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D40" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E40" s="1">
         <v>4.2</v>
@@ -10527,13 +10535,13 @@
         <v>4.5</v>
       </c>
       <c r="C41" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D41" s="1">
         <v>3.8</v>
       </c>
       <c r="E41" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -10567,7 +10575,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -10578,10 +10586,10 @@
         <v>3.3</v>
       </c>
       <c r="C44" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D44" s="1">
         <v>3.6</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.7</v>
       </c>
       <c r="E44" s="1">
         <v>3.6</v>
@@ -10592,10 +10600,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D45" s="1">
         <v>3.7</v>
@@ -10629,10 +10637,10 @@
         <v>2.9</v>
       </c>
       <c r="C47" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D47" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="E47" s="1">
         <v>2.7</v>
@@ -10649,7 +10657,7 @@
         <v>2.9</v>
       </c>
       <c r="D48" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E48" s="1">
         <v>2.8</v>
@@ -10663,7 +10671,7 @@
         <v>4.7</v>
       </c>
       <c r="C49" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="D49" s="1">
         <v>4.3</v>
@@ -10686,7 +10694,7 @@
         <v>5.2</v>
       </c>
       <c r="E50" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -10711,7 +10719,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C52" s="1">
         <v>4.0999999999999996</v>
@@ -10733,7 +10741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10745,16 +10755,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="C1" s="4">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="D1" s="4">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="E1" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10762,16 +10772,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="36">
-        <v>2020</v>
+        <v>2020.2</v>
       </c>
       <c r="C2" s="36">
-        <v>2046.2</v>
+        <v>2053</v>
       </c>
       <c r="D2" s="36">
-        <v>2053</v>
+        <v>2055.6999999999998</v>
       </c>
       <c r="E2" s="36">
-        <v>2054.8000000000002</v>
+        <v>2063.8000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -10782,13 +10792,13 @@
         <v>326.5</v>
       </c>
       <c r="C3" s="36">
-        <v>327.2</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="D3" s="36">
-        <v>327.39999999999998</v>
+        <v>325.8</v>
       </c>
       <c r="E3" s="36">
-        <v>326</v>
+        <v>326.10000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -10796,16 +10806,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="36">
-        <v>2791</v>
+        <v>2795.1</v>
       </c>
       <c r="C4" s="36">
-        <v>2875.3</v>
+        <v>2884.9</v>
       </c>
       <c r="D4" s="36">
-        <v>2884.9</v>
+        <v>2891.5</v>
       </c>
       <c r="E4" s="36">
-        <v>2892.6</v>
+        <v>2889.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10813,16 +10823,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="36">
-        <v>1241.9000000000001</v>
+        <v>1239</v>
       </c>
       <c r="C5" s="36">
-        <v>1253.5</v>
+        <v>1252.3</v>
       </c>
       <c r="D5" s="36">
-        <v>1252.3</v>
+        <v>1254.3</v>
       </c>
       <c r="E5" s="36">
-        <v>1254.0999999999999</v>
+        <v>1256.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10830,16 +10840,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="36">
-        <v>16967.900000000001</v>
+        <v>17002.900000000001</v>
       </c>
       <c r="C6" s="36">
-        <v>17200.2</v>
+        <v>17237</v>
       </c>
       <c r="D6" s="36">
-        <v>17237</v>
+        <v>17262.7</v>
       </c>
       <c r="E6" s="36">
-        <v>17267.7</v>
+        <v>17287.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10847,33 +10857,33 @@
         <v>5</v>
       </c>
       <c r="B7" s="36">
-        <v>2680.7</v>
+        <v>2686.8</v>
       </c>
       <c r="C7" s="36">
-        <v>2742.3</v>
+        <v>2748</v>
       </c>
       <c r="D7" s="36">
-        <v>2748</v>
+        <v>2752.4</v>
       </c>
       <c r="E7" s="36">
-        <v>2749.8</v>
+        <v>2762.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="36">
-        <v>1679.9</v>
+        <v>1685.6</v>
       </c>
       <c r="C8" s="36">
-        <v>1700.4</v>
+        <v>1703.4</v>
       </c>
       <c r="D8" s="36">
-        <v>1703.4</v>
+        <v>1704.4</v>
       </c>
       <c r="E8" s="36">
-        <v>1702.9</v>
+        <v>1705.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10881,16 +10891,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="36">
-        <v>457.2</v>
+        <v>455.5</v>
       </c>
       <c r="C9" s="36">
-        <v>463</v>
+        <v>464.2</v>
       </c>
       <c r="D9" s="36">
-        <v>464.2</v>
+        <v>464.5</v>
       </c>
       <c r="E9" s="36">
-        <v>464.3</v>
+        <v>465.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10898,16 +10908,16 @@
         <v>122</v>
       </c>
       <c r="B10" s="36">
-        <v>793.5</v>
+        <v>794</v>
       </c>
       <c r="C10" s="36">
-        <v>795.5</v>
+        <v>795.2</v>
       </c>
       <c r="D10" s="36">
-        <v>795.2</v>
+        <v>794.2</v>
       </c>
       <c r="E10" s="36">
-        <v>793.7</v>
+        <v>796.3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10915,16 +10925,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="36">
-        <v>8631.4</v>
+        <v>8660</v>
       </c>
       <c r="C11" s="36">
-        <v>8829.5</v>
+        <v>8849.4</v>
       </c>
       <c r="D11" s="36">
-        <v>8849.4</v>
+        <v>8868.4</v>
       </c>
       <c r="E11" s="36">
-        <v>8873</v>
+        <v>8891.2000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -10932,16 +10942,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="36">
-        <v>4482.2</v>
+        <v>4487.2</v>
       </c>
       <c r="C12" s="36">
-        <v>4573.3999999999996</v>
+        <v>4576.7</v>
       </c>
       <c r="D12" s="36">
-        <v>4576.7</v>
+        <v>4584.3</v>
       </c>
       <c r="E12" s="36">
-        <v>4581.2</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -10949,16 +10959,16 @@
         <v>117</v>
       </c>
       <c r="B13" s="36">
-        <v>652.79999999999995</v>
+        <v>657</v>
       </c>
       <c r="C13" s="36">
-        <v>664.4</v>
+        <v>665.2</v>
       </c>
       <c r="D13" s="36">
-        <v>665.2</v>
+        <v>665.4</v>
       </c>
       <c r="E13" s="36">
-        <v>666.1</v>
+        <v>666.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -10966,16 +10976,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="36">
-        <v>726.1</v>
+        <v>728.1</v>
       </c>
       <c r="C14" s="36">
-        <v>738.5</v>
+        <v>738.9</v>
       </c>
       <c r="D14" s="36">
-        <v>738.9</v>
+        <v>740.3</v>
       </c>
       <c r="E14" s="36">
-        <v>739.3</v>
+        <v>742.6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -10983,16 +10993,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="36">
-        <v>6081.9</v>
+        <v>6081.2</v>
       </c>
       <c r="C15" s="36">
-        <v>6123.8</v>
+        <v>6130.6</v>
       </c>
       <c r="D15" s="36">
-        <v>6130.6</v>
+        <v>6138.6</v>
       </c>
       <c r="E15" s="36">
-        <v>6136.5</v>
+        <v>6152.2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11000,16 +11010,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="36">
-        <v>3111.3</v>
+        <v>3114.9</v>
       </c>
       <c r="C16" s="36">
-        <v>3136</v>
+        <v>3138.1</v>
       </c>
       <c r="D16" s="36">
-        <v>3138.1</v>
+        <v>3146.2</v>
       </c>
       <c r="E16" s="36">
-        <v>3141.4</v>
+        <v>3159.4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11017,16 +11027,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="36">
-        <v>1577.1</v>
+        <v>1582.6</v>
       </c>
       <c r="C17" s="36">
-        <v>1591.4</v>
+        <v>1593.8</v>
       </c>
       <c r="D17" s="36">
-        <v>1593.8</v>
+        <v>1594.2</v>
       </c>
       <c r="E17" s="36">
-        <v>1593</v>
+        <v>1598.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11034,16 +11044,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="36">
-        <v>1408.9</v>
+        <v>1411.3</v>
       </c>
       <c r="C18" s="36">
-        <v>1425</v>
+        <v>1427.1</v>
       </c>
       <c r="D18" s="36">
-        <v>1427.1</v>
+        <v>1430.3</v>
       </c>
       <c r="E18" s="36">
-        <v>1428.6</v>
+        <v>1431.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11051,16 +11061,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="36">
-        <v>1923.2</v>
+        <v>1924</v>
       </c>
       <c r="C19" s="36">
-        <v>1934.2</v>
+        <v>1935</v>
       </c>
       <c r="D19" s="36">
-        <v>1935</v>
+        <v>1940.8</v>
       </c>
       <c r="E19" s="36">
-        <v>1940.2</v>
+        <v>1945.3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11068,16 +11078,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="36">
-        <v>1968</v>
+        <v>1970.3</v>
       </c>
       <c r="C20" s="36">
-        <v>1989.7</v>
+        <v>1992.2</v>
       </c>
       <c r="D20" s="36">
+        <v>1991.5</v>
+      </c>
+      <c r="E20" s="36">
         <v>1992.2</v>
-      </c>
-      <c r="E20" s="36">
-        <v>1991.1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11085,16 +11095,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="36">
-        <v>622.20000000000005</v>
+        <v>623.79999999999995</v>
       </c>
       <c r="C21" s="36">
+        <v>628</v>
+      </c>
+      <c r="D21" s="36">
         <v>629.1</v>
       </c>
-      <c r="D21" s="36">
-        <v>628</v>
-      </c>
       <c r="E21" s="36">
-        <v>628.29999999999995</v>
+        <v>628.1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11102,16 +11112,16 @@
         <v>118</v>
       </c>
       <c r="B22" s="36">
-        <v>2727.1</v>
+        <v>2716.1</v>
       </c>
       <c r="C22" s="36">
-        <v>2750.9</v>
+        <v>2755.9</v>
       </c>
       <c r="D22" s="36">
-        <v>2755.9</v>
+        <v>2762.1</v>
       </c>
       <c r="E22" s="36">
-        <v>2763.8</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11119,16 +11129,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="36">
-        <v>3626</v>
+        <v>3628.6</v>
       </c>
       <c r="C23" s="36">
-        <v>3679.1</v>
+        <v>3681.9</v>
       </c>
       <c r="D23" s="36">
-        <v>3681.9</v>
+        <v>3688.8</v>
       </c>
       <c r="E23" s="36">
-        <v>3686.5</v>
+        <v>3694.4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11136,16 +11146,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="36">
-        <v>4389.3</v>
+        <v>4394.8</v>
       </c>
       <c r="C24" s="36">
-        <v>4438</v>
+        <v>4442.1000000000004</v>
       </c>
       <c r="D24" s="36">
-        <v>4442.1000000000004</v>
+        <v>4442.3</v>
       </c>
       <c r="E24" s="36">
-        <v>4441.2</v>
+        <v>4449.8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11153,16 +11163,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="36">
-        <v>2941.2</v>
+        <v>2943.7</v>
       </c>
       <c r="C25" s="36">
-        <v>2974.7</v>
+        <v>2977.2</v>
       </c>
       <c r="D25" s="36">
-        <v>2977.2</v>
+        <v>2975.4</v>
       </c>
       <c r="E25" s="36">
-        <v>2976.4</v>
+        <v>2975.9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11170,16 +11180,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="36">
-        <v>1158.7</v>
+        <v>1162</v>
       </c>
       <c r="C26" s="36">
-        <v>1168.0999999999999</v>
+        <v>1170</v>
       </c>
       <c r="D26" s="36">
-        <v>1170</v>
+        <v>1172.5999999999999</v>
       </c>
       <c r="E26" s="36">
-        <v>1172.8</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11187,16 +11197,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="36">
-        <v>2879.5</v>
+        <v>2880.6</v>
       </c>
       <c r="C27" s="36">
-        <v>2913.2</v>
+        <v>2913.1</v>
       </c>
       <c r="D27" s="36">
-        <v>2913.1</v>
+        <v>2915.5</v>
       </c>
       <c r="E27" s="36">
-        <v>2911.9</v>
+        <v>2919.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11204,16 +11214,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="36">
-        <v>474.1</v>
+        <v>476.7</v>
       </c>
       <c r="C28" s="36">
-        <v>479.6</v>
+        <v>479.5</v>
       </c>
       <c r="D28" s="36">
-        <v>479.5</v>
+        <v>481.1</v>
       </c>
       <c r="E28" s="36">
-        <v>481.5</v>
+        <v>481.4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11221,16 +11231,16 @@
         <v>119</v>
       </c>
       <c r="B29" s="36">
-        <v>1019.3</v>
+        <v>1021.1</v>
       </c>
       <c r="C29" s="36">
-        <v>1033.3</v>
+        <v>1030.9000000000001</v>
       </c>
       <c r="D29" s="36">
-        <v>1030.9000000000001</v>
+        <v>1033.0999999999999</v>
       </c>
       <c r="E29" s="36">
-        <v>1032.2</v>
+        <v>1033.8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11238,16 +11248,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="36">
-        <v>1353.3</v>
+        <v>1359.8</v>
       </c>
       <c r="C30" s="36">
-        <v>1392.8</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="36">
-        <v>1400</v>
+        <v>1405.9</v>
       </c>
       <c r="E30" s="36">
-        <v>1405.2</v>
+        <v>1412.2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -11255,118 +11265,118 @@
         <v>29</v>
       </c>
       <c r="B31" s="36">
-        <v>679.9</v>
+        <v>677.9</v>
       </c>
       <c r="C31" s="36">
-        <v>690.9</v>
+        <v>694.4</v>
       </c>
       <c r="D31" s="36">
-        <v>694.4</v>
+        <v>695.1</v>
       </c>
       <c r="E31" s="36">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="36">
-        <v>4150.5</v>
-      </c>
-      <c r="C32" s="36">
-        <v>4195.8999999999996</v>
-      </c>
-      <c r="D32" s="36">
+      <c r="B32" s="35">
+        <v>4146.8</v>
+      </c>
+      <c r="C32" s="35">
         <v>4213.2</v>
       </c>
-      <c r="E32" s="36">
-        <v>4211.3999999999996</v>
+      <c r="D32" s="35">
+        <v>4211.3</v>
+      </c>
+      <c r="E32" s="35">
+        <v>4208.7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="36">
-        <v>836.3</v>
-      </c>
-      <c r="C33" s="36">
-        <v>852.6</v>
-      </c>
-      <c r="D33" s="36">
+      <c r="B33" s="35">
+        <v>835.8</v>
+      </c>
+      <c r="C33" s="35">
         <v>855.4</v>
       </c>
-      <c r="E33" s="36">
-        <v>854</v>
+      <c r="D33" s="35">
+        <v>854.4</v>
+      </c>
+      <c r="E33" s="35">
+        <v>855.7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="36">
-        <v>9567.6</v>
-      </c>
-      <c r="C34" s="36">
-        <v>9646.7999999999993</v>
-      </c>
-      <c r="D34" s="36">
+      <c r="B34" s="35">
+        <v>9573</v>
+      </c>
+      <c r="C34" s="35">
         <v>9676</v>
       </c>
-      <c r="E34" s="36">
-        <v>9682</v>
+      <c r="D34" s="35">
+        <v>9683.1</v>
+      </c>
+      <c r="E34" s="35">
+        <v>9694.9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="36">
-        <v>4437.2</v>
-      </c>
-      <c r="C35" s="36">
-        <v>4511</v>
-      </c>
-      <c r="D35" s="36">
+      <c r="B35" s="35">
+        <v>4449.2</v>
+      </c>
+      <c r="C35" s="35">
         <v>4534.5</v>
       </c>
-      <c r="E35" s="36">
-        <v>4537.8999999999996</v>
+      <c r="D35" s="35">
+        <v>4535.2</v>
+      </c>
+      <c r="E35" s="35">
+        <v>4536.3999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="36">
-        <v>427</v>
-      </c>
-      <c r="C36" s="36">
-        <v>435</v>
-      </c>
-      <c r="D36" s="36">
+      <c r="B36" s="35">
+        <v>426.2</v>
+      </c>
+      <c r="C36" s="35">
         <v>434.8</v>
       </c>
-      <c r="E36" s="36">
-        <v>434.4</v>
+      <c r="D36" s="35">
+        <v>433.5</v>
+      </c>
+      <c r="E36" s="35">
+        <v>435.2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="36">
-        <v>5532.5</v>
-      </c>
-      <c r="C37" s="36">
-        <v>5636.3</v>
-      </c>
-      <c r="D37" s="36">
+      <c r="B37" s="35">
+        <v>5534.3</v>
+      </c>
+      <c r="C37" s="35">
         <v>5643.7</v>
       </c>
-      <c r="E37" s="36">
-        <v>5648.9</v>
+      <c r="D37" s="35">
+        <v>5647.9</v>
+      </c>
+      <c r="E37" s="35">
+        <v>5650.8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -11374,16 +11384,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="35">
-        <v>1676</v>
+        <v>1677.9</v>
       </c>
       <c r="C38" s="35">
-        <v>1699.7</v>
+        <v>1702</v>
       </c>
       <c r="D38" s="35">
-        <v>1702</v>
+        <v>1702.8</v>
       </c>
       <c r="E38" s="35">
-        <v>1704.2</v>
+        <v>1703.4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -11391,16 +11401,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="35">
-        <v>1887</v>
+        <v>1896.8</v>
       </c>
       <c r="C39" s="35">
-        <v>1927</v>
+        <v>1931.3</v>
       </c>
       <c r="D39" s="35">
-        <v>1931.3</v>
+        <v>1931.6</v>
       </c>
       <c r="E39" s="35">
-        <v>1933.7</v>
+        <v>1931.9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -11408,16 +11418,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="35">
-        <v>5976.8</v>
+        <v>5993.6</v>
       </c>
       <c r="C40" s="35">
-        <v>6044.9</v>
+        <v>6060.9</v>
       </c>
       <c r="D40" s="35">
-        <v>6060.9</v>
+        <v>6055.2</v>
       </c>
       <c r="E40" s="35">
-        <v>6055.5</v>
+        <v>6068.4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -11425,16 +11435,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="35">
-        <v>497.6</v>
+        <v>497.9</v>
       </c>
       <c r="C41" s="35">
-        <v>502.6</v>
+        <v>503.6</v>
       </c>
       <c r="D41" s="35">
-        <v>503.6</v>
+        <v>502.8</v>
       </c>
       <c r="E41" s="35">
-        <v>502.7</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -11442,16 +11452,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="35">
-        <v>2105.1999999999998</v>
+        <v>2110</v>
       </c>
       <c r="C42" s="35">
-        <v>2115.1</v>
+        <v>2134.6</v>
       </c>
       <c r="D42" s="35">
-        <v>2134.6</v>
+        <v>2140.4</v>
       </c>
       <c r="E42" s="35">
-        <v>2138</v>
+        <v>2151.1999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -11459,16 +11469,16 @@
         <v>120</v>
       </c>
       <c r="B43" s="35">
-        <v>436.8</v>
+        <v>438.2</v>
       </c>
       <c r="C43" s="35">
-        <v>442.3</v>
+        <v>443.2</v>
       </c>
       <c r="D43" s="35">
-        <v>443.2</v>
+        <v>445.7</v>
       </c>
       <c r="E43" s="35">
-        <v>446.1</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -11476,152 +11486,152 @@
         <v>121</v>
       </c>
       <c r="B44" s="35">
-        <v>3028.3</v>
+        <v>3027</v>
       </c>
       <c r="C44" s="35">
-        <v>3078.4</v>
+        <v>3085.6</v>
       </c>
       <c r="D44" s="35">
-        <v>3085.6</v>
+        <v>3091.9</v>
       </c>
       <c r="E44" s="35">
-        <v>3089</v>
+        <v>3086.1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="35">
-        <v>12338</v>
-      </c>
-      <c r="C45" s="35">
-        <v>12653.4</v>
-      </c>
-      <c r="D45" s="35">
+      <c r="B45" s="28">
+        <v>12352.3</v>
+      </c>
+      <c r="C45" s="28">
         <v>12689.4</v>
       </c>
-      <c r="E45" s="35">
-        <v>12703.4</v>
+      <c r="D45" s="28">
+        <v>12706.1</v>
+      </c>
+      <c r="E45" s="28">
+        <v>12744.1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="35">
-        <v>1485.7</v>
-      </c>
-      <c r="C46" s="35">
-        <v>1524.8</v>
-      </c>
-      <c r="D46" s="35">
+      <c r="B46" s="28">
+        <v>1490.3</v>
+      </c>
+      <c r="C46" s="28">
         <v>1528</v>
       </c>
-      <c r="E46" s="35">
-        <v>1529.4</v>
+      <c r="D46" s="28">
+        <v>1530.6</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1536.7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="35">
-        <v>314.5</v>
-      </c>
-      <c r="C47" s="35">
+      <c r="B47" s="7">
+        <v>313.5</v>
+      </c>
+      <c r="C47" s="7">
         <v>312.7</v>
       </c>
-      <c r="D47" s="35">
-        <v>312.7</v>
-      </c>
-      <c r="E47" s="35">
-        <v>313.2</v>
+      <c r="D47" s="7">
+        <v>313.5</v>
+      </c>
+      <c r="E47" s="7">
+        <v>313.3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="35">
-        <v>3956.6</v>
-      </c>
-      <c r="C48" s="35">
-        <v>4025</v>
-      </c>
-      <c r="D48" s="35">
+      <c r="B48" s="28">
+        <v>3954.1</v>
+      </c>
+      <c r="C48" s="28">
         <v>4025.1</v>
       </c>
-      <c r="E48" s="35">
-        <v>4031.7</v>
+      <c r="D48" s="28">
+        <v>4031.2</v>
+      </c>
+      <c r="E48" s="28">
+        <v>4031.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="35">
-        <v>3362.1</v>
-      </c>
-      <c r="C49" s="35">
-        <v>3448.3</v>
-      </c>
-      <c r="D49" s="35">
+      <c r="B49" s="28">
+        <v>3370.7</v>
+      </c>
+      <c r="C49" s="28">
         <v>3456</v>
       </c>
-      <c r="E49" s="35">
-        <v>3461.1</v>
+      <c r="D49" s="28">
+        <v>3463.3</v>
+      </c>
+      <c r="E49" s="28">
+        <v>3474.7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="35">
-        <v>747.1</v>
-      </c>
-      <c r="C50" s="35">
-        <v>752</v>
-      </c>
-      <c r="D50" s="35">
+      <c r="B50" s="7">
+        <v>748.6</v>
+      </c>
+      <c r="C50" s="7">
         <v>753.9</v>
       </c>
-      <c r="E50" s="35">
-        <v>753.6</v>
+      <c r="D50" s="7">
+        <v>753</v>
+      </c>
+      <c r="E50" s="7">
+        <v>753.3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="35">
-        <v>2946.2</v>
-      </c>
-      <c r="C51" s="35">
-        <v>2982.2</v>
-      </c>
-      <c r="D51" s="35">
+      <c r="B51" s="28">
+        <v>2953.3</v>
+      </c>
+      <c r="C51" s="28">
         <v>2979.4</v>
       </c>
-      <c r="E51" s="35">
-        <v>2990</v>
+      <c r="D51" s="28">
+        <v>2992.5</v>
+      </c>
+      <c r="E51" s="28">
+        <v>3001.6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="35">
-        <v>281.89999999999998</v>
-      </c>
-      <c r="C52" s="35">
-        <v>288.5</v>
-      </c>
-      <c r="D52" s="35">
+      <c r="B52" s="7">
+        <v>283.3</v>
+      </c>
+      <c r="C52" s="7">
         <v>289.2</v>
       </c>
-      <c r="E52" s="35">
-        <v>290.89999999999998</v>
+      <c r="D52" s="7">
+        <v>290.3</v>
+      </c>
+      <c r="E52" s="7">
+        <v>291.3</v>
       </c>
     </row>
   </sheetData>
@@ -11633,7 +11643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11646,151 +11658,151 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="C1" s="4">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="D1" s="4">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="E1" s="6">
-        <v>43405</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>384.8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>387.5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="7">
+        <v>384.4</v>
+      </c>
+      <c r="C2" s="7">
         <v>386.6</v>
       </c>
-      <c r="E2" s="1">
-        <v>386.9</v>
+      <c r="D2" s="7">
+        <v>387.6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>389.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>80.8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="7">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C3" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="7">
         <v>80.599999999999994</v>
+      </c>
+      <c r="E3" s="7">
+        <v>80.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>412.7</v>
       </c>
-      <c r="C4" s="1">
-        <v>417.8</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="7">
         <v>416.5</v>
       </c>
-      <c r="E4" s="1">
-        <v>417.3</v>
+      <c r="D4" s="7">
+        <v>416.7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
+        <v>211.3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>211.6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>211.5</v>
+      </c>
+      <c r="E5" s="7">
         <v>211.4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>211.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>211.6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>211.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>2574.6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2601.4</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="28">
+        <v>2579.1</v>
+      </c>
+      <c r="C6" s="28">
         <v>2603.4</v>
       </c>
-      <c r="E6" s="1">
-        <v>2606.1</v>
+      <c r="D6" s="28">
+        <v>2607.5</v>
+      </c>
+      <c r="E6" s="28">
+        <v>2609.4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>439.7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>447.7</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="7">
+        <v>440</v>
+      </c>
+      <c r="C7" s="7">
         <v>445.5</v>
       </c>
-      <c r="E7" s="1">
-        <v>446.6</v>
+      <c r="D7" s="7">
+        <v>446.3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>231.2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="7">
+        <v>231.1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>227.9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>228</v>
+      </c>
+      <c r="E8" s="7">
         <v>227.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>227.9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>227.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>66.5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="7">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="C9" s="7">
         <v>67.400000000000006</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E9" s="7">
         <v>67.2</v>
       </c>
     </row>
@@ -11798,560 +11810,560 @@
       <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>239</v>
-      </c>
-      <c r="C10" s="1">
-        <v>237.3</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="7">
+        <v>238.5</v>
+      </c>
+      <c r="C10" s="7">
         <v>237</v>
       </c>
-      <c r="E10" s="1">
-        <v>236.4</v>
+      <c r="D10" s="7">
+        <v>236.9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>1109.2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1102.5</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="28">
+        <v>1111.4000000000001</v>
+      </c>
+      <c r="C11" s="28">
         <v>1099</v>
       </c>
-      <c r="E11" s="1">
-        <v>1099.5999999999999</v>
+      <c r="D11" s="28">
+        <v>1100.7</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1101.5999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>691</v>
-      </c>
-      <c r="C12" s="1">
-        <v>693.1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="7">
+        <v>686.4</v>
+      </c>
+      <c r="C12" s="7">
         <v>692.4</v>
       </c>
-      <c r="E12" s="1">
-        <v>693.4</v>
+      <c r="D12" s="7">
+        <v>694.3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>693.7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>123.2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>125.2</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="7">
+        <v>125.5</v>
+      </c>
+      <c r="C13" s="7">
         <v>125</v>
       </c>
-      <c r="E13" s="1">
-        <v>126.8</v>
+      <c r="D13" s="7">
+        <v>127.5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>126.1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>125</v>
-      </c>
-      <c r="C14" s="1">
-        <v>126.7</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="7">
+        <v>125.1</v>
+      </c>
+      <c r="C14" s="7">
         <v>127</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="7">
         <v>127</v>
+      </c>
+      <c r="E14" s="7">
+        <v>127.8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>831.2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>845.4</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="7">
+        <v>830.8</v>
+      </c>
+      <c r="C15" s="7">
         <v>845.5</v>
       </c>
-      <c r="E15" s="1">
-        <v>846</v>
+      <c r="D15" s="7">
+        <v>849.2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>855.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
+        <v>426</v>
+      </c>
+      <c r="C16" s="7">
         <v>426.1</v>
       </c>
-      <c r="C16" s="1">
-        <v>426.2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>426.1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>426.6</v>
+      <c r="D16" s="7">
+        <v>426.8</v>
+      </c>
+      <c r="E16" s="7">
+        <v>427.8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
+        <v>259.2</v>
+      </c>
+      <c r="C17" s="7">
         <v>259.60000000000002</v>
       </c>
-      <c r="C17" s="1">
-        <v>260</v>
-      </c>
-      <c r="D17" s="1">
-        <v>259.60000000000002</v>
-      </c>
-      <c r="E17" s="1">
-        <v>259.89999999999998</v>
+      <c r="D17" s="7">
+        <v>259.7</v>
+      </c>
+      <c r="E17" s="7">
+        <v>260.3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>256.60000000000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>260.3</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="7">
+        <v>256.8</v>
+      </c>
+      <c r="C18" s="7">
         <v>259.39999999999998</v>
       </c>
-      <c r="E18" s="1">
-        <v>259.39999999999998</v>
+      <c r="D18" s="7">
+        <v>259.5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>259.7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>314.89999999999998</v>
-      </c>
-      <c r="C19" s="1">
-        <v>315.60000000000002</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="7">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="C19" s="7">
         <v>314.3</v>
       </c>
-      <c r="E19" s="1">
-        <v>314.60000000000002</v>
+      <c r="D19" s="7">
+        <v>314.39999999999998</v>
+      </c>
+      <c r="E19" s="7">
+        <v>313.89999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>326.2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>323.8</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="7">
+        <v>325.60000000000002</v>
+      </c>
+      <c r="C20" s="7">
         <v>323.7</v>
       </c>
-      <c r="E20" s="1">
+      <c r="D20" s="7">
         <v>324.10000000000002</v>
+      </c>
+      <c r="E20" s="7">
+        <v>323.7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>100.1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>100.6</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="C21" s="7">
         <v>100.3</v>
       </c>
-      <c r="E21" s="1">
-        <v>100.3</v>
+      <c r="D21" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>503.5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>501.7</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="7">
+        <v>503.4</v>
+      </c>
+      <c r="C22" s="7">
         <v>503.6</v>
       </c>
-      <c r="E22" s="1">
-        <v>504.1</v>
+      <c r="D22" s="7">
+        <v>502.6</v>
+      </c>
+      <c r="E22" s="7">
+        <v>503.3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>452.2</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="7">
+        <v>452.8</v>
+      </c>
+      <c r="C23" s="7">
+        <v>452</v>
+      </c>
+      <c r="D23" s="7">
         <v>452.5</v>
       </c>
-      <c r="D23" s="1">
-        <v>452</v>
-      </c>
-      <c r="E23" s="1">
-        <v>452</v>
+      <c r="E23" s="7">
+        <v>452.6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>609.4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>610.79999999999995</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="7">
+        <v>610</v>
+      </c>
+      <c r="C24" s="7">
         <v>612.5</v>
       </c>
-      <c r="E24" s="1">
-        <v>613.70000000000005</v>
+      <c r="D24" s="7">
+        <v>612.79999999999995</v>
+      </c>
+      <c r="E24" s="7">
+        <v>612.20000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>428</v>
-      </c>
-      <c r="C25" s="1">
-        <v>431.7</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="7">
+        <v>427</v>
+      </c>
+      <c r="C25" s="7">
         <v>430.6</v>
       </c>
-      <c r="E25" s="1">
-        <v>430.2</v>
+      <c r="D25" s="7">
+        <v>429.9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>429.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>243.2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>245.3</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="7">
+        <v>243.1</v>
+      </c>
+      <c r="C26" s="7">
         <v>244.8</v>
       </c>
-      <c r="E26" s="1">
-        <v>245.2</v>
+      <c r="D26" s="7">
+        <v>245.1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>244.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>432.8</v>
-      </c>
-      <c r="C27" s="1">
-        <v>434.6</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="7">
+        <v>432.3</v>
+      </c>
+      <c r="C27" s="7">
         <v>434.2</v>
       </c>
-      <c r="E27" s="1">
-        <v>434</v>
+      <c r="D27" s="7">
+        <v>434.2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>434.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="7">
         <v>91.7</v>
       </c>
-      <c r="C28" s="1">
-        <v>92.7</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="7">
         <v>92.3</v>
       </c>
-      <c r="E28" s="1">
-        <v>92.4</v>
+      <c r="D28" s="7">
+        <v>92.6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>92.9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>172.4</v>
-      </c>
-      <c r="C29" s="1">
-        <v>173.3</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="7">
+        <v>172</v>
+      </c>
+      <c r="C29" s="7">
         <v>172.3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="7">
         <v>172.9</v>
+      </c>
+      <c r="E29" s="7">
+        <v>173.2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="C30" s="1">
-        <v>167.3</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="7">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="C30" s="7">
         <v>166.7</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D30" s="7">
         <v>168.3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>168.7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>89.9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>90.7</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="7">
+        <v>89.8</v>
+      </c>
+      <c r="C31" s="7">
         <v>90.6</v>
       </c>
-      <c r="E31" s="1">
-        <v>90.9</v>
+      <c r="D31" s="7">
+        <v>91</v>
+      </c>
+      <c r="E31" s="7">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="7">
+        <v>614</v>
+      </c>
+      <c r="C32" s="7">
         <v>615.29999999999995</v>
       </c>
-      <c r="C32" s="1">
-        <v>616.1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>615.29999999999995</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="7">
         <v>614.29999999999995</v>
       </c>
+      <c r="E32" s="7">
+        <v>614</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>187</v>
-      </c>
-      <c r="C33" s="1">
-        <v>187</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="7">
+        <v>187.2</v>
+      </c>
+      <c r="C33" s="7">
         <v>187.3</v>
       </c>
-      <c r="E33" s="1">
+      <c r="D33" s="7">
         <v>187.6</v>
       </c>
+      <c r="E33" s="7">
+        <v>188</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>1448.4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1450.6</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="28">
+        <v>1449.1</v>
+      </c>
+      <c r="C34" s="28">
         <v>1450.1</v>
       </c>
-      <c r="E34" s="1">
-        <v>1450.9</v>
+      <c r="D34" s="28">
+        <v>1451</v>
+      </c>
+      <c r="E34" s="28">
+        <v>1451.2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="7">
         <v>734.5</v>
       </c>
-      <c r="C35" s="1">
-        <v>740.5</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="7">
         <v>738</v>
       </c>
-      <c r="E35" s="1">
-        <v>738.3</v>
+      <c r="D35" s="7">
+        <v>738.5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>81.7</v>
-      </c>
-      <c r="C36" s="1">
-        <v>80.5</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="7">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C36" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="E36" s="1">
-        <v>80.7</v>
+      <c r="D36" s="7">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E36" s="7">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>782.3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>791.3</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="7">
+        <v>782</v>
+      </c>
+      <c r="C37" s="7">
         <v>790.9</v>
       </c>
-      <c r="E37" s="1">
+      <c r="D37" s="7">
         <v>790.3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>793.7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>351.2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>352.3</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="7">
+        <v>351</v>
+      </c>
+      <c r="C38" s="7">
         <v>352</v>
       </c>
-      <c r="E38" s="1">
+      <c r="D38" s="7">
         <v>352</v>
+      </c>
+      <c r="E38" s="7">
+        <v>352.2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>309</v>
-      </c>
-      <c r="C39" s="1">
-        <v>295.3</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="7">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="C39" s="7">
         <v>296</v>
       </c>
-      <c r="E39" s="1">
-        <v>296.7</v>
+      <c r="D39" s="7">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="E39" s="7">
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>701.3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>702.7</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="7">
+        <v>699.7</v>
+      </c>
+      <c r="C40" s="7">
         <v>701.5</v>
       </c>
-      <c r="E40" s="1">
-        <v>701.5</v>
+      <c r="D40" s="7">
+        <v>700.7</v>
+      </c>
+      <c r="E40" s="7">
+        <v>701.8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="7">
         <v>60.9</v>
       </c>
-      <c r="C41" s="1">
-        <v>60.5</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="7">
         <v>60.6</v>
       </c>
-      <c r="E41" s="1">
+      <c r="D41" s="7">
         <v>60.7</v>
+      </c>
+      <c r="E41" s="7">
+        <v>60.8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>366.5</v>
-      </c>
-      <c r="C42" s="1">
-        <v>368.7</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="7">
+        <v>366.8</v>
+      </c>
+      <c r="C42" s="7">
         <v>368.9</v>
       </c>
-      <c r="E42" s="1">
+      <c r="D42" s="7">
+        <v>369.6</v>
+      </c>
+      <c r="E42" s="7">
         <v>369.8</v>
       </c>
     </row>
@@ -12359,101 +12371,101 @@
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="C43" s="1">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="C43" s="7">
         <v>80.3</v>
       </c>
-      <c r="E43" s="1">
-        <v>80.5</v>
+      <c r="D43" s="7">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E43" s="7">
+        <v>80.3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>432.4</v>
-      </c>
-      <c r="C44" s="1">
-        <v>433.9</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="7">
+        <v>430.9</v>
+      </c>
+      <c r="C44" s="7">
         <v>433.7</v>
       </c>
-      <c r="E44" s="1">
-        <v>434</v>
+      <c r="D44" s="7">
+        <v>434.1</v>
+      </c>
+      <c r="E44" s="7">
+        <v>434.1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>1940.8</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1939.7</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="28">
+        <v>1942.7</v>
+      </c>
+      <c r="C45" s="28">
         <v>1940.5</v>
       </c>
-      <c r="E45" s="1">
-        <v>1942.5</v>
+      <c r="D45" s="28">
+        <v>1943.1</v>
+      </c>
+      <c r="E45" s="28">
+        <v>1945.7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>245.4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>249.8</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="7">
+        <v>245.7</v>
+      </c>
+      <c r="C46" s="7">
         <v>250.7</v>
       </c>
-      <c r="E46" s="1">
+      <c r="D46" s="7">
         <v>250.9</v>
+      </c>
+      <c r="E46" s="7">
+        <v>251.3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="C47" s="7">
         <v>55.8</v>
       </c>
-      <c r="C47" s="1">
-        <v>55.6</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="D47" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="E47" s="7">
         <v>55.8</v>
-      </c>
-      <c r="E47" s="1">
-        <v>55.9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>716.3</v>
-      </c>
-      <c r="C48" s="1">
-        <v>699.9</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="7">
+        <v>716.1</v>
+      </c>
+      <c r="C48" s="7">
         <v>697.6</v>
       </c>
-      <c r="E48" s="1">
+      <c r="D48" s="7">
+        <v>699.2</v>
+      </c>
+      <c r="E48" s="7">
         <v>700.2</v>
       </c>
     </row>
@@ -12461,67 +12473,67 @@
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>590.1</v>
-      </c>
-      <c r="C49" s="1">
-        <v>595.5</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="7">
+        <v>590.70000000000005</v>
+      </c>
+      <c r="C49" s="7">
         <v>594</v>
       </c>
-      <c r="E49" s="1">
-        <v>592.70000000000005</v>
+      <c r="D49" s="7">
+        <v>595</v>
+      </c>
+      <c r="E49" s="7">
+        <v>596.6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="7">
         <v>153.6</v>
       </c>
-      <c r="C50" s="1">
-        <v>155.30000000000001</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="7">
         <v>155.4</v>
       </c>
-      <c r="E50" s="1">
-        <v>155.19999999999999</v>
+      <c r="D50" s="7">
+        <v>155.4</v>
+      </c>
+      <c r="E50" s="7">
+        <v>155.69999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>404.8</v>
-      </c>
-      <c r="C51" s="1">
-        <v>410</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="7">
+        <v>406.3</v>
+      </c>
+      <c r="C51" s="7">
         <v>407.4</v>
       </c>
-      <c r="E51" s="1">
-        <v>408.1</v>
+      <c r="D51" s="7">
+        <v>409.7</v>
+      </c>
+      <c r="E51" s="7">
+        <v>409.7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C52" s="7">
         <v>69.5</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="7">
         <v>69.400000000000006</v>
       </c>
-      <c r="D52" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="E52" s="7">
         <v>69.3</v>
       </c>
     </row>

--- a/static/data/source/current_employment.xlsx
+++ b/static/data/source/current_employment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Online SEM\Employment\2019\April 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Online SEM\Employment\2019\May 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="Employment_Table" sheetId="4" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <t>District of Columbia(2)</t>
   </si>
   <si>
-    <t>Employment April 2019</t>
+    <t>Employment May 2019</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2102,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="507">
@@ -2916,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -2931,7 +2931,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>119</v>
       </c>
@@ -2978,15 +2978,15 @@
       </c>
       <c r="D3" s="1">
         <f>+Unemployment!F2</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="E3" s="1">
         <f>+Total_Employment!F2</f>
-        <v>1.7646068361677036</v>
+        <v>1.5798850381525398</v>
       </c>
       <c r="F3" s="1">
         <f>+Government_Employment!F2</f>
-        <v>0.561973150171724</v>
+        <v>0.3879252686493917</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C4" s="1">
         <f>+Unemployment!E3</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D4" s="1">
         <f>+Unemployment!F3</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="E4" s="1">
         <f>+Total_Employment!F3</f>
-        <v>1.669859044251254</v>
+        <v>1.8373863915499999</v>
       </c>
       <c r="F4" s="1">
         <f>+Government_Employment!F3</f>
-        <v>0.1814411612234279</v>
+        <v>0.77800829875518396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3022,19 +3022,19 @@
       </c>
       <c r="C5" s="1">
         <f>+Unemployment!E4</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D5" s="1">
         <f>+Unemployment!F4</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="E5" s="1">
         <f>+Total_Employment!F4</f>
-        <v>1.5596330275229331</v>
+        <v>1.7125382262997091</v>
       </c>
       <c r="F5" s="1">
         <f>+Government_Employment!F4</f>
-        <v>-0.24783147459728205</v>
+        <v>-0.1242236024844634</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -3050,15 +3050,15 @@
       </c>
       <c r="D6" s="1">
         <f>+Unemployment!F5</f>
-        <v>0.10000000000000053</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E6" s="1">
         <f>+Total_Employment!F5</f>
-        <v>2.7501586629997909</v>
+        <v>2.6792306880911498</v>
       </c>
       <c r="F6" s="1">
         <f>+Government_Employment!F5</f>
-        <v>0.798644724104558</v>
+        <v>0.69812229176697826</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3078,11 +3078,11 @@
       </c>
       <c r="E7" s="1">
         <f>+Total_Employment!F6</f>
-        <v>1.0635764743233578</v>
+        <v>0.99151265170143166</v>
       </c>
       <c r="F7" s="1">
         <f>+Government_Employment!F6</f>
-        <v>0.61349693251533388</v>
+        <v>0.80454330336015012</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C8" s="1">
         <f>+Unemployment!E7</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D8" s="1">
         <f>+Unemployment!F7</f>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="E8" s="1">
         <f>+Total_Employment!F7</f>
-        <v>1.5853466340569167</v>
+        <v>1.6490888302961082</v>
       </c>
       <c r="F8" s="1">
         <f>+Government_Employment!F7</f>
-        <v>1.0674917810868267</v>
+        <v>1.1482698627488741</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3118,19 +3118,19 @@
       </c>
       <c r="C9" s="1">
         <f>+Unemployment!E8</f>
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D9" s="1">
         <f>+Unemployment!F8</f>
-        <v>0.39999999999999991</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E9" s="1">
         <f>+Total_Employment!F8</f>
-        <v>1.807739037590661</v>
+        <v>1.6871278394471778</v>
       </c>
       <c r="F9" s="1">
         <f>+Government_Employment!F8</f>
-        <v>0.72120802343926815</v>
+        <v>0.76370170709794127</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3146,15 +3146,15 @@
       </c>
       <c r="D10" s="1">
         <f>+Unemployment!F9</f>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="E10" s="1">
         <f>+Total_Employment!F9</f>
-        <v>0.68895884064856805</v>
+        <v>0.39113428943937656</v>
       </c>
       <c r="F10" s="1">
         <f>+Government_Employment!F9</f>
-        <v>0.3392705682782049</v>
+        <v>0.12695725772322586</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3170,15 +3170,15 @@
       </c>
       <c r="D11" s="1">
         <f>+Unemployment!F10</f>
-        <v>-0.69999999999999973</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E11" s="1">
         <f>+Total_Employment!F10</f>
-        <v>0.86749078291044057</v>
+        <v>0.58428911491019697</v>
       </c>
       <c r="F11" s="1">
         <f>+Government_Employment!F10</f>
-        <v>2.2796352583586588</v>
+        <v>2.1212121212121238</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3190,19 +3190,19 @@
       </c>
       <c r="C12" s="1">
         <f>+Unemployment!E11</f>
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D12" s="1">
         <f>+Unemployment!F11</f>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <f>+Total_Employment!F11</f>
-        <v>0.49223778871640977</v>
+        <v>0.45443069931834223</v>
       </c>
       <c r="F12" s="1">
         <f>+Government_Employment!F11</f>
-        <v>-0.16736401673640433</v>
+        <v>-0.41893590280687176</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="E13" s="1">
         <f>+Total_Employment!F12</f>
-        <v>2.3590412746377298</v>
+        <v>2.4523254218685731</v>
       </c>
       <c r="F13" s="1">
         <f>+Government_Employment!F12</f>
-        <v>0.25197984161267062</v>
+        <v>0.52205220522052453</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3242,15 +3242,15 @@
       </c>
       <c r="D14" s="1">
         <f>+Unemployment!F13</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E14" s="1">
         <f>+Total_Employment!F13</f>
-        <v>1.5429570761295475</v>
+        <v>1.5265995051255032</v>
       </c>
       <c r="F14" s="1">
         <f>+Government_Employment!F13</f>
-        <v>0.88380179658069657</v>
+        <v>0.18707727730609136</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3270,11 +3270,11 @@
       </c>
       <c r="E15" s="1">
         <f>+Total_Employment!F14</f>
-        <v>0.57935660923922327</v>
+        <v>0.33536585365854243</v>
       </c>
       <c r="F15" s="1">
         <f>+Government_Employment!F14</f>
-        <v>1.7656500802568198</v>
+        <v>0.63694267515923553</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3294,11 +3294,11 @@
       </c>
       <c r="E16" s="1">
         <f>+Total_Employment!F15</f>
-        <v>2.548031066902845</v>
+        <v>2.4999999999999911</v>
       </c>
       <c r="F16" s="1">
         <f>+Government_Employment!F15</f>
-        <v>1.6064257028112428</v>
+        <v>1.5261044176706928</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3318,11 +3318,11 @@
       </c>
       <c r="E17" s="1">
         <f>+Total_Employment!F16</f>
-        <v>1.3698630136986356</v>
+        <v>1.2247106272748276</v>
       </c>
       <c r="F17" s="1">
         <f>+Government_Employment!F16</f>
-        <v>0.3271934076587435</v>
+        <v>0.49660852713178105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3338,15 +3338,15 @@
       </c>
       <c r="D18" s="1">
         <f>+Unemployment!F17</f>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E18" s="1">
         <f>+Total_Employment!F17</f>
-        <v>1.2346072864161339</v>
+        <v>0.77642716222237063</v>
       </c>
       <c r="F18" s="1">
         <f>+Government_Employment!F17</f>
-        <v>0.46750818139318362</v>
+        <v>-1.9612367328103342</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3366,11 +3366,11 @@
       </c>
       <c r="E19" s="1">
         <f>+Total_Employment!F18</f>
-        <v>0.69061648609263226</v>
+        <v>0.39777749715872446</v>
       </c>
       <c r="F19" s="1">
         <f>+Government_Employment!F18</f>
-        <v>-0.38387715930902067</v>
+        <v>-0.46065259117081814</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3386,15 +3386,15 @@
       </c>
       <c r="D20" s="1">
         <f>+Unemployment!F19</f>
-        <v>0.10000000000000009</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E20" s="1">
         <f>+Total_Employment!F19</f>
-        <v>0.87806259736580294</v>
+        <v>0.91308040770101684</v>
       </c>
       <c r="F20" s="1">
         <f>+Government_Employment!F19</f>
-        <v>0.73786407766989193</v>
+        <v>1.0104935872522258</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3414,11 +3414,11 @@
       </c>
       <c r="E21" s="1">
         <f>+Total_Employment!F20</f>
-        <v>1.0094212651413192</v>
+        <v>0.97897026831037515</v>
       </c>
       <c r="F21" s="1">
         <f>+Government_Employment!F20</f>
-        <v>-0.35065349059609785</v>
+        <v>-0.50955414012739952</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3430,19 +3430,19 @@
       </c>
       <c r="C22" s="1">
         <f>+Unemployment!E21</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D22" s="1">
         <f>+Unemployment!F21</f>
-        <v>-0.40000000000000036</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E22" s="1">
         <f>+Total_Employment!F21</f>
-        <v>5.5491096201398804E-2</v>
+        <v>9.591599777878379E-2</v>
       </c>
       <c r="F22" s="1">
         <f>+Government_Employment!F21</f>
-        <v>-0.51781906792567334</v>
+        <v>-0.33577533577534568</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3462,11 +3462,11 @@
       </c>
       <c r="E23" s="1">
         <f>+Total_Employment!F22</f>
-        <v>0.49229791964426894</v>
+        <v>0.17482517482516613</v>
       </c>
       <c r="F23" s="1">
         <f>+Government_Employment!F22</f>
-        <v>0.29940119760478723</v>
+        <v>-9.9700897308074854E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3482,15 +3482,15 @@
       </c>
       <c r="D24" s="1">
         <f>+Unemployment!F23</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E24" s="1">
         <f>+Total_Employment!F23</f>
-        <v>0.70366049292691635</v>
+        <v>0.54650781506175861</v>
       </c>
       <c r="F24" s="1">
         <f>+Government_Employment!F23</f>
-        <v>0.39666798889330668</v>
+        <v>0.63378886908298515</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C25" s="1">
         <f>+Unemployment!E24</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <f>+Unemployment!F24</f>
-        <v>-0.60000000000000009</v>
+        <v>-0.5</v>
       </c>
       <c r="E25" s="1">
         <f>+Total_Employment!F24</f>
-        <v>1.0199312714776587</v>
+        <v>0.73339559413283517</v>
       </c>
       <c r="F25" s="1">
         <f>+Government_Employment!F24</f>
-        <v>1.0843106882053588</v>
+        <v>0.92694769366585827</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3526,19 +3526,19 @@
       </c>
       <c r="C26" s="1">
         <f>+Unemployment!E25</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D26" s="1">
         <f>+Unemployment!F25</f>
-        <v>-0.20000000000000018</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <f>+Total_Employment!F25</f>
-        <v>0.84568992880784677</v>
+        <v>0.53001132502830117</v>
       </c>
       <c r="F26" s="1">
         <f>+Government_Employment!F25</f>
-        <v>0.29698069625474499</v>
+        <v>9.9058940069318702E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3554,15 +3554,15 @@
       </c>
       <c r="D27" s="1">
         <f>+Unemployment!F26</f>
-        <v>0.29999999999999982</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="E27" s="1">
         <f>+Total_Employment!F26</f>
-        <v>0.775774072813884</v>
+        <v>0.18285869086722695</v>
       </c>
       <c r="F27" s="1">
         <f>+Government_Employment!F26</f>
-        <v>7.0455612963837844E-2</v>
+        <v>7.0538443451684252E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3574,19 +3574,19 @@
       </c>
       <c r="C28" s="1">
         <f>+Unemployment!E27</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
         <f>+Unemployment!F27</f>
-        <v>0.10000000000000053</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E28" s="1">
         <f>+Total_Employment!F27</f>
-        <v>0.97137901127493098</v>
+        <v>1.0487995146051698</v>
       </c>
       <c r="F28" s="1">
         <f>+Government_Employment!F27</f>
-        <v>0.70598006644517763</v>
+        <v>0.45700041545493342</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3602,15 +3602,15 @@
       </c>
       <c r="D29" s="1">
         <f>+Unemployment!F28</f>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="E29" s="1">
         <f>+Total_Employment!F28</f>
-        <v>1.0405105438401785</v>
+        <v>1.0754180253937484</v>
       </c>
       <c r="F29" s="1">
         <f>+Government_Employment!F28</f>
-        <v>0.57616962433739705</v>
+        <v>0.76124567474049609</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3630,11 +3630,11 @@
       </c>
       <c r="E30" s="1">
         <f>+Total_Employment!F29</f>
-        <v>0.81984443977296539</v>
+        <v>0.96496748479126815</v>
       </c>
       <c r="F30" s="1">
         <f>+Government_Employment!F29</f>
-        <v>0.66592674805772134</v>
+        <v>1.1098779134295134</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3646,19 +3646,19 @@
       </c>
       <c r="C31" s="1">
         <f>+Unemployment!E30</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <f>+Unemployment!F30</f>
-        <v>0.10000000000000009</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E31" s="1">
         <f>+Total_Employment!F30</f>
-        <v>0.31326480665687662</v>
+        <v>0.46865846514352327</v>
       </c>
       <c r="F31" s="1">
         <f>+Government_Employment!F30</f>
-        <v>0.69364161849709838</v>
+        <v>1.383285302593662</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3678,11 +3678,11 @@
       </c>
       <c r="E32" s="1">
         <f>+Total_Employment!F31</f>
-        <v>3.6041273070774427</v>
+        <v>4.0029006526468569</v>
       </c>
       <c r="F32" s="1">
         <f>+Government_Employment!F31</f>
-        <v>0.31055900621117516</v>
+        <v>1.1815920398009716</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,11 +3702,11 @@
       </c>
       <c r="E33" s="1">
         <f>+Total_Employment!F32</f>
-        <v>1.4575971731448645</v>
+        <v>1.3686534216335478</v>
       </c>
       <c r="F33" s="1">
         <f>+Government_Employment!F32</f>
-        <v>-1.1074197120708784</v>
+        <v>-1.3274336283185861</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3718,19 +3718,19 @@
       </c>
       <c r="C34" s="1">
         <f>+Unemployment!E33</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D34" s="1">
         <f>+Unemployment!F33</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="E34" s="1">
         <f>+Total_Employment!F33</f>
-        <v>1.3572806171649132</v>
+        <v>1.1065840545818606</v>
       </c>
       <c r="F34" s="1">
         <f>+Government_Employment!F33</f>
-        <v>0.56837178201269989</v>
+        <v>0.65173796791444527</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3746,15 +3746,15 @@
       </c>
       <c r="D35" s="1">
         <f>+Unemployment!F34</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E35" s="1">
         <f>+Total_Employment!F34</f>
-        <v>1.5593381740269141</v>
+        <v>1.8227305218012857</v>
       </c>
       <c r="F35" s="1">
         <f>+Government_Employment!F34</f>
-        <v>-0.69667738478026431</v>
+        <v>-0.216099405726633</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3766,19 +3766,19 @@
       </c>
       <c r="C36" s="1">
         <f>+Unemployment!E35</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
         <f>+Unemployment!F35</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E36" s="1">
         <f>+Total_Employment!F35</f>
-        <v>1.4002092028542634</v>
+        <v>1.0160267353674479</v>
       </c>
       <c r="F36" s="1">
         <f>+Government_Employment!F35</f>
-        <v>0.38391594261466544</v>
+        <v>0.25529056096740277</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3790,19 +3790,19 @@
       </c>
       <c r="C37" s="1">
         <f>+Unemployment!E36</f>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D37" s="1">
         <f>+Unemployment!F36</f>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="E37" s="1">
         <f>+Total_Employment!F36</f>
-        <v>1.5561599857314867</v>
+        <v>1.4913745130773481</v>
       </c>
       <c r="F37" s="1">
         <f>+Government_Employment!F36</f>
-        <v>-0.15000681849173247</v>
+        <v>-2.7196083763925127E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3822,11 +3822,11 @@
       </c>
       <c r="E38" s="1">
         <f>+Total_Employment!F37</f>
-        <v>0.67207415990728769</v>
+        <v>0.64620355411955099</v>
       </c>
       <c r="F38" s="1">
         <f>+Government_Employment!F37</f>
-        <v>-0.12165450121655041</v>
+        <v>-0.12121212121211089</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C39" s="1">
         <f>+Unemployment!E38</f>
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D39" s="1">
         <f>+Unemployment!F38</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.5</v>
       </c>
       <c r="E39" s="1">
         <f>+Total_Employment!F38</f>
-        <v>0.79966860580298338</v>
+        <v>0.77287549318105775</v>
       </c>
       <c r="F39" s="1">
         <f>+Government_Employment!F38</f>
-        <v>-6.3987714358848535E-2</v>
+        <v>-1.2833675564682956E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3862,19 +3862,19 @@
       </c>
       <c r="C40" s="1">
         <f>+Unemployment!E39</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D40" s="1">
         <f>+Unemployment!F39</f>
-        <v>-0.30000000000000027</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="E40" s="1">
         <f>+Total_Employment!F39</f>
-        <v>1.0117240968874563</v>
+        <v>0.58781617385108564</v>
       </c>
       <c r="F40" s="1">
         <f>+Government_Employment!F39</f>
-        <v>-0.11530700490054446</v>
+        <v>-0.34502587694076325</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="C41" s="1">
         <f>+Unemployment!E40</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D41" s="1">
         <f>+Unemployment!F40</f>
@@ -3894,11 +3894,11 @@
       </c>
       <c r="E41" s="1">
         <f>+Total_Employment!F40</f>
-        <v>2.0115546218487435</v>
+        <v>1.9667488330623595</v>
       </c>
       <c r="F41" s="1">
         <f>+Government_Employment!F40</f>
-        <v>1.4610941216445905</v>
+        <v>1.5280135823429575</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3918,11 +3918,11 @@
       </c>
       <c r="E42" s="1">
         <f>+Total_Employment!F41</f>
-        <v>0.97202307512755937</v>
+        <v>0.91553406153588313</v>
       </c>
       <c r="F42" s="1">
         <f>+Government_Employment!F41</f>
-        <v>0.11384659171764788</v>
+        <v>0.58371298405466288</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3934,19 +3934,19 @@
       </c>
       <c r="C43" s="1">
         <f>+Unemployment!E42</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D43" s="1">
         <f>+Unemployment!F42</f>
-        <v>-0.39999999999999947</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="E43" s="1">
         <f>+Total_Employment!F42</f>
-        <v>1.0094891984655741</v>
+        <v>0.42287555376558927</v>
       </c>
       <c r="F43" s="1">
         <f>+Government_Employment!F42</f>
-        <v>1.3179571663920919</v>
+        <v>-0.16260162601626771</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3958,19 +3958,19 @@
       </c>
       <c r="C44" s="1">
         <f>+Unemployment!E43</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D44" s="1">
         <f>+Unemployment!F43</f>
-        <v>-0.10000000000000009</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E44" s="1">
         <f>+Total_Employment!F43</f>
-        <v>1.9801516711918543</v>
+        <v>1.9126449682005386</v>
       </c>
       <c r="F44" s="1">
         <f>+Government_Employment!F43</f>
-        <v>1.4406088611035539</v>
+        <v>1.3847407005158852</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3982,19 +3982,19 @@
       </c>
       <c r="C45" s="1">
         <f>+Unemployment!E44</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D45" s="1">
         <f>+Unemployment!F44</f>
-        <v>-0.30000000000000027</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E45" s="1">
         <f>+Total_Employment!F44</f>
-        <v>2.5753046677397196</v>
+        <v>1.9182461749257973</v>
       </c>
       <c r="F45" s="1">
         <f>+Government_Employment!F44</f>
-        <v>1.1378002528445119</v>
+        <v>0.7547169811320753</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C46" s="1">
         <f>+Unemployment!E45</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D46" s="1">
         <f>+Unemployment!F45</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="E46" s="1">
         <f>+Total_Employment!F45</f>
-        <v>1.6935801496652303</v>
+        <v>1.552113690690593</v>
       </c>
       <c r="F46" s="1">
         <f>+Government_Employment!F45</f>
-        <v>1.0814542107685288</v>
+        <v>0.68807339449541427</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4030,19 +4030,19 @@
       </c>
       <c r="C47" s="1">
         <f>+Unemployment!E46</f>
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D47" s="1">
         <f>+Unemployment!F46</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="E47" s="1">
         <f>+Total_Employment!F46</f>
-        <v>2.3662071517042804</v>
+        <v>2.2968127010613681</v>
       </c>
       <c r="F47" s="1">
         <f>+Government_Employment!F46</f>
-        <v>0.57509627727856394</v>
+        <v>0.47684971542838461</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4062,11 +4062,11 @@
       </c>
       <c r="E48" s="1">
         <f>+Total_Employment!F47</f>
-        <v>3.0274863895896953</v>
+        <v>2.8180194483032217</v>
       </c>
       <c r="F48" s="1">
         <f>+Government_Employment!F47</f>
-        <v>1.983805668016192</v>
+        <v>1.9441069258809174</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4078,19 +4078,19 @@
       </c>
       <c r="C49" s="1">
         <f>+Unemployment!E48</f>
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="D49" s="1">
         <f>+Unemployment!F48</f>
-        <v>-0.5</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="E49" s="1">
         <f>+Total_Employment!F48</f>
-        <v>1.3044861597200086</v>
+        <v>1.241642788920716</v>
       </c>
       <c r="F49" s="1">
         <f>+Government_Employment!F48</f>
-        <v>2.1505376344086002</v>
+        <v>1.7889087656529412</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4102,19 +4102,19 @@
       </c>
       <c r="C50" s="1">
         <f>+Unemployment!E49</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1">
         <f>+Unemployment!F49</f>
-        <v>-0.20000000000000018</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <f>+Total_Employment!F49</f>
-        <v>1.0780390195097578</v>
+        <v>0.79996000199991091</v>
       </c>
       <c r="F50" s="1">
         <f>+Government_Employment!F49</f>
-        <v>0.40221914008320425</v>
+        <v>0.16613595458951913</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4134,11 +4134,11 @@
       </c>
       <c r="E51" s="1">
         <f>+Total_Employment!F50</f>
-        <v>2.6991946665093414</v>
+        <v>2.7857121823375186</v>
       </c>
       <c r="F51" s="1">
         <f>+Government_Employment!F50</f>
-        <v>-0.83304998299899014</v>
+        <v>-0.62893081761005165</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C52" s="1">
         <f>+Unemployment!E51</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D52" s="1">
         <f>+Unemployment!F51</f>
@@ -4158,11 +4158,11 @@
       </c>
       <c r="E52" s="1">
         <f>+Total_Employment!F51</f>
-        <v>1.8280016618196893</v>
+        <v>0.71203614952759509</v>
       </c>
       <c r="F52" s="1">
         <f>+Government_Employment!F51</f>
-        <v>-0.65616797900261981</v>
+        <v>-5.1939924906132751</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4178,15 +4178,15 @@
       </c>
       <c r="D53" s="1">
         <f>+Unemployment!F52</f>
-        <v>-0.20000000000000018</v>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="E53" s="1">
         <f>+Total_Employment!F52</f>
-        <v>0.50968743671100381</v>
+        <v>0.50556117290192493</v>
       </c>
       <c r="F53" s="1">
         <f>+Government_Employment!F52</f>
-        <v>-0.46717482173591618</v>
+        <v>-1.1266225814352215</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4198,19 +4198,19 @@
       </c>
       <c r="C54" s="1">
         <f>+Unemployment!E53</f>
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D54" s="1">
         <f>+Unemployment!F53</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.5</v>
       </c>
       <c r="E54" s="1">
         <f>+Total_Employment!F53</f>
-        <v>1.4385964912280835</v>
+        <v>1.5783935461241683</v>
       </c>
       <c r="F54" s="1">
         <f>+Government_Employment!F53</f>
-        <v>-0.28985507246377384</v>
+        <v>0.72886297376093534</v>
       </c>
     </row>
   </sheetData>
@@ -4226,9 +4226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4250,15 +4248,15 @@
       </c>
       <c r="C1" s="16">
         <f>Employment_Table!D3</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="D1" s="16">
         <f>Employment_Table!E3</f>
-        <v>1.7646068361677036</v>
+        <v>1.5798850381525398</v>
       </c>
       <c r="E1" s="16">
         <f>Employment_Table!F3</f>
-        <v>0.561973150171724</v>
+        <v>0.3879252686493917</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -4285,44 +4283,44 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B3" s="22">
-        <f>Employment_Table!C33</f>
-        <v>2.4</v>
+        <f>Employment_Table!C52</f>
+        <v>4.8</v>
       </c>
       <c r="C3" s="19">
-        <f>Employment_Table!D33</f>
-        <v>-0.20000000000000018</v>
+        <f>Employment_Table!D52</f>
+        <v>-0.5</v>
       </c>
       <c r="D3" s="19">
-        <f>Employment_Table!E33</f>
-        <v>1.4575971731448645</v>
+        <f>Employment_Table!E52</f>
+        <v>0.71203614952759509</v>
       </c>
       <c r="E3" s="19">
-        <f>Employment_Table!F33</f>
-        <v>-1.1074197120708784</v>
+        <f>Employment_Table!F52</f>
+        <v>-5.1939924906132751</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B4" s="22">
-        <f>Employment_Table!C51</f>
-        <v>4.7</v>
+        <f>Employment_Table!C18</f>
+        <v>3.6</v>
       </c>
       <c r="C4" s="19">
-        <f>Employment_Table!D51</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!D18</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="D4" s="19">
-        <f>Employment_Table!E51</f>
-        <v>2.6991946665093414</v>
+        <f>Employment_Table!E18</f>
+        <v>0.77642716222237063</v>
       </c>
       <c r="E4" s="19">
-        <f>Employment_Table!F51</f>
-        <v>-0.83304998299899014</v>
+        <f>Employment_Table!F18</f>
+        <v>-1.9612367328103342</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -4332,23 +4330,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="22">
-        <f>Employment_Table!C35</f>
-        <v>5</v>
+        <f>Employment_Table!C33</f>
+        <v>2.4</v>
       </c>
       <c r="C5" s="19">
-        <f>Employment_Table!D35</f>
-        <v>9.9999999999999645E-2</v>
+        <f>Employment_Table!D33</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D5" s="19">
-        <f>Employment_Table!E35</f>
-        <v>1.5593381740269141</v>
+        <f>Employment_Table!E33</f>
+        <v>1.3686534216335478</v>
       </c>
       <c r="E5" s="19">
-        <f>Employment_Table!F35</f>
-        <v>-0.69667738478026431</v>
+        <f>Employment_Table!F33</f>
+        <v>-1.3274336283185861</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="8"/>
@@ -4358,23 +4356,23 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="22">
-        <f>Employment_Table!C52</f>
-        <v>4.9000000000000004</v>
+        <f>Employment_Table!C53</f>
+        <v>2.8</v>
       </c>
       <c r="C6" s="19">
-        <f>Employment_Table!D52</f>
-        <v>-0.5</v>
+        <f>Employment_Table!D53</f>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="D6" s="19">
-        <f>Employment_Table!E52</f>
-        <v>1.8280016618196893</v>
+        <f>Employment_Table!E53</f>
+        <v>0.50556117290192493</v>
       </c>
       <c r="E6" s="19">
-        <f>Employment_Table!F52</f>
-        <v>-0.65616797900261981</v>
+        <f>Employment_Table!F53</f>
+        <v>-1.1266225814352215</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4384,23 +4382,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B7" s="22">
-        <f>Employment_Table!C22</f>
-        <v>4.5</v>
+        <f>Employment_Table!C51</f>
+        <v>4.7</v>
       </c>
       <c r="C7" s="19">
-        <f>Employment_Table!D22</f>
-        <v>-0.40000000000000036</v>
+        <f>Employment_Table!D51</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D7" s="19">
-        <f>Employment_Table!E22</f>
-        <v>5.5491096201398804E-2</v>
+        <f>Employment_Table!E51</f>
+        <v>2.7857121823375186</v>
       </c>
       <c r="E7" s="19">
-        <f>Employment_Table!F22</f>
-        <v>-0.51781906792567334</v>
+        <f>Employment_Table!F51</f>
+        <v>-0.62893081761005165</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4410,23 +4408,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B8" s="22">
-        <f>Employment_Table!C53</f>
-        <v>2.8</v>
+        <f>Employment_Table!C21</f>
+        <v>4</v>
       </c>
       <c r="C8" s="19">
-        <f>Employment_Table!D53</f>
-        <v>-0.20000000000000018</v>
+        <f>Employment_Table!D21</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="D8" s="19">
-        <f>Employment_Table!E53</f>
-        <v>0.50968743671100381</v>
+        <f>Employment_Table!E21</f>
+        <v>0.97897026831037515</v>
       </c>
       <c r="E8" s="19">
-        <f>Employment_Table!F53</f>
-        <v>-0.46717482173591618</v>
+        <f>Employment_Table!F21</f>
+        <v>-0.50955414012739952</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -4448,11 +4446,11 @@
       </c>
       <c r="D9" s="19">
         <f>Employment_Table!E19</f>
-        <v>0.69061648609263226</v>
+        <v>0.39777749715872446</v>
       </c>
       <c r="E9" s="19">
         <f>Employment_Table!F19</f>
-        <v>-0.38387715930902067</v>
+        <v>-0.46065259117081814</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -4460,44 +4458,44 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="22">
-        <f>Employment_Table!C21</f>
-        <v>4</v>
+        <f>Employment_Table!C12</f>
+        <v>5.7</v>
       </c>
       <c r="C10" s="19">
-        <f>Employment_Table!D21</f>
-        <v>-0.40000000000000036</v>
+        <f>Employment_Table!D12</f>
+        <v>0</v>
       </c>
       <c r="D10" s="19">
-        <f>Employment_Table!E21</f>
-        <v>1.0094212651413192</v>
+        <f>Employment_Table!E12</f>
+        <v>0.45443069931834223</v>
       </c>
       <c r="E10" s="19">
-        <f>Employment_Table!F21</f>
-        <v>-0.35065349059609785</v>
+        <f>Employment_Table!F12</f>
+        <v>-0.41893590280687176</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B11" s="22">
-        <f>Employment_Table!C54</f>
-        <v>3.6</v>
+        <f>Employment_Table!C40</f>
+        <v>3.2</v>
       </c>
       <c r="C11" s="19">
-        <f>Employment_Table!D54</f>
-        <v>-0.39999999999999991</v>
+        <f>Employment_Table!D40</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="D11" s="19">
-        <f>Employment_Table!E54</f>
-        <v>1.4385964912280835</v>
+        <f>Employment_Table!E40</f>
+        <v>0.58781617385108564</v>
       </c>
       <c r="E11" s="19">
-        <f>Employment_Table!F54</f>
-        <v>-0.28985507246377384</v>
+        <f>Employment_Table!F40</f>
+        <v>-0.34502587694076325</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4507,23 +4505,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B12" s="22">
-        <f>Employment_Table!C5</f>
-        <v>6.5</v>
+        <f>Employment_Table!C22</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C12" s="19">
-        <f>Employment_Table!D5</f>
-        <v>-0.20000000000000018</v>
+        <f>Employment_Table!D22</f>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D12" s="19">
-        <f>Employment_Table!E5</f>
-        <v>1.5596330275229331</v>
+        <f>Employment_Table!E22</f>
+        <v>9.591599777878379E-2</v>
       </c>
       <c r="E12" s="19">
-        <f>Employment_Table!F5</f>
-        <v>-0.24783147459728205</v>
+        <f>Employment_Table!F22</f>
+        <v>-0.33577533577534568</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -4533,23 +4531,23 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B13" s="22">
-        <f>Employment_Table!C12</f>
-        <v>5.6</v>
+        <f>Employment_Table!C35</f>
+        <v>5</v>
       </c>
       <c r="C13" s="19">
-        <f>Employment_Table!D12</f>
-        <v>-0.10000000000000053</v>
+        <f>Employment_Table!D35</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D13" s="19">
-        <f>Employment_Table!E12</f>
-        <v>0.49223778871640977</v>
+        <f>Employment_Table!E35</f>
+        <v>1.8227305218012857</v>
       </c>
       <c r="E13" s="19">
-        <f>Employment_Table!F12</f>
-        <v>-0.16736401673640433</v>
+        <f>Employment_Table!F35</f>
+        <v>-0.216099405726633</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -4559,23 +4557,23 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="22">
-        <f>Employment_Table!C37</f>
-        <v>4</v>
+        <f>Employment_Table!C43</f>
+        <v>3.6</v>
       </c>
       <c r="C14" s="19">
-        <f>Employment_Table!D37</f>
-        <v>0</v>
+        <f>Employment_Table!D43</f>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="D14" s="19">
-        <f>Employment_Table!E37</f>
-        <v>1.5561599857314867</v>
+        <f>Employment_Table!E43</f>
+        <v>0.42287555376558927</v>
       </c>
       <c r="E14" s="19">
-        <f>Employment_Table!F37</f>
-        <v>-0.15000681849173247</v>
+        <f>Employment_Table!F43</f>
+        <v>-0.16260162601626771</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -4585,23 +4583,23 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B15" s="22">
-        <f>Employment_Table!C38</f>
-        <v>2.2999999999999998</v>
+        <f>Employment_Table!C5</f>
+        <v>6.4</v>
       </c>
       <c r="C15" s="19">
-        <f>Employment_Table!D38</f>
-        <v>-0.30000000000000027</v>
+        <f>Employment_Table!D5</f>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="D15" s="19">
-        <f>Employment_Table!E38</f>
-        <v>0.67207415990728769</v>
+        <f>Employment_Table!E5</f>
+        <v>1.7125382262997091</v>
       </c>
       <c r="E15" s="19">
-        <f>Employment_Table!F38</f>
-        <v>-0.12165450121655041</v>
+        <f>Employment_Table!F5</f>
+        <v>-0.1242236024844634</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="17"/>
@@ -4610,23 +4608,23 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="22">
-        <f>Employment_Table!C40</f>
-        <v>3.3</v>
+        <f>Employment_Table!C38</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C16" s="19">
-        <f>Employment_Table!D40</f>
+        <f>Employment_Table!D38</f>
         <v>-0.30000000000000027</v>
       </c>
       <c r="D16" s="19">
-        <f>Employment_Table!E40</f>
-        <v>1.0117240968874563</v>
+        <f>Employment_Table!E38</f>
+        <v>0.64620355411955099</v>
       </c>
       <c r="E16" s="19">
-        <f>Employment_Table!F40</f>
-        <v>-0.11530700490054446</v>
+        <f>Employment_Table!F38</f>
+        <v>-0.12121212121211089</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -4635,23 +4633,23 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B17" s="22">
-        <f>Employment_Table!C39</f>
-        <v>4.3</v>
+        <f>Employment_Table!C23</f>
+        <v>3.3</v>
       </c>
       <c r="C17" s="19">
-        <f>Employment_Table!D39</f>
-        <v>-0.29999999999999982</v>
+        <f>Employment_Table!D23</f>
+        <v>0</v>
       </c>
       <c r="D17" s="19">
-        <f>Employment_Table!E39</f>
-        <v>0.79966860580298338</v>
+        <f>Employment_Table!E23</f>
+        <v>0.17482517482516613</v>
       </c>
       <c r="E17" s="19">
-        <f>Employment_Table!F39</f>
-        <v>-6.3987714358848535E-2</v>
+        <f>Employment_Table!F23</f>
+        <v>-9.9700897308074854E-2</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="7"/>
@@ -4659,133 +4657,133 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="22">
+        <f>Employment_Table!C37</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18" s="19">
+        <f>Employment_Table!D37</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="D18" s="19">
+        <f>Employment_Table!E37</f>
+        <v>1.4913745130773481</v>
+      </c>
+      <c r="E18" s="19">
+        <f>Employment_Table!F37</f>
+        <v>-2.7196083763925127E-2</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="22">
+        <f>Employment_Table!C39</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C19" s="19">
+        <f>Employment_Table!D39</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D19" s="19">
+        <f>Employment_Table!E39</f>
+        <v>0.77287549318105775</v>
+      </c>
+      <c r="E19" s="19">
+        <f>Employment_Table!F39</f>
+        <v>-1.2833675564682956E-2</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B20" s="22">
         <f>Employment_Table!C27</f>
         <v>3.3</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C20" s="19">
         <f>Employment_Table!D27</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="D18" s="19">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="D20" s="19">
         <f>Employment_Table!E27</f>
-        <v>0.775774072813884</v>
-      </c>
-      <c r="E18" s="19">
+        <v>0.18285869086722695</v>
+      </c>
+      <c r="E20" s="19">
         <f>Employment_Table!F27</f>
-        <v>7.0455612963837844E-2</v>
-      </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="22">
-        <f>Employment_Table!C42</f>
-        <v>3.8</v>
-      </c>
-      <c r="C19" s="19">
-        <f>Employment_Table!D42</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D19" s="19">
-        <f>Employment_Table!E42</f>
-        <v>0.97202307512755937</v>
-      </c>
-      <c r="E19" s="19">
-        <f>Employment_Table!F42</f>
-        <v>0.11384659171764788</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="22">
-        <f>Employment_Table!C4</f>
-        <v>3.8</v>
-      </c>
-      <c r="C20" s="19">
-        <f>Employment_Table!D4</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D20" s="19">
-        <f>Employment_Table!E4</f>
-        <v>1.669859044251254</v>
-      </c>
-      <c r="E20" s="19">
-        <f>Employment_Table!F4</f>
-        <v>0.1814411612234279</v>
+        <v>7.0538443451684252E-2</v>
       </c>
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B21" s="22">
-        <f>Employment_Table!C13</f>
-        <v>3.4</v>
+        <f>Employment_Table!C26</f>
+        <v>4.2</v>
       </c>
       <c r="C21" s="19">
-        <f>Employment_Table!D13</f>
-        <v>-0.30000000000000027</v>
+        <f>Employment_Table!D26</f>
+        <v>0</v>
       </c>
       <c r="D21" s="19">
-        <f>Employment_Table!E13</f>
-        <v>2.3590412746377298</v>
+        <f>Employment_Table!E26</f>
+        <v>0.53001132502830117</v>
       </c>
       <c r="E21" s="19">
-        <f>Employment_Table!F13</f>
-        <v>0.25197984161267062</v>
+        <f>Employment_Table!F26</f>
+        <v>9.9058940069318702E-2</v>
       </c>
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B22" s="22">
-        <f>Employment_Table!C26</f>
-        <v>4.0999999999999996</v>
+        <f>Employment_Table!C10</f>
+        <v>3.8</v>
       </c>
       <c r="C22" s="19">
-        <f>Employment_Table!D26</f>
-        <v>-0.20000000000000018</v>
+        <f>Employment_Table!D10</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="D22" s="19">
-        <f>Employment_Table!E26</f>
-        <v>0.84568992880784677</v>
+        <f>Employment_Table!E10</f>
+        <v>0.39113428943937656</v>
       </c>
       <c r="E22" s="19">
-        <f>Employment_Table!F26</f>
-        <v>0.29698069625474499</v>
+        <f>Employment_Table!F10</f>
+        <v>0.12695725772322586</v>
       </c>
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B23" s="22">
-        <f>Employment_Table!C23</f>
-        <v>3.3</v>
+        <f>Employment_Table!C50</f>
+        <v>3</v>
       </c>
       <c r="C23" s="19">
-        <f>Employment_Table!D23</f>
+        <f>Employment_Table!D50</f>
         <v>0</v>
       </c>
       <c r="D23" s="19">
-        <f>Employment_Table!E23</f>
-        <v>0.49229791964426894</v>
+        <f>Employment_Table!E50</f>
+        <v>0.79996000199991091</v>
       </c>
       <c r="E23" s="19">
-        <f>Employment_Table!F23</f>
-        <v>0.29940119760478723</v>
+        <f>Employment_Table!F50</f>
+        <v>0.16613595458951913</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -4793,308 +4791,308 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B24" s="22">
-        <f>Employment_Table!C32</f>
-        <v>4</v>
+        <f>Employment_Table!C14</f>
+        <v>3.8</v>
       </c>
       <c r="C24" s="19">
-        <f>Employment_Table!D32</f>
-        <v>-0.59999999999999964</v>
+        <f>Employment_Table!D14</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D24" s="19">
-        <f>Employment_Table!E32</f>
-        <v>3.6041273070774427</v>
+        <f>Employment_Table!E14</f>
+        <v>1.5265995051255032</v>
       </c>
       <c r="E24" s="19">
-        <f>Employment_Table!F32</f>
-        <v>0.31055900621117516</v>
+        <f>Employment_Table!F14</f>
+        <v>0.18707727730609136</v>
       </c>
       <c r="J24" s="20"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="22">
+        <f>Employment_Table!C36</f>
+        <v>4</v>
+      </c>
+      <c r="C25" s="19">
+        <f>Employment_Table!D36</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D25" s="19">
+        <f>Employment_Table!E36</f>
+        <v>1.0160267353674479</v>
+      </c>
+      <c r="E25" s="19">
+        <f>Employment_Table!F36</f>
+        <v>0.25529056096740277</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="22">
+        <f>Employment_Table!C28</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="19">
+        <f>Employment_Table!D28</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D26" s="19">
+        <f>Employment_Table!E28</f>
+        <v>1.0487995146051698</v>
+      </c>
+      <c r="E26" s="19">
+        <f>Employment_Table!F28</f>
+        <v>0.45700041545493342</v>
+      </c>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="22">
+        <f>Employment_Table!C47</f>
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="19">
+        <f>Employment_Table!D47</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="D27" s="19">
+        <f>Employment_Table!E47</f>
+        <v>2.2968127010613681</v>
+      </c>
+      <c r="E27" s="19">
+        <f>Employment_Table!F47</f>
+        <v>0.47684971542838461</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B28" s="22">
         <f>Employment_Table!C17</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C28" s="19">
         <f>Employment_Table!D17</f>
         <v>0.10000000000000053</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D28" s="19">
         <f>Employment_Table!E17</f>
-        <v>1.3698630136986356</v>
-      </c>
-      <c r="E25" s="19">
+        <v>1.2247106272748276</v>
+      </c>
+      <c r="E28" s="19">
         <f>Employment_Table!F17</f>
-        <v>0.3271934076587435</v>
-      </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="22">
-        <f>Employment_Table!C10</f>
+        <v>0.49660852713178105</v>
+      </c>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="22">
+        <f>Employment_Table!C13</f>
+        <v>3.4</v>
+      </c>
+      <c r="C29" s="19">
+        <f>Employment_Table!D13</f>
+        <v>-0.30000000000000027</v>
+      </c>
+      <c r="D29" s="19">
+        <f>Employment_Table!E13</f>
+        <v>2.4523254218685731</v>
+      </c>
+      <c r="E29" s="19">
+        <f>Employment_Table!F13</f>
+        <v>0.52205220522052453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="22">
+        <f>Employment_Table!C42</f>
         <v>3.8</v>
       </c>
-      <c r="C26" s="19">
-        <f>Employment_Table!D10</f>
+      <c r="C30" s="19">
+        <f>Employment_Table!D42</f>
         <v>-0.5</v>
       </c>
-      <c r="D26" s="19">
-        <f>Employment_Table!E10</f>
-        <v>0.68895884064856805</v>
-      </c>
-      <c r="E26" s="19">
-        <f>Employment_Table!F10</f>
-        <v>0.3392705682782049</v>
-      </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="22">
-        <f>Employment_Table!C36</f>
-        <v>3.9</v>
-      </c>
-      <c r="C27" s="19">
-        <f>Employment_Table!D36</f>
-        <v>-0.39999999999999991</v>
-      </c>
-      <c r="D27" s="19">
-        <f>Employment_Table!E36</f>
-        <v>1.4002092028542634</v>
-      </c>
-      <c r="E27" s="19">
-        <f>Employment_Table!F36</f>
-        <v>0.38391594261466544</v>
-      </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="D30" s="19">
+        <f>Employment_Table!E42</f>
+        <v>0.91553406153588313</v>
+      </c>
+      <c r="E30" s="19">
+        <f>Employment_Table!F42</f>
+        <v>0.58371298405466288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B31" s="22">
         <f>Employment_Table!C24</f>
         <v>3.8</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C31" s="19">
         <f>Employment_Table!D24</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D28" s="19">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D31" s="19">
         <f>Employment_Table!E24</f>
-        <v>0.70366049292691635</v>
-      </c>
-      <c r="E28" s="19">
+        <v>0.54650781506175861</v>
+      </c>
+      <c r="E31" s="19">
         <f>Employment_Table!F24</f>
-        <v>0.39666798889330668</v>
-      </c>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="22">
-        <f>Employment_Table!C50</f>
-        <v>2.9</v>
-      </c>
-      <c r="C29" s="19">
-        <f>Employment_Table!D50</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="D29" s="19">
-        <f>Employment_Table!E50</f>
-        <v>1.0780390195097578</v>
-      </c>
-      <c r="E29" s="19">
-        <f>Employment_Table!F50</f>
-        <v>0.40221914008320425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="22">
-        <f>Employment_Table!C18</f>
-        <v>3.6</v>
-      </c>
-      <c r="C30" s="19">
-        <f>Employment_Table!D18</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D30" s="19">
-        <f>Employment_Table!E18</f>
-        <v>1.2346072864161339</v>
-      </c>
-      <c r="E30" s="19">
-        <f>Employment_Table!F18</f>
-        <v>0.46750818139318362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="22">
-        <f>Employment_Table!C34</f>
-        <v>3.9</v>
-      </c>
-      <c r="C31" s="19">
-        <f>Employment_Table!D34</f>
-        <v>-0.39999999999999991</v>
-      </c>
-      <c r="D31" s="19">
-        <f>Employment_Table!E34</f>
-        <v>1.3572806171649132</v>
-      </c>
-      <c r="E31" s="19">
-        <f>Employment_Table!F34</f>
-        <v>0.56837178201269989</v>
+        <v>0.63378886908298515</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B32" s="22">
-        <f>Employment_Table!C47</f>
-        <v>3.7</v>
+        <f>Employment_Table!C15</f>
+        <v>2.8</v>
       </c>
       <c r="C32" s="19">
-        <f>Employment_Table!D47</f>
-        <v>-0.29999999999999982</v>
+        <f>Employment_Table!D15</f>
+        <v>0.5</v>
       </c>
       <c r="D32" s="19">
-        <f>Employment_Table!E47</f>
-        <v>2.3662071517042804</v>
+        <f>Employment_Table!E15</f>
+        <v>0.33536585365854243</v>
       </c>
       <c r="E32" s="19">
-        <f>Employment_Table!F47</f>
-        <v>0.57509627727856394</v>
+        <f>Employment_Table!F15</f>
+        <v>0.63694267515923553</v>
       </c>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B33" s="22">
-        <f>Employment_Table!C29</f>
-        <v>3.3</v>
+        <f>Employment_Table!C34</f>
+        <v>3.8</v>
       </c>
       <c r="C33" s="19">
-        <f>Employment_Table!D29</f>
-        <v>0</v>
+        <f>Employment_Table!D34</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="D33" s="19">
-        <f>Employment_Table!E29</f>
-        <v>1.0405105438401785</v>
+        <f>Employment_Table!E34</f>
+        <v>1.1065840545818606</v>
       </c>
       <c r="E33" s="19">
-        <f>Employment_Table!F29</f>
-        <v>0.57616962433739705</v>
+        <f>Employment_Table!F34</f>
+        <v>0.65173796791444527</v>
       </c>
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B34" s="22">
-        <f>Employment_Table!C7</f>
-        <v>3.6</v>
+        <f>Employment_Table!C46</f>
+        <v>3.3</v>
       </c>
       <c r="C34" s="19">
-        <f>Employment_Table!D7</f>
-        <v>-0.10000000000000009</v>
+        <f>Employment_Table!D46</f>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="D34" s="19">
-        <f>Employment_Table!E7</f>
-        <v>1.0635764743233578</v>
+        <f>Employment_Table!E46</f>
+        <v>1.552113690690593</v>
       </c>
       <c r="E34" s="19">
-        <f>Employment_Table!F7</f>
-        <v>0.61349693251533388</v>
+        <f>Employment_Table!F46</f>
+        <v>0.68807339449541427</v>
       </c>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B35" s="22">
-        <f>Employment_Table!C30</f>
-        <v>3.6</v>
+        <f>Employment_Table!C6</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C35" s="19">
-        <f>Employment_Table!D30</f>
-        <v>-0.10000000000000009</v>
+        <f>Employment_Table!D6</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D35" s="19">
-        <f>Employment_Table!E30</f>
-        <v>0.81984443977296539</v>
+        <f>Employment_Table!E6</f>
+        <v>2.6792306880911498</v>
       </c>
       <c r="E35" s="19">
-        <f>Employment_Table!F30</f>
-        <v>0.66592674805772134</v>
+        <f>Employment_Table!F6</f>
+        <v>0.69812229176697826</v>
       </c>
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B36" s="22">
-        <f>Employment_Table!C31</f>
-        <v>2.9</v>
+        <f>Employment_Table!C54</f>
+        <v>3.5</v>
       </c>
       <c r="C36" s="19">
-        <f>Employment_Table!D31</f>
-        <v>0.10000000000000009</v>
+        <f>Employment_Table!D54</f>
+        <v>-0.5</v>
       </c>
       <c r="D36" s="19">
-        <f>Employment_Table!E31</f>
-        <v>0.31326480665687662</v>
+        <f>Employment_Table!E54</f>
+        <v>1.5783935461241683</v>
       </c>
       <c r="E36" s="19">
-        <f>Employment_Table!F31</f>
-        <v>0.69364161849709838</v>
+        <f>Employment_Table!F54</f>
+        <v>0.72886297376093534</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B37" s="22">
-        <f>Employment_Table!C28</f>
-        <v>4.9000000000000004</v>
+        <f>Employment_Table!C45</f>
+        <v>2.9</v>
       </c>
       <c r="C37" s="19">
-        <f>Employment_Table!D28</f>
-        <v>0.10000000000000053</v>
+        <f>Employment_Table!D45</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D37" s="19">
-        <f>Employment_Table!E28</f>
-        <v>0.97137901127493098</v>
+        <f>Employment_Table!E45</f>
+        <v>1.9182461749257973</v>
       </c>
       <c r="E37" s="19">
-        <f>Employment_Table!F28</f>
-        <v>0.70598006644517763</v>
+        <f>Employment_Table!F45</f>
+        <v>0.7547169811320753</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="17"/>
@@ -5102,23 +5100,23 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B38" s="22">
-        <f>Employment_Table!C9</f>
-        <v>3.4</v>
+        <f>Employment_Table!C29</f>
+        <v>3.3</v>
       </c>
       <c r="C38" s="19">
-        <f>Employment_Table!D9</f>
-        <v>0.39999999999999991</v>
+        <f>Employment_Table!D29</f>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="D38" s="19">
-        <f>Employment_Table!E9</f>
-        <v>1.807739037590661</v>
+        <f>Employment_Table!E29</f>
+        <v>1.0754180253937484</v>
       </c>
       <c r="E38" s="19">
-        <f>Employment_Table!F9</f>
-        <v>0.72120802343926815</v>
+        <f>Employment_Table!F29</f>
+        <v>0.76124567474049609</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -5126,23 +5124,23 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B39" s="22">
-        <f>Employment_Table!C20</f>
-        <v>3.5</v>
+        <f>Employment_Table!C9</f>
+        <v>3.2</v>
       </c>
       <c r="C39" s="19">
-        <f>Employment_Table!D20</f>
+        <f>Employment_Table!D9</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="D39" s="19">
-        <f>Employment_Table!E20</f>
-        <v>0.87806259736580294</v>
+        <f>Employment_Table!E9</f>
+        <v>1.6871278394471778</v>
       </c>
       <c r="E39" s="19">
-        <f>Employment_Table!F20</f>
-        <v>0.73786407766989193</v>
+        <f>Employment_Table!F9</f>
+        <v>0.76370170709794127</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="17"/>
@@ -5151,23 +5149,23 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B40" s="22">
-        <f>Employment_Table!C6</f>
-        <v>4.9000000000000004</v>
+        <f>Employment_Table!C4</f>
+        <v>3.7</v>
       </c>
       <c r="C40" s="19">
-        <f>Employment_Table!D6</f>
-        <v>0.10000000000000053</v>
+        <f>Employment_Table!D4</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D40" s="19">
-        <f>Employment_Table!E6</f>
-        <v>2.7501586629997909</v>
+        <f>Employment_Table!E4</f>
+        <v>1.8373863915499999</v>
       </c>
       <c r="E40" s="19">
-        <f>Employment_Table!F6</f>
-        <v>0.798644724104558</v>
+        <f>Employment_Table!F4</f>
+        <v>0.77800829875518396</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -5176,23 +5174,23 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B41" s="22">
-        <f>Employment_Table!C14</f>
-        <v>3.8</v>
+        <f>Employment_Table!C7</f>
+        <v>3.6</v>
       </c>
       <c r="C41" s="19">
-        <f>Employment_Table!D14</f>
-        <v>-0.29999999999999982</v>
+        <f>Employment_Table!D7</f>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="D41" s="19">
-        <f>Employment_Table!E14</f>
-        <v>1.5429570761295475</v>
+        <f>Employment_Table!E7</f>
+        <v>0.99151265170143166</v>
       </c>
       <c r="E41" s="19">
-        <f>Employment_Table!F14</f>
-        <v>0.88380179658069657</v>
+        <f>Employment_Table!F7</f>
+        <v>0.80454330336015012</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="17"/>
@@ -5201,23 +5199,23 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B42" s="22">
-        <f>Employment_Table!C8</f>
-        <v>4.3</v>
+        <f>Employment_Table!C25</f>
+        <v>3</v>
       </c>
       <c r="C42" s="19">
-        <f>Employment_Table!D8</f>
-        <v>0</v>
+        <f>Employment_Table!D25</f>
+        <v>-0.5</v>
       </c>
       <c r="D42" s="19">
-        <f>Employment_Table!E8</f>
-        <v>1.5853466340569167</v>
+        <f>Employment_Table!E25</f>
+        <v>0.73339559413283517</v>
       </c>
       <c r="E42" s="19">
-        <f>Employment_Table!F8</f>
-        <v>1.0674917810868267</v>
+        <f>Employment_Table!F25</f>
+        <v>0.92694769366585827</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="17"/>
@@ -5226,23 +5224,23 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B43" s="22">
-        <f>Employment_Table!C46</f>
-        <v>3.2</v>
+        <f>Employment_Table!C20</f>
+        <v>3.5</v>
       </c>
       <c r="C43" s="19">
-        <f>Employment_Table!D46</f>
-        <v>-0.39999999999999991</v>
+        <f>Employment_Table!D20</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D43" s="19">
-        <f>Employment_Table!E46</f>
-        <v>1.6935801496652303</v>
+        <f>Employment_Table!E20</f>
+        <v>0.91308040770101684</v>
       </c>
       <c r="E43" s="19">
-        <f>Employment_Table!F46</f>
-        <v>1.0814542107685288</v>
+        <f>Employment_Table!F20</f>
+        <v>1.0104935872522258</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -5252,23 +5250,23 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B44" s="22">
-        <f>Employment_Table!C25</f>
-        <v>2.9</v>
+        <f>Employment_Table!C30</f>
+        <v>3.6</v>
       </c>
       <c r="C44" s="19">
-        <f>Employment_Table!D25</f>
-        <v>-0.60000000000000009</v>
+        <f>Employment_Table!D30</f>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="D44" s="19">
-        <f>Employment_Table!E25</f>
-        <v>1.0199312714776587</v>
+        <f>Employment_Table!E30</f>
+        <v>0.96496748479126815</v>
       </c>
       <c r="E44" s="19">
-        <f>Employment_Table!F25</f>
-        <v>1.0843106882053588</v>
+        <f>Employment_Table!F30</f>
+        <v>1.1098779134295134</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -5278,23 +5276,23 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B45" s="22">
-        <f>Employment_Table!C45</f>
-        <v>2.8</v>
+        <f>Employment_Table!C8</f>
+        <v>4.2</v>
       </c>
       <c r="C45" s="19">
-        <f>Employment_Table!D45</f>
-        <v>-0.30000000000000027</v>
+        <f>Employment_Table!D8</f>
+        <v>0</v>
       </c>
       <c r="D45" s="19">
-        <f>Employment_Table!E45</f>
-        <v>2.5753046677397196</v>
+        <f>Employment_Table!E8</f>
+        <v>1.6490888302961082</v>
       </c>
       <c r="E45" s="19">
-        <f>Employment_Table!F45</f>
-        <v>1.1378002528445119</v>
+        <f>Employment_Table!F8</f>
+        <v>1.1482698627488741</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -5304,23 +5302,23 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B46" s="22">
-        <f>Employment_Table!C43</f>
-        <v>3.7</v>
+        <f>Employment_Table!C32</f>
+        <v>4</v>
       </c>
       <c r="C46" s="19">
-        <f>Employment_Table!D43</f>
-        <v>-0.39999999999999947</v>
+        <f>Employment_Table!D32</f>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D46" s="19">
-        <f>Employment_Table!E43</f>
-        <v>1.0094891984655741</v>
+        <f>Employment_Table!E32</f>
+        <v>4.0029006526468569</v>
       </c>
       <c r="E46" s="19">
-        <f>Employment_Table!F43</f>
-        <v>1.3179571663920919</v>
+        <f>Employment_Table!F32</f>
+        <v>1.1815920398009716</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -5330,23 +5328,23 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B47" s="22">
-        <f>Employment_Table!C44</f>
-        <v>3.4</v>
+        <f>Employment_Table!C31</f>
+        <v>3</v>
       </c>
       <c r="C47" s="19">
-        <f>Employment_Table!D44</f>
-        <v>-0.10000000000000009</v>
+        <f>Employment_Table!D31</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D47" s="19">
-        <f>Employment_Table!E44</f>
-        <v>1.9801516711918543</v>
+        <f>Employment_Table!E31</f>
+        <v>0.46865846514352327</v>
       </c>
       <c r="E47" s="19">
-        <f>Employment_Table!F44</f>
-        <v>1.4406088611035539</v>
+        <f>Employment_Table!F31</f>
+        <v>1.383285302593662</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -5357,23 +5355,23 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B48" s="22">
-        <f>Employment_Table!C41</f>
-        <v>4.3</v>
+        <f>Employment_Table!C44</f>
+        <v>3.5</v>
       </c>
       <c r="C48" s="19">
-        <f>Employment_Table!D41</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!D44</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="D48" s="19">
-        <f>Employment_Table!E41</f>
-        <v>2.0115546218487435</v>
+        <f>Employment_Table!E44</f>
+        <v>1.9126449682005386</v>
       </c>
       <c r="E48" s="19">
-        <f>Employment_Table!F41</f>
-        <v>1.4610941216445905</v>
+        <f>Employment_Table!F44</f>
+        <v>1.3847407005158852</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="17"/>
@@ -5396,11 +5394,11 @@
       </c>
       <c r="D49" s="19">
         <f>Employment_Table!E16</f>
-        <v>2.548031066902845</v>
+        <v>2.4999999999999911</v>
       </c>
       <c r="E49" s="19">
         <f>Employment_Table!F16</f>
-        <v>1.6064257028112428</v>
+        <v>1.5261044176706928</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -5411,23 +5409,23 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B50" s="22">
-        <f>Employment_Table!C15</f>
-        <v>2.8</v>
+        <f>Employment_Table!C41</f>
+        <v>4.2</v>
       </c>
       <c r="C50" s="19">
-        <f>Employment_Table!D15</f>
-        <v>0.5</v>
+        <f>Employment_Table!D41</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D50" s="19">
-        <f>Employment_Table!E15</f>
-        <v>0.57935660923922327</v>
+        <f>Employment_Table!E41</f>
+        <v>1.9667488330623595</v>
       </c>
       <c r="E50" s="19">
-        <f>Employment_Table!F15</f>
-        <v>1.7656500802568198</v>
+        <f>Employment_Table!F41</f>
+        <v>1.5280135823429575</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -5438,23 +5436,23 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="22">
-        <f>Employment_Table!C48</f>
-        <v>2.9</v>
+        <f>Employment_Table!C49</f>
+        <v>2.1</v>
       </c>
       <c r="C51" s="19">
-        <f>Employment_Table!D48</f>
-        <v>-0.20000000000000018</v>
+        <f>Employment_Table!D49</f>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="D51" s="19">
-        <f>Employment_Table!E48</f>
-        <v>3.0274863895896953</v>
+        <f>Employment_Table!E49</f>
+        <v>1.241642788920716</v>
       </c>
       <c r="E51" s="19">
-        <f>Employment_Table!F48</f>
-        <v>1.983805668016192</v>
+        <f>Employment_Table!F49</f>
+        <v>1.7889087656529412</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="17"/>
@@ -5462,23 +5460,23 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="22">
-        <f>Employment_Table!C49</f>
-        <v>2.2000000000000002</v>
+        <f>Employment_Table!C48</f>
+        <v>2.9</v>
       </c>
       <c r="C52" s="19">
-        <f>Employment_Table!D49</f>
-        <v>-0.5</v>
+        <f>Employment_Table!D48</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D52" s="19">
-        <f>Employment_Table!E49</f>
-        <v>1.3044861597200086</v>
+        <f>Employment_Table!E48</f>
+        <v>2.8180194483032217</v>
       </c>
       <c r="E52" s="19">
-        <f>Employment_Table!F49</f>
-        <v>2.1505376344086002</v>
+        <f>Employment_Table!F48</f>
+        <v>1.9441069258809174</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -5494,15 +5492,15 @@
       </c>
       <c r="C53" s="19">
         <f>Employment_Table!D11</f>
-        <v>-0.69999999999999973</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="D53" s="19">
         <f>Employment_Table!E11</f>
-        <v>0.86749078291044057</v>
+        <v>0.58428911491019697</v>
       </c>
       <c r="E53" s="19">
         <f>Employment_Table!F11</f>
-        <v>2.2796352583586588</v>
+        <v>2.1212121212121238</v>
       </c>
       <c r="I53" s="17"/>
       <c r="K53" s="17"/>
@@ -5519,19 +5517,19 @@
       <c r="A55" s="18"/>
       <c r="B55" s="13">
         <f>COUNTIF(B3:B53, "&lt;=4.0")</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="13">
         <f>COUNTIF(C3:C53, "&gt;0")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D55" s="13">
         <f>COUNTIF(D3:D53, "&gt;1.96")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="13">
         <f>COUNTIF(E3:E53, "&lt;0.00")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K55" s="7"/>
     </row>
@@ -5543,7 +5541,7 @@
       </c>
       <c r="C56" s="13">
         <f>COUNTIF(C3:C53, "&lt;-0.49")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -5581,9 +5579,9 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="7"/>
     <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
@@ -5593,16 +5591,16 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="C1" s="4">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D1" s="4">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="E1" s="6">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -5613,20 +5611,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="28">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C2" s="28">
         <v>3.8</v>
       </c>
       <c r="D2" s="28">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="E2" s="31">
         <v>3.6</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F33" si="0">E2-B2</f>
-        <v>-0.29999999999999982</v>
+        <v>-0.19999999999999973</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5643,15 +5641,15 @@
       </c>
       <c r="D3" s="30">
         <f>BLS_Table_1!D2</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E3" s="32">
         <f>BLS_Table_1!E2</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999947</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5660,7 +5658,7 @@
       </c>
       <c r="B4" s="30">
         <f>BLS_Table_1!B3</f>
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C4" s="30">
         <f>BLS_Table_1!C3</f>
@@ -5672,11 +5670,11 @@
       </c>
       <c r="E4" s="32">
         <f>BLS_Table_1!E3</f>
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20000000000000018</v>
+        <v>-0.19999999999999929</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5685,15 +5683,15 @@
       </c>
       <c r="B5" s="30">
         <f>BLS_Table_1!B4</f>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C5" s="30">
         <f>BLS_Table_1!C4</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D5" s="30">
         <f>BLS_Table_1!D4</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E5" s="32">
         <f>BLS_Table_1!E4</f>
@@ -5701,7 +5699,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10000000000000053</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5714,11 +5712,11 @@
       </c>
       <c r="C6" s="30">
         <f>BLS_Table_1!C5</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D6" s="30">
         <f>BLS_Table_1!D5</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E6" s="32">
         <f>BLS_Table_1!E5</f>
@@ -5735,11 +5733,11 @@
       </c>
       <c r="B7" s="30">
         <f>BLS_Table_1!B6</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C7" s="30">
         <f>BLS_Table_1!C6</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D7" s="30">
         <f>BLS_Table_1!D6</f>
@@ -5747,7 +5745,7 @@
       </c>
       <c r="E7" s="32">
         <f>BLS_Table_1!E6</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
@@ -5760,23 +5758,23 @@
       </c>
       <c r="B8" s="30">
         <f>BLS_Table_1!B7</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C8" s="30">
         <f>BLS_Table_1!C7</f>
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="30">
         <f>BLS_Table_1!D7</f>
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E8" s="32">
         <f>BLS_Table_1!E7</f>
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5785,15 +5783,15 @@
       </c>
       <c r="B9" s="30">
         <f>BLS_Table_1!B8</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C9" s="30">
         <f>BLS_Table_1!C8</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D9" s="30">
         <f>BLS_Table_1!D8</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E9" s="32">
         <f>BLS_Table_1!E8</f>
@@ -5801,7 +5799,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5810,15 +5808,15 @@
       </c>
       <c r="B10" s="30">
         <f>BLS_Table_1!B9</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C10" s="30">
         <f>BLS_Table_1!C9</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="30">
         <f>BLS_Table_1!D9</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E10" s="32">
         <f>BLS_Table_1!E9</f>
@@ -5826,7 +5824,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69999999999999973</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5839,7 +5837,7 @@
       </c>
       <c r="C11" s="30">
         <f>BLS_Table_1!C10</f>
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D11" s="30">
         <f>BLS_Table_1!D10</f>
@@ -5847,11 +5845,11 @@
       </c>
       <c r="E11" s="32">
         <f>BLS_Table_1!E10</f>
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5885,7 +5883,7 @@
       </c>
       <c r="B13" s="30">
         <f>BLS_Table_1!B12</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C13" s="30">
         <f>BLS_Table_1!C12</f>
@@ -5893,7 +5891,7 @@
       </c>
       <c r="D13" s="30">
         <f>BLS_Table_1!D12</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E13" s="32">
         <f>BLS_Table_1!E12</f>
@@ -5901,7 +5899,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5914,7 +5912,7 @@
       </c>
       <c r="C14" s="30">
         <f>BLS_Table_1!C13</f>
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D14" s="30">
         <f>BLS_Table_1!D13</f>
@@ -5943,7 +5941,7 @@
       </c>
       <c r="D15" s="30">
         <f>BLS_Table_1!D14</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E15" s="32">
         <f>BLS_Table_1!E14</f>
@@ -5964,7 +5962,7 @@
       </c>
       <c r="C16" s="30">
         <f>BLS_Table_1!C15</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D16" s="30">
         <f>BLS_Table_1!D15</f>
@@ -5985,11 +5983,11 @@
       </c>
       <c r="B17" s="30">
         <f>BLS_Table_1!B16</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C17" s="30">
         <f>BLS_Table_1!C16</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D17" s="30">
         <f>BLS_Table_1!D16</f>
@@ -6001,7 +5999,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.20000000000000018</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -6035,11 +6033,11 @@
       </c>
       <c r="B19" s="30">
         <f>BLS_Table_1!B18</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C19" s="30">
         <f>BLS_Table_1!C18</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D19" s="30">
         <f>BLS_Table_1!D18</f>
@@ -6051,7 +6049,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.10000000000000009</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6064,7 +6062,7 @@
       </c>
       <c r="C20" s="30">
         <f>BLS_Table_1!C19</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D20" s="30">
         <f>BLS_Table_1!D19</f>
@@ -6085,23 +6083,23 @@
       </c>
       <c r="B21" s="30">
         <f>BLS_Table_1!B20</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="C21" s="30">
         <f>BLS_Table_1!C20</f>
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="D21" s="30">
         <f>BLS_Table_1!D20</f>
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E21" s="32">
         <f>BLS_Table_1!E20</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.40000000000000036</v>
+        <v>-0.59999999999999964</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6114,11 +6112,11 @@
       </c>
       <c r="C22" s="30">
         <f>BLS_Table_1!C21</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D22" s="30">
         <f>BLS_Table_1!D21</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E22" s="32">
         <f>BLS_Table_1!E21</f>
@@ -6135,11 +6133,11 @@
       </c>
       <c r="B23" s="30">
         <f>BLS_Table_1!B22</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C23" s="30">
         <f>BLS_Table_1!C22</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D23" s="30">
         <f>BLS_Table_1!D22</f>
@@ -6151,7 +6149,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6168,15 +6166,15 @@
       </c>
       <c r="D24" s="30">
         <f>BLS_Table_1!D23</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E24" s="32">
         <f>BLS_Table_1!E23</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>-0.60000000000000009</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6185,7 +6183,7 @@
       </c>
       <c r="B25" s="30">
         <f>BLS_Table_1!B24</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C25" s="30">
         <f>BLS_Table_1!C24</f>
@@ -6193,15 +6191,15 @@
       </c>
       <c r="D25" s="30">
         <f>BLS_Table_1!D24</f>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E25" s="32">
         <f>BLS_Table_1!E24</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20000000000000018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6210,15 +6208,15 @@
       </c>
       <c r="B26" s="30">
         <f>BLS_Table_1!B25</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C26" s="30">
         <f>BLS_Table_1!C25</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D26" s="30">
         <f>BLS_Table_1!D25</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E26" s="32">
         <f>BLS_Table_1!E25</f>
@@ -6226,7 +6224,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -6239,7 +6237,7 @@
       </c>
       <c r="C27" s="30">
         <f>BLS_Table_1!C26</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D27" s="30">
         <f>BLS_Table_1!D26</f>
@@ -6247,11 +6245,11 @@
       </c>
       <c r="E27" s="32">
         <f>BLS_Table_1!E26</f>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10000000000000053</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6260,11 +6258,11 @@
       </c>
       <c r="B28" s="30">
         <f>BLS_Table_1!B27</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C28" s="30">
         <f>BLS_Table_1!C27</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D28" s="30">
         <f>BLS_Table_1!D27</f>
@@ -6276,7 +6274,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6289,7 +6287,7 @@
       </c>
       <c r="C29" s="30">
         <f>BLS_Table_1!C28</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D29" s="30">
         <f>BLS_Table_1!D28</f>
@@ -6318,15 +6316,15 @@
       </c>
       <c r="D30" s="30">
         <f>BLS_Table_1!D29</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="E30" s="32">
         <f>BLS_Table_1!E29</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10000000000000009</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -6339,11 +6337,11 @@
       </c>
       <c r="C31" s="30">
         <f>BLS_Table_1!C30</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D31" s="30">
         <f>BLS_Table_1!D30</f>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="32">
         <f>BLS_Table_1!E30</f>
@@ -6385,23 +6383,23 @@
       </c>
       <c r="B33" s="30">
         <f>BLS_Table_1!B32</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C33" s="30">
         <f>BLS_Table_1!C32</f>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D33" s="30">
         <f>BLS_Table_1!D32</f>
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="E33" s="32">
         <f>BLS_Table_1!E32</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6410,7 +6408,7 @@
       </c>
       <c r="B34" s="30">
         <f>BLS_Table_1!B33</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C34" s="30">
         <f>BLS_Table_1!C33</f>
@@ -6418,7 +6416,7 @@
       </c>
       <c r="D34" s="30">
         <f>BLS_Table_1!D33</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E34" s="32">
         <f>BLS_Table_1!E33</f>
@@ -6426,7 +6424,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ref="F34:F53" si="1">E34-B34</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6435,7 +6433,7 @@
       </c>
       <c r="B35" s="30">
         <f>BLS_Table_1!B34</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C35" s="30">
         <f>BLS_Table_1!C34</f>
@@ -6447,11 +6445,11 @@
       </c>
       <c r="E35" s="32">
         <f>BLS_Table_1!E34</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6464,7 +6462,7 @@
       </c>
       <c r="C36" s="30">
         <f>BLS_Table_1!C35</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D36" s="30">
         <f>BLS_Table_1!D35</f>
@@ -6472,11 +6470,11 @@
       </c>
       <c r="E36" s="32">
         <f>BLS_Table_1!E35</f>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6489,7 +6487,7 @@
       </c>
       <c r="C37" s="30">
         <f>BLS_Table_1!C36</f>
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D37" s="30">
         <f>BLS_Table_1!D36</f>
@@ -6514,19 +6512,19 @@
       </c>
       <c r="C38" s="30">
         <f>BLS_Table_1!C37</f>
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D38" s="30">
         <f>BLS_Table_1!D37</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="E38" s="32">
         <f>BLS_Table_1!E37</f>
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6535,7 +6533,7 @@
       </c>
       <c r="B39" s="30">
         <f>BLS_Table_1!B38</f>
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C39" s="30">
         <f>BLS_Table_1!C38</f>
@@ -6547,11 +6545,11 @@
       </c>
       <c r="E39" s="32">
         <f>BLS_Table_1!E38</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
-        <v>-0.30000000000000027</v>
+        <v>-0.29999999999999982</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6560,7 +6558,7 @@
       </c>
       <c r="B40" s="30">
         <f>BLS_Table_1!B39</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C40" s="30">
         <f>BLS_Table_1!C39</f>
@@ -6568,11 +6566,11 @@
       </c>
       <c r="D40" s="30">
         <f>BLS_Table_1!D39</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="E40" s="32">
         <f>BLS_Table_1!E39</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
@@ -6589,11 +6587,11 @@
       </c>
       <c r="C41" s="30">
         <f>BLS_Table_1!C40</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D41" s="30">
         <f>BLS_Table_1!D40</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E41" s="32">
         <f>BLS_Table_1!E40</f>
@@ -6610,23 +6608,23 @@
       </c>
       <c r="B42" s="30">
         <f>BLS_Table_1!B41</f>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C42" s="30">
         <f>BLS_Table_1!C41</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D42" s="30">
         <f>BLS_Table_1!D41</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E42" s="32">
         <f>BLS_Table_1!E41</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>-0.39999999999999947</v>
+        <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6635,7 +6633,7 @@
       </c>
       <c r="B43" s="30">
         <f>BLS_Table_1!B42</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C43" s="30">
         <f>BLS_Table_1!C42</f>
@@ -6643,15 +6641,15 @@
       </c>
       <c r="D43" s="30">
         <f>BLS_Table_1!D42</f>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E43" s="32">
         <f>BLS_Table_1!E42</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="1"/>
-        <v>-0.10000000000000009</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6664,7 +6662,7 @@
       </c>
       <c r="C44" s="30">
         <f>BLS_Table_1!C43</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D44" s="30">
         <f>BLS_Table_1!D43</f>
@@ -6672,11 +6670,11 @@
       </c>
       <c r="E44" s="32">
         <f>BLS_Table_1!E43</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>-0.30000000000000027</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6697,11 +6695,11 @@
       </c>
       <c r="E45" s="32">
         <f>BLS_Table_1!E44</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.30000000000000027</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6710,7 +6708,7 @@
       </c>
       <c r="B46" s="30">
         <f>BLS_Table_1!B45</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C46" s="30">
         <f>BLS_Table_1!C45</f>
@@ -6718,15 +6716,15 @@
       </c>
       <c r="D46" s="30">
         <f>BLS_Table_1!D45</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E46" s="32">
         <f>BLS_Table_1!E45</f>
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
-        <v>-0.29999999999999982</v>
+        <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6743,7 +6741,7 @@
       </c>
       <c r="D47" s="30">
         <f>BLS_Table_1!D46</f>
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E47" s="32">
         <f>BLS_Table_1!E46</f>
@@ -6764,19 +6762,19 @@
       </c>
       <c r="C48" s="30">
         <f>BLS_Table_1!C47</f>
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D48" s="30">
         <f>BLS_Table_1!D47</f>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E48" s="32">
         <f>BLS_Table_1!E47</f>
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>-0.5</v>
+        <v>-0.60000000000000009</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6785,7 +6783,7 @@
       </c>
       <c r="B49" s="30">
         <f>BLS_Table_1!B48</f>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C49" s="30">
         <f>BLS_Table_1!C48</f>
@@ -6797,11 +6795,11 @@
       </c>
       <c r="E49" s="32">
         <f>BLS_Table_1!E48</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6814,11 +6812,11 @@
       </c>
       <c r="C50" s="30">
         <f>BLS_Table_1!C49</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D50" s="30">
         <f>BLS_Table_1!D49</f>
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="E50" s="32">
         <f>BLS_Table_1!E49</f>
@@ -6835,19 +6833,19 @@
       </c>
       <c r="B51" s="30">
         <f>BLS_Table_1!B50</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C51" s="30">
         <f>BLS_Table_1!C50</f>
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D51" s="30">
         <f>BLS_Table_1!D50</f>
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E51" s="32">
         <f>BLS_Table_1!E50</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
@@ -6860,7 +6858,7 @@
       </c>
       <c r="B52" s="30">
         <f>BLS_Table_1!B51</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C52" s="30">
         <f>BLS_Table_1!C51</f>
@@ -6868,7 +6866,7 @@
       </c>
       <c r="D52" s="30">
         <f>BLS_Table_1!D51</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E52" s="32">
         <f>BLS_Table_1!E51</f>
@@ -6876,7 +6874,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000018</v>
+        <v>-0.30000000000000027</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6889,19 +6887,19 @@
       </c>
       <c r="C53" s="30">
         <f>BLS_Table_1!C52</f>
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D53" s="30">
         <f>BLS_Table_1!D52</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E53" s="32">
         <f>BLS_Table_1!E52</f>
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -6927,16 +6925,16 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="C1" s="4">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D1" s="4">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="E1" s="6">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -6947,20 +6945,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="33">
-        <v>148475</v>
+        <v>148745</v>
       </c>
       <c r="C2" s="35">
-        <v>150643</v>
+        <v>150796</v>
       </c>
       <c r="D2" s="35">
-        <v>150832</v>
+        <v>151020</v>
       </c>
       <c r="E2" s="33">
         <v>151095</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>1.7646068361677036</v>
+        <v>1.5798850381525398</v>
       </c>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -6973,23 +6971,23 @@
       </c>
       <c r="B3" s="34">
         <f>BLS_T3_Total!B2</f>
-        <v>2036.1</v>
+        <v>2035.5</v>
       </c>
       <c r="C3" s="34">
         <f>BLS_T3_Total!C2</f>
-        <v>2065.8000000000002</v>
+        <v>2069</v>
       </c>
       <c r="D3" s="34">
         <f>BLS_T3_Total!D2</f>
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="E3" s="34">
         <f>BLS_T3_Total!E2</f>
-        <v>2070.1</v>
+        <v>2072.9</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">((E3/B3)-1)*100</f>
-        <v>1.669859044251254</v>
+        <v>1.8373863915499999</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -7002,19 +7000,19 @@
       </c>
       <c r="C4" s="34">
         <f>BLS_T3_Total!C3</f>
-        <v>330.5</v>
+        <v>331.5</v>
       </c>
       <c r="D4" s="34">
         <f>BLS_T3_Total!D3</f>
-        <v>331.5</v>
+        <v>332</v>
       </c>
       <c r="E4" s="34">
         <f>BLS_T3_Total!E3</f>
-        <v>332.1</v>
+        <v>332.6</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>1.5596330275229331</v>
+        <v>1.7125382262997091</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -7027,23 +7025,23 @@
       </c>
       <c r="B5" s="34">
         <f>BLS_T3_Total!B4</f>
-        <v>2836.2</v>
+        <v>2844.1</v>
       </c>
       <c r="C5" s="34">
         <f>BLS_T3_Total!C4</f>
-        <v>2901.9</v>
+        <v>2902.9</v>
       </c>
       <c r="D5" s="34">
         <f>BLS_T3_Total!D4</f>
-        <v>2902.9</v>
+        <v>2912.4</v>
       </c>
       <c r="E5" s="34">
         <f>BLS_T3_Total!E4</f>
-        <v>2914.2</v>
+        <v>2920.3</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>2.7501586629997909</v>
+        <v>2.6792306880911498</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
@@ -7056,23 +7054,23 @@
       </c>
       <c r="B6" s="34">
         <f>BLS_T3_Total!B5</f>
-        <v>1259.9000000000001</v>
+        <v>1260.7</v>
       </c>
       <c r="C6" s="34">
         <f>BLS_T3_Total!C5</f>
-        <v>1273.2</v>
+        <v>1273.0999999999999</v>
       </c>
       <c r="D6" s="34">
         <f>BLS_T3_Total!D5</f>
-        <v>1273.0999999999999</v>
+        <v>1273.9000000000001</v>
       </c>
       <c r="E6" s="34">
         <f>BLS_T3_Total!E5</f>
-        <v>1273.3</v>
+        <v>1273.2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>1.0635764743233578</v>
+        <v>0.99151265170143166</v>
       </c>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
@@ -7089,23 +7087,23 @@
       </c>
       <c r="B7" s="34">
         <f>BLS_T3_Total!B6</f>
-        <v>17131.900000000001</v>
+        <v>17142.8</v>
       </c>
       <c r="C7" s="34">
         <f>BLS_T3_Total!C6</f>
-        <v>17329</v>
+        <v>17357.5</v>
       </c>
       <c r="D7" s="34">
         <f>BLS_T3_Total!D6</f>
-        <v>17357.5</v>
+        <v>17406.099999999999</v>
       </c>
       <c r="E7" s="34">
         <f>BLS_T3_Total!E6</f>
-        <v>17403.5</v>
+        <v>17425.5</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.5853466340569167</v>
+        <v>1.6490888302961082</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -7114,23 +7112,23 @@
       </c>
       <c r="B8" s="34">
         <f>BLS_T3_Total!B7</f>
-        <v>2716.1</v>
+        <v>2720.6</v>
       </c>
       <c r="C8" s="34">
         <f>BLS_T3_Total!C7</f>
-        <v>2749.2</v>
+        <v>2755.7</v>
       </c>
       <c r="D8" s="34">
         <f>BLS_T3_Total!D7</f>
-        <v>2755.7</v>
+        <v>2764.3</v>
       </c>
       <c r="E8" s="34">
         <f>BLS_T3_Total!E7</f>
-        <v>2765.2</v>
+        <v>2766.5</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.807739037590661</v>
+        <v>1.6871278394471778</v>
       </c>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -7143,23 +7141,23 @@
       </c>
       <c r="B9" s="34">
         <f>BLS_T3_Total!B8</f>
-        <v>1683.7</v>
+        <v>1687.4</v>
       </c>
       <c r="C9" s="34">
         <f>BLS_T3_Total!C8</f>
-        <v>1694.7</v>
+        <v>1695</v>
       </c>
       <c r="D9" s="34">
         <f>BLS_T3_Total!D8</f>
-        <v>1695</v>
+        <v>1695.5</v>
       </c>
       <c r="E9" s="34">
         <f>BLS_T3_Total!E8</f>
-        <v>1695.3</v>
+        <v>1694</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.68895884064856805</v>
+        <v>0.39113428943937656</v>
       </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -7172,23 +7170,23 @@
       </c>
       <c r="B10" s="34">
         <f>BLS_T3_Total!B9</f>
-        <v>461.1</v>
+        <v>462.1</v>
       </c>
       <c r="C10" s="34">
         <f>BLS_T3_Total!C9</f>
-        <v>465.8</v>
+        <v>464.8</v>
       </c>
       <c r="D10" s="34">
         <f>BLS_T3_Total!D9</f>
-        <v>464.8</v>
+        <v>465</v>
       </c>
       <c r="E10" s="34">
         <f>BLS_T3_Total!E9</f>
-        <v>465.1</v>
+        <v>464.8</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.86749078291044057</v>
+        <v>0.58428911491019697</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>113</v>
@@ -7203,23 +7201,23 @@
       </c>
       <c r="B11" s="34">
         <f>BLS_T3_Total!B10</f>
-        <v>792.3</v>
+        <v>792.2</v>
       </c>
       <c r="C11" s="34">
         <f>BLS_T3_Total!C10</f>
-        <v>794.9</v>
+        <v>796.7</v>
       </c>
       <c r="D11" s="34">
         <f>BLS_T3_Total!D10</f>
-        <v>796.7</v>
+        <v>795.4</v>
       </c>
       <c r="E11" s="34">
         <f>BLS_T3_Total!E10</f>
-        <v>796.2</v>
+        <v>795.8</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.49223778871640977</v>
+        <v>0.45443069931834223</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>114</v>
@@ -7234,23 +7232,23 @@
       </c>
       <c r="B12" s="34">
         <f>BLS_T3_Total!B11</f>
-        <v>8736.6</v>
+        <v>8746.7999999999993</v>
       </c>
       <c r="C12" s="34">
         <f>BLS_T3_Total!C11</f>
-        <v>8920.7999999999993</v>
+        <v>8926</v>
       </c>
       <c r="D12" s="34">
         <f>BLS_T3_Total!D11</f>
-        <v>8926</v>
+        <v>8944.2999999999993</v>
       </c>
       <c r="E12" s="34">
         <f>BLS_T3_Total!E11</f>
-        <v>8942.7000000000007</v>
+        <v>8961.2999999999993</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>2.3590412746377298</v>
+        <v>2.4523254218685731</v>
       </c>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
@@ -7263,23 +7261,23 @@
       </c>
       <c r="B13" s="34">
         <f>BLS_T3_Total!B12</f>
-        <v>4517.3</v>
+        <v>4526.3999999999996</v>
       </c>
       <c r="C13" s="34">
         <f>BLS_T3_Total!C12</f>
-        <v>4602.6000000000004</v>
+        <v>4601.8999999999996</v>
       </c>
       <c r="D13" s="34">
         <f>BLS_T3_Total!D12</f>
-        <v>4601.8999999999996</v>
+        <v>4592.8999999999996</v>
       </c>
       <c r="E13" s="34">
         <f>BLS_T3_Total!E12</f>
-        <v>4587</v>
+        <v>4595.5</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>1.5429570761295475</v>
+        <v>1.5265995051255032</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -7288,23 +7286,23 @@
       </c>
       <c r="B14" s="34">
         <f>BLS_T3_Total!B13</f>
-        <v>655.9</v>
+        <v>656</v>
       </c>
       <c r="C14" s="34">
         <f>BLS_T3_Total!C13</f>
-        <v>658.9</v>
+        <v>658.5</v>
       </c>
       <c r="D14" s="34">
         <f>BLS_T3_Total!D13</f>
-        <v>658.5</v>
+        <v>659.4</v>
       </c>
       <c r="E14" s="34">
         <f>BLS_T3_Total!E13</f>
-        <v>659.7</v>
+        <v>658.2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.57935660923922327</v>
+        <v>0.33536585365854243</v>
       </c>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -7317,23 +7315,23 @@
       </c>
       <c r="B15" s="34">
         <f>BLS_T3_Total!B14</f>
-        <v>733.9</v>
+        <v>736</v>
       </c>
       <c r="C15" s="34">
         <f>BLS_T3_Total!C14</f>
-        <v>749.2</v>
+        <v>750.7</v>
       </c>
       <c r="D15" s="34">
         <f>BLS_T3_Total!D14</f>
-        <v>750.7</v>
+        <v>752.2</v>
       </c>
       <c r="E15" s="34">
         <f>BLS_T3_Total!E14</f>
-        <v>752.6</v>
+        <v>754.4</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>2.548031066902845</v>
+        <v>2.4999999999999911</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -7342,23 +7340,23 @@
       </c>
       <c r="B16" s="34">
         <f>BLS_T3_Total!B15</f>
-        <v>6095.5</v>
+        <v>6099.4</v>
       </c>
       <c r="C16" s="34">
         <f>BLS_T3_Total!C15</f>
-        <v>6164.2</v>
+        <v>6158.1</v>
       </c>
       <c r="D16" s="34">
         <f>BLS_T3_Total!D15</f>
-        <v>6158.1</v>
+        <v>6176.5</v>
       </c>
       <c r="E16" s="34">
         <f>BLS_T3_Total!E15</f>
-        <v>6179</v>
+        <v>6174.1</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1.3698630136986356</v>
+        <v>1.2247106272748276</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -7367,23 +7365,23 @@
       </c>
       <c r="B17" s="34">
         <f>BLS_T3_Total!B16</f>
-        <v>3134.6</v>
+        <v>3142.6</v>
       </c>
       <c r="C17" s="34">
         <f>BLS_T3_Total!C16</f>
-        <v>3173.8</v>
+        <v>3176.8</v>
       </c>
       <c r="D17" s="34">
         <f>BLS_T3_Total!D16</f>
-        <v>3176.8</v>
+        <v>3172.8</v>
       </c>
       <c r="E17" s="34">
         <f>BLS_T3_Total!E16</f>
-        <v>3173.3</v>
+        <v>3167</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.2346072864161339</v>
+        <v>0.77642716222237063</v>
       </c>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -7396,23 +7394,23 @@
       </c>
       <c r="B18" s="34">
         <f>BLS_T3_Total!B17</f>
-        <v>1578.3</v>
+        <v>1583.8</v>
       </c>
       <c r="C18" s="34">
         <f>BLS_T3_Total!C17</f>
-        <v>1587.3</v>
+        <v>1584.5</v>
       </c>
       <c r="D18" s="34">
         <f>BLS_T3_Total!D17</f>
-        <v>1584.5</v>
+        <v>1589</v>
       </c>
       <c r="E18" s="34">
         <f>BLS_T3_Total!E17</f>
-        <v>1589.2</v>
+        <v>1590.1</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.69061648609263226</v>
+        <v>0.39777749715872446</v>
       </c>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -7425,23 +7423,23 @@
       </c>
       <c r="B19" s="34">
         <f>BLS_T3_Total!B18</f>
-        <v>1412.2</v>
+        <v>1412.8</v>
       </c>
       <c r="C19" s="34">
         <f>BLS_T3_Total!C18</f>
-        <v>1419.3</v>
+        <v>1417.7</v>
       </c>
       <c r="D19" s="34">
         <f>BLS_T3_Total!D18</f>
-        <v>1417.7</v>
+        <v>1425.1</v>
       </c>
       <c r="E19" s="34">
         <f>BLS_T3_Total!E18</f>
-        <v>1424.6</v>
+        <v>1425.7</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.87806259736580294</v>
+        <v>0.91308040770101684</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -7450,23 +7448,23 @@
       </c>
       <c r="B20" s="34">
         <f>BLS_T3_Total!B19</f>
-        <v>1931.8</v>
+        <v>1930.6</v>
       </c>
       <c r="C20" s="34">
         <f>BLS_T3_Total!C19</f>
-        <v>1949.5</v>
+        <v>1947.3</v>
       </c>
       <c r="D20" s="34">
         <f>BLS_T3_Total!D19</f>
-        <v>1947.3</v>
+        <v>1949.4</v>
       </c>
       <c r="E20" s="34">
         <f>BLS_T3_Total!E19</f>
-        <v>1951.3</v>
+        <v>1949.5</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0094212651413192</v>
+        <v>0.97897026831037515</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -7479,23 +7477,23 @@
       </c>
       <c r="B21" s="34">
         <f>BLS_T3_Total!B20</f>
-        <v>1982.3</v>
+        <v>1980.9</v>
       </c>
       <c r="C21" s="34">
         <f>BLS_T3_Total!C20</f>
-        <v>1981.3</v>
+        <v>1984.5</v>
       </c>
       <c r="D21" s="34">
         <f>BLS_T3_Total!D20</f>
-        <v>1984.5</v>
+        <v>1983.2</v>
       </c>
       <c r="E21" s="34">
         <f>BLS_T3_Total!E20</f>
-        <v>1983.4</v>
+        <v>1982.8</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>5.5491096201398804E-2</v>
+        <v>9.591599777878379E-2</v>
       </c>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -7508,23 +7506,23 @@
       </c>
       <c r="B22" s="34">
         <f>BLS_T3_Total!B21</f>
-        <v>629.70000000000005</v>
+        <v>629.20000000000005</v>
       </c>
       <c r="C22" s="34">
         <f>BLS_T3_Total!C21</f>
-        <v>633.70000000000005</v>
+        <v>633</v>
       </c>
       <c r="D22" s="34">
         <f>BLS_T3_Total!D21</f>
-        <v>633</v>
+        <v>631.70000000000005</v>
       </c>
       <c r="E22" s="34">
         <f>BLS_T3_Total!E21</f>
-        <v>632.79999999999995</v>
+        <v>630.29999999999995</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.49229791964426894</v>
+        <v>0.17482517482516613</v>
       </c>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -7537,11 +7535,11 @@
       </c>
       <c r="B23" s="34">
         <f>BLS_T3_Total!B22</f>
-        <v>2742.8</v>
+        <v>2744.7</v>
       </c>
       <c r="C23" s="34">
         <f>BLS_T3_Total!C22</f>
-        <v>2758.6</v>
+        <v>2760.9</v>
       </c>
       <c r="D23" s="34">
         <f>BLS_T3_Total!D22</f>
@@ -7549,11 +7547,11 @@
       </c>
       <c r="E23" s="34">
         <f>BLS_T3_Total!E22</f>
-        <v>2762.1</v>
+        <v>2759.7</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.70366049292691635</v>
+        <v>0.54650781506175861</v>
       </c>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -7566,23 +7564,23 @@
       </c>
       <c r="B24" s="34">
         <f>BLS_T3_Total!B23</f>
-        <v>3637.5</v>
+        <v>3640.6</v>
       </c>
       <c r="C24" s="34">
         <f>BLS_T3_Total!C23</f>
-        <v>3669.2</v>
+        <v>3670.5</v>
       </c>
       <c r="D24" s="34">
         <f>BLS_T3_Total!D23</f>
-        <v>3670.5</v>
+        <v>3670.9</v>
       </c>
       <c r="E24" s="34">
         <f>BLS_T3_Total!E23</f>
-        <v>3674.6</v>
+        <v>3667.3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>1.0199312714776587</v>
+        <v>0.73339559413283517</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -7591,23 +7589,23 @@
       </c>
       <c r="B25" s="34">
         <f>BLS_T3_Total!B24</f>
-        <v>4410.6000000000004</v>
+        <v>4415</v>
       </c>
       <c r="C25" s="34">
         <f>BLS_T3_Total!C24</f>
-        <v>4445.3999999999996</v>
+        <v>4445.8</v>
       </c>
       <c r="D25" s="34">
         <f>BLS_T3_Total!D24</f>
-        <v>4445.8</v>
+        <v>4444.8</v>
       </c>
       <c r="E25" s="34">
         <f>BLS_T3_Total!E24</f>
-        <v>4447.8999999999996</v>
+        <v>4438.3999999999996</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.84568992880784677</v>
+        <v>0.53001132502830117</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -7616,23 +7614,23 @@
       </c>
       <c r="B26" s="34">
         <f>BLS_T3_Total!B25</f>
-        <v>2939</v>
+        <v>2953.1</v>
       </c>
       <c r="C26" s="34">
         <f>BLS_T3_Total!C25</f>
-        <v>2956.7</v>
+        <v>2958.2</v>
       </c>
       <c r="D26" s="34">
         <f>BLS_T3_Total!D25</f>
-        <v>2958.2</v>
+        <v>2958.4</v>
       </c>
       <c r="E26" s="34">
         <f>BLS_T3_Total!E25</f>
-        <v>2961.8</v>
+        <v>2958.5</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.775774072813884</v>
+        <v>0.18285869086722695</v>
       </c>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -7645,23 +7643,23 @@
       </c>
       <c r="B27" s="34">
         <f>BLS_T3_Total!B26</f>
-        <v>1153</v>
+        <v>1153.7</v>
       </c>
       <c r="C27" s="34">
         <f>BLS_T3_Total!C26</f>
-        <v>1160.5999999999999</v>
+        <v>1161.2</v>
       </c>
       <c r="D27" s="34">
         <f>BLS_T3_Total!D26</f>
-        <v>1161.2</v>
+        <v>1163.5</v>
       </c>
       <c r="E27" s="34">
         <f>BLS_T3_Total!E26</f>
-        <v>1164.2</v>
+        <v>1165.8</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.97137901127493098</v>
+        <v>1.0487995146051698</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -7674,23 +7672,23 @@
       </c>
       <c r="B28" s="34">
         <f>BLS_T3_Total!B27</f>
-        <v>2883.2</v>
+        <v>2882.6</v>
       </c>
       <c r="C28" s="34">
         <f>BLS_T3_Total!C27</f>
-        <v>2892.7</v>
+        <v>2901.4</v>
       </c>
       <c r="D28" s="34">
         <f>BLS_T3_Total!D27</f>
-        <v>2901.4</v>
+        <v>2911.1</v>
       </c>
       <c r="E28" s="34">
         <f>BLS_T3_Total!E27</f>
-        <v>2913.2</v>
+        <v>2913.6</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>1.0405105438401785</v>
+        <v>1.0754180253937484</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -7703,23 +7701,23 @@
       </c>
       <c r="B29" s="34">
         <f>BLS_T3_Total!B28</f>
-        <v>475.7</v>
+        <v>476.7</v>
       </c>
       <c r="C29" s="34">
         <f>BLS_T3_Total!C28</f>
-        <v>480</v>
+        <v>479.7</v>
       </c>
       <c r="D29" s="34">
         <f>BLS_T3_Total!D28</f>
-        <v>479.7</v>
+        <v>480.5</v>
       </c>
       <c r="E29" s="34">
         <f>BLS_T3_Total!E28</f>
-        <v>479.6</v>
+        <v>481.3</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.81984443977296539</v>
+        <v>0.96496748479126815</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -7732,23 +7730,23 @@
       </c>
       <c r="B30" s="34">
         <f>BLS_T3_Total!B29</f>
-        <v>1021.5</v>
+        <v>1024.2</v>
       </c>
       <c r="C30" s="34">
         <f>BLS_T3_Total!C29</f>
-        <v>1025.9000000000001</v>
+        <v>1024.0999999999999</v>
       </c>
       <c r="D30" s="34">
         <f>BLS_T3_Total!D29</f>
-        <v>1024.0999999999999</v>
+        <v>1026.4000000000001</v>
       </c>
       <c r="E30" s="34">
         <f>BLS_T3_Total!E29</f>
-        <v>1024.7</v>
+        <v>1029</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.31326480665687662</v>
+        <v>0.46865846514352327</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -7761,23 +7759,23 @@
       </c>
       <c r="B31" s="34">
         <f>BLS_T3_Total!B30</f>
-        <v>1376.2</v>
+        <v>1379</v>
       </c>
       <c r="C31" s="34">
         <f>BLS_T3_Total!C30</f>
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="D31" s="34">
         <f>BLS_T3_Total!D30</f>
-        <v>1423</v>
+        <v>1428.3</v>
       </c>
       <c r="E31" s="34">
         <f>BLS_T3_Total!E30</f>
-        <v>1425.8</v>
+        <v>1434.2</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>3.6041273070774427</v>
+        <v>4.0029006526468569</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -7786,23 +7784,23 @@
       </c>
       <c r="B32" s="34">
         <f>BLS_T3_Total!B31</f>
-        <v>679.2</v>
+        <v>679.5</v>
       </c>
       <c r="C32" s="34">
         <f>BLS_T3_Total!C31</f>
-        <v>687.7</v>
+        <v>687.3</v>
       </c>
       <c r="D32" s="34">
         <f>BLS_T3_Total!D31</f>
-        <v>687.3</v>
+        <v>688.8</v>
       </c>
       <c r="E32" s="34">
         <f>BLS_T3_Total!E31</f>
-        <v>689.1</v>
+        <v>688.8</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>1.4575971731448645</v>
+        <v>1.3686534216335478</v>
       </c>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -7815,23 +7813,23 @@
       </c>
       <c r="B33" s="34">
         <f>BLS_T3_Total!B32</f>
-        <v>4148</v>
+        <v>4147.8999999999996</v>
       </c>
       <c r="C33" s="34">
         <f>BLS_T3_Total!C32</f>
-        <v>4186.2</v>
+        <v>4192.5</v>
       </c>
       <c r="D33" s="34">
         <f>BLS_T3_Total!D32</f>
-        <v>4192.5</v>
+        <v>4201.3999999999996</v>
       </c>
       <c r="E33" s="34">
         <f>BLS_T3_Total!E32</f>
-        <v>4204.3</v>
+        <v>4193.8</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>1.3572806171649132</v>
+        <v>1.1065840545818606</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -7840,23 +7838,23 @@
       </c>
       <c r="B34" s="34">
         <f>BLS_T3_Total!B33</f>
-        <v>840.1</v>
+        <v>839.4</v>
       </c>
       <c r="C34" s="34">
         <f>BLS_T3_Total!C33</f>
-        <v>848.1</v>
+        <v>851.9</v>
       </c>
       <c r="D34" s="34">
         <f>BLS_T3_Total!D33</f>
-        <v>851.9</v>
+        <v>852.6</v>
       </c>
       <c r="E34" s="34">
         <f>BLS_T3_Total!E33</f>
-        <v>853.2</v>
+        <v>854.7</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>1.5593381740269141</v>
+        <v>1.8227305218012857</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -7869,23 +7867,23 @@
       </c>
       <c r="B35" s="34">
         <f>BLS_T3_Total!B34</f>
-        <v>9655.7000000000007</v>
+        <v>9665.1</v>
       </c>
       <c r="C35" s="34">
         <f>BLS_T3_Total!C34</f>
-        <v>9745.1</v>
+        <v>9764.6</v>
       </c>
       <c r="D35" s="34">
         <f>BLS_T3_Total!D34</f>
-        <v>9764.6</v>
+        <v>9777.1</v>
       </c>
       <c r="E35" s="34">
         <f>BLS_T3_Total!E34</f>
-        <v>9790.9</v>
+        <v>9763.2999999999993</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>1.4002092028542634</v>
+        <v>1.0160267353674479</v>
       </c>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
@@ -7898,23 +7896,23 @@
       </c>
       <c r="B36" s="34">
         <f>BLS_T3_Total!B35</f>
-        <v>4485.3999999999996</v>
+        <v>4492.5</v>
       </c>
       <c r="C36" s="34">
         <f>BLS_T3_Total!C35</f>
-        <v>4534.6000000000004</v>
+        <v>4542</v>
       </c>
       <c r="D36" s="34">
         <f>BLS_T3_Total!D35</f>
-        <v>4542</v>
+        <v>4558.3999999999996</v>
       </c>
       <c r="E36" s="34">
         <f>BLS_T3_Total!E35</f>
-        <v>4555.2</v>
+        <v>4559.5</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>1.5561599857314867</v>
+        <v>1.4913745130773481</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -7923,23 +7921,23 @@
       </c>
       <c r="B37" s="34">
         <f>BLS_T3_Total!B36</f>
-        <v>431.5</v>
+        <v>433.3</v>
       </c>
       <c r="C37" s="34">
         <f>BLS_T3_Total!C36</f>
-        <v>434</v>
+        <v>433.8</v>
       </c>
       <c r="D37" s="34">
         <f>BLS_T3_Total!D36</f>
-        <v>433.8</v>
+        <v>434.7</v>
       </c>
       <c r="E37" s="34">
         <f>BLS_T3_Total!E36</f>
-        <v>434.4</v>
+        <v>436.1</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.67207415990728769</v>
+        <v>0.64620355411955099</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -7948,23 +7946,23 @@
       </c>
       <c r="B38" s="34">
         <f>BLS_T3_Total!B37</f>
-        <v>5552.3</v>
+        <v>5550.7</v>
       </c>
       <c r="C38" s="34">
         <f>BLS_T3_Total!C37</f>
-        <v>5593.2</v>
+        <v>5595.3</v>
       </c>
       <c r="D38" s="34">
         <f>BLS_T3_Total!D37</f>
-        <v>5595.3</v>
+        <v>5597.5</v>
       </c>
       <c r="E38" s="34">
         <f>BLS_T3_Total!E37</f>
-        <v>5596.7</v>
+        <v>5593.6</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.79966860580298338</v>
+        <v>0.77287549318105775</v>
       </c>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
@@ -7977,23 +7975,23 @@
       </c>
       <c r="B39" s="34">
         <f>BLS_T3_Total!B38</f>
-        <v>1680.3</v>
+        <v>1684.2</v>
       </c>
       <c r="C39" s="34">
         <f>BLS_T3_Total!C38</f>
-        <v>1691.5</v>
+        <v>1692.9</v>
       </c>
       <c r="D39" s="34">
         <f>BLS_T3_Total!D38</f>
-        <v>1692.9</v>
+        <v>1695.8</v>
       </c>
       <c r="E39" s="34">
         <f>BLS_T3_Total!E38</f>
-        <v>1697.3</v>
+        <v>1694.1</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>1.0117240968874563</v>
+        <v>0.58781617385108564</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -8002,23 +8000,23 @@
       </c>
       <c r="B40" s="34">
         <f>BLS_T3_Total!B39</f>
-        <v>1904</v>
+        <v>1906.7</v>
       </c>
       <c r="C40" s="34">
         <f>BLS_T3_Total!C39</f>
-        <v>1932.5</v>
+        <v>1939</v>
       </c>
       <c r="D40" s="34">
         <f>BLS_T3_Total!D39</f>
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="E40" s="34">
         <f>BLS_T3_Total!E39</f>
-        <v>1942.3</v>
+        <v>1944.2</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>2.0115546218487435</v>
+        <v>1.9667488330623595</v>
       </c>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
@@ -8031,23 +8029,23 @@
       </c>
       <c r="B41" s="34">
         <f>BLS_T3_Total!B40</f>
-        <v>5997.8</v>
+        <v>5996.5</v>
       </c>
       <c r="C41" s="34">
         <f>BLS_T3_Total!C40</f>
-        <v>6040.5</v>
+        <v>6046.7</v>
       </c>
       <c r="D41" s="34">
         <f>BLS_T3_Total!D40</f>
-        <v>6046.7</v>
+        <v>6051.3</v>
       </c>
       <c r="E41" s="34">
         <f>BLS_T3_Total!E40</f>
-        <v>6056.1</v>
+        <v>6051.4</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.97202307512755937</v>
+        <v>0.91553406153588313</v>
       </c>
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
@@ -8060,23 +8058,23 @@
       </c>
       <c r="B42" s="34">
         <f>BLS_T3_Total!B41</f>
-        <v>495.3</v>
+        <v>496.6</v>
       </c>
       <c r="C42" s="34">
         <f>BLS_T3_Total!C41</f>
-        <v>495.2</v>
+        <v>496.1</v>
       </c>
       <c r="D42" s="34">
         <f>BLS_T3_Total!D41</f>
-        <v>496.1</v>
+        <v>499.3</v>
       </c>
       <c r="E42" s="34">
         <f>BLS_T3_Total!E41</f>
-        <v>500.3</v>
+        <v>498.7</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.0094891984655741</v>
+        <v>0.42287555376558927</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -8085,23 +8083,23 @@
       </c>
       <c r="B43" s="34">
         <f>BLS_T3_Total!B42</f>
-        <v>2136.1999999999998</v>
+        <v>2138.4</v>
       </c>
       <c r="C43" s="34">
         <f>BLS_T3_Total!C42</f>
-        <v>2172.1</v>
+        <v>2171.8000000000002</v>
       </c>
       <c r="D43" s="34">
         <f>BLS_T3_Total!D42</f>
-        <v>2171.8000000000002</v>
+        <v>2178.1999999999998</v>
       </c>
       <c r="E43" s="34">
         <f>BLS_T3_Total!E42</f>
-        <v>2178.5</v>
+        <v>2179.3000000000002</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>1.9801516711918543</v>
+        <v>1.9126449682005386</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -8110,23 +8108,23 @@
       </c>
       <c r="B44" s="34">
         <f>BLS_T3_Total!B43</f>
-        <v>434.9</v>
+        <v>437.9</v>
       </c>
       <c r="C44" s="34">
         <f>BLS_T3_Total!C43</f>
-        <v>446.2</v>
+        <v>446.1</v>
       </c>
       <c r="D44" s="34">
         <f>BLS_T3_Total!D43</f>
-        <v>446.1</v>
+        <v>445.9</v>
       </c>
       <c r="E44" s="34">
         <f>BLS_T3_Total!E43</f>
-        <v>446.1</v>
+        <v>446.3</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>2.5753046677397196</v>
+        <v>1.9182461749257973</v>
       </c>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
@@ -8139,23 +8137,23 @@
       </c>
       <c r="B45" s="34">
         <f>BLS_T3_Total!B44</f>
-        <v>3046.8</v>
+        <v>3053.9</v>
       </c>
       <c r="C45" s="34">
         <f>BLS_T3_Total!C44</f>
-        <v>3097</v>
+        <v>3093.4</v>
       </c>
       <c r="D45" s="34">
         <f>BLS_T3_Total!D44</f>
-        <v>3093.4</v>
+        <v>3097.4</v>
       </c>
       <c r="E45" s="34">
         <f>BLS_T3_Total!E44</f>
-        <v>3098.4</v>
+        <v>3101.3</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>1.6935801496652303</v>
+        <v>1.552113690690593</v>
       </c>
       <c r="M45" s="27"/>
       <c r="N45" s="27"/>
@@ -8168,23 +8166,23 @@
       </c>
       <c r="B46" s="34">
         <f>BLS_T3_Total!B45</f>
-        <v>12433.4</v>
+        <v>12465.1</v>
       </c>
       <c r="C46" s="34">
         <f>BLS_T3_Total!C45</f>
-        <v>12671.1</v>
+        <v>12698.7</v>
       </c>
       <c r="D46" s="34">
         <f>BLS_T3_Total!D45</f>
-        <v>12698.7</v>
+        <v>12731.8</v>
       </c>
       <c r="E46" s="34">
         <f>BLS_T3_Total!E45</f>
-        <v>12727.6</v>
+        <v>12751.4</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>2.3662071517042804</v>
+        <v>2.2968127010613681</v>
       </c>
       <c r="M46" s="27"/>
       <c r="N46" s="27"/>
@@ -8197,23 +8195,23 @@
       </c>
       <c r="B47" s="34">
         <f>BLS_T3_Total!B46</f>
-        <v>1506.2</v>
+        <v>1511.7</v>
       </c>
       <c r="C47" s="34">
         <f>BLS_T3_Total!C46</f>
-        <v>1547.9</v>
+        <v>1550.1</v>
       </c>
       <c r="D47" s="34">
         <f>BLS_T3_Total!D46</f>
-        <v>1550.1</v>
+        <v>1551.2</v>
       </c>
       <c r="E47" s="34">
         <f>BLS_T3_Total!E46</f>
-        <v>1551.8</v>
+        <v>1554.3</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>3.0274863895896953</v>
+        <v>2.8180194483032217</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
@@ -8226,23 +8224,23 @@
       </c>
       <c r="B48" s="34">
         <f>BLS_T3_Total!B47</f>
-        <v>314.3</v>
+        <v>314.10000000000002</v>
       </c>
       <c r="C48" s="34">
         <f>BLS_T3_Total!C47</f>
-        <v>317.10000000000002</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="D48" s="34">
         <f>BLS_T3_Total!D47</f>
-        <v>316.89999999999998</v>
+        <v>318.3</v>
       </c>
       <c r="E48" s="34">
         <f>BLS_T3_Total!E47</f>
-        <v>318.39999999999998</v>
+        <v>318</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>1.3044861597200086</v>
+        <v>1.241642788920716</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -8251,23 +8249,23 @@
       </c>
       <c r="B49" s="34">
         <f>BLS_T3_Total!B48</f>
-        <v>3998</v>
+        <v>4000.2</v>
       </c>
       <c r="C49" s="34">
         <f>BLS_T3_Total!C48</f>
-        <v>4025.6</v>
+        <v>4033</v>
       </c>
       <c r="D49" s="34">
         <f>BLS_T3_Total!D48</f>
-        <v>4033</v>
+        <v>4035.4</v>
       </c>
       <c r="E49" s="34">
         <f>BLS_T3_Total!E48</f>
-        <v>4041.1</v>
+        <v>4032.2</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>1.0780390195097578</v>
+        <v>0.79996000199991091</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -8276,23 +8274,23 @@
       </c>
       <c r="B50" s="34">
         <f>BLS_T3_Total!B49</f>
-        <v>3389.9</v>
+        <v>3395.9</v>
       </c>
       <c r="C50" s="34">
         <f>BLS_T3_Total!C49</f>
-        <v>3440.2</v>
+        <v>3467.9</v>
       </c>
       <c r="D50" s="34">
         <f>BLS_T3_Total!D49</f>
-        <v>3467.9</v>
+        <v>3481</v>
       </c>
       <c r="E50" s="34">
         <f>BLS_T3_Total!E49</f>
-        <v>3481.4</v>
+        <v>3490.5</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>2.6991946665093414</v>
+        <v>2.7857121823375186</v>
       </c>
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
@@ -8305,23 +8303,23 @@
       </c>
       <c r="B51" s="34">
         <f>BLS_T3_Total!B50</f>
-        <v>722.1</v>
+        <v>730.3</v>
       </c>
       <c r="C51" s="34">
         <f>BLS_T3_Total!C50</f>
-        <v>737</v>
+        <v>737.5</v>
       </c>
       <c r="D51" s="34">
         <f>BLS_T3_Total!D50</f>
-        <v>737.5</v>
+        <v>735</v>
       </c>
       <c r="E51" s="34">
         <f>BLS_T3_Total!E50</f>
-        <v>735.3</v>
+        <v>735.5</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>1.8280016618196893</v>
+        <v>0.71203614952759509</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -8330,23 +8328,23 @@
       </c>
       <c r="B52" s="34">
         <f>BLS_T3_Total!B51</f>
-        <v>2962.6</v>
+        <v>2967</v>
       </c>
       <c r="C52" s="34">
         <f>BLS_T3_Total!C51</f>
-        <v>2984.9</v>
+        <v>2980.8</v>
       </c>
       <c r="D52" s="34">
         <f>BLS_T3_Total!D51</f>
-        <v>2980.8</v>
+        <v>2980.3</v>
       </c>
       <c r="E52" s="34">
         <f>BLS_T3_Total!E51</f>
-        <v>2977.7</v>
+        <v>2982</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.50968743671100381</v>
+        <v>0.50556117290192493</v>
       </c>
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
@@ -8359,23 +8357,23 @@
       </c>
       <c r="B53" s="34">
         <f>BLS_T3_Total!B52</f>
-        <v>285</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="C53" s="34">
         <f>BLS_T3_Total!C52</f>
-        <v>289.3</v>
+        <v>289.5</v>
       </c>
       <c r="D53" s="34">
         <f>BLS_T3_Total!D52</f>
-        <v>289.5</v>
+        <v>289.3</v>
       </c>
       <c r="E53" s="34">
         <f>BLS_T3_Total!E52</f>
-        <v>289.10000000000002</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>1.4385964912280835</v>
+        <v>1.5783935461241683</v>
       </c>
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
@@ -8429,16 +8427,16 @@
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="C1" s="4">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D1" s="4">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="E1" s="6">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>52</v>
@@ -8449,20 +8447,20 @@
         <v>51</v>
       </c>
       <c r="B2" s="33">
-        <v>22421</v>
+        <v>22427</v>
       </c>
       <c r="C2" s="33">
         <v>22510</v>
       </c>
       <c r="D2" s="33">
-        <v>22520</v>
+        <v>22529</v>
       </c>
       <c r="E2" s="33">
-        <v>22547</v>
+        <v>22514</v>
       </c>
       <c r="F2" s="1">
         <f>((E2/B2)-1)*100</f>
-        <v>0.561973150171724</v>
+        <v>0.3879252686493917</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -8471,23 +8469,23 @@
       </c>
       <c r="B3" s="34">
         <f>BLS_T3_GOV!B2</f>
-        <v>385.8</v>
+        <v>385.6</v>
       </c>
       <c r="C3" s="34">
         <f>BLS_T3_GOV!C2</f>
-        <v>385.2</v>
+        <v>385.4</v>
       </c>
       <c r="D3" s="34">
         <f>BLS_T3_GOV!D2</f>
-        <v>385.4</v>
+        <v>387.1</v>
       </c>
       <c r="E3" s="34">
         <f>BLS_T3_GOV!E2</f>
-        <v>386.5</v>
+        <v>388.6</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F53" si="0">((E3/B3)-1)*100</f>
-        <v>0.1814411612234279</v>
+        <v>0.77800829875518396</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -8496,11 +8494,11 @@
       </c>
       <c r="B4" s="34">
         <f>BLS_T3_GOV!B3</f>
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="C4" s="34">
         <f>BLS_T3_GOV!C3</f>
-        <v>80.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D4" s="34">
         <f>BLS_T3_GOV!D3</f>
@@ -8508,11 +8506,11 @@
       </c>
       <c r="E4" s="34">
         <f>BLS_T3_GOV!E3</f>
-        <v>80.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.24783147459728205</v>
+        <v>-0.1242236024844634</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -8521,23 +8519,23 @@
       </c>
       <c r="B5" s="34">
         <f>BLS_T3_GOV!B4</f>
-        <v>413.2</v>
+        <v>415.4</v>
       </c>
       <c r="C5" s="34">
         <f>BLS_T3_GOV!C4</f>
-        <v>415.3</v>
+        <v>415.9</v>
       </c>
       <c r="D5" s="34">
         <f>BLS_T3_GOV!D4</f>
-        <v>415.9</v>
+        <v>417.3</v>
       </c>
       <c r="E5" s="34">
         <f>BLS_T3_GOV!E4</f>
-        <v>416.5</v>
+        <v>418.3</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.798644724104558</v>
+        <v>0.69812229176697826</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -8546,23 +8544,23 @@
       </c>
       <c r="B6" s="34">
         <f>BLS_T3_GOV!B5</f>
-        <v>211.9</v>
+        <v>211.3</v>
       </c>
       <c r="C6" s="34">
         <f>BLS_T3_GOV!C5</f>
-        <v>213.2</v>
+        <v>213</v>
       </c>
       <c r="D6" s="34">
         <f>BLS_T3_GOV!D5</f>
-        <v>213</v>
+        <v>213.3</v>
       </c>
       <c r="E6" s="34">
         <f>BLS_T3_GOV!E5</f>
-        <v>213.2</v>
+        <v>213</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.61349693251533388</v>
+        <v>0.80454330336015012</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -8571,23 +8569,23 @@
       </c>
       <c r="B7" s="34">
         <f>BLS_T3_GOV!B6</f>
-        <v>2585.5</v>
+        <v>2586.5</v>
       </c>
       <c r="C7" s="34">
         <f>BLS_T3_GOV!C6</f>
-        <v>2608.5</v>
+        <v>2609.6</v>
       </c>
       <c r="D7" s="34">
         <f>BLS_T3_GOV!D6</f>
-        <v>2609.6</v>
+        <v>2614.4</v>
       </c>
       <c r="E7" s="34">
         <f>BLS_T3_GOV!E6</f>
-        <v>2613.1</v>
+        <v>2616.1999999999998</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.0674917810868267</v>
+        <v>1.1482698627488741</v>
       </c>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
@@ -8608,23 +8606,23 @@
       </c>
       <c r="B8" s="34">
         <f>BLS_T3_GOV!B7</f>
-        <v>443.7</v>
+        <v>445.2</v>
       </c>
       <c r="C8" s="34">
         <f>BLS_T3_GOV!C7</f>
-        <v>445.6</v>
+        <v>445.7</v>
       </c>
       <c r="D8" s="34">
         <f>BLS_T3_GOV!D7</f>
-        <v>445.7</v>
+        <v>447.3</v>
       </c>
       <c r="E8" s="34">
         <f>BLS_T3_GOV!E7</f>
-        <v>446.9</v>
+        <v>448.6</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.72120802343926815</v>
+        <v>0.76370170709794127</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -8633,15 +8631,15 @@
       </c>
       <c r="B9" s="34">
         <f>BLS_T3_GOV!B8</f>
-        <v>235.8</v>
+        <v>236.3</v>
       </c>
       <c r="C9" s="34">
         <f>BLS_T3_GOV!C8</f>
-        <v>237.1</v>
+        <v>236.8</v>
       </c>
       <c r="D9" s="34">
         <f>BLS_T3_GOV!D8</f>
-        <v>236.8</v>
+        <v>236.5</v>
       </c>
       <c r="E9" s="34">
         <f>BLS_T3_GOV!E8</f>
@@ -8649,7 +8647,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.3392705682782049</v>
+        <v>0.12695725772322586</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -8658,11 +8656,11 @@
       </c>
       <c r="B10" s="34">
         <f>BLS_T3_GOV!B9</f>
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="C10" s="34">
         <f>BLS_T3_GOV!C9</f>
-        <v>66.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="D10" s="34">
         <f>BLS_T3_GOV!D9</f>
@@ -8670,11 +8668,11 @@
       </c>
       <c r="E10" s="34">
         <f>BLS_T3_GOV!E9</f>
-        <v>67.3</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>2.2796352583586588</v>
+        <v>2.1212121212121238</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8683,23 +8681,23 @@
       </c>
       <c r="B11" s="34">
         <f>BLS_T3_GOV!B10</f>
-        <v>239</v>
+        <v>238.7</v>
       </c>
       <c r="C11" s="34">
         <f>BLS_T3_GOV!C10</f>
-        <v>238.2</v>
+        <v>238.4</v>
       </c>
       <c r="D11" s="34">
         <f>BLS_T3_GOV!D10</f>
-        <v>238.4</v>
+        <v>238.3</v>
       </c>
       <c r="E11" s="34">
         <f>BLS_T3_GOV!E10</f>
-        <v>238.6</v>
+        <v>237.7</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.16736401673640433</v>
+        <v>-0.41893590280687176</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>113</v>
@@ -8714,23 +8712,23 @@
       </c>
       <c r="B12" s="34">
         <f>BLS_T3_GOV!B11</f>
-        <v>1111.2</v>
+        <v>1111</v>
       </c>
       <c r="C12" s="34">
         <f>BLS_T3_GOV!C11</f>
-        <v>1113.5</v>
+        <v>1113.3</v>
       </c>
       <c r="D12" s="34">
         <f>BLS_T3_GOV!D11</f>
-        <v>1113.3</v>
+        <v>1115.8</v>
       </c>
       <c r="E12" s="34">
         <f>BLS_T3_GOV!E11</f>
-        <v>1114</v>
+        <v>1116.8</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.25197984161267062</v>
+        <v>0.52205220522052453</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>114</v>
@@ -8749,23 +8747,23 @@
       </c>
       <c r="B13" s="34">
         <f>BLS_T3_GOV!B12</f>
-        <v>690.2</v>
+        <v>694.9</v>
       </c>
       <c r="C13" s="34">
         <f>BLS_T3_GOV!C12</f>
-        <v>693.7</v>
+        <v>695</v>
       </c>
       <c r="D13" s="34">
         <f>BLS_T3_GOV!D12</f>
-        <v>695</v>
+        <v>695.2</v>
       </c>
       <c r="E13" s="34">
         <f>BLS_T3_GOV!E12</f>
-        <v>696.3</v>
+        <v>696.2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.88380179658069657</v>
+        <v>0.18707727730609136</v>
       </c>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -8782,23 +8780,23 @@
       </c>
       <c r="B14" s="34">
         <f>BLS_T3_GOV!B13</f>
-        <v>124.6</v>
+        <v>125.6</v>
       </c>
       <c r="C14" s="34">
         <f>BLS_T3_GOV!C13</f>
-        <v>126.8</v>
+        <v>126.5</v>
       </c>
       <c r="D14" s="34">
         <f>BLS_T3_GOV!D13</f>
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
       <c r="E14" s="34">
         <f>BLS_T3_GOV!E13</f>
-        <v>126.8</v>
+        <v>126.4</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>1.7656500802568198</v>
+        <v>0.63694267515923553</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -8811,19 +8809,19 @@
       </c>
       <c r="C15" s="34">
         <f>BLS_T3_GOV!C14</f>
-        <v>126.5</v>
+        <v>126</v>
       </c>
       <c r="D15" s="34">
         <f>BLS_T3_GOV!D14</f>
-        <v>126</v>
+        <v>126.4</v>
       </c>
       <c r="E15" s="34">
         <f>BLS_T3_GOV!E14</f>
-        <v>126.5</v>
+        <v>126.4</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1.6064257028112428</v>
+        <v>1.5261044176706928</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -8832,23 +8830,23 @@
       </c>
       <c r="B16" s="34">
         <f>BLS_T3_GOV!B15</f>
-        <v>825.2</v>
+        <v>825.6</v>
       </c>
       <c r="C16" s="34">
         <f>BLS_T3_GOV!C15</f>
-        <v>826.9</v>
+        <v>827.4</v>
       </c>
       <c r="D16" s="34">
         <f>BLS_T3_GOV!D15</f>
-        <v>827.4</v>
+        <v>829.2</v>
       </c>
       <c r="E16" s="34">
         <f>BLS_T3_GOV!E15</f>
-        <v>827.9</v>
+        <v>829.7</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.3271934076587435</v>
+        <v>0.49660852713178105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8857,23 +8855,23 @@
       </c>
       <c r="B17" s="34">
         <f>BLS_T3_GOV!B16</f>
-        <v>427.8</v>
+        <v>433.4</v>
       </c>
       <c r="C17" s="34">
         <f>BLS_T3_GOV!C16</f>
-        <v>428.7</v>
+        <v>429.7</v>
       </c>
       <c r="D17" s="34">
         <f>BLS_T3_GOV!D16</f>
-        <v>429.7</v>
+        <v>429.5</v>
       </c>
       <c r="E17" s="34">
         <f>BLS_T3_GOV!E16</f>
-        <v>429.8</v>
+        <v>424.9</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.46750818139318362</v>
+        <v>-1.9612367328103342</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8886,19 +8884,19 @@
       </c>
       <c r="C18" s="34">
         <f>BLS_T3_GOV!C17</f>
-        <v>259.3</v>
+        <v>259.7</v>
       </c>
       <c r="D18" s="34">
         <f>BLS_T3_GOV!D17</f>
-        <v>259.7</v>
+        <v>259.8</v>
       </c>
       <c r="E18" s="34">
         <f>BLS_T3_GOV!E17</f>
-        <v>259.5</v>
+        <v>259.3</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.38387715930902067</v>
+        <v>-0.46065259117081814</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8907,23 +8905,23 @@
       </c>
       <c r="B19" s="34">
         <f>BLS_T3_GOV!B18</f>
-        <v>257.5</v>
+        <v>257.3</v>
       </c>
       <c r="C19" s="34">
         <f>BLS_T3_GOV!C18</f>
-        <v>258.39999999999998</v>
+        <v>258.10000000000002</v>
       </c>
       <c r="D19" s="34">
         <f>BLS_T3_GOV!D18</f>
-        <v>258.10000000000002</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="E19" s="34">
         <f>BLS_T3_GOV!E18</f>
-        <v>259.39999999999998</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.73786407766989193</v>
+        <v>1.0104935872522258</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8932,23 +8930,23 @@
       </c>
       <c r="B20" s="34">
         <f>BLS_T3_GOV!B19</f>
-        <v>313.7</v>
+        <v>314</v>
       </c>
       <c r="C20" s="34">
         <f>BLS_T3_GOV!C19</f>
-        <v>313.10000000000002</v>
+        <v>313</v>
       </c>
       <c r="D20" s="34">
         <f>BLS_T3_GOV!D19</f>
-        <v>313</v>
+        <v>312.7</v>
       </c>
       <c r="E20" s="34">
         <f>BLS_T3_GOV!E19</f>
-        <v>312.60000000000002</v>
+        <v>312.39999999999998</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>-0.35065349059609785</v>
+        <v>-0.50955414012739952</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8957,23 +8955,23 @@
       </c>
       <c r="B21" s="34">
         <f>BLS_T3_GOV!B20</f>
-        <v>328.3</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="C21" s="34">
         <f>BLS_T3_GOV!C20</f>
-        <v>327</v>
+        <v>327.2</v>
       </c>
       <c r="D21" s="34">
         <f>BLS_T3_GOV!D20</f>
-        <v>327.2</v>
+        <v>326.7</v>
       </c>
       <c r="E21" s="34">
         <f>BLS_T3_GOV!E20</f>
-        <v>326.60000000000002</v>
+        <v>326.5</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.51781906792567334</v>
+        <v>-0.33577533577534568</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8982,23 +8980,23 @@
       </c>
       <c r="B22" s="34">
         <f>BLS_T3_GOV!B21</f>
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="C22" s="34">
         <f>BLS_T3_GOV!C21</f>
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="D22" s="34">
         <f>BLS_T3_GOV!D21</f>
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="E22" s="34">
         <f>BLS_T3_GOV!E21</f>
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.29940119760478723</v>
+        <v>-9.9700897308074854E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -9007,23 +9005,23 @@
       </c>
       <c r="B23" s="34">
         <f>BLS_T3_GOV!B22</f>
-        <v>504.2</v>
+        <v>504.9</v>
       </c>
       <c r="C23" s="34">
         <f>BLS_T3_GOV!C22</f>
-        <v>505.7</v>
+        <v>505.9</v>
       </c>
       <c r="D23" s="34">
         <f>BLS_T3_GOV!D22</f>
-        <v>505.9</v>
+        <v>506.1</v>
       </c>
       <c r="E23" s="34">
         <f>BLS_T3_GOV!E22</f>
-        <v>506.2</v>
+        <v>508.1</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.39666798889330668</v>
+        <v>0.63378886908298515</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -9032,23 +9030,23 @@
       </c>
       <c r="B24" s="34">
         <f>BLS_T3_GOV!B23</f>
-        <v>451.9</v>
+        <v>453.1</v>
       </c>
       <c r="C24" s="34">
         <f>BLS_T3_GOV!C23</f>
-        <v>457.9</v>
+        <v>456.7</v>
       </c>
       <c r="D24" s="34">
         <f>BLS_T3_GOV!D23</f>
-        <v>456.7</v>
+        <v>456.9</v>
       </c>
       <c r="E24" s="34">
         <f>BLS_T3_GOV!E23</f>
-        <v>456.8</v>
+        <v>457.3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>1.0843106882053588</v>
+        <v>0.92694769366585827</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -9057,23 +9055,23 @@
       </c>
       <c r="B25" s="34">
         <f>BLS_T3_GOV!B24</f>
-        <v>606.1</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="C25" s="34">
         <f>BLS_T3_GOV!C24</f>
-        <v>605.9</v>
+        <v>606.70000000000005</v>
       </c>
       <c r="D25" s="34">
         <f>BLS_T3_GOV!D24</f>
-        <v>606.70000000000005</v>
+        <v>607.70000000000005</v>
       </c>
       <c r="E25" s="34">
         <f>BLS_T3_GOV!E24</f>
-        <v>607.9</v>
+        <v>606.29999999999995</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.29698069625474499</v>
+        <v>9.9058940069318702E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -9082,23 +9080,23 @@
       </c>
       <c r="B26" s="34">
         <f>BLS_T3_GOV!B25</f>
-        <v>425.8</v>
+        <v>425.3</v>
       </c>
       <c r="C26" s="34">
         <f>BLS_T3_GOV!C25</f>
-        <v>425.3</v>
+        <v>425.4</v>
       </c>
       <c r="D26" s="34">
         <f>BLS_T3_GOV!D25</f>
-        <v>425.4</v>
+        <v>425.9</v>
       </c>
       <c r="E26" s="34">
         <f>BLS_T3_GOV!E25</f>
-        <v>426.1</v>
+        <v>425.6</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>7.0455612963837844E-2</v>
+        <v>7.0538443451684252E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -9107,23 +9105,23 @@
       </c>
       <c r="B27" s="34">
         <f>BLS_T3_GOV!B26</f>
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="C27" s="34">
         <f>BLS_T3_GOV!C26</f>
-        <v>242</v>
+        <v>241.9</v>
       </c>
       <c r="D27" s="34">
         <f>BLS_T3_GOV!D26</f>
-        <v>241.9</v>
+        <v>242.1</v>
       </c>
       <c r="E27" s="34">
         <f>BLS_T3_GOV!E26</f>
-        <v>242.5</v>
+        <v>241.8</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.70598006644517763</v>
+        <v>0.45700041545493342</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -9132,23 +9130,23 @@
       </c>
       <c r="B28" s="34">
         <f>BLS_T3_GOV!B27</f>
-        <v>433.9</v>
+        <v>433.5</v>
       </c>
       <c r="C28" s="34">
         <f>BLS_T3_GOV!C27</f>
-        <v>433.7</v>
+        <v>435.2</v>
       </c>
       <c r="D28" s="34">
         <f>BLS_T3_GOV!D27</f>
-        <v>435.2</v>
+        <v>436.7</v>
       </c>
       <c r="E28" s="34">
         <f>BLS_T3_GOV!E27</f>
-        <v>436.4</v>
+        <v>436.8</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.57616962433739705</v>
+        <v>0.76124567474049609</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -9161,19 +9159,19 @@
       </c>
       <c r="C29" s="34">
         <f>BLS_T3_GOV!C28</f>
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="D29" s="34">
         <f>BLS_T3_GOV!D28</f>
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="E29" s="34">
         <f>BLS_T3_GOV!E28</f>
-        <v>90.7</v>
+        <v>91.1</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.66592674805772134</v>
+        <v>1.1098779134295134</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -9182,23 +9180,23 @@
       </c>
       <c r="B30" s="34">
         <f>BLS_T3_GOV!B29</f>
-        <v>173</v>
+        <v>173.5</v>
       </c>
       <c r="C30" s="34">
         <f>BLS_T3_GOV!C29</f>
-        <v>174.3</v>
+        <v>173.8</v>
       </c>
       <c r="D30" s="34">
         <f>BLS_T3_GOV!D29</f>
-        <v>173.8</v>
+        <v>174.9</v>
       </c>
       <c r="E30" s="34">
         <f>BLS_T3_GOV!E29</f>
-        <v>174.2</v>
+        <v>175.9</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.69364161849709838</v>
+        <v>1.383285302593662</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -9207,23 +9205,23 @@
       </c>
       <c r="B31" s="34">
         <f>BLS_T3_GOV!B30</f>
-        <v>161</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="C31" s="34">
         <f>BLS_T3_GOV!C30</f>
-        <v>162.9</v>
+        <v>163.1</v>
       </c>
       <c r="D31" s="34">
         <f>BLS_T3_GOV!D30</f>
-        <v>163.1</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="E31" s="34">
         <f>BLS_T3_GOV!E30</f>
-        <v>161.5</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.31055900621117516</v>
+        <v>1.1815920398009716</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -9232,11 +9230,11 @@
       </c>
       <c r="B32" s="34">
         <f>BLS_T3_GOV!B31</f>
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="C32" s="34">
         <f>BLS_T3_GOV!C31</f>
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="D32" s="34">
         <f>BLS_T3_GOV!D31</f>
@@ -9244,11 +9242,11 @@
       </c>
       <c r="E32" s="34">
         <f>BLS_T3_GOV!E31</f>
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1074197120708784</v>
+        <v>-1.3274336283185861</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -9257,23 +9255,23 @@
       </c>
       <c r="B33" s="34">
         <f>BLS_T3_GOV!B32</f>
-        <v>598.20000000000005</v>
+        <v>598.4</v>
       </c>
       <c r="C33" s="34">
         <f>BLS_T3_GOV!C32</f>
-        <v>601.1</v>
+        <v>600.70000000000005</v>
       </c>
       <c r="D33" s="34">
         <f>BLS_T3_GOV!D32</f>
-        <v>600.70000000000005</v>
+        <v>601.5</v>
       </c>
       <c r="E33" s="34">
         <f>BLS_T3_GOV!E32</f>
-        <v>601.6</v>
+        <v>602.29999999999995</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.56837178201269989</v>
+        <v>0.65173796791444527</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -9282,23 +9280,23 @@
       </c>
       <c r="B34" s="34">
         <f>BLS_T3_GOV!B33</f>
-        <v>186.6</v>
+        <v>185.1</v>
       </c>
       <c r="C34" s="34">
         <f>BLS_T3_GOV!C33</f>
-        <v>185.6</v>
+        <v>185.5</v>
       </c>
       <c r="D34" s="34">
         <f>BLS_T3_GOV!D33</f>
-        <v>185.5</v>
+        <v>185.4</v>
       </c>
       <c r="E34" s="34">
         <f>BLS_T3_GOV!E33</f>
-        <v>185.3</v>
+        <v>184.7</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69667738478026431</v>
+        <v>-0.216099405726633</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -9307,23 +9305,23 @@
       </c>
       <c r="B35" s="34">
         <f>BLS_T3_GOV!B34</f>
-        <v>1484.7</v>
+        <v>1488.5</v>
       </c>
       <c r="C35" s="34">
         <f>BLS_T3_GOV!C34</f>
-        <v>1489.1</v>
+        <v>1488.7</v>
       </c>
       <c r="D35" s="34">
         <f>BLS_T3_GOV!D34</f>
-        <v>1488.7</v>
+        <v>1491</v>
       </c>
       <c r="E35" s="34">
         <f>BLS_T3_GOV!E34</f>
-        <v>1490.4</v>
+        <v>1492.3</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.38391594261466544</v>
+        <v>0.25529056096740277</v>
       </c>
       <c r="W35" s="27"/>
       <c r="X35" s="27"/>
@@ -9336,23 +9334,23 @@
       </c>
       <c r="B36" s="34">
         <f>BLS_T3_GOV!B35</f>
-        <v>733.3</v>
+        <v>735.4</v>
       </c>
       <c r="C36" s="34">
         <f>BLS_T3_GOV!C35</f>
-        <v>730.8</v>
+        <v>731.7</v>
       </c>
       <c r="D36" s="34">
         <f>BLS_T3_GOV!D35</f>
-        <v>731.7</v>
+        <v>732.9</v>
       </c>
       <c r="E36" s="34">
         <f>BLS_T3_GOV!E35</f>
-        <v>732.2</v>
+        <v>735.2</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>-0.15000681849173247</v>
+        <v>-2.7196083763925127E-2</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -9361,23 +9359,23 @@
       </c>
       <c r="B37" s="34">
         <f>BLS_T3_GOV!B36</f>
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
       <c r="C37" s="34">
         <f>BLS_T3_GOV!C36</f>
-        <v>82.6</v>
+        <v>82.1</v>
       </c>
       <c r="D37" s="34">
         <f>BLS_T3_GOV!D36</f>
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="E37" s="34">
         <f>BLS_T3_GOV!E36</f>
-        <v>82.1</v>
+        <v>82.4</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>-0.12165450121655041</v>
+        <v>-0.12121212121211089</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
@@ -9386,23 +9384,23 @@
       </c>
       <c r="B38" s="34">
         <f>BLS_T3_GOV!B37</f>
-        <v>781.4</v>
+        <v>779.2</v>
       </c>
       <c r="C38" s="34">
         <f>BLS_T3_GOV!C37</f>
-        <v>778.6</v>
+        <v>779.5</v>
       </c>
       <c r="D38" s="34">
         <f>BLS_T3_GOV!D37</f>
-        <v>779.5</v>
+        <v>779.9</v>
       </c>
       <c r="E38" s="34">
         <f>BLS_T3_GOV!E37</f>
-        <v>780.9</v>
+        <v>779.1</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>-6.3987714358848535E-2</v>
+        <v>-1.2833675564682956E-2</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -9411,23 +9409,23 @@
       </c>
       <c r="B39" s="34">
         <f>BLS_T3_GOV!B38</f>
-        <v>346.9</v>
+        <v>347.8</v>
       </c>
       <c r="C39" s="34">
         <f>BLS_T3_GOV!C38</f>
-        <v>347.2</v>
+        <v>346.5</v>
       </c>
       <c r="D39" s="34">
         <f>BLS_T3_GOV!D38</f>
-        <v>346.5</v>
+        <v>346.1</v>
       </c>
       <c r="E39" s="34">
         <f>BLS_T3_GOV!E38</f>
-        <v>346.5</v>
+        <v>346.6</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>-0.11530700490054446</v>
+        <v>-0.34502587694076325</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -9436,23 +9434,23 @@
       </c>
       <c r="B40" s="34">
         <f>BLS_T3_GOV!B39</f>
-        <v>294.3</v>
+        <v>294.5</v>
       </c>
       <c r="C40" s="34">
         <f>BLS_T3_GOV!C39</f>
-        <v>296.89999999999998</v>
+        <v>298</v>
       </c>
       <c r="D40" s="34">
         <f>BLS_T3_GOV!D39</f>
-        <v>298</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="E40" s="34">
         <f>BLS_T3_GOV!E39</f>
-        <v>298.60000000000002</v>
+        <v>299</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>1.4610941216445905</v>
+        <v>1.5280135823429575</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -9461,23 +9459,23 @@
       </c>
       <c r="B41" s="34">
         <f>BLS_T3_GOV!B40</f>
-        <v>702.7</v>
+        <v>702.4</v>
       </c>
       <c r="C41" s="34">
         <f>BLS_T3_GOV!C40</f>
-        <v>702.8</v>
+        <v>703.5</v>
       </c>
       <c r="D41" s="34">
         <f>BLS_T3_GOV!D40</f>
-        <v>703.5</v>
+        <v>704.3</v>
       </c>
       <c r="E41" s="34">
         <f>BLS_T3_GOV!E40</f>
-        <v>703.5</v>
+        <v>706.5</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.11384659171764788</v>
+        <v>0.58371298405466288</v>
       </c>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
@@ -9490,23 +9488,23 @@
       </c>
       <c r="B42" s="34">
         <f>BLS_T3_GOV!B41</f>
-        <v>60.7</v>
+        <v>61.5</v>
       </c>
       <c r="C42" s="34">
         <f>BLS_T3_GOV!C41</f>
-        <v>61.1</v>
+        <v>61.4</v>
       </c>
       <c r="D42" s="34">
         <f>BLS_T3_GOV!D41</f>
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="E42" s="34">
         <f>BLS_T3_GOV!E41</f>
-        <v>61.5</v>
+        <v>61.4</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.3179571663920919</v>
+        <v>-0.16260162601626771</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -9515,23 +9513,23 @@
       </c>
       <c r="B43" s="34">
         <f>BLS_T3_GOV!B42</f>
-        <v>367.9</v>
+        <v>368.3</v>
       </c>
       <c r="C43" s="34">
         <f>BLS_T3_GOV!C42</f>
-        <v>371.7</v>
+        <v>372.3</v>
       </c>
       <c r="D43" s="34">
         <f>BLS_T3_GOV!D42</f>
-        <v>372.3</v>
+        <v>373.2</v>
       </c>
       <c r="E43" s="34">
         <f>BLS_T3_GOV!E42</f>
-        <v>373.2</v>
+        <v>373.4</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>1.4406088611035539</v>
+        <v>1.3847407005158852</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -9540,7 +9538,7 @@
       </c>
       <c r="B44" s="34">
         <f>BLS_T3_GOV!B43</f>
-        <v>79.099999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="C44" s="34">
         <f>BLS_T3_GOV!C43</f>
@@ -9548,15 +9546,15 @@
       </c>
       <c r="D44" s="34">
         <f>BLS_T3_GOV!D43</f>
-        <v>80</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E44" s="34">
         <f>BLS_T3_GOV!E43</f>
-        <v>80</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>1.1378002528445119</v>
+        <v>0.7547169811320753</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -9565,23 +9563,23 @@
       </c>
       <c r="B45" s="34">
         <f>BLS_T3_GOV!B44</f>
-        <v>434.6</v>
+        <v>436</v>
       </c>
       <c r="C45" s="34">
         <f>BLS_T3_GOV!C44</f>
-        <v>438.4</v>
+        <v>439</v>
       </c>
       <c r="D45" s="34">
         <f>BLS_T3_GOV!D44</f>
-        <v>439</v>
+        <v>439.2</v>
       </c>
       <c r="E45" s="34">
         <f>BLS_T3_GOV!E44</f>
-        <v>439.3</v>
+        <v>439</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>1.0814542107685288</v>
+        <v>0.68807339449541427</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -9590,11 +9588,11 @@
       </c>
       <c r="B46" s="34">
         <f>BLS_T3_GOV!B45</f>
-        <v>1947.5</v>
+        <v>1950.3</v>
       </c>
       <c r="C46" s="34">
         <f>BLS_T3_GOV!C45</f>
-        <v>1956.9</v>
+        <v>1958.5</v>
       </c>
       <c r="D46" s="34">
         <f>BLS_T3_GOV!D45</f>
@@ -9602,11 +9600,11 @@
       </c>
       <c r="E46" s="34">
         <f>BLS_T3_GOV!E45</f>
-        <v>1958.7</v>
+        <v>1959.6</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.57509627727856394</v>
+        <v>0.47684971542838461</v>
       </c>
       <c r="W46" s="27"/>
       <c r="X46" s="27"/>
@@ -9619,23 +9617,23 @@
       </c>
       <c r="B47" s="34">
         <f>BLS_T3_GOV!B46</f>
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="C47" s="34">
         <f>BLS_T3_GOV!C46</f>
-        <v>251.2</v>
+        <v>251.3</v>
       </c>
       <c r="D47" s="34">
         <f>BLS_T3_GOV!D46</f>
-        <v>251.3</v>
+        <v>251.7</v>
       </c>
       <c r="E47" s="34">
         <f>BLS_T3_GOV!E46</f>
-        <v>251.9</v>
+        <v>251.7</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>1.983805668016192</v>
+        <v>1.9441069258809174</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
@@ -9644,23 +9642,23 @@
       </c>
       <c r="B48" s="34">
         <f>BLS_T3_GOV!B47</f>
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="C48" s="34">
         <f>BLS_T3_GOV!C47</f>
-        <v>56.5</v>
+        <v>56.7</v>
       </c>
       <c r="D48" s="34">
         <f>BLS_T3_GOV!D47</f>
-        <v>56.7</v>
+        <v>56.9</v>
       </c>
       <c r="E48" s="34">
         <f>BLS_T3_GOV!E47</f>
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>2.1505376344086002</v>
+        <v>1.7889087656529412</v>
       </c>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
@@ -9673,11 +9671,11 @@
       </c>
       <c r="B49" s="34">
         <f>BLS_T3_GOV!B48</f>
-        <v>721</v>
+        <v>722.3</v>
       </c>
       <c r="C49" s="34">
         <f>BLS_T3_GOV!C48</f>
-        <v>723.6</v>
+        <v>723.7</v>
       </c>
       <c r="D49" s="34">
         <f>BLS_T3_GOV!D48</f>
@@ -9685,11 +9683,11 @@
       </c>
       <c r="E49" s="34">
         <f>BLS_T3_GOV!E48</f>
-        <v>723.9</v>
+        <v>723.5</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.40221914008320425</v>
+        <v>0.16613595458951913</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -9698,23 +9696,23 @@
       </c>
       <c r="B50" s="34">
         <f>BLS_T3_GOV!B49</f>
-        <v>588.20000000000005</v>
+        <v>588.29999999999995</v>
       </c>
       <c r="C50" s="34">
         <f>BLS_T3_GOV!C49</f>
-        <v>582</v>
+        <v>581.6</v>
       </c>
       <c r="D50" s="34">
         <f>BLS_T3_GOV!D49</f>
-        <v>581.6</v>
+        <v>583.5</v>
       </c>
       <c r="E50" s="34">
         <f>BLS_T3_GOV!E49</f>
-        <v>583.29999999999995</v>
+        <v>584.6</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>-0.83304998299899014</v>
+        <v>-0.62893081761005165</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
@@ -9723,7 +9721,7 @@
       </c>
       <c r="B51" s="34">
         <f>BLS_T3_GOV!B50</f>
-        <v>152.4</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="C51" s="34">
         <f>BLS_T3_GOV!C50</f>
@@ -9735,11 +9733,11 @@
       </c>
       <c r="E51" s="34">
         <f>BLS_T3_GOV!E50</f>
-        <v>151.4</v>
+        <v>151.5</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>-0.65616797900261981</v>
+        <v>-5.1939924906132751</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -9748,23 +9746,23 @@
       </c>
       <c r="B52" s="34">
         <f>BLS_T3_GOV!B51</f>
-        <v>406.7</v>
+        <v>408.3</v>
       </c>
       <c r="C52" s="34">
         <f>BLS_T3_GOV!C51</f>
-        <v>401.7</v>
+        <v>404</v>
       </c>
       <c r="D52" s="34">
         <f>BLS_T3_GOV!D51</f>
-        <v>404</v>
+        <v>403.8</v>
       </c>
       <c r="E52" s="34">
         <f>BLS_T3_GOV!E51</f>
-        <v>404.8</v>
+        <v>403.7</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>-0.46717482173591618</v>
+        <v>-1.1266225814352215</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
@@ -9773,23 +9771,23 @@
       </c>
       <c r="B53" s="34">
         <f>BLS_T3_GOV!B52</f>
-        <v>69</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C53" s="34">
         <f>BLS_T3_GOV!C52</f>
-        <v>68.8</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D53" s="34">
         <f>BLS_T3_GOV!D52</f>
-        <v>69.099999999999994</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="E53" s="34">
         <f>BLS_T3_GOV!E52</f>
-        <v>68.8</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-0.28985507246377384</v>
+        <v>0.72886297376093534</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -9823,16 +9821,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="C1" s="4">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D1" s="4">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="E1" s="6">
-        <v>43556</v>
+        <v>43586</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9846,10 +9844,10 @@
         <v>3.7</v>
       </c>
       <c r="D2" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E2" s="1">
         <v>3.7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9857,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C3" s="1">
         <v>6.5</v>
@@ -9866,7 +9864,7 @@
         <v>6.5</v>
       </c>
       <c r="E3" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9874,13 +9872,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C4" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E4" s="1">
         <v>4.9000000000000004</v>
@@ -9894,10 +9892,10 @@
         <v>3.7</v>
       </c>
       <c r="C5" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D5" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E5" s="1">
         <v>3.6</v>
@@ -9908,16 +9906,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C6" s="1">
         <v>4.3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.2</v>
       </c>
       <c r="D6" s="1">
         <v>4.3</v>
       </c>
       <c r="E6" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9925,16 +9923,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C7" s="1">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D7" s="1">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E7" s="1">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9942,13 +9940,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D8" s="1">
         <v>3.8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.9</v>
       </c>
       <c r="E8" s="1">
         <v>3.8</v>
@@ -9959,13 +9957,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C9" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D9" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E9" s="1">
         <v>3.2</v>
@@ -9979,13 +9977,13 @@
         <v>5.7</v>
       </c>
       <c r="C10" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D10" s="1">
         <v>5.6</v>
       </c>
       <c r="E10" s="1">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10010,13 +10008,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>3.9</v>
       </c>
       <c r="D12" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E12" s="1">
         <v>3.8</v>
@@ -10030,7 +10028,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D13" s="1">
         <v>2.8</v>
@@ -10050,7 +10048,7 @@
         <v>2.9</v>
       </c>
       <c r="D14" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E14" s="1">
         <v>2.8</v>
@@ -10064,7 +10062,7 @@
         <v>4.3</v>
       </c>
       <c r="C15" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D15" s="1">
         <v>4.4000000000000004</v>
@@ -10078,10 +10076,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C16" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D16" s="1">
         <v>3.6</v>
@@ -10112,10 +10110,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C18" s="1">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="1">
         <v>3.5</v>
@@ -10132,7 +10130,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -10146,16 +10144,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="D20" s="1">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -10166,10 +10164,10 @@
         <v>3.3</v>
       </c>
       <c r="C21" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D21" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E21" s="1">
         <v>3.3</v>
@@ -10180,10 +10178,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D22" s="1">
         <v>3.8</v>
@@ -10203,10 +10201,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E23" s="1">
         <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10214,16 +10212,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E24" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10231,13 +10229,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C25" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D25" s="1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E25" s="1">
         <v>3.3</v>
@@ -10251,13 +10249,13 @@
         <v>4.8</v>
       </c>
       <c r="C26" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D26" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="E26" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10265,10 +10263,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C27" s="1">
         <v>3.3</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3.2</v>
       </c>
       <c r="D27" s="1">
         <v>3.3</v>
@@ -10285,7 +10283,7 @@
         <v>3.7</v>
       </c>
       <c r="C28" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D28" s="1">
         <v>3.7</v>
@@ -10305,10 +10303,10 @@
         <v>2.8</v>
       </c>
       <c r="D29" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="E29" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -10319,10 +10317,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C30" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D30" s="1">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
@@ -10350,16 +10348,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D32" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="E32" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10367,13 +10365,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C33" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="D33" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -10384,7 +10382,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C34" s="1">
         <v>3.9</v>
@@ -10393,7 +10391,7 @@
         <v>3.9</v>
       </c>
       <c r="E34" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10404,13 +10402,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -10421,7 +10419,7 @@
         <v>2.6</v>
       </c>
       <c r="C36" s="1">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D36" s="1">
         <v>2.2999999999999998</v>
@@ -10438,13 +10436,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C37" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D37" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="E37" s="1">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -10452,7 +10450,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C38" s="1">
         <v>3.3</v>
@@ -10461,7 +10459,7 @@
         <v>3.3</v>
       </c>
       <c r="E38" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -10469,16 +10467,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="D39" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="E39" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -10489,10 +10487,10 @@
         <v>4.3</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D40" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E40" s="1">
         <v>3.8</v>
@@ -10503,16 +10501,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D41" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E41" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -10520,16 +10518,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C42" s="1">
         <v>3.2</v>
       </c>
       <c r="D42" s="1">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E42" s="1">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -10540,13 +10538,13 @@
         <v>3.1</v>
       </c>
       <c r="C43" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D43" s="1">
         <v>2.8</v>
       </c>
       <c r="E43" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -10563,7 +10561,7 @@
         <v>3.2</v>
       </c>
       <c r="E44" s="1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -10571,16 +10569,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C45" s="1">
         <v>3.8</v>
       </c>
       <c r="D45" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E45" s="1">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -10594,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E46" s="1">
         <v>2.9</v>
@@ -10608,13 +10606,13 @@
         <v>2.7</v>
       </c>
       <c r="C47" s="1">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D47" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E47" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -10622,7 +10620,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
         <v>2.9</v>
@@ -10631,7 +10629,7 @@
         <v>2.9</v>
       </c>
       <c r="E48" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -10642,10 +10640,10 @@
         <v>4.5</v>
       </c>
       <c r="C49" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D49" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="E49" s="1">
         <v>4.7</v>
@@ -10656,16 +10654,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C50" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D50" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E50" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -10673,13 +10671,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C51" s="1">
         <v>2.9</v>
       </c>
       <c r="D51" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E51" s="1">
         <v>2.8</v>
@@ -10693,13 +10691,13 @@
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D52" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E52" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -10724,16 +10722,16 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="C1" s="4">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D1" s="4">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="E1" s="6">
-        <v>43556</v>
+        <v>43586</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -10741,16 +10739,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="34">
-        <v>2036.1</v>
+        <v>2035.5</v>
       </c>
       <c r="C2" s="34">
-        <v>2065.8000000000002</v>
+        <v>2069</v>
       </c>
       <c r="D2" s="34">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="E2" s="34">
-        <v>2070.1</v>
+        <v>2072.9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10761,13 +10759,13 @@
         <v>327</v>
       </c>
       <c r="C3" s="34">
-        <v>330.5</v>
+        <v>331.5</v>
       </c>
       <c r="D3" s="34">
-        <v>331.5</v>
+        <v>332</v>
       </c>
       <c r="E3" s="34">
-        <v>332.1</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10775,16 +10773,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="34">
-        <v>2836.2</v>
+        <v>2844.1</v>
       </c>
       <c r="C4" s="34">
-        <v>2901.9</v>
+        <v>2902.9</v>
       </c>
       <c r="D4" s="34">
-        <v>2902.9</v>
+        <v>2912.4</v>
       </c>
       <c r="E4" s="34">
-        <v>2914.2</v>
+        <v>2920.3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -10792,16 +10790,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="34">
-        <v>1259.9000000000001</v>
+        <v>1260.7</v>
       </c>
       <c r="C5" s="34">
+        <v>1273.0999999999999</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1273.9000000000001</v>
+      </c>
+      <c r="E5" s="34">
         <v>1273.2</v>
-      </c>
-      <c r="D5" s="34">
-        <v>1273.0999999999999</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1273.3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -10809,16 +10807,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="34">
-        <v>17131.900000000001</v>
+        <v>17142.8</v>
       </c>
       <c r="C6" s="34">
-        <v>17329</v>
+        <v>17357.5</v>
       </c>
       <c r="D6" s="34">
-        <v>17357.5</v>
+        <v>17406.099999999999</v>
       </c>
       <c r="E6" s="34">
-        <v>17403.5</v>
+        <v>17425.5</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
@@ -10830,16 +10828,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="34">
-        <v>2716.1</v>
+        <v>2720.6</v>
       </c>
       <c r="C7" s="34">
-        <v>2749.2</v>
+        <v>2755.7</v>
       </c>
       <c r="D7" s="34">
-        <v>2755.7</v>
+        <v>2764.3</v>
       </c>
       <c r="E7" s="34">
-        <v>2765.2</v>
+        <v>2766.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10847,16 +10845,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="34">
-        <v>1683.7</v>
+        <v>1687.4</v>
       </c>
       <c r="C8" s="34">
-        <v>1694.7</v>
+        <v>1695</v>
       </c>
       <c r="D8" s="34">
-        <v>1695</v>
+        <v>1695.5</v>
       </c>
       <c r="E8" s="34">
-        <v>1695.3</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10864,16 +10862,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="34">
-        <v>461.1</v>
+        <v>462.1</v>
       </c>
       <c r="C9" s="34">
-        <v>465.8</v>
+        <v>464.8</v>
       </c>
       <c r="D9" s="34">
+        <v>465</v>
+      </c>
+      <c r="E9" s="34">
         <v>464.8</v>
-      </c>
-      <c r="E9" s="34">
-        <v>465.1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -10881,16 +10879,16 @@
         <v>118</v>
       </c>
       <c r="B10" s="34">
-        <v>792.3</v>
+        <v>792.2</v>
       </c>
       <c r="C10" s="34">
-        <v>794.9</v>
+        <v>796.7</v>
       </c>
       <c r="D10" s="34">
-        <v>796.7</v>
+        <v>795.4</v>
       </c>
       <c r="E10" s="34">
-        <v>796.2</v>
+        <v>795.8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10898,16 +10896,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="34">
-        <v>8736.6</v>
+        <v>8746.7999999999993</v>
       </c>
       <c r="C11" s="34">
-        <v>8920.7999999999993</v>
+        <v>8926</v>
       </c>
       <c r="D11" s="34">
-        <v>8926</v>
+        <v>8944.2999999999993</v>
       </c>
       <c r="E11" s="34">
-        <v>8942.7000000000007</v>
+        <v>8961.2999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -10915,16 +10913,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="34">
-        <v>4517.3</v>
+        <v>4526.3999999999996</v>
       </c>
       <c r="C12" s="34">
-        <v>4602.6000000000004</v>
+        <v>4601.8999999999996</v>
       </c>
       <c r="D12" s="34">
-        <v>4601.8999999999996</v>
+        <v>4592.8999999999996</v>
       </c>
       <c r="E12" s="34">
-        <v>4587</v>
+        <v>4595.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -10932,16 +10930,16 @@
         <v>117</v>
       </c>
       <c r="B13" s="34">
-        <v>655.9</v>
+        <v>656</v>
       </c>
       <c r="C13" s="34">
-        <v>658.9</v>
+        <v>658.5</v>
       </c>
       <c r="D13" s="34">
-        <v>658.5</v>
+        <v>659.4</v>
       </c>
       <c r="E13" s="34">
-        <v>659.7</v>
+        <v>658.2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10949,16 +10947,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="34">
-        <v>733.9</v>
+        <v>736</v>
       </c>
       <c r="C14" s="34">
-        <v>749.2</v>
+        <v>750.7</v>
       </c>
       <c r="D14" s="34">
-        <v>750.7</v>
+        <v>752.2</v>
       </c>
       <c r="E14" s="34">
-        <v>752.6</v>
+        <v>754.4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10966,16 +10964,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="34">
-        <v>6095.5</v>
+        <v>6099.4</v>
       </c>
       <c r="C15" s="34">
-        <v>6164.2</v>
+        <v>6158.1</v>
       </c>
       <c r="D15" s="34">
-        <v>6158.1</v>
+        <v>6176.5</v>
       </c>
       <c r="E15" s="34">
-        <v>6179</v>
+        <v>6174.1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10983,16 +10981,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="34">
-        <v>3134.6</v>
+        <v>3142.6</v>
       </c>
       <c r="C16" s="34">
-        <v>3173.8</v>
+        <v>3176.8</v>
       </c>
       <c r="D16" s="34">
-        <v>3176.8</v>
+        <v>3172.8</v>
       </c>
       <c r="E16" s="34">
-        <v>3173.3</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11000,16 +10998,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="34">
-        <v>1578.3</v>
+        <v>1583.8</v>
       </c>
       <c r="C17" s="34">
-        <v>1587.3</v>
+        <v>1584.5</v>
       </c>
       <c r="D17" s="34">
-        <v>1584.5</v>
+        <v>1589</v>
       </c>
       <c r="E17" s="34">
-        <v>1589.2</v>
+        <v>1590.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11017,16 +11015,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="34">
-        <v>1412.2</v>
+        <v>1412.8</v>
       </c>
       <c r="C18" s="34">
-        <v>1419.3</v>
+        <v>1417.7</v>
       </c>
       <c r="D18" s="34">
-        <v>1417.7</v>
+        <v>1425.1</v>
       </c>
       <c r="E18" s="34">
-        <v>1424.6</v>
+        <v>1425.7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11034,16 +11032,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="34">
-        <v>1931.8</v>
+        <v>1930.6</v>
       </c>
       <c r="C19" s="34">
+        <v>1947.3</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1949.4</v>
+      </c>
+      <c r="E19" s="34">
         <v>1949.5</v>
-      </c>
-      <c r="D19" s="34">
-        <v>1947.3</v>
-      </c>
-      <c r="E19" s="34">
-        <v>1951.3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11051,16 +11049,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="34">
-        <v>1982.3</v>
+        <v>1980.9</v>
       </c>
       <c r="C20" s="34">
-        <v>1981.3</v>
+        <v>1984.5</v>
       </c>
       <c r="D20" s="34">
-        <v>1984.5</v>
+        <v>1983.2</v>
       </c>
       <c r="E20" s="34">
-        <v>1983.4</v>
+        <v>1982.8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11068,16 +11066,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="34">
-        <v>629.70000000000005</v>
+        <v>629.20000000000005</v>
       </c>
       <c r="C21" s="34">
-        <v>633.70000000000005</v>
+        <v>633</v>
       </c>
       <c r="D21" s="34">
-        <v>633</v>
+        <v>631.70000000000005</v>
       </c>
       <c r="E21" s="34">
-        <v>632.79999999999995</v>
+        <v>630.29999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11085,16 +11083,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="34">
-        <v>2742.8</v>
+        <v>2744.7</v>
       </c>
       <c r="C22" s="34">
-        <v>2758.6</v>
+        <v>2760.9</v>
       </c>
       <c r="D22" s="34">
         <v>2760.9</v>
       </c>
       <c r="E22" s="34">
-        <v>2762.1</v>
+        <v>2759.7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11102,16 +11100,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="33">
-        <v>3637.5</v>
+        <v>3640.6</v>
       </c>
       <c r="C23" s="33">
-        <v>3669.2</v>
+        <v>3670.5</v>
       </c>
       <c r="D23" s="33">
-        <v>3670.5</v>
+        <v>3670.9</v>
       </c>
       <c r="E23" s="33">
-        <v>3674.6</v>
+        <v>3667.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11119,16 +11117,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="33">
-        <v>4410.6000000000004</v>
+        <v>4415</v>
       </c>
       <c r="C24" s="33">
-        <v>4445.3999999999996</v>
+        <v>4445.8</v>
       </c>
       <c r="D24" s="33">
-        <v>4445.8</v>
+        <v>4444.8</v>
       </c>
       <c r="E24" s="33">
-        <v>4447.8999999999996</v>
+        <v>4438.3999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11136,16 +11134,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="33">
-        <v>2939</v>
+        <v>2953.1</v>
       </c>
       <c r="C25" s="33">
-        <v>2956.7</v>
+        <v>2958.2</v>
       </c>
       <c r="D25" s="33">
-        <v>2958.2</v>
+        <v>2958.4</v>
       </c>
       <c r="E25" s="33">
-        <v>2961.8</v>
+        <v>2958.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11153,16 +11151,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="33">
-        <v>1153</v>
+        <v>1153.7</v>
       </c>
       <c r="C26" s="33">
-        <v>1160.5999999999999</v>
+        <v>1161.2</v>
       </c>
       <c r="D26" s="33">
-        <v>1161.2</v>
+        <v>1163.5</v>
       </c>
       <c r="E26" s="33">
-        <v>1164.2</v>
+        <v>1165.8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11170,16 +11168,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="33">
-        <v>2883.2</v>
+        <v>2882.6</v>
       </c>
       <c r="C27" s="33">
-        <v>2892.7</v>
+        <v>2901.4</v>
       </c>
       <c r="D27" s="33">
-        <v>2901.4</v>
+        <v>2911.1</v>
       </c>
       <c r="E27" s="33">
-        <v>2913.2</v>
+        <v>2913.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11187,16 +11185,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="33">
-        <v>475.7</v>
+        <v>476.7</v>
       </c>
       <c r="C28" s="33">
-        <v>480</v>
+        <v>479.7</v>
       </c>
       <c r="D28" s="33">
-        <v>479.7</v>
+        <v>480.5</v>
       </c>
       <c r="E28" s="33">
-        <v>479.6</v>
+        <v>481.3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11204,16 +11202,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="33">
-        <v>1021.5</v>
+        <v>1024.2</v>
       </c>
       <c r="C29" s="33">
-        <v>1025.9000000000001</v>
+        <v>1024.0999999999999</v>
       </c>
       <c r="D29" s="33">
-        <v>1024.0999999999999</v>
+        <v>1026.4000000000001</v>
       </c>
       <c r="E29" s="33">
-        <v>1024.7</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11221,16 +11219,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="33">
-        <v>1376.2</v>
+        <v>1379</v>
       </c>
       <c r="C30" s="33">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="D30" s="33">
-        <v>1423</v>
+        <v>1428.3</v>
       </c>
       <c r="E30" s="33">
-        <v>1425.8</v>
+        <v>1434.2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -11238,16 +11236,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="33">
-        <v>679.2</v>
+        <v>679.5</v>
       </c>
       <c r="C31" s="33">
-        <v>687.7</v>
+        <v>687.3</v>
       </c>
       <c r="D31" s="33">
-        <v>687.3</v>
+        <v>688.8</v>
       </c>
       <c r="E31" s="33">
-        <v>689.1</v>
+        <v>688.8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -11255,16 +11253,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="33">
-        <v>4148</v>
+        <v>4147.8999999999996</v>
       </c>
       <c r="C32" s="33">
-        <v>4186.2</v>
+        <v>4192.5</v>
       </c>
       <c r="D32" s="33">
-        <v>4192.5</v>
+        <v>4201.3999999999996</v>
       </c>
       <c r="E32" s="33">
-        <v>4204.3</v>
+        <v>4193.8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -11272,16 +11270,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="33">
-        <v>840.1</v>
+        <v>839.4</v>
       </c>
       <c r="C33" s="33">
-        <v>848.1</v>
+        <v>851.9</v>
       </c>
       <c r="D33" s="33">
-        <v>851.9</v>
+        <v>852.6</v>
       </c>
       <c r="E33" s="33">
-        <v>853.2</v>
+        <v>854.7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -11289,16 +11287,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="33">
-        <v>9655.7000000000007</v>
+        <v>9665.1</v>
       </c>
       <c r="C34" s="33">
-        <v>9745.1</v>
+        <v>9764.6</v>
       </c>
       <c r="D34" s="33">
-        <v>9764.6</v>
+        <v>9777.1</v>
       </c>
       <c r="E34" s="33">
-        <v>9790.9</v>
+        <v>9763.2999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -11306,16 +11304,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="33">
-        <v>4485.3999999999996</v>
+        <v>4492.5</v>
       </c>
       <c r="C35" s="33">
-        <v>4534.6000000000004</v>
+        <v>4542</v>
       </c>
       <c r="D35" s="33">
-        <v>4542</v>
+        <v>4558.3999999999996</v>
       </c>
       <c r="E35" s="33">
-        <v>4555.2</v>
+        <v>4559.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -11323,16 +11321,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="33">
-        <v>431.5</v>
+        <v>433.3</v>
       </c>
       <c r="C36" s="33">
-        <v>434</v>
+        <v>433.8</v>
       </c>
       <c r="D36" s="33">
-        <v>433.8</v>
+        <v>434.7</v>
       </c>
       <c r="E36" s="33">
-        <v>434.4</v>
+        <v>436.1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -11340,16 +11338,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="33">
-        <v>5552.3</v>
+        <v>5550.7</v>
       </c>
       <c r="C37" s="33">
-        <v>5593.2</v>
+        <v>5595.3</v>
       </c>
       <c r="D37" s="33">
-        <v>5595.3</v>
+        <v>5597.5</v>
       </c>
       <c r="E37" s="33">
-        <v>5596.7</v>
+        <v>5593.6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -11357,16 +11355,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="33">
-        <v>1680.3</v>
+        <v>1684.2</v>
       </c>
       <c r="C38" s="33">
-        <v>1691.5</v>
+        <v>1692.9</v>
       </c>
       <c r="D38" s="33">
-        <v>1692.9</v>
+        <v>1695.8</v>
       </c>
       <c r="E38" s="33">
-        <v>1697.3</v>
+        <v>1694.1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -11374,16 +11372,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="33">
-        <v>1904</v>
+        <v>1906.7</v>
       </c>
       <c r="C39" s="33">
-        <v>1932.5</v>
+        <v>1939</v>
       </c>
       <c r="D39" s="33">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="E39" s="33">
-        <v>1942.3</v>
+        <v>1944.2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -11391,16 +11389,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="33">
-        <v>5997.8</v>
+        <v>5996.5</v>
       </c>
       <c r="C40" s="33">
-        <v>6040.5</v>
+        <v>6046.7</v>
       </c>
       <c r="D40" s="33">
-        <v>6046.7</v>
+        <v>6051.3</v>
       </c>
       <c r="E40" s="33">
-        <v>6056.1</v>
+        <v>6051.4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -11408,16 +11406,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="33">
-        <v>495.3</v>
+        <v>496.6</v>
       </c>
       <c r="C41" s="33">
-        <v>495.2</v>
+        <v>496.1</v>
       </c>
       <c r="D41" s="33">
-        <v>496.1</v>
+        <v>499.3</v>
       </c>
       <c r="E41" s="33">
-        <v>500.3</v>
+        <v>498.7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -11425,16 +11423,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="33">
-        <v>2136.1999999999998</v>
+        <v>2138.4</v>
       </c>
       <c r="C42" s="33">
-        <v>2172.1</v>
+        <v>2171.8000000000002</v>
       </c>
       <c r="D42" s="33">
-        <v>2171.8000000000002</v>
+        <v>2178.1999999999998</v>
       </c>
       <c r="E42" s="33">
-        <v>2178.5</v>
+        <v>2179.3000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -11442,16 +11440,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="33">
-        <v>434.9</v>
+        <v>437.9</v>
       </c>
       <c r="C43" s="33">
-        <v>446.2</v>
+        <v>446.1</v>
       </c>
       <c r="D43" s="33">
-        <v>446.1</v>
+        <v>445.9</v>
       </c>
       <c r="E43" s="33">
-        <v>446.1</v>
+        <v>446.3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -11459,16 +11457,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="33">
-        <v>3046.8</v>
+        <v>3053.9</v>
       </c>
       <c r="C44" s="33">
-        <v>3097</v>
+        <v>3093.4</v>
       </c>
       <c r="D44" s="33">
-        <v>3093.4</v>
+        <v>3097.4</v>
       </c>
       <c r="E44" s="33">
-        <v>3098.4</v>
+        <v>3101.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -11476,16 +11474,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="33">
-        <v>12433.4</v>
+        <v>12465.1</v>
       </c>
       <c r="C45" s="33">
-        <v>12671.1</v>
+        <v>12698.7</v>
       </c>
       <c r="D45" s="33">
-        <v>12698.7</v>
+        <v>12731.8</v>
       </c>
       <c r="E45" s="33">
-        <v>12727.6</v>
+        <v>12751.4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -11493,16 +11491,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="33">
-        <v>1506.2</v>
+        <v>1511.7</v>
       </c>
       <c r="C46" s="33">
-        <v>1547.9</v>
+        <v>1550.1</v>
       </c>
       <c r="D46" s="33">
-        <v>1550.1</v>
+        <v>1551.2</v>
       </c>
       <c r="E46" s="33">
-        <v>1551.8</v>
+        <v>1554.3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -11510,16 +11508,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="33">
-        <v>314.3</v>
+        <v>314.10000000000002</v>
       </c>
       <c r="C47" s="33">
-        <v>317.10000000000002</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="D47" s="33">
-        <v>316.89999999999998</v>
+        <v>318.3</v>
       </c>
       <c r="E47" s="33">
-        <v>318.39999999999998</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -11527,16 +11525,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="33">
-        <v>3998</v>
+        <v>4000.2</v>
       </c>
       <c r="C48" s="33">
-        <v>4025.6</v>
+        <v>4033</v>
       </c>
       <c r="D48" s="33">
-        <v>4033</v>
+        <v>4035.4</v>
       </c>
       <c r="E48" s="33">
-        <v>4041.1</v>
+        <v>4032.2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -11544,16 +11542,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="33">
-        <v>3389.9</v>
+        <v>3395.9</v>
       </c>
       <c r="C49" s="33">
-        <v>3440.2</v>
+        <v>3467.9</v>
       </c>
       <c r="D49" s="33">
-        <v>3467.9</v>
+        <v>3481</v>
       </c>
       <c r="E49" s="33">
-        <v>3481.4</v>
+        <v>3490.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -11561,16 +11559,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="33">
-        <v>722.1</v>
+        <v>730.3</v>
       </c>
       <c r="C50" s="33">
-        <v>737</v>
+        <v>737.5</v>
       </c>
       <c r="D50" s="33">
-        <v>737.5</v>
+        <v>735</v>
       </c>
       <c r="E50" s="33">
-        <v>735.3</v>
+        <v>735.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -11578,16 +11576,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="33">
-        <v>2962.6</v>
+        <v>2967</v>
       </c>
       <c r="C51" s="33">
-        <v>2984.9</v>
+        <v>2980.8</v>
       </c>
       <c r="D51" s="33">
-        <v>2980.8</v>
+        <v>2980.3</v>
       </c>
       <c r="E51" s="33">
-        <v>2977.7</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -11595,16 +11593,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="33">
-        <v>285</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="C52" s="33">
+        <v>289.5</v>
+      </c>
+      <c r="D52" s="33">
         <v>289.3</v>
       </c>
-      <c r="D52" s="33">
-        <v>289.5</v>
-      </c>
       <c r="E52" s="33">
-        <v>289.10000000000002</v>
+        <v>289.60000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -11627,16 +11625,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="C1" s="4">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D1" s="4">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="E1" s="6">
-        <v>43556</v>
+        <v>43586</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11644,16 +11642,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>385.8</v>
+        <v>385.6</v>
       </c>
       <c r="C2" s="1">
-        <v>385.2</v>
+        <v>385.4</v>
       </c>
       <c r="D2" s="1">
-        <v>385.4</v>
+        <v>387.1</v>
       </c>
       <c r="E2" s="1">
-        <v>386.5</v>
+        <v>388.6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11661,16 +11659,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="C3" s="1">
-        <v>80.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D3" s="1">
         <v>80.400000000000006</v>
       </c>
       <c r="E3" s="1">
-        <v>80.5</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11678,16 +11676,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>413.2</v>
+        <v>415.4</v>
       </c>
       <c r="C4" s="1">
-        <v>415.3</v>
+        <v>415.9</v>
       </c>
       <c r="D4" s="1">
-        <v>415.9</v>
+        <v>417.3</v>
       </c>
       <c r="E4" s="1">
-        <v>416.5</v>
+        <v>418.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11695,16 +11693,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>211.9</v>
+        <v>211.3</v>
       </c>
       <c r="C5" s="1">
-        <v>213.2</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1">
+        <v>213.3</v>
+      </c>
+      <c r="E5" s="1">
         <v>213</v>
-      </c>
-      <c r="E5" s="1">
-        <v>213.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -11712,16 +11710,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2585.5</v>
+        <v>2586.5</v>
       </c>
       <c r="C6" s="1">
-        <v>2608.5</v>
+        <v>2609.6</v>
       </c>
       <c r="D6" s="1">
-        <v>2609.6</v>
+        <v>2614.4</v>
       </c>
       <c r="E6" s="1">
-        <v>2613.1</v>
+        <v>2616.1999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11729,16 +11727,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>443.7</v>
+        <v>445.2</v>
       </c>
       <c r="C7" s="1">
-        <v>445.6</v>
+        <v>445.7</v>
       </c>
       <c r="D7" s="1">
-        <v>445.7</v>
+        <v>447.3</v>
       </c>
       <c r="E7" s="1">
-        <v>446.9</v>
+        <v>448.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11746,13 +11744,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>235.8</v>
+        <v>236.3</v>
       </c>
       <c r="C8" s="1">
-        <v>237.1</v>
+        <v>236.8</v>
       </c>
       <c r="D8" s="1">
-        <v>236.8</v>
+        <v>236.5</v>
       </c>
       <c r="E8" s="1">
         <v>236.6</v>
@@ -11763,16 +11761,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
-        <v>66.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="D9" s="1">
         <v>67.099999999999994</v>
       </c>
       <c r="E9" s="1">
-        <v>67.3</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11780,16 +11778,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>239</v>
+        <v>238.7</v>
       </c>
       <c r="C10" s="1">
-        <v>238.2</v>
+        <v>238.4</v>
       </c>
       <c r="D10" s="1">
-        <v>238.4</v>
+        <v>238.3</v>
       </c>
       <c r="E10" s="1">
-        <v>238.6</v>
+        <v>237.7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11797,16 +11795,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1111.2</v>
+        <v>1111</v>
       </c>
       <c r="C11" s="1">
-        <v>1113.5</v>
+        <v>1113.3</v>
       </c>
       <c r="D11" s="1">
-        <v>1113.3</v>
+        <v>1115.8</v>
       </c>
       <c r="E11" s="1">
-        <v>1114</v>
+        <v>1116.8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11814,16 +11812,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>690.2</v>
+        <v>694.9</v>
       </c>
       <c r="C12" s="1">
-        <v>693.7</v>
+        <v>695</v>
       </c>
       <c r="D12" s="1">
-        <v>695</v>
+        <v>695.2</v>
       </c>
       <c r="E12" s="1">
-        <v>696.3</v>
+        <v>696.2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11831,16 +11829,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>124.6</v>
+        <v>125.6</v>
       </c>
       <c r="C13" s="1">
-        <v>126.8</v>
+        <v>126.5</v>
       </c>
       <c r="D13" s="1">
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
       <c r="E13" s="1">
-        <v>126.8</v>
+        <v>126.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11851,13 +11849,13 @@
         <v>124.5</v>
       </c>
       <c r="C14" s="1">
-        <v>126.5</v>
+        <v>126</v>
       </c>
       <c r="D14" s="1">
-        <v>126</v>
+        <v>126.4</v>
       </c>
       <c r="E14" s="1">
-        <v>126.5</v>
+        <v>126.4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11865,16 +11863,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>825.2</v>
+        <v>825.6</v>
       </c>
       <c r="C15" s="1">
-        <v>826.9</v>
+        <v>827.4</v>
       </c>
       <c r="D15" s="1">
-        <v>827.4</v>
+        <v>829.2</v>
       </c>
       <c r="E15" s="1">
-        <v>827.9</v>
+        <v>829.7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11882,16 +11880,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>427.8</v>
+        <v>433.4</v>
       </c>
       <c r="C16" s="1">
-        <v>428.7</v>
+        <v>429.7</v>
       </c>
       <c r="D16" s="1">
-        <v>429.7</v>
+        <v>429.5</v>
       </c>
       <c r="E16" s="1">
-        <v>429.8</v>
+        <v>424.9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11902,13 +11900,13 @@
         <v>260.5</v>
       </c>
       <c r="C17" s="1">
+        <v>259.7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>259.8</v>
+      </c>
+      <c r="E17" s="1">
         <v>259.3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>259.7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>259.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11916,16 +11914,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>257.5</v>
+        <v>257.3</v>
       </c>
       <c r="C18" s="1">
-        <v>258.39999999999998</v>
+        <v>258.10000000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>258.10000000000002</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>259.39999999999998</v>
+        <v>259.89999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11933,16 +11931,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>313.7</v>
+        <v>314</v>
       </c>
       <c r="C19" s="1">
-        <v>313.10000000000002</v>
+        <v>313</v>
       </c>
       <c r="D19" s="1">
-        <v>313</v>
+        <v>312.7</v>
       </c>
       <c r="E19" s="1">
-        <v>312.60000000000002</v>
+        <v>312.39999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11950,16 +11948,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>328.3</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>327</v>
+        <v>327.2</v>
       </c>
       <c r="D20" s="1">
-        <v>327.2</v>
+        <v>326.7</v>
       </c>
       <c r="E20" s="1">
-        <v>326.60000000000002</v>
+        <v>326.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11967,16 +11965,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
+        <v>100.3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100.3</v>
+      </c>
+      <c r="E21" s="1">
         <v>100.2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>100.5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100.4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>100.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11984,16 +11982,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>504.2</v>
+        <v>504.9</v>
       </c>
       <c r="C22" s="1">
-        <v>505.7</v>
+        <v>505.9</v>
       </c>
       <c r="D22" s="1">
-        <v>505.9</v>
+        <v>506.1</v>
       </c>
       <c r="E22" s="1">
-        <v>506.2</v>
+        <v>508.1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -12001,16 +11999,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>451.9</v>
+        <v>453.1</v>
       </c>
       <c r="C23" s="1">
-        <v>457.9</v>
+        <v>456.7</v>
       </c>
       <c r="D23" s="1">
-        <v>456.7</v>
+        <v>456.9</v>
       </c>
       <c r="E23" s="1">
-        <v>456.8</v>
+        <v>457.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -12018,16 +12016,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>606.1</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="C24" s="1">
-        <v>605.9</v>
+        <v>606.70000000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>606.70000000000005</v>
+        <v>607.70000000000005</v>
       </c>
       <c r="E24" s="1">
-        <v>607.9</v>
+        <v>606.29999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -12035,16 +12033,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>425.8</v>
+        <v>425.3</v>
       </c>
       <c r="C25" s="1">
-        <v>425.3</v>
+        <v>425.4</v>
       </c>
       <c r="D25" s="1">
-        <v>425.4</v>
+        <v>425.9</v>
       </c>
       <c r="E25" s="1">
-        <v>426.1</v>
+        <v>425.6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -12052,16 +12050,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="C26" s="1">
-        <v>242</v>
+        <v>241.9</v>
       </c>
       <c r="D26" s="1">
-        <v>241.9</v>
+        <v>242.1</v>
       </c>
       <c r="E26" s="1">
-        <v>242.5</v>
+        <v>241.8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -12069,16 +12067,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>433.9</v>
+        <v>433.5</v>
       </c>
       <c r="C27" s="1">
-        <v>433.7</v>
+        <v>435.2</v>
       </c>
       <c r="D27" s="1">
-        <v>435.2</v>
+        <v>436.7</v>
       </c>
       <c r="E27" s="1">
-        <v>436.4</v>
+        <v>436.8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -12089,13 +12087,13 @@
         <v>90.1</v>
       </c>
       <c r="C28" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="D28" s="1">
         <v>90.7</v>
       </c>
-      <c r="D28" s="1">
-        <v>90.6</v>
-      </c>
       <c r="E28" s="1">
-        <v>90.7</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -12103,16 +12101,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>173</v>
+        <v>173.5</v>
       </c>
       <c r="C29" s="1">
-        <v>174.3</v>
+        <v>173.8</v>
       </c>
       <c r="D29" s="1">
-        <v>173.8</v>
+        <v>174.9</v>
       </c>
       <c r="E29" s="1">
-        <v>174.2</v>
+        <v>175.9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -12120,16 +12118,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>161</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>162.9</v>
+        <v>163.1</v>
       </c>
       <c r="D30" s="1">
-        <v>163.1</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>161.5</v>
+        <v>162.69999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -12137,16 +12135,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="C31" s="1">
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="D31" s="1">
         <v>89.4</v>
       </c>
       <c r="E31" s="1">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -12154,16 +12152,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>598.20000000000005</v>
+        <v>598.4</v>
       </c>
       <c r="C32" s="1">
-        <v>601.1</v>
+        <v>600.70000000000005</v>
       </c>
       <c r="D32" s="1">
-        <v>600.70000000000005</v>
+        <v>601.5</v>
       </c>
       <c r="E32" s="1">
-        <v>601.6</v>
+        <v>602.29999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -12171,16 +12169,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>186.6</v>
+        <v>185.1</v>
       </c>
       <c r="C33" s="1">
-        <v>185.6</v>
+        <v>185.5</v>
       </c>
       <c r="D33" s="1">
-        <v>185.5</v>
+        <v>185.4</v>
       </c>
       <c r="E33" s="1">
-        <v>185.3</v>
+        <v>184.7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -12188,16 +12186,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>1484.7</v>
+        <v>1488.5</v>
       </c>
       <c r="C34" s="1">
-        <v>1489.1</v>
+        <v>1488.7</v>
       </c>
       <c r="D34" s="1">
-        <v>1488.7</v>
+        <v>1491</v>
       </c>
       <c r="E34" s="1">
-        <v>1490.4</v>
+        <v>1492.3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -12205,16 +12203,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>733.3</v>
+        <v>735.4</v>
       </c>
       <c r="C35" s="1">
-        <v>730.8</v>
+        <v>731.7</v>
       </c>
       <c r="D35" s="1">
-        <v>731.7</v>
+        <v>732.9</v>
       </c>
       <c r="E35" s="1">
-        <v>732.2</v>
+        <v>735.2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -12222,16 +12220,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>82.1</v>
+      </c>
+      <c r="D36" s="1">
         <v>82.2</v>
       </c>
-      <c r="C36" s="1">
-        <v>82.6</v>
-      </c>
-      <c r="D36" s="1">
-        <v>82.1</v>
-      </c>
       <c r="E36" s="1">
-        <v>82.1</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -12239,16 +12237,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>781.4</v>
+        <v>779.2</v>
       </c>
       <c r="C37" s="1">
-        <v>778.6</v>
+        <v>779.5</v>
       </c>
       <c r="D37" s="1">
-        <v>779.5</v>
+        <v>779.9</v>
       </c>
       <c r="E37" s="1">
-        <v>780.9</v>
+        <v>779.1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -12256,16 +12254,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>346.9</v>
+        <v>347.8</v>
       </c>
       <c r="C38" s="1">
-        <v>347.2</v>
+        <v>346.5</v>
       </c>
       <c r="D38" s="1">
-        <v>346.5</v>
+        <v>346.1</v>
       </c>
       <c r="E38" s="1">
-        <v>346.5</v>
+        <v>346.6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -12273,16 +12271,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>294.3</v>
+        <v>294.5</v>
       </c>
       <c r="C39" s="1">
-        <v>296.89999999999998</v>
+        <v>298</v>
       </c>
       <c r="D39" s="1">
-        <v>298</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="E39" s="1">
-        <v>298.60000000000002</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -12290,16 +12288,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>702.7</v>
+        <v>702.4</v>
       </c>
       <c r="C40" s="1">
-        <v>702.8</v>
+        <v>703.5</v>
       </c>
       <c r="D40" s="1">
-        <v>703.5</v>
+        <v>704.3</v>
       </c>
       <c r="E40" s="1">
-        <v>703.5</v>
+        <v>706.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -12307,16 +12305,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>60.7</v>
+        <v>61.5</v>
       </c>
       <c r="C41" s="1">
-        <v>61.1</v>
+        <v>61.4</v>
       </c>
       <c r="D41" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="E41" s="1">
         <v>61.4</v>
-      </c>
-      <c r="E41" s="1">
-        <v>61.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12324,16 +12322,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>367.9</v>
+        <v>368.3</v>
       </c>
       <c r="C42" s="1">
-        <v>371.7</v>
+        <v>372.3</v>
       </c>
       <c r="D42" s="1">
-        <v>372.3</v>
+        <v>373.2</v>
       </c>
       <c r="E42" s="1">
-        <v>373.2</v>
+        <v>373.4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -12341,16 +12339,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>79.099999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="C43" s="1">
         <v>80</v>
       </c>
       <c r="D43" s="1">
-        <v>80</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E43" s="1">
-        <v>80</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -12358,16 +12356,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>434.6</v>
+        <v>436</v>
       </c>
       <c r="C44" s="1">
-        <v>438.4</v>
+        <v>439</v>
       </c>
       <c r="D44" s="1">
+        <v>439.2</v>
+      </c>
+      <c r="E44" s="1">
         <v>439</v>
-      </c>
-      <c r="E44" s="1">
-        <v>439.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12375,16 +12373,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1947.5</v>
+        <v>1950.3</v>
       </c>
       <c r="C45" s="1">
-        <v>1956.9</v>
+        <v>1958.5</v>
       </c>
       <c r="D45" s="1">
         <v>1958.5</v>
       </c>
       <c r="E45" s="1">
-        <v>1958.7</v>
+        <v>1959.6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12392,16 +12390,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="C46" s="1">
-        <v>251.2</v>
+        <v>251.3</v>
       </c>
       <c r="D46" s="1">
-        <v>251.3</v>
+        <v>251.7</v>
       </c>
       <c r="E46" s="1">
-        <v>251.9</v>
+        <v>251.7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12409,16 +12407,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="C47" s="1">
-        <v>56.5</v>
+        <v>56.7</v>
       </c>
       <c r="D47" s="1">
-        <v>56.7</v>
+        <v>56.9</v>
       </c>
       <c r="E47" s="1">
-        <v>57</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12426,16 +12424,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>721</v>
+        <v>722.3</v>
       </c>
       <c r="C48" s="1">
-        <v>723.6</v>
+        <v>723.7</v>
       </c>
       <c r="D48" s="1">
         <v>723.7</v>
       </c>
       <c r="E48" s="1">
-        <v>723.9</v>
+        <v>723.5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12443,16 +12441,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>588.20000000000005</v>
+        <v>588.29999999999995</v>
       </c>
       <c r="C49" s="1">
-        <v>582</v>
+        <v>581.6</v>
       </c>
       <c r="D49" s="1">
-        <v>581.6</v>
+        <v>583.5</v>
       </c>
       <c r="E49" s="1">
-        <v>583.29999999999995</v>
+        <v>584.6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12460,7 +12458,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>152.4</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="C50" s="1">
         <v>151.4</v>
@@ -12469,7 +12467,7 @@
         <v>151.4</v>
       </c>
       <c r="E50" s="1">
-        <v>151.4</v>
+        <v>151.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12477,16 +12475,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>406.7</v>
+        <v>408.3</v>
       </c>
       <c r="C51" s="1">
-        <v>401.7</v>
+        <v>404</v>
       </c>
       <c r="D51" s="1">
-        <v>404</v>
+        <v>403.8</v>
       </c>
       <c r="E51" s="1">
-        <v>404.8</v>
+        <v>403.7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12494,16 +12492,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>69</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C52" s="1">
-        <v>68.8</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D52" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E52" s="1">
         <v>69.099999999999994</v>
-      </c>
-      <c r="E52" s="1">
-        <v>68.8</v>
       </c>
     </row>
   </sheetData>
